--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27094AD2-4616-49FB-AA82-C4F8569AEF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176E92A-5913-4BB0-8152-404B77E24E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Remessa</t>
   </si>
@@ -47,22 +47,7 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>R0001</t>
-  </si>
-  <si>
     <t>10254-ARI-I</t>
-  </si>
-  <si>
-    <t>11236-ARI-I</t>
-  </si>
-  <si>
-    <t>R0002</t>
-  </si>
-  <si>
-    <t>25465-ARI-I</t>
-  </si>
-  <si>
-    <t>R0003</t>
   </si>
   <si>
     <t>R0004</t>
@@ -437,14 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
@@ -462,56 +448,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
         <v>7</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176E92A-5913-4BB0-8152-404B77E24E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C55C380-D3C8-4C0C-AEBF-C2899BBB4BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="258">
   <si>
     <t>Remessa</t>
   </si>
@@ -47,18 +47,785 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>10254-ARI-I</t>
-  </si>
-  <si>
-    <t>R0004</t>
+    <t>80265856</t>
+  </si>
+  <si>
+    <t>10083-ROC-I</t>
+  </si>
+  <si>
+    <t>80265858</t>
+  </si>
+  <si>
+    <t>30203-OSR-I</t>
+  </si>
+  <si>
+    <t>80265861</t>
+  </si>
+  <si>
+    <t>10539-ARI-I</t>
+  </si>
+  <si>
+    <t>10538-ARI-I</t>
+  </si>
+  <si>
+    <t>10669-ARI-I</t>
+  </si>
+  <si>
+    <t>10683-ARI-I</t>
+  </si>
+  <si>
+    <t>10668-ARI-I</t>
+  </si>
+  <si>
+    <t>10667-ARI-I</t>
+  </si>
+  <si>
+    <t>10676-ARI-I</t>
+  </si>
+  <si>
+    <t>10662-ARI-I</t>
+  </si>
+  <si>
+    <t>10682-ARI-I</t>
+  </si>
+  <si>
+    <t>10681-ARI-I</t>
+  </si>
+  <si>
+    <t>10661-ARI-I</t>
+  </si>
+  <si>
+    <t>10675-ARI-I</t>
+  </si>
+  <si>
+    <t>10670-ARI-I</t>
+  </si>
+  <si>
+    <t>10660-ARI-I</t>
+  </si>
+  <si>
+    <t>10674-ARI-I</t>
+  </si>
+  <si>
+    <t>10684-ARI-I</t>
+  </si>
+  <si>
+    <t>10663-ARI-I</t>
+  </si>
+  <si>
+    <t>10677-ARI-I</t>
+  </si>
+  <si>
+    <t>80265865</t>
+  </si>
+  <si>
+    <t>10000-LDG-I</t>
+  </si>
+  <si>
+    <t>80265866</t>
+  </si>
+  <si>
+    <t>80265867</t>
+  </si>
+  <si>
+    <t>80265868</t>
+  </si>
+  <si>
+    <t>80265869</t>
+  </si>
+  <si>
+    <t>10636-ARI-I</t>
+  </si>
+  <si>
+    <t>80265879</t>
+  </si>
+  <si>
+    <t>10129-ROY-I</t>
+  </si>
+  <si>
+    <t>80265880</t>
+  </si>
+  <si>
+    <t>19479-STM-I</t>
+  </si>
+  <si>
+    <t>80265881</t>
+  </si>
+  <si>
+    <t>21007-CTY-I</t>
+  </si>
+  <si>
+    <t>80265882</t>
+  </si>
+  <si>
+    <t>18473-STM-I</t>
+  </si>
+  <si>
+    <t>80265884</t>
+  </si>
+  <si>
+    <t>20098-CTY-I</t>
+  </si>
+  <si>
+    <t>80265885</t>
+  </si>
+  <si>
+    <t>10065-ARI-I</t>
+  </si>
+  <si>
+    <t>80265886</t>
+  </si>
+  <si>
+    <t>10251-ARI-I</t>
+  </si>
+  <si>
+    <t>80265888</t>
+  </si>
+  <si>
+    <t>10388-ARI-I</t>
+  </si>
+  <si>
+    <t>80265889</t>
+  </si>
+  <si>
+    <t>10001-LDG-I</t>
+  </si>
+  <si>
+    <t>80265891</t>
+  </si>
+  <si>
+    <t>10175-ARI-I</t>
+  </si>
+  <si>
+    <t>10247-ARI-I</t>
+  </si>
+  <si>
+    <t>80265892</t>
+  </si>
+  <si>
+    <t>10246-ARI-I</t>
+  </si>
+  <si>
+    <t>80265893</t>
+  </si>
+  <si>
+    <t>10255-ARI-I</t>
+  </si>
+  <si>
+    <t>80265894</t>
+  </si>
+  <si>
+    <t>10125-ARI-I</t>
+  </si>
+  <si>
+    <t>80265895</t>
+  </si>
+  <si>
+    <t>80265896</t>
+  </si>
+  <si>
+    <t>80265897</t>
+  </si>
+  <si>
+    <t>30247-VIS-L</t>
+  </si>
+  <si>
+    <t>80265899</t>
+  </si>
+  <si>
+    <t>10480-ARI-I</t>
+  </si>
+  <si>
+    <t>80265900</t>
+  </si>
+  <si>
+    <t>10651-ARI-I</t>
+  </si>
+  <si>
+    <t>10252-ARI-I</t>
+  </si>
+  <si>
+    <t>10258-ARI-I</t>
+  </si>
+  <si>
+    <t>10548-ARI-I</t>
+  </si>
+  <si>
+    <t>10256-ARI-I</t>
+  </si>
+  <si>
+    <t>10541-ARI-I</t>
+  </si>
+  <si>
+    <t>10486-ARI-I</t>
+  </si>
+  <si>
+    <t>10482-ARI-I</t>
+  </si>
+  <si>
+    <t>80265901</t>
+  </si>
+  <si>
+    <t>10030-ARI-I</t>
+  </si>
+  <si>
+    <t>80265902</t>
+  </si>
+  <si>
+    <t>10355-ARI-I</t>
+  </si>
+  <si>
+    <t>80265903</t>
+  </si>
+  <si>
+    <t>80265905</t>
+  </si>
+  <si>
+    <t>24110-ATE-I</t>
+  </si>
+  <si>
+    <t>80265906</t>
+  </si>
+  <si>
+    <t>10185-ARI-I</t>
+  </si>
+  <si>
+    <t>80265907</t>
+  </si>
+  <si>
+    <t>10382-ARI-I</t>
+  </si>
+  <si>
+    <t>80265908</t>
+  </si>
+  <si>
+    <t>10493-ARI-I</t>
+  </si>
+  <si>
+    <t>80265909</t>
+  </si>
+  <si>
+    <t>16536-YAG-I</t>
+  </si>
+  <si>
+    <t>30022-ROH-I</t>
+  </si>
+  <si>
+    <t>80265910</t>
+  </si>
+  <si>
+    <t>24410-ATE-I</t>
+  </si>
+  <si>
+    <t>80265911</t>
+  </si>
+  <si>
+    <t>21013-CTY-I</t>
+  </si>
+  <si>
+    <t>80265913</t>
+  </si>
+  <si>
+    <t>80265916</t>
+  </si>
+  <si>
+    <t>33380-ATE-I</t>
+  </si>
+  <si>
+    <t>80265918</t>
+  </si>
+  <si>
+    <t>80265920</t>
+  </si>
+  <si>
+    <t>10399-ARI-I</t>
+  </si>
+  <si>
+    <t>80265922</t>
+  </si>
+  <si>
+    <t>80265923</t>
+  </si>
+  <si>
+    <t>80265925</t>
+  </si>
+  <si>
+    <t>21062-CTY-I</t>
+  </si>
+  <si>
+    <t>80265935</t>
+  </si>
+  <si>
+    <t>80265938</t>
+  </si>
+  <si>
+    <t>80265944</t>
+  </si>
+  <si>
+    <t>20389-DCC-I</t>
+  </si>
+  <si>
+    <t>80265945</t>
+  </si>
+  <si>
+    <t>19532-STM-I</t>
+  </si>
+  <si>
+    <t>80265946</t>
+  </si>
+  <si>
+    <t>21001-CTY-I</t>
+  </si>
+  <si>
+    <t>80265947</t>
+  </si>
+  <si>
+    <t>80265949</t>
+  </si>
+  <si>
+    <t>33503-ATE-I</t>
+  </si>
+  <si>
+    <t>33700-ATE-I</t>
+  </si>
+  <si>
+    <t>33501-ATE-I</t>
+  </si>
+  <si>
+    <t>80265958</t>
+  </si>
+  <si>
+    <t>80265959</t>
+  </si>
+  <si>
+    <t>80265960</t>
+  </si>
+  <si>
+    <t>10489-ARI-I</t>
+  </si>
+  <si>
+    <t>80265961</t>
+  </si>
+  <si>
+    <t>33702-ATE-I</t>
+  </si>
+  <si>
+    <t>33698-ATE-I</t>
+  </si>
+  <si>
+    <t>10441-BLB-I</t>
+  </si>
+  <si>
+    <t>10487-BLB-I</t>
+  </si>
+  <si>
+    <t>33763-SYN-I</t>
+  </si>
+  <si>
+    <t>10335-BLB-I</t>
+  </si>
+  <si>
+    <t>10426-BLB-I</t>
+  </si>
+  <si>
+    <t>80265962</t>
+  </si>
+  <si>
+    <t>80265964</t>
+  </si>
+  <si>
+    <t>10217-BLB-I</t>
+  </si>
+  <si>
+    <t>33642-ATE-I</t>
+  </si>
+  <si>
+    <t>33506-ATE-I</t>
+  </si>
+  <si>
+    <t>33389-ATE-I</t>
+  </si>
+  <si>
+    <t>33382-ATE-I</t>
+  </si>
+  <si>
+    <t>80265969</t>
+  </si>
+  <si>
+    <t>10257-ARI-I</t>
+  </si>
+  <si>
+    <t>80265972</t>
+  </si>
+  <si>
+    <t>10060-ARI-I</t>
+  </si>
+  <si>
+    <t>80265974</t>
+  </si>
+  <si>
+    <t>33699-ATE-I</t>
+  </si>
+  <si>
+    <t>33679-ATE-I</t>
+  </si>
+  <si>
+    <t>33667-ATE-I</t>
+  </si>
+  <si>
+    <t>80265975</t>
+  </si>
+  <si>
+    <t>10377-ARI-I</t>
+  </si>
+  <si>
+    <t>80265976</t>
+  </si>
+  <si>
+    <t>10208-ROC-I</t>
+  </si>
+  <si>
+    <t>80265977</t>
+  </si>
+  <si>
+    <t>80265978</t>
+  </si>
+  <si>
+    <t>80265980</t>
+  </si>
+  <si>
+    <t>80265983</t>
+  </si>
+  <si>
+    <t>33630-ATE-I</t>
+  </si>
+  <si>
+    <t>10115-ARI-I</t>
+  </si>
+  <si>
+    <t>10180-ARI-I</t>
+  </si>
+  <si>
+    <t>23380-ATE-I</t>
+  </si>
+  <si>
+    <t>80265985</t>
+  </si>
+  <si>
+    <t>10090-ARI-I</t>
+  </si>
+  <si>
+    <t>80265986</t>
+  </si>
+  <si>
+    <t>10045-ARI-I</t>
+  </si>
+  <si>
+    <t>80265996</t>
+  </si>
+  <si>
+    <t>24107-ATE-I</t>
+  </si>
+  <si>
+    <t>23499-GPB-I</t>
+  </si>
+  <si>
+    <t>23432-GPB-I</t>
+  </si>
+  <si>
+    <t>33664-ATE-I</t>
+  </si>
+  <si>
+    <t>80266026</t>
+  </si>
+  <si>
+    <t>10652-ARI-I</t>
+  </si>
+  <si>
+    <t>10547-ARI-I</t>
+  </si>
+  <si>
+    <t>10540-ARI-I</t>
+  </si>
+  <si>
+    <t>10645-ARI-I</t>
+  </si>
+  <si>
+    <t>10637-ARI-I</t>
+  </si>
+  <si>
+    <t>10160-ARI-I</t>
+  </si>
+  <si>
+    <t>10362-ARI-I</t>
+  </si>
+  <si>
+    <t>10085-ARI-I</t>
+  </si>
+  <si>
+    <t>10120-ARI-I</t>
+  </si>
+  <si>
+    <t>10130-ARI-I</t>
+  </si>
+  <si>
+    <t>80266033</t>
+  </si>
+  <si>
+    <t>80266034</t>
+  </si>
+  <si>
+    <t>80266036</t>
+  </si>
+  <si>
+    <t>10079-BLB-I</t>
+  </si>
+  <si>
+    <t>80266039</t>
+  </si>
+  <si>
+    <t>20938-CTY-I</t>
+  </si>
+  <si>
+    <t>80266040</t>
+  </si>
+  <si>
+    <t>80266041</t>
+  </si>
+  <si>
+    <t>80266042</t>
+  </si>
+  <si>
+    <t>80266043</t>
+  </si>
+  <si>
+    <t>80266044</t>
+  </si>
+  <si>
+    <t>80266045</t>
+  </si>
+  <si>
+    <t>80266046</t>
+  </si>
+  <si>
+    <t>20988-CTY-I</t>
+  </si>
+  <si>
+    <t>80266048</t>
+  </si>
+  <si>
+    <t>80266049</t>
+  </si>
+  <si>
+    <t>80266051</t>
+  </si>
+  <si>
+    <t>80266052</t>
+  </si>
+  <si>
+    <t>80266053</t>
+  </si>
+  <si>
+    <t>10145-ARI-I</t>
+  </si>
+  <si>
+    <t>80266054</t>
+  </si>
+  <si>
+    <t>10386-ARI-I</t>
+  </si>
+  <si>
+    <t>80266055</t>
+  </si>
+  <si>
+    <t>80266056</t>
+  </si>
+  <si>
+    <t>10040-ARI-I</t>
+  </si>
+  <si>
+    <t>80266057</t>
+  </si>
+  <si>
+    <t>10391-ARI-I</t>
+  </si>
+  <si>
+    <t>80266058</t>
+  </si>
+  <si>
+    <t>10494-ARI-I</t>
+  </si>
+  <si>
+    <t>80266059</t>
+  </si>
+  <si>
+    <t>33400-ATE-I</t>
+  </si>
+  <si>
+    <t>80266060</t>
+  </si>
+  <si>
+    <t>80266061</t>
+  </si>
+  <si>
+    <t>80266062</t>
+  </si>
+  <si>
+    <t>80266068</t>
+  </si>
+  <si>
+    <t>80266069</t>
+  </si>
+  <si>
+    <t>80266080</t>
+  </si>
+  <si>
+    <t>60233-STM-I</t>
+  </si>
+  <si>
+    <t>80266081</t>
+  </si>
+  <si>
+    <t>40069-TDK-I</t>
+  </si>
+  <si>
+    <t>80266084</t>
+  </si>
+  <si>
+    <t>20962-CTY-I</t>
+  </si>
+  <si>
+    <t>80266085</t>
+  </si>
+  <si>
+    <t>80266086</t>
+  </si>
+  <si>
+    <t>10259-ARI-I</t>
+  </si>
+  <si>
+    <t>10371-ARI-I</t>
+  </si>
+  <si>
+    <t>10655-ARI-I</t>
+  </si>
+  <si>
+    <t>80266087</t>
+  </si>
+  <si>
+    <t>10001-MBY-I</t>
+  </si>
+  <si>
+    <t>10641-BLB-I</t>
+  </si>
+  <si>
+    <t>10642-BLB-I</t>
+  </si>
+  <si>
+    <t>10512-BLB-I</t>
+  </si>
+  <si>
+    <t>10514-BLB-I</t>
+  </si>
+  <si>
+    <t>10333-BLB-I</t>
+  </si>
+  <si>
+    <t>10438-BLB-I</t>
+  </si>
+  <si>
+    <t>10467-BLB-I</t>
+  </si>
+  <si>
+    <t>10466-BLB-I</t>
+  </si>
+  <si>
+    <t>80266096</t>
+  </si>
+  <si>
+    <t>11316-ROY-I</t>
+  </si>
+  <si>
+    <t>80266097</t>
+  </si>
+  <si>
+    <t>40187-YAG-I</t>
+  </si>
+  <si>
+    <t>80266104</t>
+  </si>
+  <si>
+    <t>80266110</t>
+  </si>
+  <si>
+    <t>10253-ARI-I</t>
+  </si>
+  <si>
+    <t>10483-ARI-I</t>
+  </si>
+  <si>
+    <t>10488-ARI-I</t>
+  </si>
+  <si>
+    <t>10150-ARI-I</t>
+  </si>
+  <si>
+    <t>10366-ARI-I</t>
+  </si>
+  <si>
+    <t>10364-ARI-I</t>
+  </si>
+  <si>
+    <t>80266129</t>
+  </si>
+  <si>
+    <t>30026-ROH-I</t>
+  </si>
+  <si>
+    <t>84004808</t>
+  </si>
+  <si>
+    <t>10492-ARI-I</t>
+  </si>
+  <si>
+    <t>84004809</t>
+  </si>
+  <si>
+    <t>20088-CTY-I</t>
+  </si>
+  <si>
+    <t>84004810</t>
+  </si>
+  <si>
+    <t>11950-KRO-I</t>
+  </si>
+  <si>
+    <t>84004811</t>
+  </si>
+  <si>
+    <t>15211-DLO-I</t>
+  </si>
+  <si>
+    <t>84004812</t>
+  </si>
+  <si>
+    <t>84004814</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -86,8 +853,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,39 +1201,2613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="4">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" s="4">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>7</v>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C126" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C131" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C138" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C141" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C144" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C149" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C150" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C151" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C152" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C153" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C154" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C155" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C156" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C158" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C169" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C175" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C177" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C178" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C179" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C180" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C181" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C182" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C184" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C185" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C186" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" s="4">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C188" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C189" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C190" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C191" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C192" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C193" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C194" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C195" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C196" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C197" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C198" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C199" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C200" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C201" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C202" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C203" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C204" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C205" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C206" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C207" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C208" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C210" s="4">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C211" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C212" s="4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C213" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C214" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C215" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C216" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C217" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C218" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C220" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C221" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C222" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C223" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C224" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C225" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C226" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C227" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C228" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C229" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C230" s="4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C231" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C232" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C233" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C234" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C235" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C236" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C55C380-D3C8-4C0C-AEBF-C2899BBB4BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D7908-E90C-4FBE-8E47-058B503E55F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="299">
   <si>
     <t>Remessa</t>
   </si>
@@ -810,6 +810,129 @@
   </si>
   <si>
     <t>84004814</t>
+  </si>
+  <si>
+    <t>80266137</t>
+  </si>
+  <si>
+    <t>30152-OSR-I</t>
+  </si>
+  <si>
+    <t>80266148</t>
+  </si>
+  <si>
+    <t>80266149</t>
+  </si>
+  <si>
+    <t>80266150</t>
+  </si>
+  <si>
+    <t>80266152</t>
+  </si>
+  <si>
+    <t>80266153</t>
+  </si>
+  <si>
+    <t>80266154</t>
+  </si>
+  <si>
+    <t>80266156</t>
+  </si>
+  <si>
+    <t>80266157</t>
+  </si>
+  <si>
+    <t>80266158</t>
+  </si>
+  <si>
+    <t>33532-ATE-I</t>
+  </si>
+  <si>
+    <t>80266159</t>
+  </si>
+  <si>
+    <t>80266160</t>
+  </si>
+  <si>
+    <t>20104-CTY-I</t>
+  </si>
+  <si>
+    <t>80266161</t>
+  </si>
+  <si>
+    <t>80266162</t>
+  </si>
+  <si>
+    <t>30259-OSR-I</t>
+  </si>
+  <si>
+    <t>80266163</t>
+  </si>
+  <si>
+    <t>80266164</t>
+  </si>
+  <si>
+    <t>80266165</t>
+  </si>
+  <si>
+    <t>80266166</t>
+  </si>
+  <si>
+    <t>10025-ARI-I</t>
+  </si>
+  <si>
+    <t>80266167</t>
+  </si>
+  <si>
+    <t>80266169</t>
+  </si>
+  <si>
+    <t>10035-ARI-I</t>
+  </si>
+  <si>
+    <t>80266170</t>
+  </si>
+  <si>
+    <t>80266171</t>
+  </si>
+  <si>
+    <t>10479-ARI-I</t>
+  </si>
+  <si>
+    <t>80266173</t>
+  </si>
+  <si>
+    <t>80266174</t>
+  </si>
+  <si>
+    <t>80266175</t>
+  </si>
+  <si>
+    <t>80266176</t>
+  </si>
+  <si>
+    <t>80266177</t>
+  </si>
+  <si>
+    <t>10020-ARI-I</t>
+  </si>
+  <si>
+    <t>80266179</t>
+  </si>
+  <si>
+    <t>22780-STM-I</t>
+  </si>
+  <si>
+    <t>80266180</t>
+  </si>
+  <si>
+    <t>20953-CTY-I</t>
+  </si>
+  <si>
+    <t>80266182</t>
+  </si>
+  <si>
+    <t>12732-ROY-I</t>
   </si>
 </sst>
 </file>
@@ -865,7 +988,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3746,21 +3869,21 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C231" s="4">
-        <v>1</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="C232" s="4">
         <v>1</v>
@@ -3768,10 +3891,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="C233" s="4">
         <v>1</v>
@@ -3779,10 +3902,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="C234" s="4">
         <v>1</v>
@@ -3790,10 +3913,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="C235" s="4">
         <v>1</v>
@@ -3801,12 +3924,342 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C236" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C237" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C238" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C239" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C240" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C241" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C242" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C244" s="4">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C245" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C246" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C247" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C248" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C249" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C250" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C251" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C252" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C253" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C254" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C255" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C256" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C257" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C258" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C259" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C260" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C261" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C262" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C263" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C264" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C265" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C266" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D7908-E90C-4FBE-8E47-058B503E55F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B36998-5D7A-4491-ACAA-43E05A8422DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="303">
   <si>
     <t>Remessa</t>
   </si>
@@ -933,6 +933,18 @@
   </si>
   <si>
     <t>12732-ROY-I</t>
+  </si>
+  <si>
+    <t>80266185</t>
+  </si>
+  <si>
+    <t>80266189</t>
+  </si>
+  <si>
+    <t>80266190</t>
+  </si>
+  <si>
+    <t>19510-STM-I</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C266"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4199,10 +4211,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="C261" s="4">
         <v>1</v>
@@ -4210,10 +4222,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="C262" s="4">
         <v>1</v>
@@ -4221,21 +4233,21 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="C263" s="4">
-        <v>1</v>
+        <v>400</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C264" s="4">
         <v>1</v>
@@ -4243,10 +4255,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="C265" s="4">
         <v>1</v>
@@ -4254,12 +4266,45 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C266" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C267" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C268" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B269" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C269" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B36998-5D7A-4491-ACAA-43E05A8422DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6942571-2A6F-4140-8D9E-8A21F56F8BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="314">
   <si>
     <t>Remessa</t>
   </si>
@@ -945,6 +945,39 @@
   </si>
   <si>
     <t>19510-STM-I</t>
+  </si>
+  <si>
+    <t>80266191</t>
+  </si>
+  <si>
+    <t>10119-ATE-I</t>
+  </si>
+  <si>
+    <t>80266194</t>
+  </si>
+  <si>
+    <t>19876-WRN-I</t>
+  </si>
+  <si>
+    <t>80266195</t>
+  </si>
+  <si>
+    <t>22551-SHI-I</t>
+  </si>
+  <si>
+    <t>60192-YAG-I</t>
+  </si>
+  <si>
+    <t>80266198</t>
+  </si>
+  <si>
+    <t>80266200</t>
+  </si>
+  <si>
+    <t>21021-CTY-I</t>
+  </si>
+  <si>
+    <t>84004819</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C269"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C269"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4206,48 +4239,48 @@
         <v>298</v>
       </c>
       <c r="C260" s="4">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="C261" s="4">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>85</v>
+        <v>298</v>
       </c>
       <c r="C262" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="C263" s="4">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c r="C264" s="4">
         <v>1</v>
@@ -4255,21 +4288,21 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="C265" s="4">
-        <v>1</v>
+        <v>400</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="C266" s="4">
         <v>1</v>
@@ -4277,21 +4310,21 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="C267" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C268" s="4">
         <v>1</v>
@@ -4299,12 +4332,144 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C269" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C270" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C271" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C272" s="4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C273" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C274" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C275" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C276" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C277" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C278" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C279" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C280" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C281" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40AA9B8-0697-4389-88EA-8D674BC6739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB962CB-442D-4E34-AFA1-2719E5AC54CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB962CB-442D-4E34-AFA1-2719E5AC54CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BD577-7012-45C0-A0ED-BEDC46208BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Remessa</t>
   </si>
@@ -53,63 +53,18 @@
     <t>10636-ARI-I</t>
   </si>
   <si>
-    <t>20098-CTY-I</t>
-  </si>
-  <si>
-    <t>10065-ARI-I</t>
-  </si>
-  <si>
-    <t>10251-ARI-I</t>
-  </si>
-  <si>
-    <t>10247-ARI-I</t>
-  </si>
-  <si>
     <t>10255-ARI-I</t>
   </si>
   <si>
-    <t>10125-ARI-I</t>
-  </si>
-  <si>
-    <t>10256-ARI-I</t>
-  </si>
-  <si>
     <t>10030-ARI-I</t>
   </si>
   <si>
-    <t>10382-ARI-I</t>
-  </si>
-  <si>
-    <t>10493-ARI-I</t>
-  </si>
-  <si>
-    <t>33380-ATE-I</t>
-  </si>
-  <si>
     <t>80265944</t>
   </si>
   <si>
     <t>20389-DCC-I</t>
   </si>
   <si>
-    <t>33382-ATE-I</t>
-  </si>
-  <si>
-    <t>80265976</t>
-  </si>
-  <si>
-    <t>10208-ROC-I</t>
-  </si>
-  <si>
-    <t>10645-ARI-I</t>
-  </si>
-  <si>
-    <t>10362-ARI-I</t>
-  </si>
-  <si>
-    <t>10391-ARI-I</t>
-  </si>
-  <si>
     <t>80266080</t>
   </si>
   <si>
@@ -122,21 +77,6 @@
     <t>40069-TDK-I</t>
   </si>
   <si>
-    <t>10371-ARI-I</t>
-  </si>
-  <si>
-    <t>10655-ARI-I</t>
-  </si>
-  <si>
-    <t>10150-ARI-I</t>
-  </si>
-  <si>
-    <t>80266129</t>
-  </si>
-  <si>
-    <t>30026-ROH-I</t>
-  </si>
-  <si>
     <t>10492-ARI-I</t>
   </si>
   <si>
@@ -146,219 +86,12 @@
     <t>30152-OSR-I</t>
   </si>
   <si>
-    <t>80266148</t>
-  </si>
-  <si>
-    <t>80266149</t>
-  </si>
-  <si>
-    <t>80266150</t>
-  </si>
-  <si>
-    <t>80266152</t>
-  </si>
-  <si>
-    <t>80266153</t>
-  </si>
-  <si>
-    <t>80266154</t>
-  </si>
-  <si>
-    <t>80266157</t>
-  </si>
-  <si>
-    <t>80266158</t>
-  </si>
-  <si>
-    <t>33532-ATE-I</t>
-  </si>
-  <si>
-    <t>80266159</t>
-  </si>
-  <si>
-    <t>80266160</t>
-  </si>
-  <si>
-    <t>20104-CTY-I</t>
-  </si>
-  <si>
-    <t>80266161</t>
-  </si>
-  <si>
-    <t>80266162</t>
-  </si>
-  <si>
     <t>30259-OSR-I</t>
   </si>
   <si>
-    <t>80266163</t>
-  </si>
-  <si>
-    <t>80266164</t>
-  </si>
-  <si>
-    <t>80266165</t>
-  </si>
-  <si>
-    <t>80266166</t>
-  </si>
-  <si>
-    <t>10025-ARI-I</t>
-  </si>
-  <si>
-    <t>80266167</t>
-  </si>
-  <si>
-    <t>80266169</t>
-  </si>
-  <si>
-    <t>10035-ARI-I</t>
-  </si>
-  <si>
-    <t>80266170</t>
-  </si>
-  <si>
-    <t>80266171</t>
-  </si>
-  <si>
-    <t>10479-ARI-I</t>
-  </si>
-  <si>
-    <t>80266173</t>
-  </si>
-  <si>
-    <t>80266174</t>
-  </si>
-  <si>
-    <t>80266175</t>
-  </si>
-  <si>
-    <t>80266176</t>
-  </si>
-  <si>
-    <t>80266177</t>
-  </si>
-  <si>
     <t>10020-ARI-I</t>
   </si>
   <si>
-    <t>80266180</t>
-  </si>
-  <si>
-    <t>20953-CTY-I</t>
-  </si>
-  <si>
-    <t>80266182</t>
-  </si>
-  <si>
-    <t>12732-ROY-I</t>
-  </si>
-  <si>
-    <t>80266185</t>
-  </si>
-  <si>
-    <t>80266189</t>
-  </si>
-  <si>
-    <t>80266190</t>
-  </si>
-  <si>
-    <t>19510-STM-I</t>
-  </si>
-  <si>
-    <t>80266194</t>
-  </si>
-  <si>
-    <t>19876-WRN-I</t>
-  </si>
-  <si>
-    <t>80266195</t>
-  </si>
-  <si>
-    <t>22551-SHI-I</t>
-  </si>
-  <si>
-    <t>60192-YAG-I</t>
-  </si>
-  <si>
-    <t>80266198</t>
-  </si>
-  <si>
-    <t>84004819</t>
-  </si>
-  <si>
-    <t>80266208</t>
-  </si>
-  <si>
-    <t>33378-ATE-I</t>
-  </si>
-  <si>
-    <t>10029-ATE-I</t>
-  </si>
-  <si>
-    <t>33381-ATE-I</t>
-  </si>
-  <si>
-    <t>33510-ATE-I</t>
-  </si>
-  <si>
-    <t>80266209</t>
-  </si>
-  <si>
-    <t>10015-ARI-I</t>
-  </si>
-  <si>
-    <t>10246-ARI-I</t>
-  </si>
-  <si>
-    <t>10252-ARI-I</t>
-  </si>
-  <si>
-    <t>10258-ARI-I</t>
-  </si>
-  <si>
-    <t>33642-ATE-I</t>
-  </si>
-  <si>
-    <t>10377-ARI-I</t>
-  </si>
-  <si>
-    <t>10115-ARI-I</t>
-  </si>
-  <si>
-    <t>24107-ATE-I</t>
-  </si>
-  <si>
-    <t>33664-ATE-I</t>
-  </si>
-  <si>
-    <t>10160-ARI-I</t>
-  </si>
-  <si>
-    <t>10130-ARI-I</t>
-  </si>
-  <si>
-    <t>10386-ARI-I</t>
-  </si>
-  <si>
-    <t>10366-ARI-I</t>
-  </si>
-  <si>
-    <t>10364-ARI-I</t>
-  </si>
-  <si>
-    <t>80266219</t>
-  </si>
-  <si>
-    <t>10396-ARI-I</t>
-  </si>
-  <si>
-    <t>80266220</t>
-  </si>
-  <si>
-    <t>80266221</t>
-  </si>
-  <si>
     <t>80265942</t>
   </si>
   <si>
@@ -377,61 +110,91 @@
     <t>60234-WUE-I</t>
   </si>
   <si>
-    <t>80266234</t>
-  </si>
-  <si>
-    <t>23365-ATE-I</t>
-  </si>
-  <si>
-    <t>23322-ATE-I</t>
-  </si>
-  <si>
-    <t>23407-ATE-I</t>
-  </si>
-  <si>
     <t>21340-NZX-I</t>
   </si>
   <si>
-    <t>23328-ATE-I</t>
-  </si>
-  <si>
-    <t>80266235</t>
-  </si>
-  <si>
-    <t>40046-TDK-I</t>
-  </si>
-  <si>
-    <t>20722-TDK-I</t>
-  </si>
-  <si>
-    <t>80266237</t>
-  </si>
-  <si>
-    <t>33716-SYN-I</t>
-  </si>
-  <si>
-    <t>80266242</t>
-  </si>
-  <si>
-    <t>10155-ARI-I</t>
-  </si>
-  <si>
-    <t>80266243</t>
-  </si>
-  <si>
-    <t>80266244</t>
-  </si>
-  <si>
-    <t>10361-ARI-I</t>
-  </si>
-  <si>
-    <t>10195-ARI-I</t>
-  </si>
-  <si>
-    <t>80266245</t>
-  </si>
-  <si>
-    <t>80266246</t>
+    <t>80266280</t>
+  </si>
+  <si>
+    <t>30174-OSR-I</t>
+  </si>
+  <si>
+    <t>80266281</t>
+  </si>
+  <si>
+    <t>80266282</t>
+  </si>
+  <si>
+    <t>23380-ATE-I</t>
+  </si>
+  <si>
+    <t>80266287</t>
+  </si>
+  <si>
+    <t>80266289</t>
+  </si>
+  <si>
+    <t>10399-ARI-I</t>
+  </si>
+  <si>
+    <t>80266290</t>
+  </si>
+  <si>
+    <t>80266291</t>
+  </si>
+  <si>
+    <t>10175-ARI-I</t>
+  </si>
+  <si>
+    <t>80266292</t>
+  </si>
+  <si>
+    <t>80266293</t>
+  </si>
+  <si>
+    <t>80266294</t>
+  </si>
+  <si>
+    <t>80266295</t>
+  </si>
+  <si>
+    <t>20041-CTY-I</t>
+  </si>
+  <si>
+    <t>80266296</t>
+  </si>
+  <si>
+    <t>10496-ARI-I</t>
+  </si>
+  <si>
+    <t>80266297</t>
+  </si>
+  <si>
+    <t>80266298</t>
+  </si>
+  <si>
+    <t>80266299</t>
+  </si>
+  <si>
+    <t>80266300</t>
+  </si>
+  <si>
+    <t>10388-ARI-I</t>
+  </si>
+  <si>
+    <t>80266301</t>
+  </si>
+  <si>
+    <t>80266302</t>
+  </si>
+  <si>
+    <t>21477-NZX-I</t>
+  </si>
+  <si>
+    <t>80266303</t>
+  </si>
+  <si>
+    <t>10010-ARI-I</t>
   </si>
 </sst>
 </file>
@@ -829,7 +592,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C102"/>
+      <selection activeCell="A2" sqref="A2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,10 +615,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3">
         <v>2000</v>
@@ -863,10 +626,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3">
         <v>600</v>
@@ -874,10 +637,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3">
         <v>36000</v>
@@ -885,10 +648,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
         <v>1900</v>
@@ -896,10 +659,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
         <v>1500</v>
@@ -907,10 +670,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>5000</v>
@@ -918,65 +681,65 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>2000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
-        <v>1064</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3">
-        <v>6000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>300000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -984,10 +747,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -995,10 +758,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1006,32 +769,32 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1039,7 +802,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
@@ -1050,10 +813,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1061,10 +824,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1072,10 +835,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1083,10 +846,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1094,21 +857,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>18000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1116,10 +879,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1127,10 +890,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1138,10 +901,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1149,10 +912,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -1160,806 +923,374 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="3">
-        <v>5000</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="3">
-        <v>10000</v>
-      </c>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="3">
-        <v>400</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="3">
-        <v>40000</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="3">
-        <v>500</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="3">
-        <v>6000</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="3">
-        <v>4</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="3">
-        <v>4</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="3">
-        <v>2</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="3">
-        <v>6</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="3">
-        <v>6</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="3">
-        <v>6</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="3">
-        <v>4</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="3">
-        <v>4</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="3">
-        <v>12</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="3">
-        <v>4</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="3">
-        <v>4</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="3">
-        <v>81000</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="3">
-        <v>3</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="3">
-        <v>2</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="3">
-        <v>2</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="3">
-        <v>2</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="3">
-        <v>2</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0</v>
-      </c>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="3">
-        <v>0</v>
-      </c>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="3">
-        <v>750</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1250</v>
-      </c>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="3">
-        <v>2</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="3">
-        <v>10</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="3">
-        <v>10</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="3">
-        <v>10</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="3">
-        <v>10</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="3">
-        <v>6</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="3">
-        <v>6</v>
-      </c>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="3">
-        <v>6</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="3">
-        <v>6</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="3">
-        <v>15</v>
-      </c>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" s="3">
-        <v>2</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" s="3">
-        <v>40</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95" s="3">
-        <v>15</v>
-      </c>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="3">
-        <v>10</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="3">
-        <v>5</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="3">
-        <v>40</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="3">
-        <v>10</v>
-      </c>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="3">
-        <v>20</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="3">
-        <v>12</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="3">
-        <v>1</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BD577-7012-45C0-A0ED-BEDC46208BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A56375-A56F-4EDA-9A05-789C38923260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
   <si>
     <t>Remessa</t>
   </si>
@@ -195,12 +195,369 @@
   </si>
   <si>
     <t>10010-ARI-I</t>
+  </si>
+  <si>
+    <t>80265976</t>
+  </si>
+  <si>
+    <t>10208-ROC-I</t>
+  </si>
+  <si>
+    <t>80266129</t>
+  </si>
+  <si>
+    <t>30026-ROH-I</t>
+  </si>
+  <si>
+    <t>80266148</t>
+  </si>
+  <si>
+    <t>80266149</t>
+  </si>
+  <si>
+    <t>80266150</t>
+  </si>
+  <si>
+    <t>80266152</t>
+  </si>
+  <si>
+    <t>10645-ARI-I</t>
+  </si>
+  <si>
+    <t>80266153</t>
+  </si>
+  <si>
+    <t>20098-CTY-I</t>
+  </si>
+  <si>
+    <t>80266154</t>
+  </si>
+  <si>
+    <t>10371-ARI-I</t>
+  </si>
+  <si>
+    <t>80266157</t>
+  </si>
+  <si>
+    <t>10382-ARI-I</t>
+  </si>
+  <si>
+    <t>80266158</t>
+  </si>
+  <si>
+    <t>33532-ATE-I</t>
+  </si>
+  <si>
+    <t>80266159</t>
+  </si>
+  <si>
+    <t>80266160</t>
+  </si>
+  <si>
+    <t>20104-CTY-I</t>
+  </si>
+  <si>
+    <t>80266161</t>
+  </si>
+  <si>
+    <t>80266162</t>
+  </si>
+  <si>
+    <t>80266163</t>
+  </si>
+  <si>
+    <t>10247-ARI-I</t>
+  </si>
+  <si>
+    <t>80266164</t>
+  </si>
+  <si>
+    <t>10125-ARI-I</t>
+  </si>
+  <si>
+    <t>80266165</t>
+  </si>
+  <si>
+    <t>10065-ARI-I</t>
+  </si>
+  <si>
+    <t>80266166</t>
+  </si>
+  <si>
+    <t>10025-ARI-I</t>
+  </si>
+  <si>
+    <t>80266167</t>
+  </si>
+  <si>
+    <t>80266169</t>
+  </si>
+  <si>
+    <t>10035-ARI-I</t>
+  </si>
+  <si>
+    <t>80266170</t>
+  </si>
+  <si>
+    <t>80266171</t>
+  </si>
+  <si>
+    <t>10479-ARI-I</t>
+  </si>
+  <si>
+    <t>80266173</t>
+  </si>
+  <si>
+    <t>10362-ARI-I</t>
+  </si>
+  <si>
+    <t>80266174</t>
+  </si>
+  <si>
+    <t>10251-ARI-I</t>
+  </si>
+  <si>
+    <t>80266175</t>
+  </si>
+  <si>
+    <t>80266176</t>
+  </si>
+  <si>
+    <t>80266177</t>
+  </si>
+  <si>
+    <t>80266180</t>
+  </si>
+  <si>
+    <t>20953-CTY-I</t>
+  </si>
+  <si>
+    <t>80266182</t>
+  </si>
+  <si>
+    <t>12732-ROY-I</t>
+  </si>
+  <si>
+    <t>80266185</t>
+  </si>
+  <si>
+    <t>80266189</t>
+  </si>
+  <si>
+    <t>80266190</t>
+  </si>
+  <si>
+    <t>19510-STM-I</t>
+  </si>
+  <si>
+    <t>80266194</t>
+  </si>
+  <si>
+    <t>19876-WRN-I</t>
+  </si>
+  <si>
+    <t>80266195</t>
+  </si>
+  <si>
+    <t>22551-SHI-I</t>
+  </si>
+  <si>
+    <t>60192-YAG-I</t>
+  </si>
+  <si>
+    <t>80266198</t>
+  </si>
+  <si>
+    <t>10493-ARI-I</t>
+  </si>
+  <si>
+    <t>80266208</t>
+  </si>
+  <si>
+    <t>33378-ATE-I</t>
+  </si>
+  <si>
+    <t>10029-ATE-I</t>
+  </si>
+  <si>
+    <t>33380-ATE-I</t>
+  </si>
+  <si>
+    <t>33381-ATE-I</t>
+  </si>
+  <si>
+    <t>33382-ATE-I</t>
+  </si>
+  <si>
+    <t>33510-ATE-I</t>
+  </si>
+  <si>
+    <t>80266209</t>
+  </si>
+  <si>
+    <t>10655-ARI-I</t>
+  </si>
+  <si>
+    <t>10015-ARI-I</t>
+  </si>
+  <si>
+    <t>10256-ARI-I</t>
+  </si>
+  <si>
+    <t>10391-ARI-I</t>
+  </si>
+  <si>
+    <t>10150-ARI-I</t>
+  </si>
+  <si>
+    <t>80266219</t>
+  </si>
+  <si>
+    <t>10396-ARI-I</t>
+  </si>
+  <si>
+    <t>80266220</t>
+  </si>
+  <si>
+    <t>80266221</t>
+  </si>
+  <si>
+    <t>80266234</t>
+  </si>
+  <si>
+    <t>33664-ATE-I</t>
+  </si>
+  <si>
+    <t>23365-ATE-I</t>
+  </si>
+  <si>
+    <t>33642-ATE-I</t>
+  </si>
+  <si>
+    <t>10115-ARI-I</t>
+  </si>
+  <si>
+    <t>24107-ATE-I</t>
+  </si>
+  <si>
+    <t>23322-ATE-I</t>
+  </si>
+  <si>
+    <t>23407-ATE-I</t>
+  </si>
+  <si>
+    <t>23328-ATE-I</t>
+  </si>
+  <si>
+    <t>80266235</t>
+  </si>
+  <si>
+    <t>40046-TDK-I</t>
+  </si>
+  <si>
+    <t>20722-TDK-I</t>
+  </si>
+  <si>
+    <t>80266237</t>
+  </si>
+  <si>
+    <t>33716-SYN-I</t>
+  </si>
+  <si>
+    <t>80266242</t>
+  </si>
+  <si>
+    <t>10377-ARI-I</t>
+  </si>
+  <si>
+    <t>10364-ARI-I</t>
+  </si>
+  <si>
+    <t>10386-ARI-I</t>
+  </si>
+  <si>
+    <t>10366-ARI-I</t>
+  </si>
+  <si>
+    <t>10155-ARI-I</t>
+  </si>
+  <si>
+    <t>10160-ARI-I</t>
+  </si>
+  <si>
+    <t>80266243</t>
+  </si>
+  <si>
+    <t>80266244</t>
+  </si>
+  <si>
+    <t>10361-ARI-I</t>
+  </si>
+  <si>
+    <t>10195-ARI-I</t>
+  </si>
+  <si>
+    <t>10252-ARI-I</t>
+  </si>
+  <si>
+    <t>10246-ARI-I</t>
+  </si>
+  <si>
+    <t>80266245</t>
+  </si>
+  <si>
+    <t>10130-ARI-I</t>
+  </si>
+  <si>
+    <t>80266246</t>
+  </si>
+  <si>
+    <t>10258-ARI-I</t>
+  </si>
+  <si>
+    <t>80266285</t>
+  </si>
+  <si>
+    <t>10637-ARI-I</t>
+  </si>
+  <si>
+    <t>80266304</t>
+  </si>
+  <si>
+    <t>80266306</t>
+  </si>
+  <si>
+    <t>80266307</t>
+  </si>
+  <si>
+    <t>10638-ARI-I</t>
+  </si>
+  <si>
+    <t>10070-ARI-I</t>
+  </si>
+  <si>
+    <t>80266309</t>
+  </si>
+  <si>
+    <t>80266312</t>
+  </si>
+  <si>
+    <t>80266313</t>
+  </si>
+  <si>
+    <t>80266314</t>
+  </si>
+  <si>
+    <t>84004819</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +611,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +955,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C30"/>
+      <selection activeCell="A2" sqref="A2:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +983,7 @@
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
     </row>
@@ -631,7 +994,7 @@
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>600</v>
       </c>
     </row>
@@ -642,7 +1005,7 @@
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>36000</v>
       </c>
     </row>
@@ -653,7 +1016,7 @@
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>1900</v>
       </c>
     </row>
@@ -664,7 +1027,7 @@
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>1500</v>
       </c>
     </row>
@@ -675,802 +1038,1450 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2000</v>
+        <v>54</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1064</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>300000</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3">
-        <v>200000</v>
+        <v>56</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="6">
+        <v>300000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1500</v>
+        <v>61</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="3">
+        <v>69</v>
+      </c>
+      <c r="C20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="3">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C24" s="6">
+        <v>18000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="3">
+        <v>76</v>
+      </c>
+      <c r="C25" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
+        <v>80</v>
+      </c>
+      <c r="C27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="3">
+        <v>82</v>
+      </c>
+      <c r="C28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="6">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="6">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B127" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="3"/>
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C131" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A56375-A56F-4EDA-9A05-789C38923260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01F8C3C-A633-4173-8172-AD5FB6AD3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="231">
   <si>
     <t>Remessa</t>
   </si>
@@ -197,6 +197,18 @@
     <t>10010-ARI-I</t>
   </si>
   <si>
+    <t>80265160</t>
+  </si>
+  <si>
+    <t>30018-KMT-I</t>
+  </si>
+  <si>
+    <t>80265182</t>
+  </si>
+  <si>
+    <t>10609-YAG-I</t>
+  </si>
+  <si>
     <t>80265976</t>
   </si>
   <si>
@@ -209,6 +221,21 @@
     <t>30026-ROH-I</t>
   </si>
   <si>
+    <t>80266136</t>
+  </si>
+  <si>
+    <t>10335-ARI-I</t>
+  </si>
+  <si>
+    <t>80266140</t>
+  </si>
+  <si>
+    <t>15929-TDK-N</t>
+  </si>
+  <si>
+    <t>14432-TDK-N</t>
+  </si>
+  <si>
     <t>80266148</t>
   </si>
   <si>
@@ -341,6 +368,12 @@
     <t>80266185</t>
   </si>
   <si>
+    <t>80266187</t>
+  </si>
+  <si>
+    <t>22988-WEN-I</t>
+  </si>
+  <si>
     <t>80266189</t>
   </si>
   <si>
@@ -410,6 +443,30 @@
     <t>10150-ARI-I</t>
   </si>
   <si>
+    <t>80266210</t>
+  </si>
+  <si>
+    <t>12443-OUT-L</t>
+  </si>
+  <si>
+    <t>16583-MRT-L</t>
+  </si>
+  <si>
+    <t>80266212</t>
+  </si>
+  <si>
+    <t>10446-ARI-I</t>
+  </si>
+  <si>
+    <t>10435-ARI-I</t>
+  </si>
+  <si>
+    <t>80266214</t>
+  </si>
+  <si>
+    <t>10422-ARI-I</t>
+  </si>
+  <si>
     <t>80266219</t>
   </si>
   <si>
@@ -422,6 +479,21 @@
     <t>80266221</t>
   </si>
   <si>
+    <t>80266225</t>
+  </si>
+  <si>
+    <t>10704-DLO-L</t>
+  </si>
+  <si>
+    <t>10490-DLO-I</t>
+  </si>
+  <si>
+    <t>80266230</t>
+  </si>
+  <si>
+    <t>14729-DLO-I</t>
+  </si>
+  <si>
     <t>80266234</t>
   </si>
   <si>
@@ -515,12 +587,24 @@
     <t>10258-ARI-I</t>
   </si>
   <si>
+    <t>80266283</t>
+  </si>
+  <si>
+    <t>23001-WEN-I</t>
+  </si>
+  <si>
     <t>80266285</t>
   </si>
   <si>
     <t>10637-ARI-I</t>
   </si>
   <si>
+    <t>80266286</t>
+  </si>
+  <si>
+    <t>23000-WEN-I</t>
+  </si>
+  <si>
     <t>80266304</t>
   </si>
   <si>
@@ -539,6 +623,75 @@
     <t>80266309</t>
   </si>
   <si>
+    <t>80266310</t>
+  </si>
+  <si>
+    <t>10549-ROY-I</t>
+  </si>
+  <si>
+    <t>60162-OUT-L</t>
+  </si>
+  <si>
+    <t>60267-OUT-L</t>
+  </si>
+  <si>
+    <t>60268-OUT-L</t>
+  </si>
+  <si>
+    <t>80266311</t>
+  </si>
+  <si>
+    <t>10933-YAG-I</t>
+  </si>
+  <si>
+    <t>40291-TDK-N</t>
+  </si>
+  <si>
+    <t>30298-VIS-I</t>
+  </si>
+  <si>
+    <t>12775-VIS-I</t>
+  </si>
+  <si>
+    <t>12558-VIS-I</t>
+  </si>
+  <si>
+    <t>14211-TDK-N</t>
+  </si>
+  <si>
+    <t>40317-TDK-N</t>
+  </si>
+  <si>
+    <t>11541-PHS-L</t>
+  </si>
+  <si>
+    <t>12415-YAG-I</t>
+  </si>
+  <si>
+    <t>30299-VIS-I</t>
+  </si>
+  <si>
+    <t>30234-VIS-L</t>
+  </si>
+  <si>
+    <t>30234-VIS-I</t>
+  </si>
+  <si>
+    <t>30332-VIS-I</t>
+  </si>
+  <si>
+    <t>12370-YAG-L</t>
+  </si>
+  <si>
+    <t>30219-VIS-I</t>
+  </si>
+  <si>
+    <t>11518-YAG-I</t>
+  </si>
+  <si>
+    <t>40033-TDK-I</t>
+  </si>
+  <si>
     <t>80266312</t>
   </si>
   <si>
@@ -546,6 +699,33 @@
   </si>
   <si>
     <t>80266314</t>
+  </si>
+  <si>
+    <t>80266315</t>
+  </si>
+  <si>
+    <t>80266316</t>
+  </si>
+  <si>
+    <t>80266317</t>
+  </si>
+  <si>
+    <t>80266318</t>
+  </si>
+  <si>
+    <t>80266319</t>
+  </si>
+  <si>
+    <t>80266320</t>
+  </si>
+  <si>
+    <t>20936-CTY-I</t>
+  </si>
+  <si>
+    <t>80266321</t>
+  </si>
+  <si>
+    <t>33416-ATE-I</t>
   </si>
   <si>
     <t>84004819</t>
@@ -555,9 +735,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,12 +788,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,7 +1126,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C138"/>
+      <selection activeCell="A2" sqref="A2:C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,24 +1149,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2000</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="3">
+        <v>24000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6">
-        <v>600</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6">
-        <v>36000</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,10 +1185,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1900</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1025,152 +1196,152 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1500</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>36000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5000</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3000</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2000</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1064</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="6">
-        <v>6000</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6">
-        <v>300000</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1064</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>300000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1179,20 +1350,20 @@
         <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1203,8 +1374,8 @@
       <c r="B22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="7">
-        <v>1</v>
+      <c r="C22" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,64 +1383,64 @@
         <v>73</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="6">
-        <v>18000</v>
+        <v>76</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="6">
+        <v>78</v>
+      </c>
+      <c r="C25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="6">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="6">
+        <v>81</v>
+      </c>
+      <c r="C27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1278,10 +1449,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C29" s="3">
+        <v>18000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1291,7 +1462,7 @@
       <c r="B30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1300,42 +1471,42 @@
         <v>86</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="6">
+        <v>87</v>
+      </c>
+      <c r="C31" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="6">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="6">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="6">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1344,1364 +1515,1628 @@
         <v>93</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6">
+        <v>94</v>
+      </c>
+      <c r="C35" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="6">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="6">
+        <v>97</v>
+      </c>
+      <c r="C37" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="6">
+        <v>99</v>
+      </c>
+      <c r="C38" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="6">
-        <v>5000</v>
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="6">
-        <v>10000</v>
+        <v>70</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="6">
+        <v>17</v>
+      </c>
+      <c r="C42" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="6">
+        <v>106</v>
+      </c>
+      <c r="C43" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="6">
-        <v>400</v>
+        <v>108</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="6">
-        <v>40000</v>
+        <v>108</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="6">
-        <v>500</v>
+        <v>108</v>
+      </c>
+      <c r="C46" s="3">
+        <v>10000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="6">
-        <v>6000</v>
+        <v>3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3000</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="6">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="6">
-        <v>4</v>
+        <v>114</v>
+      </c>
+      <c r="C50" s="3">
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="C51" s="3">
+        <v>40000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="C52" s="3">
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="6">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="6">
-        <v>2</v>
+        <v>121</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="6">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="6">
-        <v>6</v>
+        <v>124</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="6">
-        <v>6</v>
+        <v>125</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="6">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="6">
-        <v>4</v>
+        <v>127</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="6">
-        <v>12</v>
+        <v>128</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="6">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="C62" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="6">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="6">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="6">
-        <v>81000</v>
+        <v>133</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="6">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C66" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="6">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="6">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="6">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="C69" s="3">
+        <v>5000</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="6">
-        <v>2</v>
+        <v>137</v>
+      </c>
+      <c r="C70" s="3">
+        <v>16000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="6">
-        <v>2</v>
+        <v>139</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="6">
+        <v>140</v>
+      </c>
+      <c r="C72" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="6">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="C73" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="6">
+        <v>144</v>
+      </c>
+      <c r="C74" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="7">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="6">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C76" s="3">
+        <v>81000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="6">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="C78" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="6">
-        <v>750</v>
+        <v>151</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80" s="6">
-        <v>1250</v>
+        <v>153</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="6">
-        <v>1000</v>
+        <v>154</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82" s="6">
-        <v>1000</v>
+        <v>155</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" s="6">
+        <v>155</v>
+      </c>
+      <c r="C83" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="6">
-        <v>10</v>
+        <v>156</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="6">
-        <v>10</v>
+        <v>157</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="6">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C87" s="6">
-        <v>10</v>
+        <v>158</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="6">
-        <v>6</v>
+        <v>159</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" s="6">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" s="6">
-        <v>6</v>
+        <v>160</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="6">
+        <v>162</v>
+      </c>
+      <c r="C91" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" s="6">
-        <v>9</v>
+        <v>163</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="6">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="C93" s="3">
+        <v>750</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C94" s="6">
-        <v>5</v>
+        <v>163</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1250</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C95" s="6">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" s="6">
-        <v>15</v>
+        <v>162</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="6">
+        <v>165</v>
+      </c>
+      <c r="C97" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C98" s="6">
-        <v>40</v>
+        <v>167</v>
+      </c>
+      <c r="C98" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C99" s="6">
-        <v>15</v>
+        <v>99</v>
+      </c>
+      <c r="C99" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C100" s="6">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C101" s="6">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="C101" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" s="6">
-        <v>40</v>
+        <v>169</v>
+      </c>
+      <c r="C102" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C103" s="6">
-        <v>10</v>
+        <v>170</v>
+      </c>
+      <c r="C103" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="6">
-        <v>20</v>
+        <v>171</v>
+      </c>
+      <c r="C104" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" s="6">
+        <v>172</v>
+      </c>
+      <c r="C105" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="6">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C106" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" s="6">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" s="6">
-        <v>200000</v>
+        <v>172</v>
+      </c>
+      <c r="C108" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="6">
+        <v>172</v>
+      </c>
+      <c r="C109" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C110" s="7">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="C110" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="6">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="7">
-        <v>1</v>
+        <v>176</v>
+      </c>
+      <c r="C112" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="6">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="C113" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" s="6">
-        <v>1500</v>
+        <v>178</v>
+      </c>
+      <c r="C114" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="6">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="C115" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="6">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="C116" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="6">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="C117" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="6">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="C118" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C119" s="7">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C120" s="6">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C120" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="6">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C121" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="6">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C122" s="3">
+        <v>200000</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="6">
+        <v>3</v>
+      </c>
+      <c r="C123" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C124" s="6">
+        <v>29</v>
+      </c>
+      <c r="C124" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="6">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4000</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C126" s="6">
+        <v>186</v>
+      </c>
+      <c r="C126" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="6">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="C127" s="3">
+        <v>10000</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" s="6">
+        <v>24</v>
+      </c>
+      <c r="C128" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="6">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1500</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C131" s="6">
+        <v>35</v>
+      </c>
+      <c r="C131" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C132" s="6">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="6">
+        <v>13</v>
+      </c>
+      <c r="C133" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C134" s="6">
+        <v>35</v>
+      </c>
+      <c r="C134" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C135" s="6">
+        <v>40</v>
+      </c>
+      <c r="C135" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C136" s="6">
+        <v>42</v>
+      </c>
+      <c r="C136" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="6">
+        <v>4</v>
+      </c>
+      <c r="C137" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="3"/>
+      <c r="A147" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C150" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="3"/>
+      <c r="A151" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151" s="3">
+        <v>2000</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C152" s="3">
+        <v>2000</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C153" s="3">
+        <v>2000</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C155" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C156" s="3">
+        <v>4000</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="3"/>
+      <c r="A157" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C158" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="3"/>
+      <c r="A159" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C159" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="3"/>
+      <c r="A160" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C160" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="3"/>
+      <c r="A161" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C161" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="3"/>
+      <c r="A162" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="3"/>
+      <c r="A163" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C163" s="3">
+        <v>3500</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="3"/>
+      <c r="A164" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C164" s="3">
+        <v>2500</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="3"/>
+      <c r="A165" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C165" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="3"/>
+      <c r="A166" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="3"/>
+      <c r="A167" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C167" s="3">
+        <v>3000</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="3"/>
+      <c r="A168" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C168" s="3">
+        <v>2000</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="3"/>
+      <c r="A169" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C169" s="3">
+        <v>3000</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="3"/>
+      <c r="A170" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1500</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="3"/>
+      <c r="A171" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="3"/>
+      <c r="A174" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="3"/>
+      <c r="A175" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="3"/>
+      <c r="A176" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="3"/>
+      <c r="A177" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="3"/>
+      <c r="A178" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="3"/>
+      <c r="A179" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="3"/>
+      <c r="A180" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="3"/>
+      <c r="A181" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C181" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="3"/>
+      <c r="A182" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01F8C3C-A633-4173-8172-AD5FB6AD3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF714A-6CC2-4D7B-9646-C4DB10D08B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="192">
   <si>
     <t>Remessa</t>
   </si>
@@ -197,18 +197,6 @@
     <t>10010-ARI-I</t>
   </si>
   <si>
-    <t>80265160</t>
-  </si>
-  <si>
-    <t>30018-KMT-I</t>
-  </si>
-  <si>
-    <t>80265182</t>
-  </si>
-  <si>
-    <t>10609-YAG-I</t>
-  </si>
-  <si>
     <t>80265976</t>
   </si>
   <si>
@@ -221,21 +209,6 @@
     <t>30026-ROH-I</t>
   </si>
   <si>
-    <t>80266136</t>
-  </si>
-  <si>
-    <t>10335-ARI-I</t>
-  </si>
-  <si>
-    <t>80266140</t>
-  </si>
-  <si>
-    <t>15929-TDK-N</t>
-  </si>
-  <si>
-    <t>14432-TDK-N</t>
-  </si>
-  <si>
     <t>80266148</t>
   </si>
   <si>
@@ -368,12 +341,6 @@
     <t>80266185</t>
   </si>
   <si>
-    <t>80266187</t>
-  </si>
-  <si>
-    <t>22988-WEN-I</t>
-  </si>
-  <si>
     <t>80266189</t>
   </si>
   <si>
@@ -443,30 +410,6 @@
     <t>10150-ARI-I</t>
   </si>
   <si>
-    <t>80266210</t>
-  </si>
-  <si>
-    <t>12443-OUT-L</t>
-  </si>
-  <si>
-    <t>16583-MRT-L</t>
-  </si>
-  <si>
-    <t>80266212</t>
-  </si>
-  <si>
-    <t>10446-ARI-I</t>
-  </si>
-  <si>
-    <t>10435-ARI-I</t>
-  </si>
-  <si>
-    <t>80266214</t>
-  </si>
-  <si>
-    <t>10422-ARI-I</t>
-  </si>
-  <si>
     <t>80266219</t>
   </si>
   <si>
@@ -479,21 +422,6 @@
     <t>80266221</t>
   </si>
   <si>
-    <t>80266225</t>
-  </si>
-  <si>
-    <t>10704-DLO-L</t>
-  </si>
-  <si>
-    <t>10490-DLO-I</t>
-  </si>
-  <si>
-    <t>80266230</t>
-  </si>
-  <si>
-    <t>14729-DLO-I</t>
-  </si>
-  <si>
     <t>80266234</t>
   </si>
   <si>
@@ -587,24 +515,12 @@
     <t>10258-ARI-I</t>
   </si>
   <si>
-    <t>80266283</t>
-  </si>
-  <si>
-    <t>23001-WEN-I</t>
-  </si>
-  <si>
     <t>80266285</t>
   </si>
   <si>
     <t>10637-ARI-I</t>
   </si>
   <si>
-    <t>80266286</t>
-  </si>
-  <si>
-    <t>23000-WEN-I</t>
-  </si>
-  <si>
     <t>80266304</t>
   </si>
   <si>
@@ -623,75 +539,6 @@
     <t>80266309</t>
   </si>
   <si>
-    <t>80266310</t>
-  </si>
-  <si>
-    <t>10549-ROY-I</t>
-  </si>
-  <si>
-    <t>60162-OUT-L</t>
-  </si>
-  <si>
-    <t>60267-OUT-L</t>
-  </si>
-  <si>
-    <t>60268-OUT-L</t>
-  </si>
-  <si>
-    <t>80266311</t>
-  </si>
-  <si>
-    <t>10933-YAG-I</t>
-  </si>
-  <si>
-    <t>40291-TDK-N</t>
-  </si>
-  <si>
-    <t>30298-VIS-I</t>
-  </si>
-  <si>
-    <t>12775-VIS-I</t>
-  </si>
-  <si>
-    <t>12558-VIS-I</t>
-  </si>
-  <si>
-    <t>14211-TDK-N</t>
-  </si>
-  <si>
-    <t>40317-TDK-N</t>
-  </si>
-  <si>
-    <t>11541-PHS-L</t>
-  </si>
-  <si>
-    <t>12415-YAG-I</t>
-  </si>
-  <si>
-    <t>30299-VIS-I</t>
-  </si>
-  <si>
-    <t>30234-VIS-L</t>
-  </si>
-  <si>
-    <t>30234-VIS-I</t>
-  </si>
-  <si>
-    <t>30332-VIS-I</t>
-  </si>
-  <si>
-    <t>12370-YAG-L</t>
-  </si>
-  <si>
-    <t>30219-VIS-I</t>
-  </si>
-  <si>
-    <t>11518-YAG-I</t>
-  </si>
-  <si>
-    <t>40033-TDK-I</t>
-  </si>
-  <si>
     <t>80266312</t>
   </si>
   <si>
@@ -701,6 +548,9 @@
     <t>80266314</t>
   </si>
   <si>
+    <t>84004819</t>
+  </si>
+  <si>
     <t>80266315</t>
   </si>
   <si>
@@ -728,7 +578,40 @@
     <t>33416-ATE-I</t>
   </si>
   <si>
-    <t>84004819</t>
+    <t>80266322</t>
+  </si>
+  <si>
+    <t>10494-ARI-I</t>
+  </si>
+  <si>
+    <t>80266323</t>
+  </si>
+  <si>
+    <t>80266325</t>
+  </si>
+  <si>
+    <t>80266326</t>
+  </si>
+  <si>
+    <t>80266328</t>
+  </si>
+  <si>
+    <t>10369-ARI-I</t>
+  </si>
+  <si>
+    <t>80266329</t>
+  </si>
+  <si>
+    <t>20975-CTY-I</t>
+  </si>
+  <si>
+    <t>80266330</t>
+  </si>
+  <si>
+    <t>80266331</t>
+  </si>
+  <si>
+    <t>20935-CTY-I</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1009,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C182"/>
+      <selection activeCell="A2" sqref="A2:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,24 +1032,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3">
-        <v>24000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3">
-        <v>50000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1174,10 +1057,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3">
-        <v>2000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1185,10 +1068,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
-        <v>600</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1196,95 +1079,95 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
-        <v>36000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>1900</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>3000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3">
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>1064</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>6000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1292,43 +1175,43 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>300000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="C17" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1336,10 +1219,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1350,7 +1233,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1358,10 +1241,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1375,7 +1258,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1383,7 +1266,7 @@
         <v>73</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1391,21 +1274,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1413,10 +1296,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1424,10 +1307,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1435,10 +1318,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1449,10 +1332,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>18000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1471,7 +1354,7 @@
         <v>86</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1479,10 +1362,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1490,10 +1373,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -1501,10 +1384,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -1515,7 +1398,7 @@
         <v>93</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -1523,10 +1406,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1534,10 +1417,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -1545,10 +1428,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -1556,43 +1439,43 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C40" s="3">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1600,10 +1483,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1611,318 +1494,318 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C44" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C45" s="3">
-        <v>5000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="C46" s="3">
-        <v>10000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="C48" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="C50" s="3">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C51" s="3">
-        <v>40000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C52" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C53" s="3">
-        <v>6000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C54" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="C55" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C56" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C57" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C58" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="C59" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C60" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="C61" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C63" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C64" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="C65" s="3">
-        <v>4</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="C66" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C67" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C68" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C69" s="3">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C70" s="3">
-        <v>16000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C71" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -1930,21 +1813,21 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C73" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -1952,98 +1835,98 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C75" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C76" s="3">
-        <v>81000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C78" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C79" s="3">
-        <v>1</v>
+        <v>750</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C80" s="3">
-        <v>1</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C81" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C82" s="3">
-        <v>3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C83" s="3">
         <v>2</v>
@@ -2051,87 +1934,87 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C84" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C85" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="C86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C87" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C88" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C89" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C90" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
@@ -2139,65 +2022,65 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C92" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C93" s="3">
-        <v>750</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C94" s="3">
-        <v>1250</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C95" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C96" s="3">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C97" s="3">
         <v>2</v>
@@ -2205,87 +2088,87 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C98" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C99" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="C100" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C101" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="C102" s="3">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C103" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C104" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="C105" s="3">
         <v>0</v>
@@ -2293,43 +2176,43 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C106" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C107" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="C108" s="3">
-        <v>5</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
@@ -2337,153 +2220,153 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="C110" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C111" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="C112" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="C113" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="C114" s="3">
-        <v>10</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="C115" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C116" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="C117" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="C118" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="C119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C120" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="C121" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C122" s="3">
-        <v>200000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
@@ -2491,10 +2374,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -2502,21 +2385,21 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="C125" s="3">
-        <v>4000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -2524,21 +2407,21 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="C127" s="3">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -2546,7 +2429,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>32</v>
@@ -2557,21 +2440,21 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C130" s="3">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
@@ -2579,10 +2462,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -2590,10 +2473,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
@@ -2601,10 +2484,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -2612,10 +2495,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
@@ -2623,10 +2506,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -2634,10 +2517,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
@@ -2645,10 +2528,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
@@ -2656,10 +2539,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
@@ -2667,10 +2550,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -2678,10 +2561,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
@@ -2689,10 +2572,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -2700,10 +2583,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -2711,21 +2594,21 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="C144" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
@@ -2733,10 +2616,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -2744,10 +2627,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
@@ -2755,10 +2638,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -2766,10 +2649,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
@@ -2777,366 +2660,192 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C150" s="3">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C151" s="3">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C152" s="3">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="C153" s="3">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C155" s="3">
-        <v>200</v>
-      </c>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C156" s="3">
-        <v>4000</v>
-      </c>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C158" s="3">
-        <v>100</v>
-      </c>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C159" s="3">
-        <v>300</v>
-      </c>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C160" s="3">
-        <v>500</v>
-      </c>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C161" s="3">
-        <v>200</v>
-      </c>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C163" s="3">
-        <v>3500</v>
-      </c>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C164" s="3">
-        <v>2500</v>
-      </c>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C165" s="3">
-        <v>500</v>
-      </c>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C167" s="3">
-        <v>3000</v>
-      </c>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C168" s="3">
-        <v>2000</v>
-      </c>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C169" s="3">
-        <v>3000</v>
-      </c>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1500</v>
-      </c>
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C180" s="3">
-        <v>1</v>
-      </c>
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C181" s="3">
-        <v>2</v>
-      </c>
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" s="3">
-        <v>1</v>
-      </c>
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF714A-6CC2-4D7B-9646-C4DB10D08B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A72B741-9CF7-44C9-8AA4-092A65230A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$384</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="192">
   <si>
     <t>Remessa</t>
   </si>
@@ -1006,10 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C385"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C153"/>
+      <selection activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1045,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>87</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>91</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>94</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>95</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>96</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>98</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>98</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>100</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>101</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>102</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>104</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>106</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>106</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>109</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>111</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>111</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>111</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>111</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>111</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>111</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>118</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>118</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>118</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>118</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>118</v>
       </c>
@@ -1679,7 +1683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>118</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>118</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>126</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>127</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>128</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>128</v>
       </c>
@@ -1756,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>128</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>128</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>128</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>128</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>128</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>128</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>128</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>128</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>137</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>137</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>137</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>137</v>
       </c>
@@ -1899,7 +1903,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>137</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>137</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>140</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>142</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>142</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>142</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>142</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>142</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>142</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>142</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>142</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>142</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>142</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>142</v>
       </c>
@@ -2053,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>149</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>150</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>150</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>150</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>150</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>155</v>
       </c>
@@ -2182,1687 +2186,1683 @@
         <v>110</v>
       </c>
       <c r="C106" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" s="5" t="s">
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C110" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C119" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C120" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C139" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C140" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B141" s="5" t="s">
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C141" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C143" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C144" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C145" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C146" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C149" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C150" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C151" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="3"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="3"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="3"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="3"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="3"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="3"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="3"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="3"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="3"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="3"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="3"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="3"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="3"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="3"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="3"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="3"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="3"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="3"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="3"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="3"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="3"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="3"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="3"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="3"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="3"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="3"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="3"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="3"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="3"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="3"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="3"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="3"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="3"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="3"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="3"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="3"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="3"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="3"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="3"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="3"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="3"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="3"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="3"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="3"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="3"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="3"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="3"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="3"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="3"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="3"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="3"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="3"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="3"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="3"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="3"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="3"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="3"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="3"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="3"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="3"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="3"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="3"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="3"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="3"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="3"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="3"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="3"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="3"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="3"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="3"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="3"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="3"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="3"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="3"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="3"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="3"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="3"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="3"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="3"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="3"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="3"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="3"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="3"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="3"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="3"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="3"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="3"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="3"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="3"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="3"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="3"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="3"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="3"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="3"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="3"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="3"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="3"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="3"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="3"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="3"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="3"/>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="3"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="3"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="3"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="3"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="3"/>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="3"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="3"/>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="3"/>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="3"/>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="3"/>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="3"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="3"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="4"/>
-      <c r="B385" s="4"/>
-      <c r="C385" s="3"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:A384" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="80266246"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A72B741-9CF7-44C9-8AA4-092A65230A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EC30B2-BB84-4C82-B546-05CDC179D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$384</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$383</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="192">
   <si>
     <t>Remessa</t>
   </si>
@@ -1010,10 +1010,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C384"/>
+  <dimension ref="A1:C383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+      <selection activeCell="C393" sqref="C393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,37 +2175,37 @@
         <v>110</v>
       </c>
       <c r="C105" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="C106" s="3">
-        <v>12</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C107" s="3">
-        <v>200000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
@@ -2246,32 +2246,32 @@
     </row>
     <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C112" s="3">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C113" s="3">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>51</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>163</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>168</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
@@ -2576,32 +2576,32 @@
     </row>
     <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C142" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C143" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -2675,25 +2675,19 @@
     </row>
     <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="3">
-        <v>1</v>
-      </c>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
@@ -3850,13 +3844,8 @@
       <c r="B383" s="4"/>
       <c r="C383" s="3"/>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="4"/>
-      <c r="B384" s="4"/>
-      <c r="C384" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A384" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
+  <autoFilter ref="A1:A383" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
     <filterColumn colId="0">
       <filters>
         <filter val="80266246"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042A6700-F163-4EAF-9712-10AA1D2CC138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70250E13-571A-4FC3-9E41-05EB64E031B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$383</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
   <si>
     <t>Remessa</t>
   </si>
@@ -197,12 +200,6 @@
     <t>10010-ARI-I</t>
   </si>
   <si>
-    <t>80265160</t>
-  </si>
-  <si>
-    <t>30018-KMT-I</t>
-  </si>
-  <si>
     <t>10645-ARI-I</t>
   </si>
   <si>
@@ -227,21 +224,9 @@
     <t>10195-ARI-I</t>
   </si>
   <si>
-    <t>80266283</t>
-  </si>
-  <si>
-    <t>23001-WEN-I</t>
-  </si>
-  <si>
     <t>10637-ARI-I</t>
   </si>
   <si>
-    <t>80266286</t>
-  </si>
-  <si>
-    <t>23000-WEN-I</t>
-  </si>
-  <si>
     <t>80266304</t>
   </si>
   <si>
@@ -305,12 +290,6 @@
     <t>80266323</t>
   </si>
   <si>
-    <t>80266324</t>
-  </si>
-  <si>
-    <t>40193-TDK-N</t>
-  </si>
-  <si>
     <t>80266325</t>
   </si>
   <si>
@@ -389,12 +368,6 @@
     <t>80266346</t>
   </si>
   <si>
-    <t>80266347</t>
-  </si>
-  <si>
-    <t>23500-GPB-I</t>
-  </si>
-  <si>
     <t>80266348</t>
   </si>
   <si>
@@ -408,6 +381,51 @@
   </si>
   <si>
     <t>80266353</t>
+  </si>
+  <si>
+    <t>80266354</t>
+  </si>
+  <si>
+    <t>80266355</t>
+  </si>
+  <si>
+    <t>80266356</t>
+  </si>
+  <si>
+    <t>19004-STM-I</t>
+  </si>
+  <si>
+    <t>80266357</t>
+  </si>
+  <si>
+    <t>80266358</t>
+  </si>
+  <si>
+    <t>80266359</t>
+  </si>
+  <si>
+    <t>80266362</t>
+  </si>
+  <si>
+    <t>80266363</t>
+  </si>
+  <si>
+    <t>10055-ARI-I</t>
+  </si>
+  <si>
+    <t>80266364</t>
+  </si>
+  <si>
+    <t>80266366</t>
+  </si>
+  <si>
+    <t>80266372</t>
+  </si>
+  <si>
+    <t>21017-CTY-I</t>
+  </si>
+  <si>
+    <t>80266373</t>
   </si>
 </sst>
 </file>
@@ -802,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:C383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C83"/>
+      <selection activeCell="A2" sqref="A2:C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,13 +846,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3">
-        <v>24000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -842,10 +860,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3">
-        <v>2000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -853,10 +871,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3">
-        <v>600</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -864,10 +882,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
-        <v>36000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -875,65 +893,65 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>2000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
-        <v>1064</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -944,7 +962,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -955,26 +973,26 @@
         <v>26</v>
       </c>
       <c r="C13" s="3">
-        <v>50000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>150000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -982,10 +1000,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -993,32 +1011,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
-        <v>4000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
-        <v>10000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1026,10 +1044,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1037,18 +1055,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>35</v>
@@ -1059,10 +1077,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1070,10 +1088,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1081,10 +1099,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1092,10 +1110,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1103,10 +1121,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1114,10 +1132,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1125,10 +1143,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -1136,10 +1154,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -1147,10 +1165,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1158,10 +1176,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1169,10 +1187,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -1180,10 +1198,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -1191,10 +1209,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -1202,10 +1220,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1213,10 +1231,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -1224,10 +1242,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -1235,10 +1253,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -1246,10 +1264,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -1257,10 +1275,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -1268,10 +1286,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1279,10 +1297,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1290,10 +1308,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -1301,10 +1319,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1312,10 +1330,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -1323,10 +1341,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -1334,21 +1352,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -1359,7 +1377,7 @@
         <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -1367,21 +1385,21 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -1389,10 +1407,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -1400,21 +1418,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54" s="3">
-        <v>15000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -1422,10 +1440,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -1433,10 +1451,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -1444,10 +1462,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -1455,10 +1473,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -1466,10 +1484,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -1477,10 +1495,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
@@ -1488,10 +1506,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -1499,10 +1517,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -1510,10 +1528,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -1521,10 +1539,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -1532,10 +1550,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -1543,10 +1561,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -1554,10 +1572,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -1565,10 +1583,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
@@ -1576,10 +1594,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -1587,10 +1605,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
@@ -1598,10 +1616,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -1609,10 +1627,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
@@ -1620,10 +1638,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -1631,10 +1649,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -1642,10 +1660,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -1653,10 +1671,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -1664,21 +1682,21 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="C78" s="3">
-        <v>33600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
@@ -1686,10 +1704,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -1697,21 +1715,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C81" s="3">
-        <v>1</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -1719,64 +1737,124 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
@@ -2069,158 +2147,158 @@
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3228,17 +3306,8 @@
       <c r="B383" s="4"/>
       <c r="C383" s="3"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="4"/>
-      <c r="B384" s="4"/>
-      <c r="C384" s="3"/>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="4"/>
-      <c r="B385" s="4"/>
-      <c r="C385" s="3"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:A383" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70250E13-571A-4FC3-9E41-05EB64E031B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A6531E-78C4-425B-888E-A1DA17B9D291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
   <si>
     <t>Remessa</t>
   </si>
@@ -426,6 +426,39 @@
   </si>
   <si>
     <t>80266373</t>
+  </si>
+  <si>
+    <t>80266387</t>
+  </si>
+  <si>
+    <t>21012-CTY-I</t>
+  </si>
+  <si>
+    <t>20941-CTY-I</t>
+  </si>
+  <si>
+    <t>21016-CTY-I</t>
+  </si>
+  <si>
+    <t>80266388</t>
+  </si>
+  <si>
+    <t>21013-CTY-I</t>
+  </si>
+  <si>
+    <t>21014-CTY-I</t>
+  </si>
+  <si>
+    <t>80266389</t>
+  </si>
+  <si>
+    <t>10253-ARI-I</t>
+  </si>
+  <si>
+    <t>80266391</t>
+  </si>
+  <si>
+    <t>80266392</t>
   </si>
 </sst>
 </file>
@@ -823,7 +856,7 @@
   <dimension ref="A1:C383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C93"/>
+      <selection activeCell="A2" sqref="A2:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1857,49 +1890,103 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A6531E-78C4-425B-888E-A1DA17B9D291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243FD417-519F-4256-A971-4DA67F195B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$383</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="158">
   <si>
     <t>Remessa</t>
   </si>
@@ -200,6 +197,12 @@
     <t>10010-ARI-I</t>
   </si>
   <si>
+    <t>80265160</t>
+  </si>
+  <si>
+    <t>30018-KMT-I</t>
+  </si>
+  <si>
     <t>10645-ARI-I</t>
   </si>
   <si>
@@ -224,9 +227,21 @@
     <t>10195-ARI-I</t>
   </si>
   <si>
+    <t>80266283</t>
+  </si>
+  <si>
+    <t>23001-WEN-I</t>
+  </si>
+  <si>
     <t>10637-ARI-I</t>
   </si>
   <si>
+    <t>80266286</t>
+  </si>
+  <si>
+    <t>23000-WEN-I</t>
+  </si>
+  <si>
     <t>80266304</t>
   </si>
   <si>
@@ -290,6 +305,12 @@
     <t>80266323</t>
   </si>
   <si>
+    <t>80266324</t>
+  </si>
+  <si>
+    <t>40193-TDK-N</t>
+  </si>
+  <si>
     <t>80266325</t>
   </si>
   <si>
@@ -368,6 +389,12 @@
     <t>80266346</t>
   </si>
   <si>
+    <t>80266347</t>
+  </si>
+  <si>
+    <t>23500-GPB-I</t>
+  </si>
+  <si>
     <t>80266348</t>
   </si>
   <si>
@@ -428,6 +455,27 @@
     <t>80266373</t>
   </si>
   <si>
+    <t>80266374</t>
+  </si>
+  <si>
+    <t>14284-TDK-N</t>
+  </si>
+  <si>
+    <t>18311-STM-I</t>
+  </si>
+  <si>
+    <t>80266381</t>
+  </si>
+  <si>
+    <t>15694-TDK-N</t>
+  </si>
+  <si>
+    <t>80266383</t>
+  </si>
+  <si>
+    <t>30013-KMT-I</t>
+  </si>
+  <si>
     <t>80266387</t>
   </si>
   <si>
@@ -459,6 +507,9 @@
   </si>
   <si>
     <t>80266392</t>
+  </si>
+  <si>
+    <t>80266394</t>
   </si>
 </sst>
 </file>
@@ -853,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C383"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C102"/>
+      <selection activeCell="A2" sqref="A2:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,13 +930,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3">
-        <v>2000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,10 +944,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,10 +955,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3">
-        <v>36000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,10 +966,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
-        <v>1900</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,65 +977,65 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>1064</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>300000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,7 +1046,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,26 +1057,26 @@
         <v>26</v>
       </c>
       <c r="C13" s="3">
-        <v>150000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1033,10 +1084,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1044,32 +1095,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3">
-        <v>1500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1077,10 +1128,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1088,18 +1139,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>35</v>
@@ -1110,10 +1161,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1121,10 +1172,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1132,10 +1183,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1143,10 +1194,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1154,10 +1205,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1165,10 +1216,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1176,10 +1227,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -1187,10 +1238,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -1198,10 +1249,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1209,10 +1260,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1220,10 +1271,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -1231,10 +1282,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -1242,10 +1293,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -1253,10 +1304,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1264,10 +1315,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -1275,10 +1326,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -1286,10 +1337,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -1297,10 +1348,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -1308,10 +1359,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -1319,10 +1370,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1330,10 +1381,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1341,10 +1392,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -1352,10 +1403,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1363,10 +1414,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -1374,10 +1425,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -1385,21 +1436,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -1410,7 +1461,7 @@
         <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -1418,21 +1469,21 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -1440,10 +1491,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -1451,21 +1502,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C54" s="3">
-        <v>1</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -1473,10 +1524,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -1484,10 +1535,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -1495,10 +1546,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -1506,10 +1557,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -1517,10 +1568,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -1528,10 +1579,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
@@ -1539,10 +1590,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -1550,10 +1601,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -1561,10 +1612,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -1572,10 +1623,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -1583,10 +1634,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -1594,10 +1645,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -1605,10 +1656,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -1616,10 +1667,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
@@ -1627,10 +1678,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -1638,10 +1689,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
@@ -1649,10 +1700,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -1660,10 +1711,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
@@ -1671,10 +1722,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -1682,10 +1733,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -1693,10 +1744,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -1704,10 +1755,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -1715,21 +1766,21 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C78" s="3">
-        <v>1</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
@@ -1737,10 +1788,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -1748,21 +1799,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C81" s="3">
-        <v>20000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -1770,10 +1821,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
@@ -1781,10 +1832,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -1792,10 +1843,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
@@ -1803,21 +1854,21 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C86" s="3">
-        <v>1</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
@@ -1825,10 +1876,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -1836,10 +1887,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
@@ -1847,10 +1898,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -1858,10 +1909,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
@@ -1869,10 +1920,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -1880,10 +1931,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
@@ -1891,43 +1942,43 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="C94" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C95" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="C96" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
@@ -1935,118 +1986,190 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C98" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C99" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C100" s="3">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="C101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C102" s="3">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="3">
+        <v>205</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="3">
+        <v>4000</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
@@ -2234,158 +2357,158 @@
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3393,8 +3516,17 @@
       <c r="B383" s="4"/>
       <c r="C383" s="3"/>
     </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="4"/>
+      <c r="B384" s="4"/>
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="4"/>
+      <c r="B385" s="4"/>
+      <c r="C385" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A383" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243FD417-519F-4256-A971-4DA67F195B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A75F460-466C-490D-A139-0BD0B43625AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -907,7 +907,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C114"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A75F460-466C-490D-A139-0BD0B43625AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F6C719-9CE6-48C1-AA6A-820F79BCDF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F6C719-9CE6-48C1-AA6A-820F79BCDF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B709793-4D2D-4344-94FD-4009187E1A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="188">
   <si>
     <t>Remessa</t>
   </si>
@@ -509,7 +509,97 @@
     <t>80266392</t>
   </si>
   <si>
-    <t>80266394</t>
+    <t>80266408</t>
+  </si>
+  <si>
+    <t>10386-ARI-I</t>
+  </si>
+  <si>
+    <t>80266409</t>
+  </si>
+  <si>
+    <t>20087-CTY-I</t>
+  </si>
+  <si>
+    <t>80266410</t>
+  </si>
+  <si>
+    <t>80266411</t>
+  </si>
+  <si>
+    <t>80266412</t>
+  </si>
+  <si>
+    <t>21481-NZX-I</t>
+  </si>
+  <si>
+    <t>80266413</t>
+  </si>
+  <si>
+    <t>10258-ARI-I</t>
+  </si>
+  <si>
+    <t>10259-ARI-I</t>
+  </si>
+  <si>
+    <t>10256-ARI-I</t>
+  </si>
+  <si>
+    <t>10257-ARI-I</t>
+  </si>
+  <si>
+    <t>10486-ARI-I</t>
+  </si>
+  <si>
+    <t>10489-ARI-I</t>
+  </si>
+  <si>
+    <t>10487-ARI-I</t>
+  </si>
+  <si>
+    <t>10246-ARI-I</t>
+  </si>
+  <si>
+    <t>80266414</t>
+  </si>
+  <si>
+    <t>80266418</t>
+  </si>
+  <si>
+    <t>80266419</t>
+  </si>
+  <si>
+    <t>14099-TDK-N</t>
+  </si>
+  <si>
+    <t>80266424</t>
+  </si>
+  <si>
+    <t>11848-KRO-L</t>
+  </si>
+  <si>
+    <t>80266425</t>
+  </si>
+  <si>
+    <t>10247-ARI-I</t>
+  </si>
+  <si>
+    <t>80266426</t>
+  </si>
+  <si>
+    <t>21475-NZX-I</t>
+  </si>
+  <si>
+    <t>23359-ATE-I</t>
+  </si>
+  <si>
+    <t>80266427</t>
+  </si>
+  <si>
+    <t>11820-DLO-I</t>
+  </si>
+  <si>
+    <t>11848-DLO-I</t>
   </si>
 </sst>
 </file>
@@ -906,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2165,146 +2255,308 @@
         <v>157</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C114" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B709793-4D2D-4344-94FD-4009187E1A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF67F9D-8805-4DC9-BDC7-3200F96612C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="207">
   <si>
     <t>Remessa</t>
   </si>
@@ -600,6 +600,63 @@
   </si>
   <si>
     <t>11848-DLO-I</t>
+  </si>
+  <si>
+    <t>80266429</t>
+  </si>
+  <si>
+    <t>80266430</t>
+  </si>
+  <si>
+    <t>80266431</t>
+  </si>
+  <si>
+    <t>80266434</t>
+  </si>
+  <si>
+    <t>80266435</t>
+  </si>
+  <si>
+    <t>10527-ARI-I</t>
+  </si>
+  <si>
+    <t>80266436</t>
+  </si>
+  <si>
+    <t>10030-XIN-I</t>
+  </si>
+  <si>
+    <t>80266437</t>
+  </si>
+  <si>
+    <t>33720-SYN-I</t>
+  </si>
+  <si>
+    <t>80266438</t>
+  </si>
+  <si>
+    <t>10547-ARI-I</t>
+  </si>
+  <si>
+    <t>10541-ARI-I</t>
+  </si>
+  <si>
+    <t>80266439</t>
+  </si>
+  <si>
+    <t>10548-ARI-I</t>
+  </si>
+  <si>
+    <t>80266440</t>
+  </si>
+  <si>
+    <t>10060-ARI-I</t>
+  </si>
+  <si>
+    <t>10040-ARI-I</t>
+  </si>
+  <si>
+    <t>80266441</t>
   </si>
 </sst>
 </file>
@@ -996,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C141"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2559,79 +2616,169 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="3"/>
+      <c r="A147" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="3"/>
+      <c r="A151" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF67F9D-8805-4DC9-BDC7-3200F96612C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D081722B-DC31-444D-9033-3834EDF10074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Remessa</t>
   </si>
@@ -50,15 +50,9 @@
     <t>10000-LDG-I</t>
   </si>
   <si>
-    <t>10636-ARI-I</t>
-  </si>
-  <si>
     <t>10255-ARI-I</t>
   </si>
   <si>
-    <t>10030-ARI-I</t>
-  </si>
-  <si>
     <t>80265944</t>
   </si>
   <si>
@@ -77,21 +71,6 @@
     <t>40069-TDK-I</t>
   </si>
   <si>
-    <t>10492-ARI-I</t>
-  </si>
-  <si>
-    <t>80266137</t>
-  </si>
-  <si>
-    <t>30152-OSR-I</t>
-  </si>
-  <si>
-    <t>30259-OSR-I</t>
-  </si>
-  <si>
-    <t>10020-ARI-I</t>
-  </si>
-  <si>
     <t>80265942</t>
   </si>
   <si>
@@ -110,559 +89,43 @@
     <t>60234-WUE-I</t>
   </si>
   <si>
-    <t>21340-NZX-I</t>
-  </si>
-  <si>
-    <t>80266280</t>
-  </si>
-  <si>
-    <t>30174-OSR-I</t>
-  </si>
-  <si>
-    <t>80266281</t>
-  </si>
-  <si>
-    <t>80266282</t>
-  </si>
-  <si>
-    <t>23380-ATE-I</t>
-  </si>
-  <si>
-    <t>80266287</t>
-  </si>
-  <si>
-    <t>80266289</t>
-  </si>
-  <si>
-    <t>10399-ARI-I</t>
-  </si>
-  <si>
-    <t>80266290</t>
-  </si>
-  <si>
-    <t>80266291</t>
-  </si>
-  <si>
-    <t>10175-ARI-I</t>
-  </si>
-  <si>
-    <t>80266292</t>
-  </si>
-  <si>
-    <t>80266293</t>
-  </si>
-  <si>
-    <t>80266294</t>
-  </si>
-  <si>
-    <t>80266295</t>
-  </si>
-  <si>
-    <t>20041-CTY-I</t>
-  </si>
-  <si>
-    <t>80266296</t>
-  </si>
-  <si>
-    <t>10496-ARI-I</t>
-  </si>
-  <si>
-    <t>80266297</t>
-  </si>
-  <si>
-    <t>80266298</t>
-  </si>
-  <si>
-    <t>80266299</t>
-  </si>
-  <si>
-    <t>80266300</t>
-  </si>
-  <si>
-    <t>10388-ARI-I</t>
-  </si>
-  <si>
-    <t>80266301</t>
-  </si>
-  <si>
-    <t>80266302</t>
-  </si>
-  <si>
-    <t>21477-NZX-I</t>
-  </si>
-  <si>
-    <t>80266303</t>
-  </si>
-  <si>
-    <t>10010-ARI-I</t>
-  </si>
-  <si>
     <t>80265160</t>
   </si>
   <si>
     <t>30018-KMT-I</t>
   </si>
   <si>
-    <t>10645-ARI-I</t>
-  </si>
-  <si>
-    <t>10382-ARI-I</t>
-  </si>
-  <si>
-    <t>10065-ARI-I</t>
-  </si>
-  <si>
-    <t>10479-ARI-I</t>
-  </si>
-  <si>
-    <t>10362-ARI-I</t>
-  </si>
-  <si>
-    <t>10251-ARI-I</t>
-  </si>
-  <si>
-    <t>10493-ARI-I</t>
-  </si>
-  <si>
-    <t>10195-ARI-I</t>
-  </si>
-  <si>
-    <t>80266283</t>
-  </si>
-  <si>
-    <t>23001-WEN-I</t>
-  </si>
-  <si>
-    <t>10637-ARI-I</t>
-  </si>
-  <si>
-    <t>80266286</t>
-  </si>
-  <si>
-    <t>23000-WEN-I</t>
-  </si>
-  <si>
-    <t>80266304</t>
-  </si>
-  <si>
-    <t>80266306</t>
-  </si>
-  <si>
-    <t>80266307</t>
-  </si>
-  <si>
-    <t>10638-ARI-I</t>
-  </si>
-  <si>
-    <t>10070-ARI-I</t>
-  </si>
-  <si>
-    <t>80266309</t>
-  </si>
-  <si>
-    <t>80266312</t>
-  </si>
-  <si>
-    <t>80266313</t>
-  </si>
-  <si>
-    <t>80266314</t>
-  </si>
-  <si>
-    <t>80266315</t>
-  </si>
-  <si>
-    <t>80266316</t>
-  </si>
-  <si>
-    <t>80266317</t>
-  </si>
-  <si>
-    <t>80266318</t>
-  </si>
-  <si>
-    <t>80266319</t>
-  </si>
-  <si>
-    <t>80266320</t>
-  </si>
-  <si>
-    <t>20936-CTY-I</t>
-  </si>
-  <si>
-    <t>80266321</t>
-  </si>
-  <si>
-    <t>33416-ATE-I</t>
-  </si>
-  <si>
-    <t>80266322</t>
-  </si>
-  <si>
-    <t>10494-ARI-I</t>
-  </si>
-  <si>
-    <t>80266323</t>
-  </si>
-  <si>
     <t>80266324</t>
   </si>
   <si>
     <t>40193-TDK-N</t>
   </si>
   <si>
-    <t>80266325</t>
-  </si>
-  <si>
-    <t>80266326</t>
-  </si>
-  <si>
-    <t>80266328</t>
-  </si>
-  <si>
-    <t>10369-ARI-I</t>
-  </si>
-  <si>
-    <t>80266329</t>
-  </si>
-  <si>
-    <t>20975-CTY-I</t>
-  </si>
-  <si>
-    <t>80266330</t>
-  </si>
-  <si>
-    <t>80266331</t>
-  </si>
-  <si>
-    <t>20935-CTY-I</t>
-  </si>
-  <si>
-    <t>80266333</t>
-  </si>
-  <si>
-    <t>80266334</t>
-  </si>
-  <si>
-    <t>80266335</t>
-  </si>
-  <si>
-    <t>12003-KRO-I</t>
-  </si>
-  <si>
-    <t>80266336</t>
-  </si>
-  <si>
-    <t>80266337</t>
-  </si>
-  <si>
-    <t>80266338</t>
-  </si>
-  <si>
-    <t>20986-CTY-I</t>
-  </si>
-  <si>
-    <t>80266339</t>
-  </si>
-  <si>
-    <t>33512-ATE-I</t>
-  </si>
-  <si>
-    <t>80266340</t>
-  </si>
-  <si>
-    <t>80266341</t>
-  </si>
-  <si>
-    <t>80266342</t>
-  </si>
-  <si>
-    <t>80266343</t>
-  </si>
-  <si>
-    <t>80266345</t>
-  </si>
-  <si>
-    <t>10050-ARI-I</t>
-  </si>
-  <si>
-    <t>80266346</t>
-  </si>
-  <si>
-    <t>80266347</t>
-  </si>
-  <si>
-    <t>23500-GPB-I</t>
-  </si>
-  <si>
-    <t>80266348</t>
-  </si>
-  <si>
-    <t>80266350</t>
-  </si>
-  <si>
-    <t>80266351</t>
-  </si>
-  <si>
-    <t>80266352</t>
-  </si>
-  <si>
-    <t>80266353</t>
-  </si>
-  <si>
-    <t>80266354</t>
-  </si>
-  <si>
-    <t>80266355</t>
-  </si>
-  <si>
-    <t>80266356</t>
-  </si>
-  <si>
-    <t>19004-STM-I</t>
-  </si>
-  <si>
-    <t>80266357</t>
-  </si>
-  <si>
-    <t>80266358</t>
-  </si>
-  <si>
-    <t>80266359</t>
-  </si>
-  <si>
-    <t>80266362</t>
-  </si>
-  <si>
-    <t>80266363</t>
-  </si>
-  <si>
-    <t>10055-ARI-I</t>
-  </si>
-  <si>
-    <t>80266364</t>
-  </si>
-  <si>
-    <t>80266366</t>
-  </si>
-  <si>
-    <t>80266372</t>
-  </si>
-  <si>
-    <t>21017-CTY-I</t>
-  </si>
-  <si>
-    <t>80266373</t>
-  </si>
-  <si>
-    <t>80266374</t>
-  </si>
-  <si>
-    <t>14284-TDK-N</t>
-  </si>
-  <si>
-    <t>18311-STM-I</t>
-  </si>
-  <si>
-    <t>80266381</t>
-  </si>
-  <si>
-    <t>15694-TDK-N</t>
-  </si>
-  <si>
-    <t>80266383</t>
-  </si>
-  <si>
-    <t>30013-KMT-I</t>
-  </si>
-  <si>
-    <t>80266387</t>
-  </si>
-  <si>
-    <t>21012-CTY-I</t>
-  </si>
-  <si>
-    <t>20941-CTY-I</t>
-  </si>
-  <si>
-    <t>21016-CTY-I</t>
-  </si>
-  <si>
-    <t>80266388</t>
-  </si>
-  <si>
-    <t>21013-CTY-I</t>
-  </si>
-  <si>
-    <t>21014-CTY-I</t>
-  </si>
-  <si>
-    <t>80266389</t>
-  </si>
-  <si>
-    <t>10253-ARI-I</t>
-  </si>
-  <si>
-    <t>80266391</t>
-  </si>
-  <si>
-    <t>80266392</t>
-  </si>
-  <si>
-    <t>80266408</t>
-  </si>
-  <si>
-    <t>10386-ARI-I</t>
-  </si>
-  <si>
-    <t>80266409</t>
-  </si>
-  <si>
-    <t>20087-CTY-I</t>
-  </si>
-  <si>
-    <t>80266410</t>
-  </si>
-  <si>
-    <t>80266411</t>
-  </si>
-  <si>
-    <t>80266412</t>
-  </si>
-  <si>
-    <t>21481-NZX-I</t>
-  </si>
-  <si>
-    <t>80266413</t>
-  </si>
-  <si>
-    <t>10258-ARI-I</t>
-  </si>
-  <si>
-    <t>10259-ARI-I</t>
-  </si>
-  <si>
-    <t>10256-ARI-I</t>
-  </si>
-  <si>
-    <t>10257-ARI-I</t>
-  </si>
-  <si>
-    <t>10486-ARI-I</t>
-  </si>
-  <si>
-    <t>10489-ARI-I</t>
-  </si>
-  <si>
-    <t>10487-ARI-I</t>
-  </si>
-  <si>
-    <t>10246-ARI-I</t>
-  </si>
-  <si>
-    <t>80266414</t>
-  </si>
-  <si>
-    <t>80266418</t>
-  </si>
-  <si>
-    <t>80266419</t>
-  </si>
-  <si>
-    <t>14099-TDK-N</t>
-  </si>
-  <si>
-    <t>80266424</t>
-  </si>
-  <si>
-    <t>11848-KRO-L</t>
-  </si>
-  <si>
-    <t>80266425</t>
-  </si>
-  <si>
-    <t>10247-ARI-I</t>
-  </si>
-  <si>
-    <t>80266426</t>
-  </si>
-  <si>
-    <t>21475-NZX-I</t>
-  </si>
-  <si>
-    <t>23359-ATE-I</t>
-  </si>
-  <si>
-    <t>80266427</t>
-  </si>
-  <si>
-    <t>11820-DLO-I</t>
-  </si>
-  <si>
-    <t>11848-DLO-I</t>
-  </si>
-  <si>
-    <t>80266429</t>
-  </si>
-  <si>
-    <t>80266430</t>
-  </si>
-  <si>
-    <t>80266431</t>
-  </si>
-  <si>
-    <t>80266434</t>
-  </si>
-  <si>
-    <t>80266435</t>
-  </si>
-  <si>
-    <t>10527-ARI-I</t>
-  </si>
-  <si>
-    <t>80266436</t>
-  </si>
-  <si>
-    <t>10030-XIN-I</t>
-  </si>
-  <si>
-    <t>80266437</t>
-  </si>
-  <si>
-    <t>33720-SYN-I</t>
-  </si>
-  <si>
-    <t>80266438</t>
-  </si>
-  <si>
-    <t>10547-ARI-I</t>
-  </si>
-  <si>
-    <t>10541-ARI-I</t>
-  </si>
-  <si>
-    <t>80266439</t>
-  </si>
-  <si>
-    <t>10548-ARI-I</t>
-  </si>
-  <si>
-    <t>80266440</t>
-  </si>
-  <si>
-    <t>10060-ARI-I</t>
-  </si>
-  <si>
-    <t>10040-ARI-I</t>
-  </si>
-  <si>
-    <t>80266441</t>
+    <t>80266481</t>
+  </si>
+  <si>
+    <t>60208-STM-I</t>
+  </si>
+  <si>
+    <t>80266490</t>
+  </si>
+  <si>
+    <t>30253-OSR-I</t>
+  </si>
+  <si>
+    <t>80266491</t>
+  </si>
+  <si>
+    <t>80266492</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,134 +543,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6">
         <v>24000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
         <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
         <v>36000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
         <v>1900</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6">
         <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
         <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3">
-        <v>300000</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="6">
+        <v>15000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3">
-        <v>50000</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
+        <v>384000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,1573 +678,727 @@
         <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3">
-        <v>150000</v>
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
+      <c r="C15" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4000</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10000</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1500</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="3">
-        <v>15000</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="3">
-        <v>33600</v>
-      </c>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1</v>
-      </c>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="3">
-        <v>1</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="3">
-        <v>1</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" s="3">
-        <v>20000</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" s="3">
-        <v>1</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" s="3">
-        <v>1</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" s="3">
-        <v>1</v>
-      </c>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="3">
-        <v>1</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="3">
-        <v>1</v>
-      </c>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" s="3">
-        <v>1</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" s="3">
-        <v>1</v>
-      </c>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C96" s="3">
-        <v>1</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="3">
-        <v>1</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="3">
-        <v>15</v>
-      </c>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C100" s="3">
-        <v>90</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" s="3">
-        <v>0</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C102" s="3">
-        <v>155</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" s="3">
-        <v>205</v>
-      </c>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="3">
-        <v>4000</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C105" s="3">
-        <v>2</v>
-      </c>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C106" s="3">
-        <v>5</v>
-      </c>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C107" s="3">
-        <v>3</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C108" s="3">
-        <v>1</v>
-      </c>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="3">
-        <v>3</v>
-      </c>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C110" s="3">
-        <v>5</v>
-      </c>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C111" s="3">
-        <v>1</v>
-      </c>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
-      </c>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C113" s="3">
-        <v>1</v>
-      </c>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C114" s="3">
-        <v>1</v>
-      </c>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C115" s="3">
-        <v>1</v>
-      </c>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C116" s="3">
-        <v>1</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" s="3">
-        <v>1</v>
-      </c>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="3">
-        <v>1</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="3">
-        <v>4</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C120" s="3">
-        <v>4</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C121" s="3">
-        <v>1</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C122" s="3">
-        <v>4</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C123" s="3">
-        <v>1</v>
-      </c>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="3">
-        <v>8</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" s="3">
-        <v>4</v>
-      </c>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C126" s="3">
-        <v>2</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C127" s="3">
-        <v>1</v>
-      </c>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C128" s="3">
-        <v>1</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C129" s="3">
-        <v>2</v>
-      </c>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C130" s="3">
-        <v>1</v>
-      </c>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C131" s="3">
-        <v>1</v>
-      </c>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C132" s="3">
-        <v>10</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="3">
-        <v>1</v>
-      </c>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C134" s="3">
-        <v>1</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C135" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C136" s="3">
-        <v>1</v>
-      </c>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C137" s="3">
-        <v>1</v>
-      </c>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C138" s="3">
-        <v>1</v>
-      </c>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C139" s="3">
-        <v>2</v>
-      </c>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C140" s="3">
-        <v>1</v>
-      </c>
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C141" s="3">
-        <v>2</v>
-      </c>
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C142" s="3">
-        <v>1</v>
-      </c>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C143" s="3">
-        <v>1</v>
-      </c>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" s="3">
-        <v>1</v>
-      </c>
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C145" s="3">
-        <v>1</v>
-      </c>
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="3">
-        <v>1</v>
-      </c>
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C147" s="3">
-        <v>1</v>
-      </c>
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C148" s="3">
-        <v>1</v>
-      </c>
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C149" s="3">
-        <v>300</v>
-      </c>
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C150" s="3">
-        <v>1</v>
-      </c>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C151" s="3">
-        <v>1</v>
-      </c>
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C152" s="3">
-        <v>1</v>
-      </c>
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1</v>
-      </c>
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D081722B-DC31-444D-9033-3834EDF10074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D7CDF9-8E0B-4802-A0DC-EED6EDE81E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Remessa</t>
   </si>
@@ -74,9 +74,6 @@
     <t>80265942</t>
   </si>
   <si>
-    <t>20637-TDK-I</t>
-  </si>
-  <si>
     <t>20850-FUZ-I</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
     <t>60234-WUE-I</t>
   </si>
   <si>
-    <t>80265160</t>
-  </si>
-  <si>
-    <t>30018-KMT-I</t>
-  </si>
-  <si>
     <t>80266324</t>
   </si>
   <si>
@@ -117,15 +108,45 @@
   </si>
   <si>
     <t>80266492</t>
+  </si>
+  <si>
+    <t>80266501</t>
+  </si>
+  <si>
+    <t>10145-ARI-I</t>
+  </si>
+  <si>
+    <t>80266502</t>
+  </si>
+  <si>
+    <t>80266504</t>
+  </si>
+  <si>
+    <t>12003-KRO-I</t>
+  </si>
+  <si>
+    <t>80266505</t>
+  </si>
+  <si>
+    <t>10636-ARI-I</t>
+  </si>
+  <si>
+    <t>80266506</t>
+  </si>
+  <si>
+    <t>20935-CTY-I</t>
+  </si>
+  <si>
+    <t>80266507</t>
+  </si>
+  <si>
+    <t>80266508</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,9 +200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +538,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,13 +561,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6">
-        <v>24000</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -557,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2000</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -568,10 +586,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6">
-        <v>600</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -579,87 +597,87 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6">
-        <v>36000</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1900</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1500</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5000</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1064</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2000</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>15000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1064</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6">
-        <v>15000</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="3">
+        <v>384000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -667,20 +685,20 @@
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6">
-        <v>384000</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -691,34 +709,64 @@
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D7CDF9-8E0B-4802-A0DC-EED6EDE81E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05035162-4936-486B-B334-705EEFD81DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Remessa</t>
   </si>
@@ -141,6 +141,57 @@
   </si>
   <si>
     <t>80266508</t>
+  </si>
+  <si>
+    <t>80265160</t>
+  </si>
+  <si>
+    <t>30018-KMT-I</t>
+  </si>
+  <si>
+    <t>20637-TDK-I</t>
+  </si>
+  <si>
+    <t>80266510</t>
+  </si>
+  <si>
+    <t>10025-ARI-I</t>
+  </si>
+  <si>
+    <t>80266511</t>
+  </si>
+  <si>
+    <t>10020-ARI-I</t>
+  </si>
+  <si>
+    <t>80266512</t>
+  </si>
+  <si>
+    <t>10382-ARI-I</t>
+  </si>
+  <si>
+    <t>80266513</t>
+  </si>
+  <si>
+    <t>10399-ARI-I</t>
+  </si>
+  <si>
+    <t>80266514</t>
+  </si>
+  <si>
+    <t>10008-LDG-I</t>
+  </si>
+  <si>
+    <t>80266516</t>
+  </si>
+  <si>
+    <t>10001-LDG-I</t>
+  </si>
+  <si>
+    <t>84004823</t>
+  </si>
+  <si>
+    <t>15211-DLO-I</t>
   </si>
 </sst>
 </file>
@@ -538,7 +589,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,13 +612,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
-        <v>600</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -575,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3">
-        <v>36000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
-        <v>1900</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -597,106 +648,106 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>1500</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
-        <v>5000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
-        <v>1064</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>15000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>384000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
-        <v>2</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -704,32 +755,32 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -737,21 +788,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -759,59 +810,113 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C22" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05035162-4936-486B-B334-705EEFD81DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F89AA9-9093-4163-B10D-76D94374F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Remessa</t>
   </si>
@@ -192,6 +181,96 @@
   </si>
   <si>
     <t>15211-DLO-I</t>
+  </si>
+  <si>
+    <t>80266517</t>
+  </si>
+  <si>
+    <t>10377-ARI-I</t>
+  </si>
+  <si>
+    <t>80266519</t>
+  </si>
+  <si>
+    <t>15386-DLO-I</t>
+  </si>
+  <si>
+    <t>80266522</t>
+  </si>
+  <si>
+    <t>10361-ARI-I</t>
+  </si>
+  <si>
+    <t>80266523</t>
+  </si>
+  <si>
+    <t>80266524</t>
+  </si>
+  <si>
+    <t>10533-DLO-I</t>
+  </si>
+  <si>
+    <t>80266525</t>
+  </si>
+  <si>
+    <t>10388-ARI-I</t>
+  </si>
+  <si>
+    <t>80266526</t>
+  </si>
+  <si>
+    <t>10383-ARI-I</t>
+  </si>
+  <si>
+    <t>80266527</t>
+  </si>
+  <si>
+    <t>80266529</t>
+  </si>
+  <si>
+    <t>33664-ATE-I</t>
+  </si>
+  <si>
+    <t>80266530</t>
+  </si>
+  <si>
+    <t>10125-ARI-I</t>
+  </si>
+  <si>
+    <t>80266534</t>
+  </si>
+  <si>
+    <t>33642-ATE-I</t>
+  </si>
+  <si>
+    <t>33652-ATE-I</t>
+  </si>
+  <si>
+    <t>33382-ATE-I</t>
+  </si>
+  <si>
+    <t>33380-ATE-I</t>
+  </si>
+  <si>
+    <t>23495-GPB-I</t>
+  </si>
+  <si>
+    <t>23432-GPB-I</t>
+  </si>
+  <si>
+    <t>10000-MBY-I</t>
+  </si>
+  <si>
+    <t>21501-NZX-I</t>
+  </si>
+  <si>
+    <t>80266537</t>
+  </si>
+  <si>
+    <t>10645-ARI-I</t>
+  </si>
+  <si>
+    <t>10486-ARI-I</t>
   </si>
 </sst>
 </file>
@@ -589,7 +668,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,119 +988,245 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F89AA9-9093-4163-B10D-76D94374F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F303D5-4CB0-42D7-81C9-31AD20E0F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>Remessa</t>
   </si>
@@ -271,6 +271,27 @@
   </si>
   <si>
     <t>10486-ARI-I</t>
+  </si>
+  <si>
+    <t>80266540</t>
+  </si>
+  <si>
+    <t>14088-TDK-I</t>
+  </si>
+  <si>
+    <t>80266542</t>
+  </si>
+  <si>
+    <t>23000-WEN-I</t>
+  </si>
+  <si>
+    <t>15658-TDK-N</t>
+  </si>
+  <si>
+    <t>84004824</t>
+  </si>
+  <si>
+    <t>10251-ARI-I</t>
   </si>
 </sst>
 </file>
@@ -668,7 +689,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,34 +1240,58 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="3">
         <v>50</v>
       </c>
-      <c r="B50" s="5" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C53" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-    </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F303D5-4CB0-42D7-81C9-31AD20E0F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147AD4B5-7175-4D46-9266-E4CD6F55F264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>Remessa</t>
   </si>
@@ -292,6 +292,42 @@
   </si>
   <si>
     <t>10251-ARI-I</t>
+  </si>
+  <si>
+    <t>80266554</t>
+  </si>
+  <si>
+    <t>10246-ARI-I</t>
+  </si>
+  <si>
+    <t>80266555</t>
+  </si>
+  <si>
+    <t>10256-ARI-I</t>
+  </si>
+  <si>
+    <t>80266556</t>
+  </si>
+  <si>
+    <t>80266557</t>
+  </si>
+  <si>
+    <t>10119-ATE-I</t>
+  </si>
+  <si>
+    <t>23359-ATE-I</t>
+  </si>
+  <si>
+    <t>23380-ATE-I</t>
+  </si>
+  <si>
+    <t>80266563</t>
+  </si>
+  <si>
+    <t>31497-MNW-I</t>
+  </si>
+  <si>
+    <t>84004825</t>
   </si>
 </sst>
 </file>
@@ -689,7 +725,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,10 +1309,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -1284,59 +1320,113 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147AD4B5-7175-4D46-9266-E4CD6F55F264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAADCA39-D2C5-49C1-AA1A-3F788E896396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Remessa</t>
   </si>
@@ -36,28 +36,10 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>10000-LDG-I</t>
-  </si>
-  <si>
-    <t>10255-ARI-I</t>
-  </si>
-  <si>
     <t>80265944</t>
   </si>
   <si>
     <t>20389-DCC-I</t>
-  </si>
-  <si>
-    <t>80266080</t>
-  </si>
-  <si>
-    <t>60233-STM-I</t>
-  </si>
-  <si>
-    <t>80266081</t>
-  </si>
-  <si>
-    <t>40069-TDK-I</t>
   </si>
   <si>
     <t>80265942</t>
@@ -81,57 +63,6 @@
     <t>40193-TDK-N</t>
   </si>
   <si>
-    <t>80266481</t>
-  </si>
-  <si>
-    <t>60208-STM-I</t>
-  </si>
-  <si>
-    <t>80266490</t>
-  </si>
-  <si>
-    <t>30253-OSR-I</t>
-  </si>
-  <si>
-    <t>80266491</t>
-  </si>
-  <si>
-    <t>80266492</t>
-  </si>
-  <si>
-    <t>80266501</t>
-  </si>
-  <si>
-    <t>10145-ARI-I</t>
-  </si>
-  <si>
-    <t>80266502</t>
-  </si>
-  <si>
-    <t>80266504</t>
-  </si>
-  <si>
-    <t>12003-KRO-I</t>
-  </si>
-  <si>
-    <t>80266505</t>
-  </si>
-  <si>
-    <t>10636-ARI-I</t>
-  </si>
-  <si>
-    <t>80266506</t>
-  </si>
-  <si>
-    <t>20935-CTY-I</t>
-  </si>
-  <si>
-    <t>80266507</t>
-  </si>
-  <si>
-    <t>80266508</t>
-  </si>
-  <si>
     <t>80265160</t>
   </si>
   <si>
@@ -141,193 +72,16 @@
     <t>20637-TDK-I</t>
   </si>
   <si>
-    <t>80266510</t>
+    <t>80264004</t>
   </si>
   <si>
-    <t>10025-ARI-I</t>
+    <t>33569-ATE-I</t>
   </si>
   <si>
-    <t>80266511</t>
+    <t>80266631</t>
   </si>
   <si>
-    <t>10020-ARI-I</t>
-  </si>
-  <si>
-    <t>80266512</t>
-  </si>
-  <si>
-    <t>10382-ARI-I</t>
-  </si>
-  <si>
-    <t>80266513</t>
-  </si>
-  <si>
-    <t>10399-ARI-I</t>
-  </si>
-  <si>
-    <t>80266514</t>
-  </si>
-  <si>
-    <t>10008-LDG-I</t>
-  </si>
-  <si>
-    <t>80266516</t>
-  </si>
-  <si>
-    <t>10001-LDG-I</t>
-  </si>
-  <si>
-    <t>84004823</t>
-  </si>
-  <si>
-    <t>15211-DLO-I</t>
-  </si>
-  <si>
-    <t>80266517</t>
-  </si>
-  <si>
-    <t>10377-ARI-I</t>
-  </si>
-  <si>
-    <t>80266519</t>
-  </si>
-  <si>
-    <t>15386-DLO-I</t>
-  </si>
-  <si>
-    <t>80266522</t>
-  </si>
-  <si>
-    <t>10361-ARI-I</t>
-  </si>
-  <si>
-    <t>80266523</t>
-  </si>
-  <si>
-    <t>80266524</t>
-  </si>
-  <si>
-    <t>10533-DLO-I</t>
-  </si>
-  <si>
-    <t>80266525</t>
-  </si>
-  <si>
-    <t>10388-ARI-I</t>
-  </si>
-  <si>
-    <t>80266526</t>
-  </si>
-  <si>
-    <t>10383-ARI-I</t>
-  </si>
-  <si>
-    <t>80266527</t>
-  </si>
-  <si>
-    <t>80266529</t>
-  </si>
-  <si>
-    <t>33664-ATE-I</t>
-  </si>
-  <si>
-    <t>80266530</t>
-  </si>
-  <si>
-    <t>10125-ARI-I</t>
-  </si>
-  <si>
-    <t>80266534</t>
-  </si>
-  <si>
-    <t>33642-ATE-I</t>
-  </si>
-  <si>
-    <t>33652-ATE-I</t>
-  </si>
-  <si>
-    <t>33382-ATE-I</t>
-  </si>
-  <si>
-    <t>33380-ATE-I</t>
-  </si>
-  <si>
-    <t>23495-GPB-I</t>
-  </si>
-  <si>
-    <t>23432-GPB-I</t>
-  </si>
-  <si>
-    <t>10000-MBY-I</t>
-  </si>
-  <si>
-    <t>21501-NZX-I</t>
-  </si>
-  <si>
-    <t>80266537</t>
-  </si>
-  <si>
-    <t>10645-ARI-I</t>
-  </si>
-  <si>
-    <t>10486-ARI-I</t>
-  </si>
-  <si>
-    <t>80266540</t>
-  </si>
-  <si>
-    <t>14088-TDK-I</t>
-  </si>
-  <si>
-    <t>80266542</t>
-  </si>
-  <si>
-    <t>23000-WEN-I</t>
-  </si>
-  <si>
-    <t>15658-TDK-N</t>
-  </si>
-  <si>
-    <t>84004824</t>
-  </si>
-  <si>
-    <t>10251-ARI-I</t>
-  </si>
-  <si>
-    <t>80266554</t>
-  </si>
-  <si>
-    <t>10246-ARI-I</t>
-  </si>
-  <si>
-    <t>80266555</t>
-  </si>
-  <si>
-    <t>10256-ARI-I</t>
-  </si>
-  <si>
-    <t>80266556</t>
-  </si>
-  <si>
-    <t>80266557</t>
-  </si>
-  <si>
-    <t>10119-ATE-I</t>
-  </si>
-  <si>
-    <t>23359-ATE-I</t>
-  </si>
-  <si>
-    <t>23380-ATE-I</t>
-  </si>
-  <si>
-    <t>80266563</t>
-  </si>
-  <si>
-    <t>31497-MNW-I</t>
-  </si>
-  <si>
-    <t>84004825</t>
+    <t>12350-DLO-I</t>
   </si>
 </sst>
 </file>
@@ -725,7 +479,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,68 +502,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
-        <v>24000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
-        <v>36000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
-        <v>1900</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,616 +571,304 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>1064</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>15000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3">
-        <v>384000</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="3">
-        <v>3</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2</v>
-      </c>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="3">
-        <v>8</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="3">
-        <v>40</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="3">
-        <v>10</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="3">
-        <v>10</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="3">
-        <v>2</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1170</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="3">
-        <v>50</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="3">
-        <v>5</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="3">
-        <v>2</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="3">
-        <v>10</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="3">
-        <v>2</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAADCA39-D2C5-49C1-AA1A-3F788E896396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4A8535-092A-4902-88FF-36615EEA2A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Remessa</t>
   </si>
@@ -82,6 +82,75 @@
   </si>
   <si>
     <t>12350-DLO-I</t>
+  </si>
+  <si>
+    <t>80266647</t>
+  </si>
+  <si>
+    <t>15202-DLO-I</t>
+  </si>
+  <si>
+    <t>15178-DLO-I</t>
+  </si>
+  <si>
+    <t>80266654</t>
+  </si>
+  <si>
+    <t>15187-DLO-I</t>
+  </si>
+  <si>
+    <t>15306-DLO-I</t>
+  </si>
+  <si>
+    <t>80266655</t>
+  </si>
+  <si>
+    <t>21252-KEY-L</t>
+  </si>
+  <si>
+    <t>80266658</t>
+  </si>
+  <si>
+    <t>10000-LDG-I</t>
+  </si>
+  <si>
+    <t>80266660</t>
+  </si>
+  <si>
+    <t>30202-OSR-I</t>
+  </si>
+  <si>
+    <t>80266661</t>
+  </si>
+  <si>
+    <t>10384-ARI-I</t>
+  </si>
+  <si>
+    <t>80266663</t>
+  </si>
+  <si>
+    <t>30161-OSR-I</t>
+  </si>
+  <si>
+    <t>80266664</t>
+  </si>
+  <si>
+    <t>10247-ARI-I</t>
+  </si>
+  <si>
+    <t>80266668</t>
+  </si>
+  <si>
+    <t>23000-WEN-I</t>
+  </si>
+  <si>
+    <t>15658-TDK-N</t>
+  </si>
+  <si>
+    <t>80266669</t>
+  </si>
+  <si>
+    <t>10175-ARI-I</t>
   </si>
 </sst>
 </file>
@@ -479,7 +548,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,69 +680,147 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4500</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3">
+        <v>72000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4A8535-092A-4902-88FF-36615EEA2A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8880CE-CA9F-4B79-AC8B-39E99CB4F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Remessa</t>
   </si>
@@ -151,6 +151,54 @@
   </si>
   <si>
     <t>10175-ARI-I</t>
+  </si>
+  <si>
+    <t>80266681</t>
+  </si>
+  <si>
+    <t>10496-ARI-I</t>
+  </si>
+  <si>
+    <t>80266683</t>
+  </si>
+  <si>
+    <t>10010-ARI-I</t>
+  </si>
+  <si>
+    <t>80266684</t>
+  </si>
+  <si>
+    <t>80266685</t>
+  </si>
+  <si>
+    <t>10352-ARI-I</t>
+  </si>
+  <si>
+    <t>80266686</t>
+  </si>
+  <si>
+    <t>80266690</t>
+  </si>
+  <si>
+    <t>20936-CTY-I</t>
+  </si>
+  <si>
+    <t>80266691</t>
+  </si>
+  <si>
+    <t>30174-OSR-I</t>
+  </si>
+  <si>
+    <t>80266693</t>
+  </si>
+  <si>
+    <t>10387-ARI-I</t>
+  </si>
+  <si>
+    <t>80266694</t>
+  </si>
+  <si>
+    <t>10240-ARI-I</t>
   </si>
 </sst>
 </file>
@@ -548,7 +596,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,49 +871,103 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20000</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8880CE-CA9F-4B79-AC8B-39E99CB4F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CE32DA-AEAF-4292-BBD1-C00D82486FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>Remessa</t>
   </si>
@@ -199,6 +199,63 @@
   </si>
   <si>
     <t>10240-ARI-I</t>
+  </si>
+  <si>
+    <t>80266695</t>
+  </si>
+  <si>
+    <t>80266697</t>
+  </si>
+  <si>
+    <t>21487-MET-I</t>
+  </si>
+  <si>
+    <t>40343-TDK-N</t>
+  </si>
+  <si>
+    <t>15079-TDK-N</t>
+  </si>
+  <si>
+    <t>15403-TDK-N</t>
+  </si>
+  <si>
+    <t>40353-TDK-N</t>
+  </si>
+  <si>
+    <t>60240-STM-I</t>
+  </si>
+  <si>
+    <t>40046-TDK-I</t>
+  </si>
+  <si>
+    <t>80266700</t>
+  </si>
+  <si>
+    <t>10361-ARI-I</t>
+  </si>
+  <si>
+    <t>80266701</t>
+  </si>
+  <si>
+    <t>10255-ARI-I</t>
+  </si>
+  <si>
+    <t>80266702</t>
+  </si>
+  <si>
+    <t>10399-ARI-I</t>
+  </si>
+  <si>
+    <t>80266703</t>
+  </si>
+  <si>
+    <t>10650-ARI-I</t>
+  </si>
+  <si>
+    <t>80266704</t>
+  </si>
+  <si>
+    <t>20041-CTY-I</t>
   </si>
 </sst>
 </file>
@@ -596,7 +653,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,69 +1027,147 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2160</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1800</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3500</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="3">
+        <v>800</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CE32DA-AEAF-4292-BBD1-C00D82486FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD7BB2A-33FE-455F-9F97-729EF18CABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <t>Remessa</t>
   </si>
@@ -84,12 +84,6 @@
     <t>12350-DLO-I</t>
   </si>
   <si>
-    <t>80266647</t>
-  </si>
-  <si>
-    <t>15202-DLO-I</t>
-  </si>
-  <si>
     <t>15178-DLO-I</t>
   </si>
   <si>
@@ -256,6 +250,174 @@
   </si>
   <si>
     <t>20041-CTY-I</t>
+  </si>
+  <si>
+    <t>80266706</t>
+  </si>
+  <si>
+    <t>21340-NZX-I</t>
+  </si>
+  <si>
+    <t>80266707</t>
+  </si>
+  <si>
+    <t>10377-ARI-I</t>
+  </si>
+  <si>
+    <t>80266708</t>
+  </si>
+  <si>
+    <t>10252-ARI-I</t>
+  </si>
+  <si>
+    <t>80266709</t>
+  </si>
+  <si>
+    <t>20935-CTY-I</t>
+  </si>
+  <si>
+    <t>80266710</t>
+  </si>
+  <si>
+    <t>80266711</t>
+  </si>
+  <si>
+    <t>30159-OSR-I</t>
+  </si>
+  <si>
+    <t>80266712</t>
+  </si>
+  <si>
+    <t>10382-ARI-I</t>
+  </si>
+  <si>
+    <t>80266713</t>
+  </si>
+  <si>
+    <t>20988-CTY-I</t>
+  </si>
+  <si>
+    <t>80266714</t>
+  </si>
+  <si>
+    <t>10020-ARI-I</t>
+  </si>
+  <si>
+    <t>80266715</t>
+  </si>
+  <si>
+    <t>10253-ARI-I</t>
+  </si>
+  <si>
+    <t>80266716</t>
+  </si>
+  <si>
+    <t>10001-LDG-I</t>
+  </si>
+  <si>
+    <t>80266719</t>
+  </si>
+  <si>
+    <t>15188-DLO-I</t>
+  </si>
+  <si>
+    <t>15124-DLO-I</t>
+  </si>
+  <si>
+    <t>15330-DLO-I</t>
+  </si>
+  <si>
+    <t>15260-DLO-I</t>
+  </si>
+  <si>
+    <t>10533-DLO-I</t>
+  </si>
+  <si>
+    <t>11619-DLO-I</t>
+  </si>
+  <si>
+    <t>14763-DLO-I</t>
+  </si>
+  <si>
+    <t>15141-DLO-I</t>
+  </si>
+  <si>
+    <t>15259-DLO-I</t>
+  </si>
+  <si>
+    <t>80266720</t>
+  </si>
+  <si>
+    <t>10369-ARI-I</t>
+  </si>
+  <si>
+    <t>80266721</t>
+  </si>
+  <si>
+    <t>10645-ARI-I</t>
+  </si>
+  <si>
+    <t>80266722</t>
+  </si>
+  <si>
+    <t>60339-YAG-I</t>
+  </si>
+  <si>
+    <t>80266723</t>
+  </si>
+  <si>
+    <t>14122-TDK-N</t>
+  </si>
+  <si>
+    <t>40322-TDK-N</t>
+  </si>
+  <si>
+    <t>30029-KMT-I</t>
+  </si>
+  <si>
+    <t>60162-OUT-L</t>
+  </si>
+  <si>
+    <t>22793-STM-I</t>
+  </si>
+  <si>
+    <t>17741-SET-I</t>
+  </si>
+  <si>
+    <t>80266724</t>
+  </si>
+  <si>
+    <t>10288-ARI-I</t>
+  </si>
+  <si>
+    <t>80266725</t>
+  </si>
+  <si>
+    <t>10453-ARI-I</t>
+  </si>
+  <si>
+    <t>80266726</t>
+  </si>
+  <si>
+    <t>10334-ARI-I</t>
+  </si>
+  <si>
+    <t>80266727</t>
+  </si>
+  <si>
+    <t>30100-ROY-I</t>
+  </si>
+  <si>
+    <t>10802-ROY-I</t>
+  </si>
+  <si>
+    <t>80266729</t>
+  </si>
+  <si>
+    <t>30152-OSR-I</t>
+  </si>
+  <si>
+    <t>30173-OSR-L</t>
   </si>
 </sst>
 </file>
@@ -653,7 +815,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C46"/>
+      <selection activeCell="A2" sqref="A2:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,65 +948,65 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -852,21 +1014,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3">
-        <v>4500</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -874,13 +1036,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3">
-        <v>72000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,40 +1050,40 @@
         <v>35</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -929,10 +1091,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -940,10 +1102,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -951,10 +1113,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -962,54 +1124,54 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3">
-        <v>1</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3">
-        <v>20000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1017,109 +1179,109 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="3">
-        <v>2160</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="3">
-        <v>1800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="3">
-        <v>3500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3">
-        <v>800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1127,10 +1289,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1138,10 +1300,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -1149,10 +1311,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1160,199 +1322,421 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="3">
+        <v>72000</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="3">
+        <v>4000</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="3">
+        <v>35000</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="3">
+        <v>50000</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="3">
+        <v>120000</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD7BB2A-33FE-455F-9F97-729EF18CABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBDE82F-8F03-4B4D-859D-D4A1940239C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="135">
   <si>
     <t>Remessa</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>30173-OSR-L</t>
+  </si>
+  <si>
+    <t>80266731</t>
+  </si>
+  <si>
+    <t>10689-ARI-I</t>
+  </si>
+  <si>
+    <t>80266732</t>
+  </si>
+  <si>
+    <t>10130-ARI-I</t>
   </si>
 </sst>
 </file>
@@ -815,7 +827,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C83"/>
+      <selection activeCell="A2" sqref="A2:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,7 +1208,7 @@
         <v>59</v>
       </c>
       <c r="C34" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1218,7 +1230,7 @@
         <v>61</v>
       </c>
       <c r="C36" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1256,54 +1268,54 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3">
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3">
-        <v>1</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3">
-        <v>1</v>
+        <v>670</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -1311,10 +1323,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1322,10 +1334,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -1333,10 +1345,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -1344,10 +1356,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -1355,10 +1367,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -1366,21 +1378,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3">
-        <v>72000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -1388,10 +1400,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -1399,10 +1411,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -1410,21 +1422,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C54" s="3">
-        <v>1</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -1432,46 +1444,46 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C57" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C58" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C59" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1479,10 +1491,10 @@
         <v>96</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C60" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1490,10 +1502,10 @@
         <v>96</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C61" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,10 +1513,10 @@
         <v>96</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C62" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,7 +1524,7 @@
         <v>96</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -1523,10 +1535,10 @@
         <v>96</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C64" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1534,7 +1546,7 @@
         <v>96</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -1545,87 +1557,87 @@
         <v>96</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C66" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C67" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C68" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C69" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C70" s="3">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C71" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C72" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C73" s="3">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1633,10 +1645,10 @@
         <v>112</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C74" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1644,7 +1656,7 @@
         <v>112</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C75" s="3">
         <v>500</v>
@@ -1652,121 +1664,157 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C76" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C77" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C78" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C79" s="3">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C80" s="3">
-        <v>35000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="C81" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C82" s="3">
-        <v>50000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C87" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
-    </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBDE82F-8F03-4B4D-859D-D4A1940239C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE944AB3-0DEA-4E31-95FD-80D0892853B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
   <si>
     <t>Remessa</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>10130-ARI-I</t>
+  </si>
+  <si>
+    <t>80266734</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C89"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,9 +1820,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE944AB3-0DEA-4E31-95FD-80D0892853B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C82D6A-F5E6-4DC2-9FCA-D5FF135AA281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Remessa</t>
   </si>
@@ -36,279 +36,18 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>80265944</t>
-  </si>
-  <si>
-    <t>20389-DCC-I</t>
-  </si>
-  <si>
-    <t>80265942</t>
-  </si>
-  <si>
-    <t>20850-FUZ-I</t>
-  </si>
-  <si>
-    <t>20869-FUZ-I</t>
-  </si>
-  <si>
-    <t>20853-FUZ-I</t>
-  </si>
-  <si>
-    <t>60234-WUE-I</t>
-  </si>
-  <si>
-    <t>80266324</t>
-  </si>
-  <si>
-    <t>40193-TDK-N</t>
-  </si>
-  <si>
-    <t>80265160</t>
-  </si>
-  <si>
-    <t>30018-KMT-I</t>
-  </si>
-  <si>
     <t>20637-TDK-I</t>
   </si>
   <si>
-    <t>80264004</t>
-  </si>
-  <si>
-    <t>33569-ATE-I</t>
-  </si>
-  <si>
-    <t>80266631</t>
-  </si>
-  <si>
-    <t>12350-DLO-I</t>
-  </si>
-  <si>
     <t>15178-DLO-I</t>
   </si>
   <si>
-    <t>80266654</t>
-  </si>
-  <si>
     <t>15187-DLO-I</t>
   </si>
   <si>
-    <t>15306-DLO-I</t>
-  </si>
-  <si>
-    <t>80266655</t>
-  </si>
-  <si>
-    <t>21252-KEY-L</t>
-  </si>
-  <si>
-    <t>80266658</t>
-  </si>
-  <si>
-    <t>10000-LDG-I</t>
-  </si>
-  <si>
-    <t>80266660</t>
-  </si>
-  <si>
-    <t>30202-OSR-I</t>
-  </si>
-  <si>
-    <t>80266661</t>
-  </si>
-  <si>
-    <t>10384-ARI-I</t>
-  </si>
-  <si>
-    <t>80266663</t>
-  </si>
-  <si>
-    <t>30161-OSR-I</t>
-  </si>
-  <si>
-    <t>80266664</t>
-  </si>
-  <si>
-    <t>10247-ARI-I</t>
-  </si>
-  <si>
-    <t>80266668</t>
-  </si>
-  <si>
-    <t>23000-WEN-I</t>
-  </si>
-  <si>
-    <t>15658-TDK-N</t>
-  </si>
-  <si>
-    <t>80266669</t>
-  </si>
-  <si>
-    <t>10175-ARI-I</t>
-  </si>
-  <si>
-    <t>80266681</t>
-  </si>
-  <si>
-    <t>10496-ARI-I</t>
-  </si>
-  <si>
-    <t>80266683</t>
-  </si>
-  <si>
-    <t>10010-ARI-I</t>
-  </si>
-  <si>
-    <t>80266684</t>
-  </si>
-  <si>
-    <t>80266685</t>
-  </si>
-  <si>
-    <t>10352-ARI-I</t>
-  </si>
-  <si>
-    <t>80266686</t>
-  </si>
-  <si>
-    <t>80266690</t>
-  </si>
-  <si>
-    <t>20936-CTY-I</t>
-  </si>
-  <si>
-    <t>80266691</t>
-  </si>
-  <si>
-    <t>30174-OSR-I</t>
-  </si>
-  <si>
-    <t>80266693</t>
-  </si>
-  <si>
-    <t>10387-ARI-I</t>
-  </si>
-  <si>
-    <t>80266694</t>
-  </si>
-  <si>
-    <t>10240-ARI-I</t>
-  </si>
-  <si>
-    <t>80266695</t>
-  </si>
-  <si>
-    <t>80266697</t>
-  </si>
-  <si>
-    <t>21487-MET-I</t>
-  </si>
-  <si>
-    <t>40343-TDK-N</t>
-  </si>
-  <si>
-    <t>15079-TDK-N</t>
-  </si>
-  <si>
-    <t>15403-TDK-N</t>
-  </si>
-  <si>
-    <t>40353-TDK-N</t>
-  </si>
-  <si>
-    <t>60240-STM-I</t>
-  </si>
-  <si>
-    <t>40046-TDK-I</t>
-  </si>
-  <si>
-    <t>80266700</t>
-  </si>
-  <si>
-    <t>10361-ARI-I</t>
-  </si>
-  <si>
-    <t>80266701</t>
-  </si>
-  <si>
-    <t>10255-ARI-I</t>
-  </si>
-  <si>
-    <t>80266702</t>
-  </si>
-  <si>
     <t>10399-ARI-I</t>
   </si>
   <si>
-    <t>80266703</t>
-  </si>
-  <si>
-    <t>10650-ARI-I</t>
-  </si>
-  <si>
-    <t>80266704</t>
-  </si>
-  <si>
-    <t>20041-CTY-I</t>
-  </si>
-  <si>
-    <t>80266706</t>
-  </si>
-  <si>
-    <t>21340-NZX-I</t>
-  </si>
-  <si>
-    <t>80266707</t>
-  </si>
-  <si>
-    <t>10377-ARI-I</t>
-  </si>
-  <si>
-    <t>80266708</t>
-  </si>
-  <si>
-    <t>10252-ARI-I</t>
-  </si>
-  <si>
-    <t>80266709</t>
-  </si>
-  <si>
-    <t>20935-CTY-I</t>
-  </si>
-  <si>
-    <t>80266710</t>
-  </si>
-  <si>
-    <t>80266711</t>
-  </si>
-  <si>
-    <t>30159-OSR-I</t>
-  </si>
-  <si>
-    <t>80266712</t>
-  </si>
-  <si>
-    <t>10382-ARI-I</t>
-  </si>
-  <si>
-    <t>80266713</t>
-  </si>
-  <si>
-    <t>20988-CTY-I</t>
-  </si>
-  <si>
-    <t>80266714</t>
-  </si>
-  <si>
-    <t>10020-ARI-I</t>
-  </si>
-  <si>
-    <t>80266715</t>
-  </si>
-  <si>
-    <t>10253-ARI-I</t>
-  </si>
-  <si>
     <t>80266716</t>
   </si>
   <si>
@@ -433,6 +172,12 @@
   </si>
   <si>
     <t>80266734</t>
+  </si>
+  <si>
+    <t>84004831</t>
+  </si>
+  <si>
+    <t>33383-ATE-I</t>
   </si>
 </sst>
 </file>
@@ -830,7 +575,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,10 +598,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -864,131 +609,131 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>24000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="3">
-        <v>2000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>600</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
         <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>36000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>1900</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>15000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -996,10 +741,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1007,87 +752,87 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>4500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3">
-        <v>72000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1095,10 +840,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1106,10 +851,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1117,65 +862,65 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C29" s="3">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3">
-        <v>1</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1183,10 +928,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1194,641 +939,305 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C33" s="3">
-        <v>2160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3500</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="3">
-        <v>200</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="3">
-        <v>300</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="3">
-        <v>800</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="3">
-        <v>180</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="3">
-        <v>20</v>
-      </c>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1130</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="3">
-        <v>670</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="3">
-        <v>72000</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="3">
-        <v>30</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="3">
-        <v>16</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="3">
-        <v>12</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="3">
-        <v>5</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="3">
-        <v>10</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="3">
-        <v>2</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="3">
-        <v>5</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="3">
-        <v>15</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="3">
-        <v>5</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" s="3">
-        <v>20</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="3">
-        <v>500</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="3">
-        <v>500</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="3">
-        <v>500</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="3">
-        <v>500</v>
-      </c>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="3">
-        <v>300</v>
-      </c>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="3">
-        <v>500</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1</v>
-      </c>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="3">
-        <v>4000</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" s="3">
-        <v>35000</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="3">
-        <v>500</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C86" s="3">
-        <v>50000</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" s="3">
-        <v>120000</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="3">
-        <v>1</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C89" s="3">
-        <v>1</v>
-      </c>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="3">
-        <v>1</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C82D6A-F5E6-4DC2-9FCA-D5FF135AA281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA01C8C-171D-4903-B9FE-D30A49CD4A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
   <si>
     <t>Remessa</t>
   </si>
@@ -102,27 +102,6 @@
     <t>60339-YAG-I</t>
   </si>
   <si>
-    <t>80266723</t>
-  </si>
-  <si>
-    <t>14122-TDK-N</t>
-  </si>
-  <si>
-    <t>40322-TDK-N</t>
-  </si>
-  <si>
-    <t>30029-KMT-I</t>
-  </si>
-  <si>
-    <t>60162-OUT-L</t>
-  </si>
-  <si>
-    <t>22793-STM-I</t>
-  </si>
-  <si>
-    <t>17741-SET-I</t>
-  </si>
-  <si>
     <t>80266724</t>
   </si>
   <si>
@@ -150,15 +129,6 @@
     <t>10802-ROY-I</t>
   </si>
   <si>
-    <t>80266729</t>
-  </si>
-  <si>
-    <t>30152-OSR-I</t>
-  </si>
-  <si>
-    <t>30173-OSR-L</t>
-  </si>
-  <si>
     <t>80266731</t>
   </si>
   <si>
@@ -178,6 +148,333 @@
   </si>
   <si>
     <t>33383-ATE-I</t>
+  </si>
+  <si>
+    <t>80264004</t>
+  </si>
+  <si>
+    <t>33569-ATE-I</t>
+  </si>
+  <si>
+    <t>80265160</t>
+  </si>
+  <si>
+    <t>30018-KMT-I</t>
+  </si>
+  <si>
+    <t>80265942</t>
+  </si>
+  <si>
+    <t>20850-FUZ-I</t>
+  </si>
+  <si>
+    <t>20869-FUZ-I</t>
+  </si>
+  <si>
+    <t>20853-FUZ-I</t>
+  </si>
+  <si>
+    <t>60234-WUE-I</t>
+  </si>
+  <si>
+    <t>80265944</t>
+  </si>
+  <si>
+    <t>20389-DCC-I</t>
+  </si>
+  <si>
+    <t>80266324</t>
+  </si>
+  <si>
+    <t>40193-TDK-N</t>
+  </si>
+  <si>
+    <t>80266631</t>
+  </si>
+  <si>
+    <t>12350-DLO-I</t>
+  </si>
+  <si>
+    <t>80266655</t>
+  </si>
+  <si>
+    <t>21252-KEY-L</t>
+  </si>
+  <si>
+    <t>80266658</t>
+  </si>
+  <si>
+    <t>10000-LDG-I</t>
+  </si>
+  <si>
+    <t>80266660</t>
+  </si>
+  <si>
+    <t>30202-OSR-I</t>
+  </si>
+  <si>
+    <t>80266661</t>
+  </si>
+  <si>
+    <t>10384-ARI-I</t>
+  </si>
+  <si>
+    <t>80266663</t>
+  </si>
+  <si>
+    <t>30161-OSR-I</t>
+  </si>
+  <si>
+    <t>80266664</t>
+  </si>
+  <si>
+    <t>10247-ARI-I</t>
+  </si>
+  <si>
+    <t>80266668</t>
+  </si>
+  <si>
+    <t>23000-WEN-I</t>
+  </si>
+  <si>
+    <t>15658-TDK-N</t>
+  </si>
+  <si>
+    <t>80266669</t>
+  </si>
+  <si>
+    <t>10175-ARI-I</t>
+  </si>
+  <si>
+    <t>80266681</t>
+  </si>
+  <si>
+    <t>10496-ARI-I</t>
+  </si>
+  <si>
+    <t>80266683</t>
+  </si>
+  <si>
+    <t>10010-ARI-I</t>
+  </si>
+  <si>
+    <t>80266684</t>
+  </si>
+  <si>
+    <t>80266685</t>
+  </si>
+  <si>
+    <t>10352-ARI-I</t>
+  </si>
+  <si>
+    <t>80266686</t>
+  </si>
+  <si>
+    <t>80266690</t>
+  </si>
+  <si>
+    <t>20936-CTY-I</t>
+  </si>
+  <si>
+    <t>80266691</t>
+  </si>
+  <si>
+    <t>30174-OSR-I</t>
+  </si>
+  <si>
+    <t>80266693</t>
+  </si>
+  <si>
+    <t>10387-ARI-I</t>
+  </si>
+  <si>
+    <t>80266694</t>
+  </si>
+  <si>
+    <t>10240-ARI-I</t>
+  </si>
+  <si>
+    <t>80266695</t>
+  </si>
+  <si>
+    <t>80266697</t>
+  </si>
+  <si>
+    <t>21487-MET-I</t>
+  </si>
+  <si>
+    <t>40343-TDK-N</t>
+  </si>
+  <si>
+    <t>15079-TDK-N</t>
+  </si>
+  <si>
+    <t>15403-TDK-N</t>
+  </si>
+  <si>
+    <t>40353-TDK-N</t>
+  </si>
+  <si>
+    <t>60240-STM-I</t>
+  </si>
+  <si>
+    <t>40046-TDK-I</t>
+  </si>
+  <si>
+    <t>80266700</t>
+  </si>
+  <si>
+    <t>10361-ARI-I</t>
+  </si>
+  <si>
+    <t>80266701</t>
+  </si>
+  <si>
+    <t>10255-ARI-I</t>
+  </si>
+  <si>
+    <t>80266702</t>
+  </si>
+  <si>
+    <t>80266703</t>
+  </si>
+  <si>
+    <t>10650-ARI-I</t>
+  </si>
+  <si>
+    <t>80266704</t>
+  </si>
+  <si>
+    <t>20041-CTY-I</t>
+  </si>
+  <si>
+    <t>80266706</t>
+  </si>
+  <si>
+    <t>21340-NZX-I</t>
+  </si>
+  <si>
+    <t>80266707</t>
+  </si>
+  <si>
+    <t>10377-ARI-I</t>
+  </si>
+  <si>
+    <t>80266708</t>
+  </si>
+  <si>
+    <t>10252-ARI-I</t>
+  </si>
+  <si>
+    <t>80266709</t>
+  </si>
+  <si>
+    <t>20935-CTY-I</t>
+  </si>
+  <si>
+    <t>80266710</t>
+  </si>
+  <si>
+    <t>80266711</t>
+  </si>
+  <si>
+    <t>30159-OSR-I</t>
+  </si>
+  <si>
+    <t>80266712</t>
+  </si>
+  <si>
+    <t>10382-ARI-I</t>
+  </si>
+  <si>
+    <t>80266713</t>
+  </si>
+  <si>
+    <t>20988-CTY-I</t>
+  </si>
+  <si>
+    <t>80266714</t>
+  </si>
+  <si>
+    <t>10020-ARI-I</t>
+  </si>
+  <si>
+    <t>80266715</t>
+  </si>
+  <si>
+    <t>10253-ARI-I</t>
+  </si>
+  <si>
+    <t>80266737</t>
+  </si>
+  <si>
+    <t>30196-OSR-L</t>
+  </si>
+  <si>
+    <t>80266739</t>
+  </si>
+  <si>
+    <t>30169-OSR-I</t>
+  </si>
+  <si>
+    <t>80266754</t>
+  </si>
+  <si>
+    <t>30259-OSR-I</t>
+  </si>
+  <si>
+    <t>30155-OSR-I</t>
+  </si>
+  <si>
+    <t>30274-OSR-I</t>
+  </si>
+  <si>
+    <t>80266757</t>
+  </si>
+  <si>
+    <t>17843-ONS-L</t>
+  </si>
+  <si>
+    <t>80266759</t>
+  </si>
+  <si>
+    <t>33665-ATE-I</t>
+  </si>
+  <si>
+    <t>33511-ATE-I</t>
+  </si>
+  <si>
+    <t>33510-ATE-I</t>
+  </si>
+  <si>
+    <t>33679-ATE-I</t>
+  </si>
+  <si>
+    <t>84004832</t>
+  </si>
+  <si>
+    <t>84004833</t>
+  </si>
+  <si>
+    <t>10125-ARI-I</t>
+  </si>
+  <si>
+    <t>84004834</t>
+  </si>
+  <si>
+    <t>19004-STM-I</t>
+  </si>
+  <si>
+    <t>84004835</t>
+  </si>
+  <si>
+    <t>33782-SYN-I</t>
+  </si>
+  <si>
+    <t>84004836</t>
+  </si>
+  <si>
+    <t>10493-ARI-I</t>
   </si>
 </sst>
 </file>
@@ -575,7 +872,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C34"/>
+      <selection activeCell="A2" sqref="A2:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,10 +895,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -609,109 +906,109 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
-        <v>30</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>16</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3">
-        <v>10</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3">
-        <v>5</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -719,32 +1016,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -752,87 +1049,87 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3">
-        <v>20</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C18" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -840,10 +1137,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -851,10 +1148,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -862,422 +1159,806 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3">
-        <v>4000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3">
-        <v>35000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3">
-        <v>50000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3">
-        <v>120000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C31" s="3">
-        <v>1</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="3">
+        <v>800</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="3">
+        <v>180</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1130</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="3">
+        <v>670</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="3">
+        <v>72000</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="3">
+        <v>4000</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="3">
+        <v>35000</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1500</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="3">
+        <v>80000</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="3">
+        <v>10500</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="3">
+        <v>340000</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="3">
+        <v>40000</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="3">
+        <v>100000</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="3">
+        <v>21000</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA01C8C-171D-4903-B9FE-D30A49CD4A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72674274-ACE7-4FBC-A6D6-0D6374638289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Remessa</t>
   </si>
@@ -36,445 +36,124 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>20637-TDK-I</t>
-  </si>
-  <si>
-    <t>15178-DLO-I</t>
-  </si>
-  <si>
-    <t>15187-DLO-I</t>
-  </si>
-  <si>
-    <t>10399-ARI-I</t>
-  </si>
-  <si>
-    <t>80266716</t>
-  </si>
-  <si>
-    <t>10001-LDG-I</t>
-  </si>
-  <si>
-    <t>80266719</t>
-  </si>
-  <si>
-    <t>15188-DLO-I</t>
-  </si>
-  <si>
-    <t>15124-DLO-I</t>
-  </si>
-  <si>
-    <t>15330-DLO-I</t>
-  </si>
-  <si>
-    <t>15260-DLO-I</t>
-  </si>
-  <si>
-    <t>10533-DLO-I</t>
-  </si>
-  <si>
-    <t>11619-DLO-I</t>
-  </si>
-  <si>
-    <t>14763-DLO-I</t>
-  </si>
-  <si>
-    <t>15141-DLO-I</t>
-  </si>
-  <si>
-    <t>15259-DLO-I</t>
-  </si>
-  <si>
-    <t>80266720</t>
-  </si>
-  <si>
-    <t>10369-ARI-I</t>
-  </si>
-  <si>
-    <t>80266721</t>
-  </si>
-  <si>
-    <t>10645-ARI-I</t>
-  </si>
-  <si>
-    <t>80266722</t>
-  </si>
-  <si>
-    <t>60339-YAG-I</t>
-  </si>
-  <si>
-    <t>80266724</t>
-  </si>
-  <si>
-    <t>10288-ARI-I</t>
-  </si>
-  <si>
-    <t>80266725</t>
-  </si>
-  <si>
-    <t>10453-ARI-I</t>
-  </si>
-  <si>
-    <t>80266726</t>
-  </si>
-  <si>
-    <t>10334-ARI-I</t>
-  </si>
-  <si>
-    <t>80266727</t>
-  </si>
-  <si>
-    <t>30100-ROY-I</t>
-  </si>
-  <si>
-    <t>10802-ROY-I</t>
-  </si>
-  <si>
-    <t>80266731</t>
-  </si>
-  <si>
-    <t>10689-ARI-I</t>
-  </si>
-  <si>
-    <t>80266732</t>
-  </si>
-  <si>
-    <t>10130-ARI-I</t>
-  </si>
-  <si>
-    <t>80266734</t>
-  </si>
-  <si>
-    <t>84004831</t>
-  </si>
-  <si>
-    <t>33383-ATE-I</t>
-  </si>
-  <si>
-    <t>80264004</t>
-  </si>
-  <si>
-    <t>33569-ATE-I</t>
-  </si>
-  <si>
-    <t>80265160</t>
-  </si>
-  <si>
-    <t>30018-KMT-I</t>
-  </si>
-  <si>
-    <t>80265942</t>
-  </si>
-  <si>
-    <t>20850-FUZ-I</t>
-  </si>
-  <si>
-    <t>20869-FUZ-I</t>
-  </si>
-  <si>
-    <t>20853-FUZ-I</t>
-  </si>
-  <si>
-    <t>60234-WUE-I</t>
-  </si>
-  <si>
-    <t>80265944</t>
-  </si>
-  <si>
-    <t>20389-DCC-I</t>
-  </si>
-  <si>
-    <t>80266324</t>
-  </si>
-  <si>
-    <t>40193-TDK-N</t>
-  </si>
-  <si>
-    <t>80266631</t>
-  </si>
-  <si>
-    <t>12350-DLO-I</t>
-  </si>
-  <si>
-    <t>80266655</t>
-  </si>
-  <si>
-    <t>21252-KEY-L</t>
-  </si>
-  <si>
-    <t>80266658</t>
-  </si>
-  <si>
-    <t>10000-LDG-I</t>
-  </si>
-  <si>
-    <t>80266660</t>
-  </si>
-  <si>
-    <t>30202-OSR-I</t>
-  </si>
-  <si>
-    <t>80266661</t>
-  </si>
-  <si>
-    <t>10384-ARI-I</t>
-  </si>
-  <si>
-    <t>80266663</t>
-  </si>
-  <si>
-    <t>30161-OSR-I</t>
-  </si>
-  <si>
-    <t>80266664</t>
-  </si>
-  <si>
-    <t>10247-ARI-I</t>
-  </si>
-  <si>
-    <t>80266668</t>
-  </si>
-  <si>
-    <t>23000-WEN-I</t>
-  </si>
-  <si>
-    <t>15658-TDK-N</t>
-  </si>
-  <si>
-    <t>80266669</t>
-  </si>
-  <si>
-    <t>10175-ARI-I</t>
-  </si>
-  <si>
-    <t>80266681</t>
-  </si>
-  <si>
-    <t>10496-ARI-I</t>
-  </si>
-  <si>
-    <t>80266683</t>
-  </si>
-  <si>
-    <t>10010-ARI-I</t>
-  </si>
-  <si>
-    <t>80266684</t>
-  </si>
-  <si>
-    <t>80266685</t>
-  </si>
-  <si>
-    <t>10352-ARI-I</t>
-  </si>
-  <si>
-    <t>80266686</t>
-  </si>
-  <si>
-    <t>80266690</t>
-  </si>
-  <si>
-    <t>20936-CTY-I</t>
-  </si>
-  <si>
-    <t>80266691</t>
-  </si>
-  <si>
-    <t>30174-OSR-I</t>
-  </si>
-  <si>
-    <t>80266693</t>
-  </si>
-  <si>
-    <t>10387-ARI-I</t>
-  </si>
-  <si>
-    <t>80266694</t>
-  </si>
-  <si>
-    <t>10240-ARI-I</t>
-  </si>
-  <si>
-    <t>80266695</t>
-  </si>
-  <si>
-    <t>80266697</t>
-  </si>
-  <si>
-    <t>21487-MET-I</t>
-  </si>
-  <si>
-    <t>40343-TDK-N</t>
-  </si>
-  <si>
-    <t>15079-TDK-N</t>
-  </si>
-  <si>
-    <t>15403-TDK-N</t>
-  </si>
-  <si>
-    <t>40353-TDK-N</t>
-  </si>
-  <si>
-    <t>60240-STM-I</t>
-  </si>
-  <si>
-    <t>40046-TDK-I</t>
-  </si>
-  <si>
-    <t>80266700</t>
-  </si>
-  <si>
-    <t>10361-ARI-I</t>
-  </si>
-  <si>
-    <t>80266701</t>
-  </si>
-  <si>
-    <t>10255-ARI-I</t>
-  </si>
-  <si>
-    <t>80266702</t>
-  </si>
-  <si>
-    <t>80266703</t>
-  </si>
-  <si>
-    <t>10650-ARI-I</t>
-  </si>
-  <si>
-    <t>80266704</t>
-  </si>
-  <si>
-    <t>20041-CTY-I</t>
-  </si>
-  <si>
-    <t>80266706</t>
-  </si>
-  <si>
-    <t>21340-NZX-I</t>
-  </si>
-  <si>
-    <t>80266707</t>
-  </si>
-  <si>
-    <t>10377-ARI-I</t>
-  </si>
-  <si>
-    <t>80266708</t>
-  </si>
-  <si>
-    <t>10252-ARI-I</t>
-  </si>
-  <si>
-    <t>80266709</t>
-  </si>
-  <si>
-    <t>20935-CTY-I</t>
-  </si>
-  <si>
-    <t>80266710</t>
-  </si>
-  <si>
-    <t>80266711</t>
-  </si>
-  <si>
-    <t>30159-OSR-I</t>
-  </si>
-  <si>
-    <t>80266712</t>
-  </si>
-  <si>
-    <t>10382-ARI-I</t>
-  </si>
-  <si>
-    <t>80266713</t>
-  </si>
-  <si>
-    <t>20988-CTY-I</t>
-  </si>
-  <si>
-    <t>80266714</t>
-  </si>
-  <si>
-    <t>10020-ARI-I</t>
-  </si>
-  <si>
-    <t>80266715</t>
-  </si>
-  <si>
-    <t>10253-ARI-I</t>
-  </si>
-  <si>
-    <t>80266737</t>
-  </si>
-  <si>
-    <t>30196-OSR-L</t>
-  </si>
-  <si>
-    <t>80266739</t>
-  </si>
-  <si>
-    <t>30169-OSR-I</t>
-  </si>
-  <si>
-    <t>80266754</t>
-  </si>
-  <si>
     <t>30259-OSR-I</t>
   </si>
   <si>
-    <t>30155-OSR-I</t>
-  </si>
-  <si>
-    <t>30274-OSR-I</t>
-  </si>
-  <si>
-    <t>80266757</t>
-  </si>
-  <si>
-    <t>17843-ONS-L</t>
-  </si>
-  <si>
-    <t>80266759</t>
-  </si>
-  <si>
-    <t>33665-ATE-I</t>
-  </si>
-  <si>
-    <t>33511-ATE-I</t>
-  </si>
-  <si>
-    <t>33510-ATE-I</t>
-  </si>
-  <si>
-    <t>33679-ATE-I</t>
-  </si>
-  <si>
-    <t>84004832</t>
-  </si>
-  <si>
-    <t>84004833</t>
-  </si>
-  <si>
-    <t>10125-ARI-I</t>
-  </si>
-  <si>
-    <t>84004834</t>
-  </si>
-  <si>
-    <t>19004-STM-I</t>
-  </si>
-  <si>
-    <t>84004835</t>
-  </si>
-  <si>
-    <t>33782-SYN-I</t>
-  </si>
-  <si>
-    <t>84004836</t>
-  </si>
-  <si>
-    <t>10493-ARI-I</t>
+    <t>80266859</t>
+  </si>
+  <si>
+    <t>10359-ARI-I</t>
+  </si>
+  <si>
+    <t>80266862</t>
+  </si>
+  <si>
+    <t>14013-TDK-N</t>
+  </si>
+  <si>
+    <t>80266866</t>
+  </si>
+  <si>
+    <t>10200-ROC-I</t>
+  </si>
+  <si>
+    <t>14049-TDK-N</t>
+  </si>
+  <si>
+    <t>80266867</t>
+  </si>
+  <si>
+    <t>10422-PHS-I</t>
+  </si>
+  <si>
+    <t>40377-TDK-I</t>
+  </si>
+  <si>
+    <t>80266875</t>
+  </si>
+  <si>
+    <t>33382-ATE-I</t>
+  </si>
+  <si>
+    <t>33381-ATE-I</t>
+  </si>
+  <si>
+    <t>33378-ATE-I</t>
+  </si>
+  <si>
+    <t>33380-ATE-I</t>
+  </si>
+  <si>
+    <t>10119-ATE-I</t>
+  </si>
+  <si>
+    <t>10029-ATE-I</t>
+  </si>
+  <si>
+    <t>33664-ATE-I</t>
+  </si>
+  <si>
+    <t>33501-ATE-I</t>
+  </si>
+  <si>
+    <t>80266881</t>
+  </si>
+  <si>
+    <t>40102-YAG-I</t>
+  </si>
+  <si>
+    <t>16612-YAG-I</t>
+  </si>
+  <si>
+    <t>30105-YAG-I</t>
+  </si>
+  <si>
+    <t>60079-YAG-I</t>
+  </si>
+  <si>
+    <t>18529-STM-I</t>
+  </si>
+  <si>
+    <t>18343-STM-I</t>
+  </si>
+  <si>
+    <t>10024-LRC-I</t>
+  </si>
+  <si>
+    <t>17625-STM-I</t>
+  </si>
+  <si>
+    <t>22567-SET-I</t>
+  </si>
+  <si>
+    <t>60105-WUE-I</t>
+  </si>
+  <si>
+    <t>11082-ROY-I</t>
+  </si>
+  <si>
+    <t>11324-ROY-I</t>
+  </si>
+  <si>
+    <t>12144-ROY-I</t>
+  </si>
+  <si>
+    <t>12550-ROY-I</t>
+  </si>
+  <si>
+    <t>13154-ROY-I</t>
+  </si>
+  <si>
+    <t>13389-ROY-I</t>
+  </si>
+  <si>
+    <t>17977-DIO-I</t>
+  </si>
+  <si>
+    <t>17978-DIO-I</t>
+  </si>
+  <si>
+    <t>80266888</t>
   </si>
 </sst>
 </file>
@@ -872,7 +551,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C98"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,10 +574,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -906,1059 +585,675 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>24000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>36000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>1900</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>1500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>5000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>15000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
-        <v>4500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>72000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3">
-        <v>50</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3">
-        <v>2160</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3">
-        <v>3500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="3">
-        <v>200</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="3">
-        <v>300</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="3">
-        <v>800</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="3">
-        <v>180</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="3">
-        <v>20</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1130</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="3">
-        <v>670</v>
-      </c>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="3">
-        <v>72000</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="3">
-        <v>30</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="3">
-        <v>16</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="3">
-        <v>12</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="3">
-        <v>5</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="3">
-        <v>10</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="3">
-        <v>5</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="3">
-        <v>15</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="3">
-        <v>5</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="3">
-        <v>20</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="3">
-        <v>4000</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="3">
-        <v>35000</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3">
-        <v>500</v>
-      </c>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1500</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="3">
-        <v>80000</v>
-      </c>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="3">
-        <v>10500</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="3">
-        <v>340000</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="3">
-        <v>40000</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C87" s="3">
-        <v>100000</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="3">
-        <v>21000</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="3">
-        <v>1</v>
-      </c>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="3">
-        <v>1</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" s="3">
-        <v>3</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C92" s="3">
-        <v>2</v>
-      </c>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="3">
-        <v>1</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" s="3">
-        <v>1</v>
-      </c>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="3">
-        <v>10000</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C97" s="3">
-        <v>1</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72674274-ACE7-4FBC-A6D6-0D6374638289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D453838-FB89-4AF4-9525-5FAEF6BC3231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="172">
   <si>
     <t>Remessa</t>
   </si>
@@ -154,6 +154,393 @@
   </si>
   <si>
     <t>80266888</t>
+  </si>
+  <si>
+    <t>80264004</t>
+  </si>
+  <si>
+    <t>33569-ATE-I</t>
+  </si>
+  <si>
+    <t>80265160</t>
+  </si>
+  <si>
+    <t>30018-KMT-I</t>
+  </si>
+  <si>
+    <t>80265942</t>
+  </si>
+  <si>
+    <t>20637-TDK-I</t>
+  </si>
+  <si>
+    <t>20850-FUZ-I</t>
+  </si>
+  <si>
+    <t>20869-FUZ-I</t>
+  </si>
+  <si>
+    <t>20853-FUZ-I</t>
+  </si>
+  <si>
+    <t>60234-WUE-I</t>
+  </si>
+  <si>
+    <t>80265944</t>
+  </si>
+  <si>
+    <t>20389-DCC-I</t>
+  </si>
+  <si>
+    <t>80266497</t>
+  </si>
+  <si>
+    <t>30173-STM-I</t>
+  </si>
+  <si>
+    <t>80266498</t>
+  </si>
+  <si>
+    <t>30049-EVL-I</t>
+  </si>
+  <si>
+    <t>80266739</t>
+  </si>
+  <si>
+    <t>30169-OSR-I</t>
+  </si>
+  <si>
+    <t>80266787</t>
+  </si>
+  <si>
+    <t>10000-LDG-I</t>
+  </si>
+  <si>
+    <t>80266788</t>
+  </si>
+  <si>
+    <t>80266789</t>
+  </si>
+  <si>
+    <t>15401-DLO-I</t>
+  </si>
+  <si>
+    <t>80266790</t>
+  </si>
+  <si>
+    <t>10645-ARI-I</t>
+  </si>
+  <si>
+    <t>80266792</t>
+  </si>
+  <si>
+    <t>80266793</t>
+  </si>
+  <si>
+    <t>10045-ARI-I</t>
+  </si>
+  <si>
+    <t>80266795</t>
+  </si>
+  <si>
+    <t>23459-GPB-I</t>
+  </si>
+  <si>
+    <t>23458-GPB-I</t>
+  </si>
+  <si>
+    <t>80266798</t>
+  </si>
+  <si>
+    <t>80266799</t>
+  </si>
+  <si>
+    <t>10145-ARI-I</t>
+  </si>
+  <si>
+    <t>80266800</t>
+  </si>
+  <si>
+    <t>10361-ARI-I</t>
+  </si>
+  <si>
+    <t>80266801</t>
+  </si>
+  <si>
+    <t>10391-ARI-I</t>
+  </si>
+  <si>
+    <t>80266803</t>
+  </si>
+  <si>
+    <t>10636-ARI-I</t>
+  </si>
+  <si>
+    <t>80266804</t>
+  </si>
+  <si>
+    <t>14122-TDK-N</t>
+  </si>
+  <si>
+    <t>40322-TDK-N</t>
+  </si>
+  <si>
+    <t>30029-KMT-I</t>
+  </si>
+  <si>
+    <t>60162-OUT-L</t>
+  </si>
+  <si>
+    <t>22793-STM-I</t>
+  </si>
+  <si>
+    <t>17741-SET-I</t>
+  </si>
+  <si>
+    <t>80266806</t>
+  </si>
+  <si>
+    <t>10492-ARI-I</t>
+  </si>
+  <si>
+    <t>80266807</t>
+  </si>
+  <si>
+    <t>23364-ATE-I</t>
+  </si>
+  <si>
+    <t>33660-ATE-I</t>
+  </si>
+  <si>
+    <t>80266808</t>
+  </si>
+  <si>
+    <t>12003-KRO-I</t>
+  </si>
+  <si>
+    <t>80266810</t>
+  </si>
+  <si>
+    <t>80266811</t>
+  </si>
+  <si>
+    <t>80266812</t>
+  </si>
+  <si>
+    <t>20938-CTY-I</t>
+  </si>
+  <si>
+    <t>80266813</t>
+  </si>
+  <si>
+    <t>10369-ARI-I</t>
+  </si>
+  <si>
+    <t>80266815</t>
+  </si>
+  <si>
+    <t>80266816</t>
+  </si>
+  <si>
+    <t>80266817</t>
+  </si>
+  <si>
+    <t>21014-CTY-I</t>
+  </si>
+  <si>
+    <t>80266819</t>
+  </si>
+  <si>
+    <t>10020-ARI-I</t>
+  </si>
+  <si>
+    <t>80266822</t>
+  </si>
+  <si>
+    <t>14896-TDK-I</t>
+  </si>
+  <si>
+    <t>80266840</t>
+  </si>
+  <si>
+    <t>10115-ARI-I</t>
+  </si>
+  <si>
+    <t>80266841</t>
+  </si>
+  <si>
+    <t>10376-ARI-I</t>
+  </si>
+  <si>
+    <t>10388-ARI-I</t>
+  </si>
+  <si>
+    <t>10355-ARI-I</t>
+  </si>
+  <si>
+    <t>10354-ARI-I</t>
+  </si>
+  <si>
+    <t>10498-ARI-I</t>
+  </si>
+  <si>
+    <t>10403-ARI-I</t>
+  </si>
+  <si>
+    <t>10497-ARI-I</t>
+  </si>
+  <si>
+    <t>80266842</t>
+  </si>
+  <si>
+    <t>10422-ARI-I</t>
+  </si>
+  <si>
+    <t>80266845</t>
+  </si>
+  <si>
+    <t>80266847</t>
+  </si>
+  <si>
+    <t>10526-ARI-I</t>
+  </si>
+  <si>
+    <t>80266849</t>
+  </si>
+  <si>
+    <t>10255-ARI-I</t>
+  </si>
+  <si>
+    <t>10493-ARI-I</t>
+  </si>
+  <si>
+    <t>10258-ARI-I</t>
+  </si>
+  <si>
+    <t>80266851</t>
+  </si>
+  <si>
+    <t>10252-ARI-I</t>
+  </si>
+  <si>
+    <t>10256-ARI-I</t>
+  </si>
+  <si>
+    <t>80266852</t>
+  </si>
+  <si>
+    <t>10651-ARI-I</t>
+  </si>
+  <si>
+    <t>10378-ARI-I</t>
+  </si>
+  <si>
+    <t>10548-ARI-I</t>
+  </si>
+  <si>
+    <t>10541-ARI-I</t>
+  </si>
+  <si>
+    <t>10155-ARI-I</t>
+  </si>
+  <si>
+    <t>80266853</t>
+  </si>
+  <si>
+    <t>10650-ARI-I</t>
+  </si>
+  <si>
+    <t>80266856</t>
+  </si>
+  <si>
+    <t>10040-ARI-I</t>
+  </si>
+  <si>
+    <t>80266858</t>
+  </si>
+  <si>
+    <t>10000-ARI-I</t>
+  </si>
+  <si>
+    <t>80266890</t>
+  </si>
+  <si>
+    <t>10050-ARI-I</t>
+  </si>
+  <si>
+    <t>10496-ARI-I</t>
+  </si>
+  <si>
+    <t>10070-ARI-I</t>
+  </si>
+  <si>
+    <t>80266891</t>
+  </si>
+  <si>
+    <t>60164-YAG-I</t>
+  </si>
+  <si>
+    <t>80266892</t>
+  </si>
+  <si>
+    <t>40274-TDK-I</t>
+  </si>
+  <si>
+    <t>21487-MET-I</t>
+  </si>
+  <si>
+    <t>40312-TDK-N</t>
+  </si>
+  <si>
+    <t>80266893</t>
+  </si>
+  <si>
+    <t>26489-YAG-I</t>
+  </si>
+  <si>
+    <t>16512-YAG-I</t>
+  </si>
+  <si>
+    <t>30056-EVL-I</t>
+  </si>
+  <si>
+    <t>17498-VIS-I</t>
+  </si>
+  <si>
+    <t>30287-ONS-L</t>
+  </si>
+  <si>
+    <t>10136-ROY-I</t>
+  </si>
+  <si>
+    <t>10587-ROY-I</t>
+  </si>
+  <si>
+    <t>10917-ROY-I</t>
+  </si>
+  <si>
+    <t>11587-ROY-I</t>
+  </si>
+  <si>
+    <t>11875-ROY-I</t>
+  </si>
+  <si>
+    <t>10001-THK-I</t>
+  </si>
+  <si>
+    <t>19880-WRN-I</t>
+  </si>
+  <si>
+    <t>10000-THK-I</t>
+  </si>
+  <si>
+    <t>20606-EPC-I</t>
+  </si>
+  <si>
+    <t>60255-OUT-L</t>
+  </si>
+  <si>
+    <t>60260-OUT-L</t>
   </si>
 </sst>
 </file>
@@ -551,7 +938,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,10 +961,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -585,142 +972,142 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3">
-        <v>8</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3">
-        <v>1000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3">
-        <v>640</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3">
-        <v>15</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3">
-        <v>15</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3">
-        <v>10</v>
+        <v>960</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3">
-        <v>15</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -728,752 +1115,1400 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3">
-        <v>6000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3">
-        <v>4000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3">
-        <v>4000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3">
-        <v>4000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3">
-        <v>2500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3">
-        <v>15000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C29" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3">
-        <v>5000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C33" s="3">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C118" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="3"/>
-    </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="3"/>
+      <c r="A121" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C122" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1200</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="3">
+        <v>3000</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="3">
+        <v>8000</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128" s="3">
+        <v>4000</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C129" s="3">
+        <v>3200</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="3">
+        <v>2500</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C131" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C134" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C135" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C136" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="3">
+        <v>3000</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" s="3">
+        <v>350</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141" s="3">
+        <v>2200</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C142" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D453838-FB89-4AF4-9525-5FAEF6BC3231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D95EF-B9CC-49EE-9CC6-34165E7C2411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="201">
   <si>
     <t>Remessa</t>
   </si>
@@ -153,9 +153,6 @@
     <t>17978-DIO-I</t>
   </si>
   <si>
-    <t>80266888</t>
-  </si>
-  <si>
     <t>80264004</t>
   </si>
   <si>
@@ -541,6 +538,96 @@
   </si>
   <si>
     <t>60260-OUT-L</t>
+  </si>
+  <si>
+    <t>80266896</t>
+  </si>
+  <si>
+    <t>10259-ARI-I</t>
+  </si>
+  <si>
+    <t>80266898</t>
+  </si>
+  <si>
+    <t>10160-ARI-I</t>
+  </si>
+  <si>
+    <t>80266899</t>
+  </si>
+  <si>
+    <t>80266906</t>
+  </si>
+  <si>
+    <t>10482-ARI-I</t>
+  </si>
+  <si>
+    <t>80266907</t>
+  </si>
+  <si>
+    <t>15395-DLO-I</t>
+  </si>
+  <si>
+    <t>11558-DLO-I</t>
+  </si>
+  <si>
+    <t>14755-DLO-I</t>
+  </si>
+  <si>
+    <t>10967-DLO-L</t>
+  </si>
+  <si>
+    <t>11465-DLO-I</t>
+  </si>
+  <si>
+    <t>15151-DLO-I</t>
+  </si>
+  <si>
+    <t>15141-DLO-I</t>
+  </si>
+  <si>
+    <t>80266908</t>
+  </si>
+  <si>
+    <t>20935-CTY-I</t>
+  </si>
+  <si>
+    <t>80266909</t>
+  </si>
+  <si>
+    <t>10494-ARI-I</t>
+  </si>
+  <si>
+    <t>80266912</t>
+  </si>
+  <si>
+    <t>10637-ARI-I</t>
+  </si>
+  <si>
+    <t>10488-ARI-I</t>
+  </si>
+  <si>
+    <t>10396-ARI-I</t>
+  </si>
+  <si>
+    <t>80266913</t>
+  </si>
+  <si>
+    <t>10652-ARI-I</t>
+  </si>
+  <si>
+    <t>10035-ARI-I</t>
+  </si>
+  <si>
+    <t>10055-ARI-I</t>
+  </si>
+  <si>
+    <t>10547-ARI-I</t>
+  </si>
+  <si>
+    <t>10540-ARI-I</t>
+  </si>
+  <si>
+    <t>80266917</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1025,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,10 +1048,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -972,10 +1059,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C3" s="3">
         <v>24000</v>
@@ -983,10 +1070,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C4" s="3">
         <v>2000</v>
@@ -994,10 +1081,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3">
         <v>600</v>
@@ -1005,10 +1092,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3">
         <v>36000</v>
@@ -1016,10 +1103,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3">
         <v>1900</v>
@@ -1027,10 +1114,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3">
         <v>1500</v>
@@ -1038,10 +1125,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C9" s="3">
         <v>5000</v>
@@ -1049,10 +1136,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C10" s="3">
         <v>960</v>
@@ -1060,10 +1147,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="3">
         <v>2000</v>
@@ -1071,10 +1158,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C12" s="3">
         <v>80000</v>
@@ -1082,10 +1169,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1093,10 +1180,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1104,10 +1191,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -1115,10 +1202,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1126,10 +1213,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1137,10 +1224,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1148,10 +1235,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
@@ -1159,10 +1246,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3">
         <v>10</v>
@@ -1170,10 +1257,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1181,10 +1268,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1192,10 +1279,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1203,10 +1290,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1214,10 +1301,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1225,10 +1312,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C26" s="3">
         <v>500</v>
@@ -1236,10 +1323,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3">
         <v>500</v>
@@ -1247,10 +1334,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3">
         <v>500</v>
@@ -1258,10 +1345,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3">
         <v>500</v>
@@ -1269,10 +1356,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="3">
         <v>300</v>
@@ -1280,10 +1367,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3">
         <v>500</v>
@@ -1291,10 +1378,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1302,10 +1389,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -1313,10 +1400,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -1324,7 +1411,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>19</v>
@@ -1335,10 +1422,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
@@ -1346,10 +1433,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -1357,10 +1444,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -1368,10 +1455,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -1379,10 +1466,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -1390,10 +1477,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -1401,10 +1488,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1412,10 +1499,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1423,10 +1510,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -1434,10 +1521,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="C45" s="3">
         <v>830</v>
@@ -1445,10 +1532,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -1456,10 +1543,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="C47" s="3">
         <v>2</v>
@@ -1467,10 +1554,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
@@ -1478,10 +1565,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
@@ -1489,10 +1576,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
@@ -1500,10 +1587,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -1511,10 +1598,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
@@ -1522,10 +1609,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -1533,10 +1620,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -1544,10 +1631,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -1555,10 +1642,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -1566,10 +1653,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -1577,10 +1664,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -1588,10 +1675,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -1599,10 +1686,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -1610,10 +1697,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
@@ -1621,10 +1708,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -1632,10 +1719,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -1643,10 +1730,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -1654,10 +1741,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -1665,10 +1752,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>
@@ -1676,10 +1763,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
@@ -1687,10 +1774,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -1698,10 +1785,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="3">
         <v>2</v>
@@ -1709,10 +1796,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -1720,10 +1807,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="3">
         <v>2</v>
@@ -1731,10 +1818,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -1742,10 +1829,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
@@ -1753,10 +1840,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -1764,10 +1851,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -1775,10 +1862,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -1786,10 +1873,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -1797,10 +1884,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="C78" s="3">
         <v>200</v>
@@ -1808,10 +1895,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -1819,10 +1906,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="C80" s="3">
         <v>48</v>
@@ -1830,10 +1917,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="C81" s="3">
         <v>252</v>
@@ -1841,10 +1928,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
@@ -1852,10 +1939,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C83" s="3">
         <v>14</v>
@@ -1863,10 +1950,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C84" s="3">
         <v>2</v>
@@ -1874,10 +1961,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C85" s="3">
         <v>384</v>
@@ -2237,18 +2324,18 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="C118" s="3">
-        <v>7500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>146</v>
@@ -2259,7 +2346,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>147</v>
@@ -2270,117 +2357,117 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C121" s="3">
-        <v>2</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C122" s="3">
-        <v>5000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C123" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C124" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C125" s="3">
-        <v>500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C126" s="3">
-        <v>3000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C127" s="3">
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C128" s="3">
-        <v>4000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C129" s="3">
-        <v>3200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C130" s="3">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>161</v>
@@ -2391,7 +2478,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>162</v>
@@ -2402,7 +2489,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>163</v>
@@ -2413,7 +2500,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>164</v>
@@ -2424,256 +2511,454 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C135" s="3">
-        <v>5000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C136" s="3">
-        <v>40</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>167</v>
       </c>
       <c r="C137" s="3">
-        <v>3000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C138" s="3">
-        <v>40</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C139" s="3">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C140" s="3">
-        <v>350</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C141" s="3">
-        <v>2200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C142" s="3">
-        <v>500</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" s="3">
+        <v>28</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C146" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="3"/>
+      <c r="A147" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C148" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="3"/>
+      <c r="A151" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="3"/>
+      <c r="A157" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C157" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="3"/>
+      <c r="A159" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="3"/>
+      <c r="A160" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="3"/>
+      <c r="A161" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C161" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="3"/>
+      <c r="A162" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C162" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="3"/>
+      <c r="A163" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C163" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="3"/>
+      <c r="A164" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C164" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="3"/>
+      <c r="A165" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C165" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="3"/>
+      <c r="A166" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="3"/>
+      <c r="A167" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="3"/>
+      <c r="A168" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C168" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="3"/>
+      <c r="A169" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C169" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="3"/>
+      <c r="A170" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C170" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="3"/>
+      <c r="A171" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C171" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C172" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C173" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="3"/>
+      <c r="A174" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C174" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="3"/>
+      <c r="A175" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="3">
+        <v>7500</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D95EF-B9CC-49EE-9CC6-34165E7C2411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA1834B-6778-4909-A8BA-268BA67BE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="211">
   <si>
     <t>Remessa</t>
   </si>
@@ -628,6 +628,36 @@
   </si>
   <si>
     <t>80266917</t>
+  </si>
+  <si>
+    <t>80266955</t>
+  </si>
+  <si>
+    <t>10381-ARI-I</t>
+  </si>
+  <si>
+    <t>10253-ARI-I</t>
+  </si>
+  <si>
+    <t>10257-ARI-I</t>
+  </si>
+  <si>
+    <t>80266959</t>
+  </si>
+  <si>
+    <t>10078-BLB-I</t>
+  </si>
+  <si>
+    <t>80266968</t>
+  </si>
+  <si>
+    <t>33640-ATE-I</t>
+  </si>
+  <si>
+    <t>80266981</t>
+  </si>
+  <si>
+    <t>10499-ARI-I</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1055,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C175"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2961,74 +2991,158 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="3"/>
+      <c r="A176" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="3"/>
+      <c r="A177" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C177" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="3"/>
+      <c r="A178" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="3"/>
+      <c r="A179" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="3"/>
+      <c r="A180" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C180" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="3"/>
+      <c r="A181" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C181" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="3"/>
+      <c r="A182" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C182" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="3"/>
+      <c r="A183" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C183" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="3"/>
+      <c r="A184" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C184" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="3"/>
+      <c r="A185" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="3"/>
+      <c r="A186" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="3"/>
+      <c r="A187" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="3"/>
+      <c r="A188" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C188" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="3"/>
+      <c r="A189" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA1834B-6778-4909-A8BA-268BA67BE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152E01F-76F9-4089-B7CA-54B631B1F1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="215">
   <si>
     <t>Remessa</t>
   </si>
@@ -658,6 +658,18 @@
   </si>
   <si>
     <t>10499-ARI-I</t>
+  </si>
+  <si>
+    <t>80266999</t>
+  </si>
+  <si>
+    <t>50596-ROY-L</t>
+  </si>
+  <si>
+    <t>11285-ROY-I</t>
+  </si>
+  <si>
+    <t>15643-TDK-N</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1067,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2:C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3145,19 +3157,37 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="3"/>
+      <c r="A190" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C190" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="3"/>
+      <c r="A191" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C191" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="3"/>
+      <c r="A192" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C192" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152E01F-76F9-4089-B7CA-54B631B1F1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2758141-B1C9-4669-A07B-7F34C8D47409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="216">
   <si>
     <t>Remessa</t>
   </si>
@@ -670,22 +670,17 @@
   </si>
   <si>
     <t>15643-TDK-N</t>
+  </si>
+  <si>
+    <t>10661-BLB-I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -713,13 +708,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1064,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:C391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C192"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,10 +1070,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1089,3070 +1081,3112 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4">
+        <v>80266975</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>80266975</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C9" s="2">
         <v>24000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C10" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C11" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C12" s="2">
         <v>36000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C13" s="2">
         <v>1900</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C14" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C15" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C16" s="2">
         <v>960</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C17" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C18" s="2">
         <v>80000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C25" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C26" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C32" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C33" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C34" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C35" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C36" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C37" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C42" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C51" s="2">
         <v>830</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C53" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C54" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C55" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C56" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C57" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C58" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C59" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C72" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C73" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C75" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C77" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C84" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C85" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C86" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C87" s="2">
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C88" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C89" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C90" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C91" s="2">
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C93" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C94" s="2">
         <v>1800</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C95" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C96" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C97" s="2">
         <v>640</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C98" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C99" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C100" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C101" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C102" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C103" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C104" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C105" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C106" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C107" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C108" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C109" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C110" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C111" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C112" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C113" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C114" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C115" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C116" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C117" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C118" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C119" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C120" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B121" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C121" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C122" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B123" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C123" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B124" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C124" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C125" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B126" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C126" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B127" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C127" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C128" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C129" s="2">
         <v>1200</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B130" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C130" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B131" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C131" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B132" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C132" s="2">
         <v>8000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B133" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C133" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B134" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C134" s="2">
         <v>3200</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B135" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C135" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B136" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C136" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B137" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C137" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B138" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C138" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B139" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C139" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C140" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C141" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B142" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C142" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C143" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B144" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C144" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C145" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B146" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C146" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B147" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C147" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B148" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C148" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B149" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C149" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B150" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C150" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B151" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C151" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B152" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C152" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B153" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C153" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B154" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C154" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B155" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C155" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B156" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C156" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B157" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C157" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B158" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C152" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+      <c r="C158" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B159" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
+      <c r="C159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B160" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C160" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B161" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
+      <c r="C161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B162" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+      <c r="C162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B163" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C163" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B164" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
+      <c r="C164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B165" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
+      <c r="C165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B166" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C166" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B167" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C167" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B168" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C168" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B169" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C169" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B170" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C170" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B171" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C171" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B172" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C172" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B173" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
+      <c r="C173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B174" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C174" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B175" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C175" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B176" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C176" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B177" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C177" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B178" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C178" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B179" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C179" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B180" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C180" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B181" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C181" s="2">
         <v>7500</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B182" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C182" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B183" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C183" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B184" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
+      <c r="C184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B185" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
+      <c r="C185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B186" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C186" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B187" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C187" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B188" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C188" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B189" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C189" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B190" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C190" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B191" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C191" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B192" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C192" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C193" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B194" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C194" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B195" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C189" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
+      <c r="C195" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B196" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C196" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B197" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C197" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B198" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C198" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="3"/>
-    </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="3"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="3"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="3"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="3"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="3"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="3"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="3"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="3"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="3"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="3"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="3"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="3"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="3"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="3"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="3"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="3"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="3"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="3"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="3"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="3"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="3"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="3"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="3"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="3"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="3"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="3"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="3"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="3"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="3"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="3"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="4"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="3"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="4"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="3"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="4"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="3"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="4"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="3"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="4"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="3"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
-      <c r="C235" s="3"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="4"/>
-      <c r="B236" s="4"/>
-      <c r="C236" s="3"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="3"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="4"/>
-      <c r="B238" s="4"/>
-      <c r="C238" s="3"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="3"/>
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="2"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="3"/>
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="3"/>
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="3"/>
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="3"/>
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="3"/>
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="4"/>
-      <c r="B245" s="4"/>
-      <c r="C245" s="3"/>
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="3"/>
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="3"/>
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="4"/>
-      <c r="B248" s="4"/>
-      <c r="C248" s="3"/>
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="4"/>
-      <c r="B249" s="4"/>
-      <c r="C249" s="3"/>
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="4"/>
-      <c r="B250" s="4"/>
-      <c r="C250" s="3"/>
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="4"/>
-      <c r="B251" s="4"/>
-      <c r="C251" s="3"/>
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="4"/>
-      <c r="B252" s="4"/>
-      <c r="C252" s="3"/>
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="4"/>
-      <c r="B253" s="4"/>
-      <c r="C253" s="3"/>
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="4"/>
-      <c r="B254" s="4"/>
-      <c r="C254" s="3"/>
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="4"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="3"/>
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="4"/>
-      <c r="B256" s="4"/>
-      <c r="C256" s="3"/>
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="3"/>
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="4"/>
-      <c r="B258" s="4"/>
-      <c r="C258" s="3"/>
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="2"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="3"/>
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="4"/>
-      <c r="B260" s="4"/>
-      <c r="C260" s="3"/>
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="2"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="4"/>
-      <c r="B261" s="4"/>
-      <c r="C261" s="3"/>
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="2"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="3"/>
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="4"/>
-      <c r="B263" s="4"/>
-      <c r="C263" s="3"/>
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="4"/>
-      <c r="B264" s="4"/>
-      <c r="C264" s="3"/>
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="4"/>
-      <c r="B265" s="4"/>
-      <c r="C265" s="3"/>
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="4"/>
-      <c r="B266" s="4"/>
-      <c r="C266" s="3"/>
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="4"/>
-      <c r="B267" s="4"/>
-      <c r="C267" s="3"/>
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="4"/>
-      <c r="B268" s="4"/>
-      <c r="C268" s="3"/>
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="4"/>
-      <c r="B269" s="4"/>
-      <c r="C269" s="3"/>
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="4"/>
-      <c r="B270" s="4"/>
-      <c r="C270" s="3"/>
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="4"/>
-      <c r="B271" s="4"/>
-      <c r="C271" s="3"/>
+      <c r="A271" s="3"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="4"/>
-      <c r="B272" s="4"/>
-      <c r="C272" s="3"/>
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="4"/>
-      <c r="B273" s="4"/>
-      <c r="C273" s="3"/>
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="2"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="4"/>
-      <c r="B274" s="4"/>
-      <c r="C274" s="3"/>
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="4"/>
-      <c r="B275" s="4"/>
-      <c r="C275" s="3"/>
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="2"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="4"/>
-      <c r="B276" s="4"/>
-      <c r="C276" s="3"/>
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="2"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="4"/>
-      <c r="B277" s="4"/>
-      <c r="C277" s="3"/>
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="4"/>
-      <c r="B278" s="4"/>
-      <c r="C278" s="3"/>
+      <c r="A278" s="3"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="2"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
-      <c r="C279" s="3"/>
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="2"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="4"/>
-      <c r="B280" s="4"/>
-      <c r="C280" s="3"/>
+      <c r="A280" s="3"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="4"/>
-      <c r="B281" s="4"/>
-      <c r="C281" s="3"/>
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="2"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="4"/>
-      <c r="B282" s="4"/>
-      <c r="C282" s="3"/>
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="4"/>
-      <c r="B283" s="4"/>
-      <c r="C283" s="3"/>
+      <c r="A283" s="3"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="4"/>
-      <c r="B284" s="4"/>
-      <c r="C284" s="3"/>
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="4"/>
-      <c r="B285" s="4"/>
-      <c r="C285" s="3"/>
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="4"/>
-      <c r="B286" s="4"/>
-      <c r="C286" s="3"/>
+      <c r="A286" s="3"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="4"/>
-      <c r="B287" s="4"/>
-      <c r="C287" s="3"/>
+      <c r="A287" s="3"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="2"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="4"/>
-      <c r="B288" s="4"/>
-      <c r="C288" s="3"/>
+      <c r="A288" s="3"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="4"/>
-      <c r="B289" s="4"/>
-      <c r="C289" s="3"/>
+      <c r="A289" s="3"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="4"/>
-      <c r="B290" s="4"/>
-      <c r="C290" s="3"/>
+      <c r="A290" s="3"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
-      <c r="C291" s="3"/>
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="2"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="3"/>
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="4"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="3"/>
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="2"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="4"/>
-      <c r="B294" s="4"/>
-      <c r="C294" s="3"/>
+      <c r="A294" s="3"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="4"/>
-      <c r="B295" s="4"/>
-      <c r="C295" s="3"/>
+      <c r="A295" s="3"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="4"/>
-      <c r="B296" s="4"/>
-      <c r="C296" s="3"/>
+      <c r="A296" s="3"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="4"/>
-      <c r="B297" s="4"/>
-      <c r="C297" s="3"/>
+      <c r="A297" s="3"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="2"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="4"/>
-      <c r="B298" s="4"/>
-      <c r="C298" s="3"/>
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="4"/>
-      <c r="B299" s="4"/>
-      <c r="C299" s="3"/>
+      <c r="A299" s="3"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="2"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="4"/>
-      <c r="B300" s="4"/>
-      <c r="C300" s="3"/>
+      <c r="A300" s="3"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="4"/>
-      <c r="B301" s="4"/>
-      <c r="C301" s="3"/>
+      <c r="A301" s="3"/>
+      <c r="B301" s="3"/>
+      <c r="C301" s="2"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="4"/>
-      <c r="B302" s="4"/>
-      <c r="C302" s="3"/>
+      <c r="A302" s="3"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="4"/>
-      <c r="B303" s="4"/>
-      <c r="C303" s="3"/>
+      <c r="A303" s="3"/>
+      <c r="B303" s="3"/>
+      <c r="C303" s="2"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="4"/>
-      <c r="B304" s="4"/>
-      <c r="C304" s="3"/>
+      <c r="A304" s="3"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="4"/>
-      <c r="B305" s="4"/>
-      <c r="C305" s="3"/>
+      <c r="A305" s="3"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="2"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
-      <c r="C306" s="3"/>
+      <c r="A306" s="3"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="2"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
-      <c r="C307" s="3"/>
+      <c r="A307" s="3"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="2"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="3"/>
+      <c r="A308" s="3"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="2"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="3"/>
+      <c r="A309" s="3"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="2"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="3"/>
+      <c r="A310" s="3"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
-      <c r="C311" s="3"/>
+      <c r="A311" s="3"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="2"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="3"/>
+      <c r="A312" s="3"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="2"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="3"/>
+      <c r="A313" s="3"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="2"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
-      <c r="C314" s="3"/>
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="2"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
-      <c r="C315" s="3"/>
+      <c r="A315" s="3"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="2"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="4"/>
-      <c r="B316" s="4"/>
-      <c r="C316" s="3"/>
+      <c r="A316" s="3"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="2"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
-      <c r="C317" s="3"/>
+      <c r="A317" s="3"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="2"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="4"/>
-      <c r="B318" s="4"/>
-      <c r="C318" s="3"/>
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="2"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="4"/>
-      <c r="B319" s="4"/>
-      <c r="C319" s="3"/>
+      <c r="A319" s="3"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="2"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="4"/>
-      <c r="B320" s="4"/>
-      <c r="C320" s="3"/>
+      <c r="A320" s="3"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="2"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="4"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="3"/>
+      <c r="A321" s="3"/>
+      <c r="B321" s="3"/>
+      <c r="C321" s="2"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="4"/>
-      <c r="B322" s="4"/>
-      <c r="C322" s="3"/>
+      <c r="A322" s="3"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="2"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="4"/>
-      <c r="B323" s="4"/>
-      <c r="C323" s="3"/>
+      <c r="A323" s="3"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="2"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="4"/>
-      <c r="B324" s="4"/>
-      <c r="C324" s="3"/>
+      <c r="A324" s="3"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="2"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="4"/>
-      <c r="B325" s="4"/>
-      <c r="C325" s="3"/>
+      <c r="A325" s="3"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="2"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="4"/>
-      <c r="B326" s="4"/>
-      <c r="C326" s="3"/>
+      <c r="A326" s="3"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="2"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
-      <c r="C327" s="3"/>
+      <c r="A327" s="3"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="2"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
-      <c r="C328" s="3"/>
+      <c r="A328" s="3"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
-      <c r="C329" s="3"/>
+      <c r="A329" s="3"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="4"/>
-      <c r="B330" s="4"/>
-      <c r="C330" s="3"/>
+      <c r="A330" s="3"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
-      <c r="C331" s="3"/>
+      <c r="A331" s="3"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="4"/>
-      <c r="B332" s="4"/>
-      <c r="C332" s="3"/>
+      <c r="A332" s="3"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="2"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="4"/>
-      <c r="B333" s="4"/>
-      <c r="C333" s="3"/>
+      <c r="A333" s="3"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="2"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="4"/>
-      <c r="B334" s="4"/>
-      <c r="C334" s="3"/>
+      <c r="A334" s="3"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="2"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="4"/>
-      <c r="B335" s="4"/>
-      <c r="C335" s="3"/>
+      <c r="A335" s="3"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="2"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="4"/>
-      <c r="B336" s="4"/>
-      <c r="C336" s="3"/>
+      <c r="A336" s="3"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="2"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="4"/>
-      <c r="B337" s="4"/>
-      <c r="C337" s="3"/>
+      <c r="A337" s="3"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="2"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="4"/>
-      <c r="B338" s="4"/>
-      <c r="C338" s="3"/>
+      <c r="A338" s="3"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="2"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="4"/>
-      <c r="B339" s="4"/>
-      <c r="C339" s="3"/>
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="2"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="4"/>
-      <c r="B340" s="4"/>
-      <c r="C340" s="3"/>
+      <c r="A340" s="3"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="2"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="4"/>
-      <c r="B341" s="4"/>
-      <c r="C341" s="3"/>
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="2"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="4"/>
-      <c r="B342" s="4"/>
-      <c r="C342" s="3"/>
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="2"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="4"/>
-      <c r="B343" s="4"/>
-      <c r="C343" s="3"/>
+      <c r="A343" s="3"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="4"/>
-      <c r="B344" s="4"/>
-      <c r="C344" s="3"/>
+      <c r="A344" s="3"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="4"/>
-      <c r="B345" s="4"/>
-      <c r="C345" s="3"/>
+      <c r="A345" s="3"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="2"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="4"/>
-      <c r="B346" s="4"/>
-      <c r="C346" s="3"/>
+      <c r="A346" s="3"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="2"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="4"/>
-      <c r="B347" s="4"/>
-      <c r="C347" s="3"/>
+      <c r="A347" s="3"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="2"/>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="4"/>
-      <c r="B348" s="4"/>
-      <c r="C348" s="3"/>
+      <c r="A348" s="3"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="4"/>
-      <c r="B349" s="4"/>
-      <c r="C349" s="3"/>
+      <c r="A349" s="3"/>
+      <c r="B349" s="3"/>
+      <c r="C349" s="2"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="4"/>
-      <c r="B350" s="4"/>
-      <c r="C350" s="3"/>
+      <c r="A350" s="3"/>
+      <c r="B350" s="3"/>
+      <c r="C350" s="2"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="4"/>
-      <c r="B351" s="4"/>
-      <c r="C351" s="3"/>
+      <c r="A351" s="3"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="2"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="4"/>
-      <c r="B352" s="4"/>
-      <c r="C352" s="3"/>
+      <c r="A352" s="3"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="2"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="4"/>
-      <c r="B353" s="4"/>
-      <c r="C353" s="3"/>
+      <c r="A353" s="3"/>
+      <c r="B353" s="3"/>
+      <c r="C353" s="2"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="4"/>
-      <c r="B354" s="4"/>
-      <c r="C354" s="3"/>
+      <c r="A354" s="3"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="2"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="4"/>
-      <c r="B355" s="4"/>
-      <c r="C355" s="3"/>
+      <c r="A355" s="3"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="2"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="4"/>
-      <c r="B356" s="4"/>
-      <c r="C356" s="3"/>
+      <c r="A356" s="3"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="2"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="4"/>
-      <c r="B357" s="4"/>
-      <c r="C357" s="3"/>
+      <c r="A357" s="3"/>
+      <c r="B357" s="3"/>
+      <c r="C357" s="2"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="4"/>
-      <c r="B358" s="4"/>
-      <c r="C358" s="3"/>
+      <c r="A358" s="3"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="2"/>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="4"/>
-      <c r="B359" s="4"/>
-      <c r="C359" s="3"/>
+      <c r="A359" s="3"/>
+      <c r="B359" s="3"/>
+      <c r="C359" s="2"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="4"/>
-      <c r="B360" s="4"/>
-      <c r="C360" s="3"/>
+      <c r="A360" s="3"/>
+      <c r="B360" s="3"/>
+      <c r="C360" s="2"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="4"/>
-      <c r="B361" s="4"/>
-      <c r="C361" s="3"/>
+      <c r="A361" s="3"/>
+      <c r="B361" s="3"/>
+      <c r="C361" s="2"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="4"/>
-      <c r="B362" s="4"/>
-      <c r="C362" s="3"/>
+      <c r="A362" s="3"/>
+      <c r="B362" s="3"/>
+      <c r="C362" s="2"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="4"/>
-      <c r="B363" s="4"/>
-      <c r="C363" s="3"/>
+      <c r="A363" s="3"/>
+      <c r="B363" s="3"/>
+      <c r="C363" s="2"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="4"/>
-      <c r="B364" s="4"/>
-      <c r="C364" s="3"/>
+      <c r="A364" s="3"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="2"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="4"/>
-      <c r="B365" s="4"/>
-      <c r="C365" s="3"/>
+      <c r="A365" s="3"/>
+      <c r="B365" s="3"/>
+      <c r="C365" s="2"/>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="4"/>
-      <c r="B366" s="4"/>
-      <c r="C366" s="3"/>
+      <c r="A366" s="3"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="2"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="4"/>
-      <c r="B367" s="4"/>
-      <c r="C367" s="3"/>
+      <c r="A367" s="3"/>
+      <c r="B367" s="3"/>
+      <c r="C367" s="2"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="4"/>
-      <c r="B368" s="4"/>
-      <c r="C368" s="3"/>
+      <c r="A368" s="3"/>
+      <c r="B368" s="3"/>
+      <c r="C368" s="2"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="4"/>
-      <c r="B369" s="4"/>
-      <c r="C369" s="3"/>
+      <c r="A369" s="3"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="2"/>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="4"/>
-      <c r="B370" s="4"/>
-      <c r="C370" s="3"/>
+      <c r="A370" s="3"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="2"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="4"/>
-      <c r="B371" s="4"/>
-      <c r="C371" s="3"/>
+      <c r="A371" s="3"/>
+      <c r="B371" s="3"/>
+      <c r="C371" s="2"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="4"/>
-      <c r="B372" s="4"/>
-      <c r="C372" s="3"/>
+      <c r="A372" s="3"/>
+      <c r="B372" s="3"/>
+      <c r="C372" s="2"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="4"/>
-      <c r="B373" s="4"/>
-      <c r="C373" s="3"/>
+      <c r="A373" s="3"/>
+      <c r="B373" s="3"/>
+      <c r="C373" s="2"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="4"/>
-      <c r="B374" s="4"/>
-      <c r="C374" s="3"/>
+      <c r="A374" s="3"/>
+      <c r="B374" s="3"/>
+      <c r="C374" s="2"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="4"/>
-      <c r="B375" s="4"/>
-      <c r="C375" s="3"/>
+      <c r="A375" s="3"/>
+      <c r="B375" s="3"/>
+      <c r="C375" s="2"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="4"/>
-      <c r="B376" s="4"/>
-      <c r="C376" s="3"/>
+      <c r="A376" s="3"/>
+      <c r="B376" s="3"/>
+      <c r="C376" s="2"/>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="4"/>
-      <c r="B377" s="4"/>
-      <c r="C377" s="3"/>
+      <c r="A377" s="3"/>
+      <c r="B377" s="3"/>
+      <c r="C377" s="2"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="4"/>
-      <c r="B378" s="4"/>
-      <c r="C378" s="3"/>
+      <c r="A378" s="3"/>
+      <c r="B378" s="3"/>
+      <c r="C378" s="2"/>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="4"/>
-      <c r="B379" s="4"/>
-      <c r="C379" s="3"/>
+      <c r="A379" s="3"/>
+      <c r="B379" s="3"/>
+      <c r="C379" s="2"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="4"/>
-      <c r="B380" s="4"/>
-      <c r="C380" s="3"/>
+      <c r="A380" s="3"/>
+      <c r="B380" s="3"/>
+      <c r="C380" s="2"/>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="4"/>
-      <c r="B381" s="4"/>
-      <c r="C381" s="3"/>
+      <c r="A381" s="3"/>
+      <c r="B381" s="3"/>
+      <c r="C381" s="2"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="4"/>
-      <c r="B382" s="4"/>
-      <c r="C382" s="3"/>
+      <c r="A382" s="3"/>
+      <c r="B382" s="3"/>
+      <c r="C382" s="2"/>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="4"/>
-      <c r="B383" s="4"/>
-      <c r="C383" s="3"/>
+      <c r="A383" s="3"/>
+      <c r="B383" s="3"/>
+      <c r="C383" s="2"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="4"/>
-      <c r="B384" s="4"/>
-      <c r="C384" s="3"/>
+      <c r="A384" s="3"/>
+      <c r="B384" s="3"/>
+      <c r="C384" s="2"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="4"/>
-      <c r="B385" s="4"/>
-      <c r="C385" s="3"/>
+      <c r="A385" s="3"/>
+      <c r="B385" s="3"/>
+      <c r="C385" s="2"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="3"/>
+      <c r="B386" s="3"/>
+      <c r="C386" s="2"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="3"/>
+      <c r="B387" s="3"/>
+      <c r="C387" s="2"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="3"/>
+      <c r="B388" s="3"/>
+      <c r="C388" s="2"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="3"/>
+      <c r="B389" s="3"/>
+      <c r="C389" s="2"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="3"/>
+      <c r="B390" s="3"/>
+      <c r="C390" s="2"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="3"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2758141-B1C9-4669-A07B-7F34C8D47409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14CB73-FE07-42FA-A7A1-70A67DA28B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="222">
   <si>
     <t>Remessa</t>
   </si>
@@ -673,6 +673,24 @@
   </si>
   <si>
     <t>10661-BLB-I</t>
+  </si>
+  <si>
+    <t>10251-ARI-I</t>
+  </si>
+  <si>
+    <t>21475-NZX-I</t>
+  </si>
+  <si>
+    <t>10080-ARI-I</t>
+  </si>
+  <si>
+    <t>10662-BLB-I</t>
+  </si>
+  <si>
+    <t>10663-BLB-I</t>
+  </si>
+  <si>
+    <t>10072-BLB-I</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,196 +1121,172 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="4">
+        <v>80266976</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="4">
+        <v>80266976</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="4">
+        <v>80266977</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="4">
+        <v>80266977</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>42</v>
+      <c r="A8" s="4">
+        <v>80266977</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>44</v>
+      <c r="A9" s="4">
+        <v>80266977</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="C9" s="2">
-        <v>24000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
+      <c r="A10" s="4">
+        <v>80266977</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
-        <v>2000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>46</v>
+      <c r="A11" s="4">
+        <v>80266978</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2">
-        <v>600</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
+      <c r="A12" s="4">
+        <v>80266983</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="C12" s="2">
-        <v>36000</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
+      <c r="A13" s="4">
+        <v>80266930</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="C13" s="2">
-        <v>1900</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>46</v>
+      <c r="A14" s="4">
+        <v>80266930</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="C14" s="2">
-        <v>1500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5000</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2">
-        <v>960</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2000</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="2">
-        <v>80000</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1300,164 +1294,164 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2">
-        <v>10</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2">
-        <v>500</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2">
-        <v>300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -1465,10 +1459,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -1476,43 +1470,43 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -1520,10 +1514,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1531,10 +1525,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1542,10 +1536,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -1553,153 +1547,153 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C51" s="2">
-        <v>830</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C57" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -1707,10 +1701,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -1718,10 +1712,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -1729,10 +1723,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -1740,10 +1734,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -1751,10 +1745,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -1762,21 +1756,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>830</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -1784,54 +1778,54 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2">
         <v>2</v>
@@ -1839,43 +1833,43 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C73" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -1883,21 +1877,21 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -1905,10 +1899,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -1916,10 +1910,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -1927,10 +1921,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -1938,10 +1932,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -1949,10 +1943,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -1960,54 +1954,54 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C84" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C87" s="2">
-        <v>252</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -2015,21 +2009,21 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
@@ -2037,332 +2031,332 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2">
-        <v>384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2">
-        <v>1800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="C97" s="2">
-        <v>640</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C99" s="2">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="C100" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2">
-        <v>3</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" s="2">
         <v>14</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2">
-        <v>6000</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C107" s="2">
-        <v>4000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C108" s="2">
-        <v>4000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C109" s="2">
-        <v>4000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C110" s="2">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C111" s="2">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C112" s="2">
-        <v>15000</v>
+        <v>640</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C113" s="2">
-        <v>2500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C114" s="2">
-        <v>3000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C115" s="2">
-        <v>2000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C116" s="2">
-        <v>5000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C117" s="2">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C118" s="2">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2370,10 +2364,10 @@
         <v>23</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C121" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2381,10 +2375,10 @@
         <v>23</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C122" s="2">
-        <v>2500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2392,150 +2386,150 @@
         <v>23</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C123" s="2">
-        <v>2500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="C124" s="2">
-        <v>2</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="C125" s="2">
-        <v>2</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="C126" s="2">
-        <v>2</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="C127" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="C128" s="2">
-        <v>200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="C129" s="2">
-        <v>1200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="C130" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C131" s="2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="C132" s="2">
-        <v>8000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="C133" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="C134" s="2">
-        <v>3200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="C135" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C136" s="2">
         <v>5000</v>
@@ -2543,101 +2537,101 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="C137" s="2">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="C138" s="2">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C139" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C140" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C141" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C142" s="2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C143" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C144" s="2">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C145" s="2">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2645,10 +2639,10 @@
         <v>154</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C146" s="2">
-        <v>2200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2656,271 +2650,271 @@
         <v>154</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C147" s="2">
-        <v>500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C148" s="2">
-        <v>18</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C149" s="2">
-        <v>22</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C150" s="2">
-        <v>4</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C151" s="2">
-        <v>28</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C152" s="2">
-        <v>12</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C153" s="2">
-        <v>8</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C154" s="2">
-        <v>6</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C155" s="2">
-        <v>12</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C156" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C157" s="2">
-        <v>4</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C158" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C159" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C160" s="2">
-        <v>2</v>
+        <v>350</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C161" s="2">
-        <v>1</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C162" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C163" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C164" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C165" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="C166" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C167" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="C168" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="C169" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="C170" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C171" s="2">
         <v>2</v>
@@ -2928,10 +2922,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C172" s="2">
         <v>4</v>
@@ -2939,10 +2933,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C173" s="2">
         <v>1</v>
@@ -2950,21 +2944,21 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C174" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C175" s="2">
         <v>2</v>
@@ -2972,331 +2966,421 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C176" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="C177" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C178" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C179" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C180" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C181" s="2">
-        <v>7500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C182" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C183" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C184" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C185" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C186" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C187" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C188" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C189" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C190" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C191" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C192" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="C193" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C194" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C195" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="C196" s="2">
-        <v>5000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="C197" s="2">
-        <v>5000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C200" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C201" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C202" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C203" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C204" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C207" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B211" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C213" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="2"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="2"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="2"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
@@ -4188,6 +4272,81 @@
       <c r="B391" s="3"/>
       <c r="C391" s="2"/>
     </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="3"/>
+      <c r="B392" s="3"/>
+      <c r="C392" s="2"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="3"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="2"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="3"/>
+      <c r="B394" s="3"/>
+      <c r="C394" s="2"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="3"/>
+      <c r="B395" s="3"/>
+      <c r="C395" s="2"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="3"/>
+      <c r="B396" s="3"/>
+      <c r="C396" s="2"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="3"/>
+      <c r="B397" s="3"/>
+      <c r="C397" s="2"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="3"/>
+      <c r="B398" s="3"/>
+      <c r="C398" s="2"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="3"/>
+      <c r="B399" s="3"/>
+      <c r="C399" s="2"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="3"/>
+      <c r="B400" s="3"/>
+      <c r="C400" s="2"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="3"/>
+      <c r="B401" s="3"/>
+      <c r="C401" s="2"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="3"/>
+      <c r="B402" s="3"/>
+      <c r="C402" s="2"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="3"/>
+      <c r="B403" s="3"/>
+      <c r="C403" s="2"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="3"/>
+      <c r="B404" s="3"/>
+      <c r="C404" s="2"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="3"/>
+      <c r="B405" s="3"/>
+      <c r="C405" s="2"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="3"/>
+      <c r="B406" s="3"/>
+      <c r="C406" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14CB73-FE07-42FA-A7A1-70A67DA28B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9A39BC-A69E-40D5-94D7-8B42F29AB62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="248">
   <si>
     <t>Remessa</t>
   </si>
@@ -691,6 +691,84 @@
   </si>
   <si>
     <t>10072-BLB-I</t>
+  </si>
+  <si>
+    <t>80267009</t>
+  </si>
+  <si>
+    <t>80267010</t>
+  </si>
+  <si>
+    <t>80267013</t>
+  </si>
+  <si>
+    <t>10656-BLB-I</t>
+  </si>
+  <si>
+    <t>10657-BLB-I</t>
+  </si>
+  <si>
+    <t>80267018</t>
+  </si>
+  <si>
+    <t>10007-LDG-I</t>
+  </si>
+  <si>
+    <t>10001-LDG-I</t>
+  </si>
+  <si>
+    <t>80267020</t>
+  </si>
+  <si>
+    <t>80267021</t>
+  </si>
+  <si>
+    <t>10107-DLO-L</t>
+  </si>
+  <si>
+    <t>10516-DLO-L</t>
+  </si>
+  <si>
+    <t>80267023</t>
+  </si>
+  <si>
+    <t>80267030</t>
+  </si>
+  <si>
+    <t>80267031</t>
+  </si>
+  <si>
+    <t>10386-ARI-I</t>
+  </si>
+  <si>
+    <t>80267035</t>
+  </si>
+  <si>
+    <t>23464-GPB-I</t>
+  </si>
+  <si>
+    <t>80267036</t>
+  </si>
+  <si>
+    <t>80267037</t>
+  </si>
+  <si>
+    <t>80267038</t>
+  </si>
+  <si>
+    <t>40284-TDK-N</t>
+  </si>
+  <si>
+    <t>84004838</t>
+  </si>
+  <si>
+    <t>20953-CTY-I</t>
+  </si>
+  <si>
+    <t>84004839</t>
+  </si>
+  <si>
+    <t>84004840</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <dimension ref="A1:C406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,194 +1177,242 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>80266975</v>
+      <c r="A2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>80266975</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>80266976</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>80266976</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>80266978</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>80266983</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>80266930</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>80266930</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1294,120 +1420,120 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2">
-        <v>24000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2">
-        <v>36000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2">
-        <v>1900</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2">
-        <v>5000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2">
-        <v>960</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2">
-        <v>80000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1415,10 +1541,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1426,21 +1552,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1448,7 +1574,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>61</v>
@@ -1459,10 +1585,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -1470,32 +1596,32 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -1503,10 +1629,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -1514,10 +1640,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1525,21 +1651,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>830</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -1547,87 +1673,87 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C47" s="2">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C48" s="2">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2">
-        <v>300</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -1635,10 +1761,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -1646,10 +1772,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -1657,21 +1783,21 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -1679,10 +1805,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -1690,10 +1816,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -1701,10 +1827,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -1712,7 +1838,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>81</v>
@@ -1723,10 +1849,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -1734,10 +1860,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -1745,10 +1871,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -1756,43 +1882,43 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2">
-        <v>830</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2">
         <v>2</v>
@@ -1800,21 +1926,21 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="C70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
@@ -1822,43 +1948,43 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -1866,10 +1992,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -1877,10 +2003,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -1888,98 +2014,98 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C78" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C80" s="2">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C81" s="2">
-        <v>1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -1987,494 +2113,494 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C88" s="2">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C89" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="C90" s="2">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="C91" s="2">
-        <v>1</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="C92" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="C93" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="C94" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="C95" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="C96" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C97" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="C98" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="C99" s="2">
-        <v>200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="C100" s="2">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="C101" s="2">
-        <v>48</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C102" s="2">
-        <v>252</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="C103" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="C104" s="2">
-        <v>14</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="C105" s="2">
-        <v>2</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="C106" s="2">
-        <v>384</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C107" s="2">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C108" s="2">
-        <v>8</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C109" s="2">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C110" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C111" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C112" s="2">
-        <v>640</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C113" s="2">
-        <v>15</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C114" s="2">
-        <v>15</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C115" s="2">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C116" s="2">
-        <v>15</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C117" s="2">
-        <v>3</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="C119" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="C121" s="2">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2">
-        <v>4000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="C123" s="2">
-        <v>4000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2">
-        <v>2500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="C127" s="2">
-        <v>15000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="C128" s="2">
-        <v>2500</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="C129" s="2">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="C130" s="2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="C131" s="2">
         <v>5000</v>
@@ -2482,10 +2608,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="C132" s="2">
         <v>5000</v>
@@ -2493,10 +2619,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="C133" s="2">
         <v>5000</v>
@@ -2504,10 +2630,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="C134" s="2">
         <v>5000</v>
@@ -2515,417 +2641,417 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="C135" s="2">
-        <v>5000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="C136" s="2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="2">
         <v>40</v>
-      </c>
-      <c r="C137" s="2">
-        <v>2500</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="C138" s="2">
-        <v>2500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="C139" s="2">
-        <v>2</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C140" s="2">
-        <v>2</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C141" s="2">
-        <v>2</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C142" s="2">
-        <v>5000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C143" s="2">
-        <v>200</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C144" s="2">
-        <v>1200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C145" s="2">
-        <v>500</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2">
-        <v>3000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C147" s="2">
-        <v>8000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C148" s="2">
-        <v>4000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C149" s="2">
-        <v>3200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C150" s="2">
-        <v>2500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C151" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C152" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C153" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C154" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C155" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C156" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C157" s="2">
-        <v>3000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C158" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C159" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="C160" s="2">
-        <v>350</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="C161" s="2">
-        <v>2200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C162" s="2">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C163" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C164" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="C166" s="2">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="C167" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="C168" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="C169" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="C170" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="C171" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C172" s="2">
         <v>4</v>
@@ -2933,76 +3059,76 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C173" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C174" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="C175" s="2">
-        <v>2</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="C176" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C177" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C178" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C179" s="2">
         <v>1</v>
@@ -3010,21 +3136,21 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C180" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C181" s="2">
         <v>2</v>
@@ -3032,194 +3158,194 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C182" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C183" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C184" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C185" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="C186" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" s="2">
         <v>5</v>
-      </c>
-      <c r="C187" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C188" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C189" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C190" s="2">
-        <v>2</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C191" s="2">
-        <v>2</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="C192" s="2">
-        <v>4</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="C193" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="C194" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C195" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="C196" s="2">
-        <v>7500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="C197" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C198" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>203</v>
@@ -3230,10 +3356,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="C200" s="2">
         <v>1</v>
@@ -3241,109 +3367,109 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C201" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C202" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="C203" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="C204" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C205" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="C206" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="C207" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="C208" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="C209" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="C210" s="2">
         <v>1</v>
@@ -3351,106 +3477,190 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C211" s="2">
-        <v>5000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="C212" s="2">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C213" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="2"/>
+      <c r="A214" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="2"/>
+      <c r="A215" s="4">
+        <v>80266975</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C215" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="2"/>
+      <c r="A216" s="4">
+        <v>80266975</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C216" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="2"/>
+      <c r="A217" s="4">
+        <v>80266976</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C217" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="2"/>
+      <c r="A218" s="4">
+        <v>80266976</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C218" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="2"/>
+      <c r="A219" s="4">
+        <v>80266977</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="2"/>
+      <c r="A220" s="4">
+        <v>80266977</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="2"/>
+      <c r="A221" s="4">
+        <v>80266977</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C221" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="2"/>
+      <c r="A222" s="4">
+        <v>80266977</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C222" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="2"/>
+      <c r="A223" s="4">
+        <v>80266977</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C223" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="2"/>
+      <c r="A224" s="4">
+        <v>80266978</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C224" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="2"/>
+      <c r="A225" s="4">
+        <v>80266983</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C225" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="2"/>
+      <c r="A226" s="4">
+        <v>80266930</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C226" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="2"/>
+      <c r="A227" s="4">
+        <v>80266930</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C227" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9A39BC-A69E-40D5-94D7-8B42F29AB62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3113D5-E7AE-4DA2-A232-E40C6E7F8B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="241">
   <si>
     <t>Remessa</t>
   </si>
@@ -670,27 +670,6 @@
   </si>
   <si>
     <t>15643-TDK-N</t>
-  </si>
-  <si>
-    <t>10661-BLB-I</t>
-  </si>
-  <si>
-    <t>10251-ARI-I</t>
-  </si>
-  <si>
-    <t>21475-NZX-I</t>
-  </si>
-  <si>
-    <t>10080-ARI-I</t>
-  </si>
-  <si>
-    <t>10662-BLB-I</t>
-  </si>
-  <si>
-    <t>10663-BLB-I</t>
-  </si>
-  <si>
-    <t>10072-BLB-I</t>
   </si>
   <si>
     <t>80267009</t>
@@ -1155,7 +1134,7 @@
   <dimension ref="A1:C406"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3279,7 +3258,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>134</v>
@@ -3290,7 +3269,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>134</v>
@@ -3301,10 +3280,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C195" s="2">
         <v>1</v>
@@ -3312,10 +3291,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C196" s="2">
         <v>1</v>
@@ -3323,10 +3302,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C197" s="2">
         <v>1</v>
@@ -3334,10 +3313,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C198" s="2">
         <v>1</v>
@@ -3345,7 +3324,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>203</v>
@@ -3356,10 +3335,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C200" s="2">
         <v>1</v>
@@ -3367,10 +3346,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C201" s="2">
         <v>3</v>
@@ -3378,7 +3357,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>130</v>
@@ -3389,7 +3368,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>128</v>
@@ -3400,7 +3379,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>131</v>
@@ -3411,7 +3390,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>126</v>
@@ -3422,7 +3401,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>127</v>
@@ -3433,10 +3412,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C207" s="2">
         <v>1</v>
@@ -3444,10 +3423,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C208" s="2">
         <v>4</v>
@@ -3455,7 +3434,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>61</v>
@@ -3466,7 +3445,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>81</v>
@@ -3477,10 +3456,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C211" s="2">
         <v>2600</v>
@@ -3488,10 +3467,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C212" s="2">
         <v>3</v>
@@ -3499,7 +3478,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>204</v>
@@ -3510,7 +3489,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>115</v>
@@ -3520,147 +3499,69 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="4">
-        <v>80266975</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C215" s="2">
-        <v>10</v>
-      </c>
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="4">
-        <v>80266975</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C216" s="2">
-        <v>10</v>
-      </c>
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="4">
-        <v>80266976</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C217" s="2">
-        <v>2</v>
-      </c>
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="4">
-        <v>80266976</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C218" s="2">
-        <v>2</v>
-      </c>
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C219" s="2">
-        <v>1</v>
-      </c>
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C220" s="2">
-        <v>1</v>
-      </c>
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C221" s="2">
-        <v>1</v>
-      </c>
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C222" s="2">
-        <v>4</v>
-      </c>
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C223" s="2">
-        <v>4</v>
-      </c>
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="4">
-        <v>80266978</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C224" s="2">
-        <v>11</v>
-      </c>
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="4">
-        <v>80266983</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C225" s="2">
-        <v>58</v>
-      </c>
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="4">
-        <v>80266930</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C226" s="2">
-        <v>8</v>
-      </c>
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="4">
-        <v>80266930</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C227" s="2">
-        <v>5</v>
-      </c>
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3113D5-E7AE-4DA2-A232-E40C6E7F8B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0435E85-7642-4A48-A18F-56FC3495BA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="243">
   <si>
     <t>Remessa</t>
   </si>
@@ -748,6 +748,12 @@
   </si>
   <si>
     <t>84004840</t>
+  </si>
+  <si>
+    <t>80267042</t>
+  </si>
+  <si>
+    <t>84004841</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <dimension ref="A1:C406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3467,46 +3473,58 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C212" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C213" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B215" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C214" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="2"/>
+      <c r="C215" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="2"/>
+      <c r="A216" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0435E85-7642-4A48-A18F-56FC3495BA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD05D5F4-89E2-44D2-80FD-08636E3F58FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="245">
   <si>
     <t>Remessa</t>
   </si>
@@ -754,6 +754,12 @@
   </si>
   <si>
     <t>84004841</t>
+  </si>
+  <si>
+    <t>84004842</t>
+  </si>
+  <si>
+    <t>10587-ARI-I</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <dimension ref="A1:C406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C216"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3527,9 +3533,15 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="2"/>
+      <c r="A217" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C217" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD05D5F4-89E2-44D2-80FD-08636E3F58FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0248F676-3EB0-4AC6-B77C-BA09AAC4C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="252">
   <si>
     <t>Remessa</t>
   </si>
@@ -760,19 +760,46 @@
   </si>
   <si>
     <t>10587-ARI-I</t>
+  </si>
+  <si>
+    <t>10661-BLB-I</t>
+  </si>
+  <si>
+    <t>10251-ARI-I</t>
+  </si>
+  <si>
+    <t>21475-NZX-I</t>
+  </si>
+  <si>
+    <t>10080-ARI-I</t>
+  </si>
+  <si>
+    <t>10662-BLB-I</t>
+  </si>
+  <si>
+    <t>10663-BLB-I</t>
+  </si>
+  <si>
+    <t>10072-BLB-I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -795,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,6 +835,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <dimension ref="A1:C406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C217"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3544,69 +3577,147 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="2"/>
+      <c r="A218" s="5">
+        <v>80266975</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C218" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="2"/>
+      <c r="A219" s="5">
+        <v>80266975</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C219" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="2"/>
+      <c r="A220" s="5">
+        <v>80266976</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C220" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="2"/>
+      <c r="A221" s="5">
+        <v>80266976</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C221" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="2"/>
+      <c r="A222" s="5">
+        <v>80266977</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="2"/>
+      <c r="A223" s="5">
+        <v>80266977</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C223" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="2"/>
+      <c r="A224" s="5">
+        <v>80266977</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C224" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="2"/>
+      <c r="A225" s="5">
+        <v>80266977</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C225" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="2"/>
+      <c r="A226" s="5">
+        <v>80266977</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C226" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="2"/>
+      <c r="A227" s="5">
+        <v>80266978</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C227" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="2"/>
+      <c r="A228" s="5">
+        <v>80266983</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C228" s="5">
+        <v>58</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="2"/>
+      <c r="A229" s="5">
+        <v>80266930</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C229" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="2"/>
+      <c r="A230" s="5">
+        <v>80266930</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C230" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0248F676-3EB0-4AC6-B77C-BA09AAC4C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C65F307-595E-455A-B58E-BDD0ED7E0DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -787,19 +787,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -822,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,12 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,7 +1167,7 @@
   <dimension ref="A1:C406"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3577,145 +3565,145 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="5">
+      <c r="A218" s="4">
         <v>80266975</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C218" s="5">
+      <c r="C218" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="5">
+      <c r="A219" s="4">
         <v>80266975</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C219" s="5">
+      <c r="C219" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="5">
+      <c r="A220" s="4">
         <v>80266976</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C220" s="5">
+      <c r="C220" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="5">
+      <c r="A221" s="4">
         <v>80266976</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C221" s="5">
+      <c r="C221" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="5">
+      <c r="A222" s="4">
         <v>80266977</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C222" s="5">
+      <c r="C222" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="5">
+      <c r="A223" s="4">
         <v>80266977</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C223" s="5">
+      <c r="C223" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="5">
+      <c r="A224" s="4">
         <v>80266977</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C224" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="5">
+      <c r="A225" s="4">
         <v>80266977</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C225" s="5">
+      <c r="C225" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="5">
+      <c r="A226" s="4">
         <v>80266977</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C226" s="5">
+      <c r="C226" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="5">
+      <c r="A227" s="4">
         <v>80266978</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C227" s="5">
+      <c r="C227" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="5">
+      <c r="A228" s="4">
         <v>80266983</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C228" s="5">
+      <c r="C228" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="5">
+      <c r="A229" s="4">
         <v>80266930</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C229" s="5">
+      <c r="C229" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="5">
+      <c r="A230" s="4">
         <v>80266930</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C230" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C65F307-595E-455A-B58E-BDD0ED7E0DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B318A9-AF17-4A54-A7FA-84552C28792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -1164,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C406"/>
+  <dimension ref="A1:C419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,363 +1189,363 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>42</v>
+      <c r="A2" s="4">
+        <v>80266975</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
+      <c r="A3" s="4">
+        <v>80266975</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2">
-        <v>24000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>46</v>
+      <c r="A4" s="4">
+        <v>80266976</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2">
-        <v>2000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>46</v>
+      <c r="A5" s="4">
+        <v>80266976</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2">
-        <v>600</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>46</v>
+      <c r="A6" s="4">
+        <v>80266977</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
-        <v>36000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>46</v>
+      <c r="A7" s="4">
+        <v>80266977</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="C7" s="2">
-        <v>1900</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
+      <c r="A8" s="4">
+        <v>80266977</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c r="C8" s="2">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
+      <c r="A9" s="4">
+        <v>80266977</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="C9" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>54</v>
+      <c r="A10" s="4">
+        <v>80266977</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
-        <v>960</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>56</v>
+      <c r="A11" s="4">
+        <v>80266978</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="C11" s="2">
-        <v>2000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="4">
+        <v>80266983</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="2">
         <v>58</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2">
-        <v>80000</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>60</v>
+      <c r="A13" s="4">
+        <v>80266930</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
+      <c r="A14" s="4">
+        <v>80266930</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2">
-        <v>10</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2">
-        <v>10</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>960</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2">
-        <v>500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1564,21 +1564,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -1597,87 +1597,87 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2">
-        <v>830</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -1685,87 +1685,87 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -1806,21 +1806,21 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2">
-        <v>1</v>
+        <v>830</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -1828,76 +1828,76 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -1905,21 +1905,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -1927,21 +1927,21 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="C69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -1949,21 +1949,21 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -2026,76 +2026,76 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C80" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C81" s="2">
-        <v>252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C83" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C84" s="2">
         <v>2</v>
@@ -2103,21 +2103,21 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C85" s="2">
-        <v>384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -2125,288 +2125,288 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="C87" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2">
-        <v>1800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C90" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C91" s="2">
-        <v>640</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="C92" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="C93" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2">
-        <v>10</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="C95" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="2">
         <v>14</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2">
-        <v>4</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C99" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C100" s="2">
-        <v>6000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C101" s="2">
-        <v>4000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C102" s="2">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C103" s="2">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C104" s="2">
-        <v>2500</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C105" s="2">
-        <v>2500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C106" s="2">
-        <v>15000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C107" s="2">
-        <v>2500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C108" s="2">
-        <v>3000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C109" s="2">
-        <v>2000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C110" s="2">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C111" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C112" s="2">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
         <v>23</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C113" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2425,10 +2425,10 @@
         <v>23</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C114" s="2">
-        <v>5000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2436,10 +2436,10 @@
         <v>23</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C115" s="2">
-        <v>5000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2447,10 +2447,10 @@
         <v>23</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C116" s="2">
-        <v>2500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2458,7 +2458,7 @@
         <v>23</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C117" s="2">
         <v>2500</v>
@@ -2466,131 +2466,131 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="C118" s="2">
-        <v>2</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="C119" s="2">
-        <v>2</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="C120" s="2">
-        <v>2</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="C121" s="2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C122" s="2">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="C123" s="2">
-        <v>1200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="C124" s="2">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C125" s="2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="C126" s="2">
-        <v>8000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="C127" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="C128" s="2">
-        <v>3200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C129" s="2">
         <v>2500</v>
@@ -2598,54 +2598,54 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="C130" s="2">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C131" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C132" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C133" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C134" s="2">
         <v>5000</v>
@@ -2653,35 +2653,35 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C135" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C136" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C137" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2689,10 +2689,10 @@
         <v>154</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C138" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2700,10 +2700,10 @@
         <v>154</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C139" s="2">
-        <v>350</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2711,10 +2711,10 @@
         <v>154</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C140" s="2">
-        <v>2200</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2722,249 +2722,249 @@
         <v>154</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C141" s="2">
-        <v>500</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C142" s="2">
-        <v>18</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C143" s="2">
-        <v>22</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C144" s="2">
-        <v>4</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C145" s="2">
-        <v>28</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C146" s="2">
-        <v>12</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C147" s="2">
-        <v>8</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C148" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C149" s="2">
-        <v>12</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C150" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C151" s="2">
-        <v>4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C153" s="2">
-        <v>1</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C154" s="2">
-        <v>2</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C155" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C156" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C157" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C158" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="C159" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="C160" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C161" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C162" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C163" s="2">
         <v>2</v>
@@ -2972,197 +2972,197 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C164" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C165" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="C166" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C167" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C168" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C169" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C170" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="C171" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C172" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="C173" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="C174" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C175" s="2">
-        <v>7500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="C176" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C177" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C178" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="C179" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C180" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C181" s="2">
         <v>2</v>
@@ -3170,219 +3170,219 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="C182" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C183" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="C184" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C185" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="C186" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="C187" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="C188" s="2">
-        <v>3</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="C189" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C190" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C191" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C192" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="C193" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C194" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="C195" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C196" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C197" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C198" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="C199" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="C200" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C201" s="2">
         <v>3</v>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="C202" s="2">
         <v>1</v>
@@ -3401,43 +3401,43 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="C203" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="C204" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="C205" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="C207" s="2">
         <v>1</v>
@@ -3456,21 +3456,21 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C208" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="C209" s="2">
         <v>1</v>
@@ -3478,10 +3478,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="C210" s="2">
         <v>1</v>
@@ -3489,18 +3489,18 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C211" s="2">
-        <v>2600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>203</v>
@@ -3511,32 +3511,32 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C213" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C214" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C215" s="2">
         <v>1</v>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C216" s="2">
         <v>1</v>
@@ -3555,221 +3555,221 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C217" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C221" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C222" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C224" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C226" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B230" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C217" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="4">
-        <v>80266975</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C218" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="4">
-        <v>80266975</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C219" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="4">
-        <v>80266976</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C220" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="4">
-        <v>80266976</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C221" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C222" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C223" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C224" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C225" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C226" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="4">
-        <v>80266978</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C227" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="4">
-        <v>80266983</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C228" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="4">
-        <v>80266930</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C229" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="4">
-        <v>80266930</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="C230" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
       <c r="C231" s="2"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
       <c r="C233" s="2"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
       <c r="C234" s="2"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
       <c r="C236" s="2"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
       <c r="C237" s="2"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
       <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
       <c r="C239" s="2"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
       <c r="C241" s="2"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
       <c r="C242" s="2"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4587,6 +4587,71 @@
       <c r="B406" s="3"/>
       <c r="C406" s="2"/>
     </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="3"/>
+      <c r="B407" s="3"/>
+      <c r="C407" s="2"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="3"/>
+      <c r="B408" s="3"/>
+      <c r="C408" s="2"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="3"/>
+      <c r="B409" s="3"/>
+      <c r="C409" s="2"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="3"/>
+      <c r="B410" s="3"/>
+      <c r="C410" s="2"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="3"/>
+      <c r="B411" s="3"/>
+      <c r="C411" s="2"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="3"/>
+      <c r="B412" s="3"/>
+      <c r="C412" s="2"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="3"/>
+      <c r="B413" s="3"/>
+      <c r="C413" s="2"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="3"/>
+      <c r="B414" s="3"/>
+      <c r="C414" s="2"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="3"/>
+      <c r="B415" s="3"/>
+      <c r="C415" s="2"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="3"/>
+      <c r="B416" s="3"/>
+      <c r="C416" s="2"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="3"/>
+      <c r="B417" s="3"/>
+      <c r="C417" s="2"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="3"/>
+      <c r="B418" s="3"/>
+      <c r="C418" s="2"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="3"/>
+      <c r="B419" s="3"/>
+      <c r="C419" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B318A9-AF17-4A54-A7FA-84552C28792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2434957F-4577-43EF-AC87-326578170051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="285">
   <si>
     <t>Remessa</t>
   </si>
@@ -781,6 +781,105 @@
   </si>
   <si>
     <t>10072-BLB-I</t>
+  </si>
+  <si>
+    <t>80267046</t>
+  </si>
+  <si>
+    <t>80267048</t>
+  </si>
+  <si>
+    <t>23500-GPB-I</t>
+  </si>
+  <si>
+    <t>80267049</t>
+  </si>
+  <si>
+    <t>80267050</t>
+  </si>
+  <si>
+    <t>80267051</t>
+  </si>
+  <si>
+    <t>80267052</t>
+  </si>
+  <si>
+    <t>10025-ARI-I</t>
+  </si>
+  <si>
+    <t>80267053</t>
+  </si>
+  <si>
+    <t>10065-ARI-I</t>
+  </si>
+  <si>
+    <t>80267054</t>
+  </si>
+  <si>
+    <t>10060-ARI-I</t>
+  </si>
+  <si>
+    <t>80267059</t>
+  </si>
+  <si>
+    <t>80267061</t>
+  </si>
+  <si>
+    <t>80267062</t>
+  </si>
+  <si>
+    <t>30152-OSR-I</t>
+  </si>
+  <si>
+    <t>30173-OSR-L</t>
+  </si>
+  <si>
+    <t>80267065</t>
+  </si>
+  <si>
+    <t>10195-ARI-I</t>
+  </si>
+  <si>
+    <t>80267067</t>
+  </si>
+  <si>
+    <t>11724-DLO-L</t>
+  </si>
+  <si>
+    <t>15390-DLO-I</t>
+  </si>
+  <si>
+    <t>80267070</t>
+  </si>
+  <si>
+    <t>10399-ARI-I</t>
+  </si>
+  <si>
+    <t>80267072</t>
+  </si>
+  <si>
+    <t>10185-ARI-I</t>
+  </si>
+  <si>
+    <t>80267073</t>
+  </si>
+  <si>
+    <t>80267074</t>
+  </si>
+  <si>
+    <t>10150-ARI-I</t>
+  </si>
+  <si>
+    <t>10200-ARI-I</t>
+  </si>
+  <si>
+    <t>10250-ARI-I</t>
+  </si>
+  <si>
+    <t>84004843</t>
+  </si>
+  <si>
+    <t>84004844</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1266,7 @@
   <dimension ref="A1:C419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A15" sqref="A15:C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3654,43 +3753,43 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>238</v>
+        <v>3</v>
       </c>
       <c r="C226" s="2">
-        <v>3</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="C227" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="C228" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
@@ -3698,169 +3797,355 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C230" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C232" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C233" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C236" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C237" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C238" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C239" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C241" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C242" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C244" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C245" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C246" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C247" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C249" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C250" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C251" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C252" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C255" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C257" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C258" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B259" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C230" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="4"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="2"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="4"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="2"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="4"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="2"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="4"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="2"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
-      <c r="C235" s="2"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="4"/>
-      <c r="B236" s="4"/>
-      <c r="C236" s="2"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="2"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="4"/>
-      <c r="B238" s="4"/>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="2"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="2"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="2"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="2"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="2"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="2"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="2"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="2"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="2"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="2"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="2"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="2"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="2"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="2"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="2"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="2"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
-      <c r="C255" s="2"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-      <c r="C256" s="2"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="2"/>
+      <c r="C259" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
-      <c r="C260" s="2"/>
+      <c r="A260" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C260" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="2"/>
+      <c r="A261" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C261" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2434957F-4577-43EF-AC87-326578170051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BFEEC-3997-4029-9093-9A93DF48E79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$383</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="284">
   <si>
     <t>Remessa</t>
   </si>
@@ -36,858 +50,863 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>30259-OSR-I</t>
-  </si>
-  <si>
-    <t>80266859</t>
+    <t>10000-LDG-I</t>
+  </si>
+  <si>
+    <t>10636-ARI-I</t>
+  </si>
+  <si>
+    <t>10255-ARI-I</t>
+  </si>
+  <si>
+    <t>10030-ARI-I</t>
+  </si>
+  <si>
+    <t>10020-ARI-I</t>
+  </si>
+  <si>
+    <t>80265942</t>
+  </si>
+  <si>
+    <t>20637-TDK-I</t>
+  </si>
+  <si>
+    <t>20850-FUZ-I</t>
+  </si>
+  <si>
+    <t>20869-FUZ-I</t>
+  </si>
+  <si>
+    <t>20853-FUZ-I</t>
+  </si>
+  <si>
+    <t>60234-WUE-I</t>
+  </si>
+  <si>
+    <t>21340-NZX-I</t>
+  </si>
+  <si>
+    <t>10399-ARI-I</t>
+  </si>
+  <si>
+    <t>10175-ARI-I</t>
+  </si>
+  <si>
+    <t>10496-ARI-I</t>
+  </si>
+  <si>
+    <t>10388-ARI-I</t>
+  </si>
+  <si>
+    <t>10010-ARI-I</t>
+  </si>
+  <si>
+    <t>10645-ARI-I</t>
+  </si>
+  <si>
+    <t>10479-ARI-I</t>
+  </si>
+  <si>
+    <t>10362-ARI-I</t>
+  </si>
+  <si>
+    <t>10251-ARI-I</t>
+  </si>
+  <si>
+    <t>10493-ARI-I</t>
+  </si>
+  <si>
+    <t>10195-ARI-I</t>
+  </si>
+  <si>
+    <t>10637-ARI-I</t>
+  </si>
+  <si>
+    <t>10070-ARI-I</t>
+  </si>
+  <si>
+    <t>10494-ARI-I</t>
+  </si>
+  <si>
+    <t>10369-ARI-I</t>
+  </si>
+  <si>
+    <t>10050-ARI-I</t>
+  </si>
+  <si>
+    <t>10055-ARI-I</t>
+  </si>
+  <si>
+    <t>10253-ARI-I</t>
+  </si>
+  <si>
+    <t>80261556</t>
+  </si>
+  <si>
+    <t>18701-STM-I</t>
+  </si>
+  <si>
+    <t>19419-STM-I</t>
+  </si>
+  <si>
+    <t>80264004</t>
+  </si>
+  <si>
+    <t>33569-ATE-I</t>
+  </si>
+  <si>
+    <t>80266497</t>
+  </si>
+  <si>
+    <t>30173-STM-I</t>
+  </si>
+  <si>
+    <t>80266739</t>
+  </si>
+  <si>
+    <t>30169-OSR-I</t>
+  </si>
+  <si>
+    <t>80267182</t>
+  </si>
+  <si>
+    <t>15386-DLO-I</t>
+  </si>
+  <si>
+    <t>80267188</t>
+  </si>
+  <si>
+    <t>30196-OSR-L</t>
+  </si>
+  <si>
+    <t>80267193</t>
+  </si>
+  <si>
+    <t>10012-LDG-I</t>
+  </si>
+  <si>
+    <t>80267200</t>
+  </si>
+  <si>
+    <t>10040-ARI-I</t>
+  </si>
+  <si>
+    <t>80267201</t>
+  </si>
+  <si>
+    <t>80267205</t>
+  </si>
+  <si>
+    <t>80267206</t>
+  </si>
+  <si>
+    <t>10001-LDG-I</t>
+  </si>
+  <si>
+    <t>80267208</t>
+  </si>
+  <si>
+    <t>10150-ARI-I</t>
+  </si>
+  <si>
+    <t>80267209</t>
+  </si>
+  <si>
+    <t>10652-ARI-I</t>
+  </si>
+  <si>
+    <t>10547-ARI-I</t>
+  </si>
+  <si>
+    <t>10540-ARI-I</t>
+  </si>
+  <si>
+    <t>80267210</t>
+  </si>
+  <si>
+    <t>30025-ROH-I</t>
+  </si>
+  <si>
+    <t>80267211</t>
+  </si>
+  <si>
+    <t>10248-ARI-I</t>
+  </si>
+  <si>
+    <t>80267215</t>
+  </si>
+  <si>
+    <t>15436-DLO-I</t>
+  </si>
+  <si>
+    <t>80267216</t>
+  </si>
+  <si>
+    <t>80267218</t>
+  </si>
+  <si>
+    <t>80267219</t>
+  </si>
+  <si>
+    <t>24106-ATE-I</t>
+  </si>
+  <si>
+    <t>80267221</t>
+  </si>
+  <si>
+    <t>80267222</t>
+  </si>
+  <si>
+    <t>80267223</t>
   </si>
   <si>
     <t>10359-ARI-I</t>
   </si>
   <si>
-    <t>80266862</t>
-  </si>
-  <si>
-    <t>14013-TDK-N</t>
-  </si>
-  <si>
-    <t>80266866</t>
-  </si>
-  <si>
-    <t>10200-ROC-I</t>
-  </si>
-  <si>
-    <t>14049-TDK-N</t>
-  </si>
-  <si>
-    <t>80266867</t>
-  </si>
-  <si>
-    <t>10422-PHS-I</t>
-  </si>
-  <si>
-    <t>40377-TDK-I</t>
-  </si>
-  <si>
-    <t>80266875</t>
-  </si>
-  <si>
-    <t>33382-ATE-I</t>
-  </si>
-  <si>
-    <t>33381-ATE-I</t>
-  </si>
-  <si>
-    <t>33378-ATE-I</t>
+    <t>80267227</t>
+  </si>
+  <si>
+    <t>80267228</t>
+  </si>
+  <si>
+    <t>80267230</t>
   </si>
   <si>
     <t>33380-ATE-I</t>
   </si>
   <si>
-    <t>10119-ATE-I</t>
-  </si>
-  <si>
-    <t>10029-ATE-I</t>
-  </si>
-  <si>
-    <t>33664-ATE-I</t>
-  </si>
-  <si>
-    <t>33501-ATE-I</t>
-  </si>
-  <si>
-    <t>80266881</t>
-  </si>
-  <si>
-    <t>40102-YAG-I</t>
-  </si>
-  <si>
-    <t>16612-YAG-I</t>
-  </si>
-  <si>
-    <t>30105-YAG-I</t>
-  </si>
-  <si>
-    <t>60079-YAG-I</t>
-  </si>
-  <si>
-    <t>18529-STM-I</t>
-  </si>
-  <si>
-    <t>18343-STM-I</t>
-  </si>
-  <si>
-    <t>10024-LRC-I</t>
-  </si>
-  <si>
-    <t>17625-STM-I</t>
-  </si>
-  <si>
-    <t>22567-SET-I</t>
-  </si>
-  <si>
-    <t>60105-WUE-I</t>
-  </si>
-  <si>
-    <t>11082-ROY-I</t>
-  </si>
-  <si>
-    <t>11324-ROY-I</t>
-  </si>
-  <si>
-    <t>12144-ROY-I</t>
-  </si>
-  <si>
-    <t>12550-ROY-I</t>
-  </si>
-  <si>
-    <t>13154-ROY-I</t>
-  </si>
-  <si>
-    <t>13389-ROY-I</t>
-  </si>
-  <si>
-    <t>17977-DIO-I</t>
-  </si>
-  <si>
-    <t>17978-DIO-I</t>
-  </si>
-  <si>
-    <t>80264004</t>
-  </si>
-  <si>
-    <t>33569-ATE-I</t>
-  </si>
-  <si>
-    <t>80265160</t>
-  </si>
-  <si>
-    <t>30018-KMT-I</t>
-  </si>
-  <si>
-    <t>80265942</t>
-  </si>
-  <si>
-    <t>20637-TDK-I</t>
-  </si>
-  <si>
-    <t>20850-FUZ-I</t>
-  </si>
-  <si>
-    <t>20869-FUZ-I</t>
-  </si>
-  <si>
-    <t>20853-FUZ-I</t>
-  </si>
-  <si>
-    <t>60234-WUE-I</t>
-  </si>
-  <si>
-    <t>80265944</t>
-  </si>
-  <si>
-    <t>20389-DCC-I</t>
-  </si>
-  <si>
-    <t>80266497</t>
-  </si>
-  <si>
-    <t>30173-STM-I</t>
-  </si>
-  <si>
-    <t>80266498</t>
-  </si>
-  <si>
-    <t>30049-EVL-I</t>
-  </si>
-  <si>
-    <t>80266739</t>
-  </si>
-  <si>
-    <t>30169-OSR-I</t>
-  </si>
-  <si>
-    <t>80266787</t>
-  </si>
-  <si>
-    <t>10000-LDG-I</t>
-  </si>
-  <si>
-    <t>80266788</t>
-  </si>
-  <si>
-    <t>80266789</t>
-  </si>
-  <si>
-    <t>15401-DLO-I</t>
-  </si>
-  <si>
-    <t>80266790</t>
-  </si>
-  <si>
-    <t>10645-ARI-I</t>
-  </si>
-  <si>
-    <t>80266792</t>
-  </si>
-  <si>
-    <t>80266793</t>
+    <t>80267235</t>
+  </si>
+  <si>
+    <t>80267236</t>
+  </si>
+  <si>
+    <t>80267238</t>
+  </si>
+  <si>
+    <t>80267239</t>
   </si>
   <si>
     <t>10045-ARI-I</t>
   </si>
   <si>
-    <t>80266795</t>
-  </si>
-  <si>
-    <t>23459-GPB-I</t>
-  </si>
-  <si>
-    <t>23458-GPB-I</t>
-  </si>
-  <si>
-    <t>80266798</t>
-  </si>
-  <si>
-    <t>80266799</t>
+    <t>80267240</t>
+  </si>
+  <si>
+    <t>10481-ARI-I</t>
+  </si>
+  <si>
+    <t>80267241</t>
+  </si>
+  <si>
+    <t>23500-GPB-I</t>
+  </si>
+  <si>
+    <t>80267242</t>
+  </si>
+  <si>
+    <t>10378-ARI-I</t>
+  </si>
+  <si>
+    <t>80267243</t>
+  </si>
+  <si>
+    <t>80267244</t>
+  </si>
+  <si>
+    <t>10078-BLB-I</t>
+  </si>
+  <si>
+    <t>80267245</t>
+  </si>
+  <si>
+    <t>10115-ARI-I</t>
+  </si>
+  <si>
+    <t>10120-ARI-I</t>
+  </si>
+  <si>
+    <t>10125-ARI-I</t>
+  </si>
+  <si>
+    <t>10130-ARI-I</t>
+  </si>
+  <si>
+    <t>10246-ARI-I</t>
+  </si>
+  <si>
+    <t>10180-ARI-I</t>
+  </si>
+  <si>
+    <t>10185-ARI-I</t>
+  </si>
+  <si>
+    <t>80267246</t>
+  </si>
+  <si>
+    <t>80267247</t>
+  </si>
+  <si>
+    <t>10651-ARI-I</t>
+  </si>
+  <si>
+    <t>10548-ARI-I</t>
+  </si>
+  <si>
+    <t>10257-ARI-I</t>
+  </si>
+  <si>
+    <t>10075-ARI-I</t>
+  </si>
+  <si>
+    <t>10541-ARI-I</t>
+  </si>
+  <si>
+    <t>10090-ARI-I</t>
+  </si>
+  <si>
+    <t>10200-ARI-I</t>
+  </si>
+  <si>
+    <t>10250-ARI-I</t>
+  </si>
+  <si>
+    <t>10525-ARI-I</t>
+  </si>
+  <si>
+    <t>80267248</t>
+  </si>
+  <si>
+    <t>80267249</t>
+  </si>
+  <si>
+    <t>10025-ARI-I</t>
+  </si>
+  <si>
+    <t>80267250</t>
+  </si>
+  <si>
+    <t>10014-LDG-I</t>
+  </si>
+  <si>
+    <t>80267251</t>
+  </si>
+  <si>
+    <t>20988-CTY-I</t>
+  </si>
+  <si>
+    <t>80267252</t>
+  </si>
+  <si>
+    <t>80267253</t>
+  </si>
+  <si>
+    <t>80267255</t>
+  </si>
+  <si>
+    <t>10381-ARI-I</t>
+  </si>
+  <si>
+    <t>80267256</t>
+  </si>
+  <si>
+    <t>80267257</t>
+  </si>
+  <si>
+    <t>80267258</t>
+  </si>
+  <si>
+    <t>80267259</t>
+  </si>
+  <si>
+    <t>80267261</t>
+  </si>
+  <si>
+    <t>80267263</t>
+  </si>
+  <si>
+    <t>80267266</t>
+  </si>
+  <si>
+    <t>10008-LDG-I</t>
+  </si>
+  <si>
+    <t>80267271</t>
+  </si>
+  <si>
+    <t>80267273</t>
+  </si>
+  <si>
+    <t>80267274</t>
+  </si>
+  <si>
+    <t>80267276</t>
+  </si>
+  <si>
+    <t>80267277</t>
+  </si>
+  <si>
+    <t>23328-ATE-I</t>
+  </si>
+  <si>
+    <t>80267279</t>
+  </si>
+  <si>
+    <t>80267281</t>
+  </si>
+  <si>
+    <t>80267283</t>
+  </si>
+  <si>
+    <t>10383-ARI-I</t>
+  </si>
+  <si>
+    <t>80267284</t>
+  </si>
+  <si>
+    <t>10252-ARI-I</t>
+  </si>
+  <si>
+    <t>80267286</t>
+  </si>
+  <si>
+    <t>80267287</t>
+  </si>
+  <si>
+    <t>80267290</t>
+  </si>
+  <si>
+    <t>80267291</t>
+  </si>
+  <si>
+    <t>10662-BLB-I</t>
+  </si>
+  <si>
+    <t>80267292</t>
+  </si>
+  <si>
+    <t>80267293</t>
+  </si>
+  <si>
+    <t>10652-BLB-I</t>
+  </si>
+  <si>
+    <t>80267295</t>
+  </si>
+  <si>
+    <t>80267297</t>
+  </si>
+  <si>
+    <t>80267299</t>
+  </si>
+  <si>
+    <t>80267300</t>
+  </si>
+  <si>
+    <t>21002-CTY-I</t>
+  </si>
+  <si>
+    <t>80267301</t>
+  </si>
+  <si>
+    <t>18475-STM-I</t>
+  </si>
+  <si>
+    <t>30245-OSR-I</t>
+  </si>
+  <si>
+    <t>80267303</t>
+  </si>
+  <si>
+    <t>10258-ARI-I</t>
+  </si>
+  <si>
+    <t>10482-ARI-I</t>
+  </si>
+  <si>
+    <t>10489-ARI-I</t>
+  </si>
+  <si>
+    <t>10478-ARI-I</t>
+  </si>
+  <si>
+    <t>10155-ARI-I</t>
+  </si>
+  <si>
+    <t>80267304</t>
+  </si>
+  <si>
+    <t>10487-ARI-I</t>
+  </si>
+  <si>
+    <t>10080-ARI-I</t>
+  </si>
+  <si>
+    <t>80267307</t>
+  </si>
+  <si>
+    <t>10227-ROY-I</t>
+  </si>
+  <si>
+    <t>80267309</t>
+  </si>
+  <si>
+    <t>10015-ARI-I</t>
+  </si>
+  <si>
+    <t>10396-ARI-I</t>
   </si>
   <si>
     <t>10145-ARI-I</t>
   </si>
   <si>
-    <t>80266800</t>
-  </si>
-  <si>
-    <t>10361-ARI-I</t>
-  </si>
-  <si>
-    <t>80266801</t>
-  </si>
-  <si>
-    <t>10391-ARI-I</t>
-  </si>
-  <si>
-    <t>80266803</t>
-  </si>
-  <si>
-    <t>10636-ARI-I</t>
-  </si>
-  <si>
-    <t>80266804</t>
-  </si>
-  <si>
-    <t>14122-TDK-N</t>
-  </si>
-  <si>
-    <t>40322-TDK-N</t>
-  </si>
-  <si>
-    <t>30029-KMT-I</t>
-  </si>
-  <si>
-    <t>60162-OUT-L</t>
-  </si>
-  <si>
-    <t>22793-STM-I</t>
-  </si>
-  <si>
-    <t>17741-SET-I</t>
-  </si>
-  <si>
-    <t>80266806</t>
-  </si>
-  <si>
-    <t>10492-ARI-I</t>
-  </si>
-  <si>
-    <t>80266807</t>
+    <t>80267310</t>
+  </si>
+  <si>
+    <t>33776-SYN-I</t>
+  </si>
+  <si>
+    <t>80267311</t>
+  </si>
+  <si>
+    <t>20963-CTY-I</t>
+  </si>
+  <si>
+    <t>80267314</t>
+  </si>
+  <si>
+    <t>10080-BLB-I</t>
+  </si>
+  <si>
+    <t>10651-BLB-I</t>
+  </si>
+  <si>
+    <t>80267315</t>
+  </si>
+  <si>
+    <t>10386-ARI-I</t>
+  </si>
+  <si>
+    <t>10247-ARI-I</t>
+  </si>
+  <si>
+    <t>80267326</t>
+  </si>
+  <si>
+    <t>20848-FUZ-I</t>
+  </si>
+  <si>
+    <t>80267327</t>
+  </si>
+  <si>
+    <t>80267330</t>
+  </si>
+  <si>
+    <t>19875-WRN-I</t>
+  </si>
+  <si>
+    <t>19876-WRN-I</t>
+  </si>
+  <si>
+    <t>80267333</t>
+  </si>
+  <si>
+    <t>80267335</t>
+  </si>
+  <si>
+    <t>80267337</t>
+  </si>
+  <si>
+    <t>10035-ARI-I</t>
+  </si>
+  <si>
+    <t>80267340</t>
+  </si>
+  <si>
+    <t>80267341</t>
+  </si>
+  <si>
+    <t>80267342</t>
+  </si>
+  <si>
+    <t>10376-ARI-I</t>
+  </si>
+  <si>
+    <t>80267343</t>
+  </si>
+  <si>
+    <t>10377-ARI-I</t>
+  </si>
+  <si>
+    <t>80267344</t>
+  </si>
+  <si>
+    <t>80267345</t>
+  </si>
+  <si>
+    <t>80267347</t>
+  </si>
+  <si>
+    <t>16469-YAG-I</t>
+  </si>
+  <si>
+    <t>31113-YAG-I</t>
+  </si>
+  <si>
+    <t>16529-YAG-I</t>
+  </si>
+  <si>
+    <t>19724-EVL-I</t>
+  </si>
+  <si>
+    <t>22554-SET-I</t>
+  </si>
+  <si>
+    <t>60302-STM-I</t>
+  </si>
+  <si>
+    <t>80267350</t>
+  </si>
+  <si>
+    <t>15435-DLO-I</t>
+  </si>
+  <si>
+    <t>80267353</t>
+  </si>
+  <si>
+    <t>23359-ATE-I</t>
   </si>
   <si>
     <t>23364-ATE-I</t>
   </si>
   <si>
-    <t>33660-ATE-I</t>
-  </si>
-  <si>
-    <t>80266808</t>
-  </si>
-  <si>
-    <t>12003-KRO-I</t>
-  </si>
-  <si>
-    <t>80266810</t>
-  </si>
-  <si>
-    <t>80266811</t>
-  </si>
-  <si>
-    <t>80266812</t>
-  </si>
-  <si>
-    <t>20938-CTY-I</t>
-  </si>
-  <si>
-    <t>80266813</t>
-  </si>
-  <si>
-    <t>10369-ARI-I</t>
-  </si>
-  <si>
-    <t>80266815</t>
-  </si>
-  <si>
-    <t>80266816</t>
-  </si>
-  <si>
-    <t>80266817</t>
-  </si>
-  <si>
-    <t>21014-CTY-I</t>
-  </si>
-  <si>
-    <t>80266819</t>
-  </si>
-  <si>
-    <t>10020-ARI-I</t>
-  </si>
-  <si>
-    <t>80266822</t>
-  </si>
-  <si>
-    <t>14896-TDK-I</t>
-  </si>
-  <si>
-    <t>80266840</t>
-  </si>
-  <si>
-    <t>10115-ARI-I</t>
-  </si>
-  <si>
-    <t>80266841</t>
-  </si>
-  <si>
-    <t>10376-ARI-I</t>
-  </si>
-  <si>
-    <t>10388-ARI-I</t>
-  </si>
-  <si>
-    <t>10355-ARI-I</t>
-  </si>
-  <si>
-    <t>10354-ARI-I</t>
-  </si>
-  <si>
-    <t>10498-ARI-I</t>
-  </si>
-  <si>
-    <t>10403-ARI-I</t>
-  </si>
-  <si>
-    <t>10497-ARI-I</t>
-  </si>
-  <si>
-    <t>80266842</t>
-  </si>
-  <si>
-    <t>10422-ARI-I</t>
-  </si>
-  <si>
-    <t>80266845</t>
-  </si>
-  <si>
-    <t>80266847</t>
-  </si>
-  <si>
-    <t>10526-ARI-I</t>
-  </si>
-  <si>
-    <t>80266849</t>
-  </si>
-  <si>
-    <t>10255-ARI-I</t>
-  </si>
-  <si>
-    <t>10493-ARI-I</t>
-  </si>
-  <si>
-    <t>10258-ARI-I</t>
-  </si>
-  <si>
-    <t>80266851</t>
-  </si>
-  <si>
-    <t>10252-ARI-I</t>
+    <t>33640-ATE-I</t>
+  </si>
+  <si>
+    <t>33679-ATE-I</t>
+  </si>
+  <si>
+    <t>23360-ATE-I</t>
+  </si>
+  <si>
+    <t>80267354</t>
+  </si>
+  <si>
+    <t>80267355</t>
+  </si>
+  <si>
+    <t>80267356</t>
+  </si>
+  <si>
+    <t>60222-YAG-I</t>
+  </si>
+  <si>
+    <t>60215-YAG-I</t>
+  </si>
+  <si>
+    <t>60221-YAG-I</t>
+  </si>
+  <si>
+    <t>60214-YAG-I</t>
+  </si>
+  <si>
+    <t>60223-YAG-I</t>
+  </si>
+  <si>
+    <t>60226-YAG-I</t>
+  </si>
+  <si>
+    <t>60216-YAG-I</t>
+  </si>
+  <si>
+    <t>60224-YAG-I</t>
+  </si>
+  <si>
+    <t>60218-YAG-I</t>
+  </si>
+  <si>
+    <t>60219-YAG-I</t>
+  </si>
+  <si>
+    <t>10028-LRC-I</t>
+  </si>
+  <si>
+    <t>80267359</t>
+  </si>
+  <si>
+    <t>80267361</t>
+  </si>
+  <si>
+    <t>10375-ARI-I</t>
+  </si>
+  <si>
+    <t>80267362</t>
+  </si>
+  <si>
+    <t>80267364</t>
+  </si>
+  <si>
+    <t>80267365</t>
   </si>
   <si>
     <t>10256-ARI-I</t>
   </si>
   <si>
-    <t>80266852</t>
-  </si>
-  <si>
-    <t>10651-ARI-I</t>
-  </si>
-  <si>
-    <t>10378-ARI-I</t>
-  </si>
-  <si>
-    <t>10548-ARI-I</t>
-  </si>
-  <si>
-    <t>10541-ARI-I</t>
-  </si>
-  <si>
-    <t>10155-ARI-I</t>
-  </si>
-  <si>
-    <t>80266853</t>
-  </si>
-  <si>
-    <t>10650-ARI-I</t>
-  </si>
-  <si>
-    <t>80266856</t>
-  </si>
-  <si>
-    <t>10040-ARI-I</t>
-  </si>
-  <si>
-    <t>80266858</t>
-  </si>
-  <si>
-    <t>10000-ARI-I</t>
-  </si>
-  <si>
-    <t>80266890</t>
-  </si>
-  <si>
-    <t>10050-ARI-I</t>
-  </si>
-  <si>
-    <t>10496-ARI-I</t>
-  </si>
-  <si>
-    <t>10070-ARI-I</t>
-  </si>
-  <si>
-    <t>80266891</t>
-  </si>
-  <si>
-    <t>60164-YAG-I</t>
-  </si>
-  <si>
-    <t>80266892</t>
-  </si>
-  <si>
-    <t>40274-TDK-I</t>
-  </si>
-  <si>
-    <t>21487-MET-I</t>
-  </si>
-  <si>
-    <t>40312-TDK-N</t>
-  </si>
-  <si>
-    <t>80266893</t>
-  </si>
-  <si>
-    <t>26489-YAG-I</t>
-  </si>
-  <si>
-    <t>16512-YAG-I</t>
-  </si>
-  <si>
-    <t>30056-EVL-I</t>
-  </si>
-  <si>
-    <t>17498-VIS-I</t>
-  </si>
-  <si>
-    <t>30287-ONS-L</t>
-  </si>
-  <si>
-    <t>10136-ROY-I</t>
-  </si>
-  <si>
-    <t>10587-ROY-I</t>
-  </si>
-  <si>
-    <t>10917-ROY-I</t>
-  </si>
-  <si>
-    <t>11587-ROY-I</t>
-  </si>
-  <si>
-    <t>11875-ROY-I</t>
-  </si>
-  <si>
-    <t>10001-THK-I</t>
-  </si>
-  <si>
-    <t>19880-WRN-I</t>
-  </si>
-  <si>
-    <t>10000-THK-I</t>
-  </si>
-  <si>
-    <t>20606-EPC-I</t>
-  </si>
-  <si>
-    <t>60255-OUT-L</t>
-  </si>
-  <si>
-    <t>60260-OUT-L</t>
-  </si>
-  <si>
-    <t>80266896</t>
+    <t>80267366</t>
+  </si>
+  <si>
+    <t>80267367</t>
+  </si>
+  <si>
+    <t>80267368</t>
+  </si>
+  <si>
+    <t>40103-YAG-I</t>
+  </si>
+  <si>
+    <t>10083-ROC-I</t>
+  </si>
+  <si>
+    <t>22578-SET-I</t>
+  </si>
+  <si>
+    <t>16532-YAG-I</t>
+  </si>
+  <si>
+    <t>60318-WUE-I</t>
+  </si>
+  <si>
+    <t>60256-WUE-I</t>
+  </si>
+  <si>
+    <t>10002-ROY-I</t>
+  </si>
+  <si>
+    <t>10171-ROY-I</t>
+  </si>
+  <si>
+    <t>10226-YAG-I</t>
+  </si>
+  <si>
+    <t>10989-ROY-I</t>
+  </si>
+  <si>
+    <t>12140-ROY-I</t>
+  </si>
+  <si>
+    <t>10140-ROY-I</t>
+  </si>
+  <si>
+    <t>11368-ROY-I</t>
+  </si>
+  <si>
+    <t>10800-ROY-I</t>
+  </si>
+  <si>
+    <t>60175-STM-I</t>
+  </si>
+  <si>
+    <t>19024-STM-I</t>
+  </si>
+  <si>
+    <t>80267369</t>
+  </si>
+  <si>
+    <t>10387-ARI-I</t>
+  </si>
+  <si>
+    <t>80267370</t>
   </si>
   <si>
     <t>10259-ARI-I</t>
   </si>
   <si>
-    <t>80266898</t>
-  </si>
-  <si>
-    <t>10160-ARI-I</t>
-  </si>
-  <si>
-    <t>80266899</t>
-  </si>
-  <si>
-    <t>80266906</t>
-  </si>
-  <si>
-    <t>10482-ARI-I</t>
-  </si>
-  <si>
-    <t>80266907</t>
-  </si>
-  <si>
-    <t>15395-DLO-I</t>
-  </si>
-  <si>
-    <t>11558-DLO-I</t>
-  </si>
-  <si>
-    <t>14755-DLO-I</t>
-  </si>
-  <si>
-    <t>10967-DLO-L</t>
-  </si>
-  <si>
-    <t>11465-DLO-I</t>
-  </si>
-  <si>
-    <t>15151-DLO-I</t>
-  </si>
-  <si>
-    <t>15141-DLO-I</t>
-  </si>
-  <si>
-    <t>80266908</t>
-  </si>
-  <si>
-    <t>20935-CTY-I</t>
-  </si>
-  <si>
-    <t>80266909</t>
-  </si>
-  <si>
-    <t>10494-ARI-I</t>
-  </si>
-  <si>
-    <t>80266912</t>
-  </si>
-  <si>
-    <t>10637-ARI-I</t>
-  </si>
-  <si>
-    <t>10488-ARI-I</t>
-  </si>
-  <si>
-    <t>10396-ARI-I</t>
-  </si>
-  <si>
-    <t>80266913</t>
-  </si>
-  <si>
-    <t>10652-ARI-I</t>
-  </si>
-  <si>
-    <t>10035-ARI-I</t>
-  </si>
-  <si>
-    <t>10055-ARI-I</t>
-  </si>
-  <si>
-    <t>10547-ARI-I</t>
-  </si>
-  <si>
-    <t>10540-ARI-I</t>
-  </si>
-  <si>
-    <t>80266917</t>
-  </si>
-  <si>
-    <t>80266955</t>
-  </si>
-  <si>
-    <t>10381-ARI-I</t>
-  </si>
-  <si>
-    <t>10253-ARI-I</t>
-  </si>
-  <si>
-    <t>10257-ARI-I</t>
-  </si>
-  <si>
-    <t>80266959</t>
-  </si>
-  <si>
-    <t>10078-BLB-I</t>
-  </si>
-  <si>
-    <t>80266968</t>
-  </si>
-  <si>
-    <t>33640-ATE-I</t>
-  </si>
-  <si>
-    <t>80266981</t>
-  </si>
-  <si>
-    <t>10499-ARI-I</t>
-  </si>
-  <si>
-    <t>80266999</t>
-  </si>
-  <si>
-    <t>50596-ROY-L</t>
-  </si>
-  <si>
-    <t>11285-ROY-I</t>
-  </si>
-  <si>
-    <t>15643-TDK-N</t>
-  </si>
-  <si>
-    <t>80267009</t>
-  </si>
-  <si>
-    <t>80267010</t>
-  </si>
-  <si>
-    <t>80267013</t>
-  </si>
-  <si>
-    <t>10656-BLB-I</t>
-  </si>
-  <si>
-    <t>10657-BLB-I</t>
-  </si>
-  <si>
-    <t>80267018</t>
-  </si>
-  <si>
-    <t>10007-LDG-I</t>
-  </si>
-  <si>
-    <t>10001-LDG-I</t>
-  </si>
-  <si>
-    <t>80267020</t>
-  </si>
-  <si>
-    <t>80267021</t>
-  </si>
-  <si>
-    <t>10107-DLO-L</t>
-  </si>
-  <si>
-    <t>10516-DLO-L</t>
-  </si>
-  <si>
-    <t>80267023</t>
-  </si>
-  <si>
-    <t>80267030</t>
-  </si>
-  <si>
-    <t>80267031</t>
-  </si>
-  <si>
-    <t>10386-ARI-I</t>
-  </si>
-  <si>
-    <t>80267035</t>
-  </si>
-  <si>
-    <t>23464-GPB-I</t>
-  </si>
-  <si>
-    <t>80267036</t>
-  </si>
-  <si>
-    <t>80267037</t>
-  </si>
-  <si>
-    <t>80267038</t>
-  </si>
-  <si>
-    <t>40284-TDK-N</t>
-  </si>
-  <si>
-    <t>84004838</t>
-  </si>
-  <si>
-    <t>20953-CTY-I</t>
-  </si>
-  <si>
-    <t>84004839</t>
-  </si>
-  <si>
-    <t>84004840</t>
-  </si>
-  <si>
-    <t>80267042</t>
-  </si>
-  <si>
-    <t>84004841</t>
-  </si>
-  <si>
-    <t>84004842</t>
-  </si>
-  <si>
-    <t>10587-ARI-I</t>
-  </si>
-  <si>
-    <t>10661-BLB-I</t>
-  </si>
-  <si>
-    <t>10251-ARI-I</t>
-  </si>
-  <si>
-    <t>21475-NZX-I</t>
-  </si>
-  <si>
-    <t>10080-ARI-I</t>
-  </si>
-  <si>
-    <t>10662-BLB-I</t>
-  </si>
-  <si>
-    <t>10663-BLB-I</t>
+    <t>80267375</t>
+  </si>
+  <si>
+    <t>80267381</t>
+  </si>
+  <si>
+    <t>10486-ARI-I</t>
+  </si>
+  <si>
+    <t>80267389</t>
+  </si>
+  <si>
+    <t>10209-BLB-I</t>
+  </si>
+  <si>
+    <t>10193-BLB-I</t>
+  </si>
+  <si>
+    <t>10226-BLB-I</t>
+  </si>
+  <si>
+    <t>80267400</t>
+  </si>
+  <si>
+    <t>23322-ATE-I</t>
+  </si>
+  <si>
+    <t>24107-ATE-I</t>
+  </si>
+  <si>
+    <t>24384-ATE-I</t>
+  </si>
+  <si>
+    <t>80267402</t>
   </si>
   <si>
     <t>10072-BLB-I</t>
   </si>
   <si>
-    <t>80267046</t>
-  </si>
-  <si>
-    <t>80267048</t>
-  </si>
-  <si>
-    <t>23500-GPB-I</t>
-  </si>
-  <si>
-    <t>80267049</t>
-  </si>
-  <si>
-    <t>80267050</t>
-  </si>
-  <si>
-    <t>80267051</t>
-  </si>
-  <si>
-    <t>80267052</t>
-  </si>
-  <si>
-    <t>10025-ARI-I</t>
-  </si>
-  <si>
-    <t>80267053</t>
-  </si>
-  <si>
-    <t>10065-ARI-I</t>
-  </si>
-  <si>
-    <t>80267054</t>
-  </si>
-  <si>
-    <t>10060-ARI-I</t>
-  </si>
-  <si>
-    <t>80267059</t>
-  </si>
-  <si>
-    <t>80267061</t>
-  </si>
-  <si>
-    <t>80267062</t>
-  </si>
-  <si>
-    <t>30152-OSR-I</t>
-  </si>
-  <si>
-    <t>30173-OSR-L</t>
-  </si>
-  <si>
-    <t>80267065</t>
-  </si>
-  <si>
-    <t>10195-ARI-I</t>
-  </si>
-  <si>
-    <t>80267067</t>
-  </si>
-  <si>
-    <t>11724-DLO-L</t>
-  </si>
-  <si>
-    <t>15390-DLO-I</t>
-  </si>
-  <si>
-    <t>80267070</t>
-  </si>
-  <si>
-    <t>10399-ARI-I</t>
-  </si>
-  <si>
-    <t>80267072</t>
-  </si>
-  <si>
-    <t>10185-ARI-I</t>
-  </si>
-  <si>
-    <t>80267073</t>
-  </si>
-  <si>
-    <t>80267074</t>
-  </si>
-  <si>
-    <t>10150-ARI-I</t>
-  </si>
-  <si>
-    <t>10200-ARI-I</t>
-  </si>
-  <si>
-    <t>10250-ARI-I</t>
-  </si>
-  <si>
-    <t>84004843</t>
-  </si>
-  <si>
-    <t>84004844</t>
+    <t>80267411</t>
+  </si>
+  <si>
+    <t>33503-ATE-I</t>
+  </si>
+  <si>
+    <t>80267412</t>
+  </si>
+  <si>
+    <t>33642-ATE-I</t>
+  </si>
+  <si>
+    <t>80267420</t>
+  </si>
+  <si>
+    <t>11583-ROY-I</t>
+  </si>
+  <si>
+    <t>11320-ROY-I</t>
+  </si>
+  <si>
+    <t>10797-ROY-I</t>
+  </si>
+  <si>
+    <t>11361-ROY-I</t>
+  </si>
+  <si>
+    <t>10290-ROY-I</t>
+  </si>
+  <si>
+    <t>84004850</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -915,10 +934,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -928,6 +947,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,179 +1288,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C419"/>
+  <dimension ref="A1:C383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C261"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>80266975</v>
+      <c r="A2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>80266975</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>80266976</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>80266976</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>80266977</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>80266977</v>
+      <c r="A7" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>80266977</v>
+      <c r="A8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>80266977</v>
+      <c r="A9" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>80266977</v>
+      <c r="A10" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>960</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>80266978</v>
+      <c r="A11" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
-        <v>11</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>80266983</v>
+      <c r="A12" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>80266930</v>
+      <c r="A13" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2">
-        <v>8</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>80266930</v>
+      <c r="A14" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1443,120 +1468,120 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2">
-        <v>24000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2">
-        <v>36000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2">
-        <v>1900</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2">
-        <v>1500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2">
-        <v>960</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2">
-        <v>80000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1564,10 +1589,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1575,21 +1600,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1597,10 +1622,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1608,10 +1633,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1619,32 +1644,32 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1652,21 +1677,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -1674,10 +1699,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1688,7 +1713,7 @@
         <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -1696,76 +1721,76 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="C39" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2">
-        <v>500</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C44" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1773,120 +1798,120 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -1894,32 +1919,32 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>830</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -1927,65 +1952,65 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="C61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C65" s="2">
         <v>2</v>
@@ -1993,21 +2018,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -2015,32 +2040,32 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -2048,21 +2073,21 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -2070,21 +2095,21 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -2092,10 +2117,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -2103,10 +2128,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -2114,10 +2139,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -2125,10 +2150,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -2136,32 +2161,32 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -2169,21 +2194,21 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="C82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -2191,21 +2216,21 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C85" s="2">
         <v>1</v>
@@ -2213,10 +2238,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -2224,10 +2249,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
@@ -2235,10 +2260,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
@@ -2246,10 +2271,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
@@ -2260,7 +2285,7 @@
         <v>132</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
@@ -2268,68 +2293,68 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C91" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2">
-        <v>252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2337,29 +2362,29 @@
         <v>142</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="C97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="C98" s="2">
-        <v>384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C99" s="2">
         <v>1</v>
@@ -2367,131 +2392,131 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2">
-        <v>1800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="C102" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C104" s="2">
-        <v>640</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="C108" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="C109" s="2">
-        <v>3</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="C110" s="2">
-        <v>3</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C111" s="2">
         <v>4</v>
@@ -2499,593 +2524,593 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C112" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2">
-        <v>6000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2">
-        <v>4000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C115" s="2">
-        <v>4000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C116" s="2">
-        <v>4000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2">
-        <v>2500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C118" s="2">
-        <v>2500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="C119" s="2">
-        <v>15000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C120" s="2">
-        <v>2500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C121" s="2">
-        <v>3000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C122" s="2">
-        <v>2000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C123" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="C124" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C125" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="C126" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="C127" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C128" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="C129" s="2">
-        <v>2500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="C130" s="2">
-        <v>2500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C132" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C133" s="2">
-        <v>2</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C134" s="2">
-        <v>5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C135" s="2">
-        <v>200</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C136" s="2">
-        <v>1200</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="C137" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C138" s="2">
-        <v>3000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2">
-        <v>8000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C140" s="2">
-        <v>4000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="C141" s="2">
-        <v>3200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C143" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C145" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="C147" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="C148" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="C149" s="2">
-        <v>3000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C150" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C151" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="C152" s="2">
-        <v>350</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C153" s="2">
-        <v>2200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C154" s="2">
-        <v>500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C155" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C156" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C157" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C158" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="C159" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C160" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C161" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="C162" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="C163" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="C164" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C165" s="2">
         <v>1</v>
@@ -3093,10 +3118,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C166" s="2">
         <v>1</v>
@@ -3104,21 +3129,21 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C167" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="C168" s="2">
         <v>1</v>
@@ -3126,10 +3151,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="C169" s="2">
         <v>1</v>
@@ -3137,21 +3162,21 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C170" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="C171" s="2">
         <v>1</v>
@@ -3159,10 +3184,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="C172" s="2">
         <v>1</v>
@@ -3170,208 +3195,208 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="C173" s="2">
-        <v>2</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="C174" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C175" s="2">
-        <v>2</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C176" s="2">
-        <v>2</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C177" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C178" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="C179" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="C180" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C181" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="C182" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="C183" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C184" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="C185" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="C186" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="C187" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C188" s="2">
-        <v>7500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="C189" s="2">
-        <v>8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C190" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="C191" s="2">
         <v>1</v>
@@ -3379,13 +3404,13 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C192" s="2">
-        <v>1</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -3393,10 +3418,10 @@
         <v>201</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C193" s="2">
-        <v>4</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -3404,10 +3429,10 @@
         <v>201</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="C194" s="2">
-        <v>2</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -3415,10 +3440,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="C195" s="2">
-        <v>4</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -3426,73 +3451,73 @@
         <v>201</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C196" s="2">
-        <v>4</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C197" s="2">
-        <v>20</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="C198" s="2">
-        <v>6</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="C199" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C200" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C201" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C202" s="2">
         <v>1</v>
@@ -3500,43 +3525,43 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C203" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C204" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C205" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
@@ -3544,10 +3569,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="C207" s="2">
         <v>1</v>
@@ -3555,131 +3580,131 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C208" s="2">
-        <v>1</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C209" s="2">
-        <v>1</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C210" s="2">
-        <v>1</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C211" s="2">
-        <v>1</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="C212" s="2">
-        <v>1</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="C213" s="2">
-        <v>1</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C214" s="2">
-        <v>3</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="C215" s="2">
-        <v>1</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B216" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="C216" s="2">
-        <v>1</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="C217" s="2">
-        <v>1</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="C218" s="2">
-        <v>1</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="C219" s="2">
         <v>1</v>
@@ -3687,10 +3712,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="C220" s="2">
         <v>1</v>
@@ -3698,21 +3723,21 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="C221" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C222" s="2">
         <v>1</v>
@@ -3720,10 +3745,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C223" s="2">
         <v>1</v>
@@ -3731,21 +3756,21 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C224" s="2">
-        <v>2600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="C225" s="2">
         <v>1</v>
@@ -3753,43 +3778,43 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C226" s="2">
-        <v>42000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C227" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="C228" s="2">
-        <v>7</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
@@ -3797,230 +3822,230 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="C230" s="2">
-        <v>1</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C231" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="C232" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C233" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>5</v>
+        <v>242</v>
       </c>
       <c r="C234" s="2">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="C235" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C236" s="2">
-        <v>50000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C237" s="2">
-        <v>120000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="C238" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C239" s="2">
-        <v>2</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C240" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C241" s="2">
-        <v>9</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C242" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="C243" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C244" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C245" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C246" s="2">
-        <v>1</v>
+        <v>960</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="C247" s="2">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C248" s="2">
-        <v>2</v>
+        <v>800</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="C249" s="2">
-        <v>2</v>
+        <v>148</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="C250" s="2">
         <v>2</v>
@@ -4028,21 +4053,21 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="C251" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C252" s="2">
         <v>1</v>
@@ -4050,43 +4075,43 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="C253" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C254" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="C255" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="C256" s="2">
         <v>1</v>
@@ -4094,21 +4119,21 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="C257" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="C258" s="2">
         <v>1</v>
@@ -4116,10 +4141,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C259" s="2">
         <v>1</v>
@@ -4127,75 +4152,135 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="C260" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="C261" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="2"/>
+      <c r="A262" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C262" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="3"/>
-      <c r="B263" s="3"/>
-      <c r="C263" s="2"/>
+      <c r="A263" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C263" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="2"/>
+      <c r="A264" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C264" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="2"/>
+      <c r="A265" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C265" s="2">
+        <v>52000</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="2"/>
+      <c r="A266" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C266" s="2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="2"/>
+      <c r="A267" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C267" s="2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="2"/>
+      <c r="A268" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C268" s="2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="2"/>
+      <c r="A269" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C269" s="2">
+        <v>20000</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
-      <c r="C270" s="2"/>
+      <c r="A270" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C270" s="2">
+        <v>20000</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="2"/>
+      <c r="A271" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C271" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
@@ -4757,187 +4842,8 @@
       <c r="B383" s="3"/>
       <c r="C383" s="2"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="3"/>
-      <c r="B384" s="3"/>
-      <c r="C384" s="2"/>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="3"/>
-      <c r="B385" s="3"/>
-      <c r="C385" s="2"/>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="3"/>
-      <c r="B386" s="3"/>
-      <c r="C386" s="2"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="3"/>
-      <c r="B387" s="3"/>
-      <c r="C387" s="2"/>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="3"/>
-      <c r="B388" s="3"/>
-      <c r="C388" s="2"/>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="3"/>
-      <c r="B389" s="3"/>
-      <c r="C389" s="2"/>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="3"/>
-      <c r="B390" s="3"/>
-      <c r="C390" s="2"/>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="3"/>
-      <c r="B391" s="3"/>
-      <c r="C391" s="2"/>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="3"/>
-      <c r="B392" s="3"/>
-      <c r="C392" s="2"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="3"/>
-      <c r="B393" s="3"/>
-      <c r="C393" s="2"/>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="3"/>
-      <c r="B394" s="3"/>
-      <c r="C394" s="2"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="3"/>
-      <c r="B395" s="3"/>
-      <c r="C395" s="2"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="3"/>
-      <c r="B396" s="3"/>
-      <c r="C396" s="2"/>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="3"/>
-      <c r="B397" s="3"/>
-      <c r="C397" s="2"/>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="3"/>
-      <c r="B398" s="3"/>
-      <c r="C398" s="2"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="3"/>
-      <c r="B399" s="3"/>
-      <c r="C399" s="2"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="3"/>
-      <c r="B400" s="3"/>
-      <c r="C400" s="2"/>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="3"/>
-      <c r="B401" s="3"/>
-      <c r="C401" s="2"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="3"/>
-      <c r="B402" s="3"/>
-      <c r="C402" s="2"/>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="3"/>
-      <c r="B403" s="3"/>
-      <c r="C403" s="2"/>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="3"/>
-      <c r="B404" s="3"/>
-      <c r="C404" s="2"/>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="3"/>
-      <c r="B405" s="3"/>
-      <c r="C405" s="2"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="3"/>
-      <c r="B406" s="3"/>
-      <c r="C406" s="2"/>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="3"/>
-      <c r="B407" s="3"/>
-      <c r="C407" s="2"/>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="3"/>
-      <c r="B408" s="3"/>
-      <c r="C408" s="2"/>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="3"/>
-      <c r="B409" s="3"/>
-      <c r="C409" s="2"/>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="3"/>
-      <c r="B410" s="3"/>
-      <c r="C410" s="2"/>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="3"/>
-      <c r="B411" s="3"/>
-      <c r="C411" s="2"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="3"/>
-      <c r="B412" s="3"/>
-      <c r="C412" s="2"/>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="3"/>
-      <c r="B413" s="3"/>
-      <c r="C413" s="2"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="3"/>
-      <c r="B414" s="3"/>
-      <c r="C414" s="2"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="3"/>
-      <c r="B415" s="3"/>
-      <c r="C415" s="2"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="3"/>
-      <c r="B416" s="3"/>
-      <c r="C416" s="2"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="3"/>
-      <c r="B417" s="3"/>
-      <c r="C417" s="2"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="3"/>
-      <c r="B418" s="3"/>
-      <c r="C418" s="2"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="3"/>
-      <c r="B419" s="3"/>
-      <c r="C419" s="2"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:A383" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C61279-3F45-4EFB-B95E-54E1D99FC0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3F0094-D4A2-4DDD-AA37-7D0CB7CF6761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="630">
   <si>
     <t>Remessa</t>
   </si>
@@ -1881,6 +1881,54 @@
   </si>
   <si>
     <t>84004858</t>
+  </si>
+  <si>
+    <t>80267625</t>
+  </si>
+  <si>
+    <t>10366-ARI-I</t>
+  </si>
+  <si>
+    <t>10364-ARI-I</t>
+  </si>
+  <si>
+    <t>10498-ARI-I</t>
+  </si>
+  <si>
+    <t>10352-ARI-I</t>
+  </si>
+  <si>
+    <t>10385-ARI-I</t>
+  </si>
+  <si>
+    <t>10542-ARI-I</t>
+  </si>
+  <si>
+    <t>80267626</t>
+  </si>
+  <si>
+    <t>80267630</t>
+  </si>
+  <si>
+    <t>80267637</t>
+  </si>
+  <si>
+    <t>10027-ATE-I</t>
+  </si>
+  <si>
+    <t>21475-NZX-I</t>
+  </si>
+  <si>
+    <t>23380-ATE-I</t>
+  </si>
+  <si>
+    <t>23467-GPB-I</t>
+  </si>
+  <si>
+    <t>80267645</t>
+  </si>
+  <si>
+    <t>33590-ATE-I</t>
   </si>
 </sst>
 </file>
@@ -2275,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C628"/>
+  <dimension ref="A1:C681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C628"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9110,21 +9158,21 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>281</v>
+        <v>614</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>59</v>
+        <v>504</v>
       </c>
       <c r="C621" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>610</v>
+        <v>170</v>
       </c>
       <c r="C622" s="2">
         <v>1</v>
@@ -9132,54 +9180,54 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>504</v>
+        <v>57</v>
       </c>
       <c r="C623" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C624" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="C625" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="C626" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>506</v>
+        <v>31</v>
       </c>
       <c r="C627" s="2">
         <v>1</v>
@@ -9187,12 +9235,595 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C628" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C629" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C630" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A631" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C631" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A632" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C632" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A633" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C633" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C634" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A635" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C635" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A636" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C636" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A637" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C637" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A638" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C638" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A639" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C639" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A640" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C640" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A641" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C641" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A642" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C642" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A643" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C643" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A644" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C644" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A645" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C645" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A646" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C646" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A647" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C647" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A648" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C648" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A649" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C649" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A650" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C650" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A651" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C651" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A652" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C652" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A653" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C653" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A654" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C654" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A655" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C655" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A656" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C656" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A657" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C657" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A658" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C658" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A659" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C659" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A660" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C660" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A661" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C661" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A662" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C662" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A663" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C663" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A664" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C664" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A665" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C665" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A666" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C666" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A667" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C667" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A668" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C668" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A669" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C669" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A670" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C670" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A671" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C671" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A672" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C672" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A673" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C673" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C674" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C675" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C676" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C677" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C678" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C679" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C680" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B628" s="3" t="s">
+      <c r="B681" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C628" s="2">
+      <c r="C681" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3F0094-D4A2-4DDD-AA37-7D0CB7CF6761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C202A8-E09B-46F4-8932-E57EDD7421EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -2326,7 +2326,7 @@
   <dimension ref="A1:C681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:C681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C202A8-E09B-46F4-8932-E57EDD7421EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D88ED-70A5-4D9D-91AB-4880FA8E566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="634">
   <si>
     <t>Remessa</t>
   </si>
@@ -1929,6 +1929,18 @@
   </si>
   <si>
     <t>33590-ATE-I</t>
+  </si>
+  <si>
+    <t>80267652</t>
+  </si>
+  <si>
+    <t>00041-DIG-I</t>
+  </si>
+  <si>
+    <t>13116-VIS-I</t>
+  </si>
+  <si>
+    <t>15663-TDK-N</t>
   </si>
 </sst>
 </file>
@@ -2323,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C681"/>
+  <dimension ref="A1:C684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C681"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9741,57 +9753,57 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
-        <v>281</v>
+        <v>630</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>59</v>
+        <v>631</v>
       </c>
       <c r="C674" s="2">
-        <v>4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="C675" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>504</v>
+        <v>633</v>
       </c>
       <c r="C676" s="2">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
-        <v>611</v>
+        <v>281</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C677" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>257</v>
+        <v>610</v>
       </c>
       <c r="C678" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -9799,31 +9811,64 @@
         <v>611</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="C679" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>506</v>
+        <v>73</v>
       </c>
       <c r="C680" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C681" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C682" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C683" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B681" s="3" t="s">
+      <c r="B684" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C681" s="2">
+      <c r="C684" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D88ED-70A5-4D9D-91AB-4880FA8E566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA02C76-3244-4317-8E1E-222F90C30942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="660">
   <si>
     <t>Remessa</t>
   </si>
@@ -1941,6 +1941,84 @@
   </si>
   <si>
     <t>15663-TDK-N</t>
+  </si>
+  <si>
+    <t>80267658</t>
+  </si>
+  <si>
+    <t>80267660</t>
+  </si>
+  <si>
+    <t>80267662</t>
+  </si>
+  <si>
+    <t>80267665</t>
+  </si>
+  <si>
+    <t>80267666</t>
+  </si>
+  <si>
+    <t>80267667</t>
+  </si>
+  <si>
+    <t>10000-ARI-I</t>
+  </si>
+  <si>
+    <t>80267668</t>
+  </si>
+  <si>
+    <t>80267670</t>
+  </si>
+  <si>
+    <t>10160-ARI-I</t>
+  </si>
+  <si>
+    <t>80267671</t>
+  </si>
+  <si>
+    <t>80267673</t>
+  </si>
+  <si>
+    <t>80267674</t>
+  </si>
+  <si>
+    <t>80267675</t>
+  </si>
+  <si>
+    <t>80267676</t>
+  </si>
+  <si>
+    <t>80267677</t>
+  </si>
+  <si>
+    <t>80267680</t>
+  </si>
+  <si>
+    <t>16584-MRT-L</t>
+  </si>
+  <si>
+    <t>80267682</t>
+  </si>
+  <si>
+    <t>80267683</t>
+  </si>
+  <si>
+    <t>80267684</t>
+  </si>
+  <si>
+    <t>80267685</t>
+  </si>
+  <si>
+    <t>80267686</t>
+  </si>
+  <si>
+    <t>10395-ARI-I</t>
+  </si>
+  <si>
+    <t>80267689</t>
+  </si>
+  <si>
+    <t>80267690</t>
   </si>
 </sst>
 </file>
@@ -2335,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C684"/>
+  <dimension ref="A1:C714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8890,7 +8968,7 @@
         <v>86</v>
       </c>
       <c r="C595" s="2">
-        <v>43200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -8906,46 +8984,46 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>592</v>
+        <v>86</v>
       </c>
       <c r="C597" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="C598" s="2">
-        <v>1</v>
+        <v>39200</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>162</v>
+        <v>592</v>
       </c>
       <c r="C599" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="C600" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -8953,10 +9031,10 @@
         <v>593</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="C601" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -8964,10 +9042,10 @@
         <v>593</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="C602" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -8975,10 +9053,10 @@
         <v>593</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>595</v>
+        <v>214</v>
       </c>
       <c r="C603" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -8986,10 +9064,10 @@
         <v>593</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>274</v>
+        <v>594</v>
       </c>
       <c r="C604" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -8997,7 +9075,7 @@
         <v>593</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C605" s="2">
         <v>1</v>
@@ -9008,10 +9086,10 @@
         <v>593</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>597</v>
+        <v>274</v>
       </c>
       <c r="C606" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -9019,10 +9097,10 @@
         <v>593</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C607" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -9030,10 +9108,10 @@
         <v>593</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C608" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -9041,10 +9119,10 @@
         <v>593</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C609" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -9052,10 +9130,10 @@
         <v>593</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C610" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -9063,10 +9141,10 @@
         <v>593</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C611" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -9074,10 +9152,10 @@
         <v>593</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>26</v>
+        <v>601</v>
       </c>
       <c r="C612" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -9085,10 +9163,10 @@
         <v>593</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C613" s="2">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -9096,7 +9174,7 @@
         <v>593</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>604</v>
+        <v>26</v>
       </c>
       <c r="C614" s="2">
         <v>1</v>
@@ -9107,10 +9185,10 @@
         <v>593</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="C615" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -9118,10 +9196,10 @@
         <v>593</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C616" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -9129,10 +9207,10 @@
         <v>593</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>606</v>
+        <v>536</v>
       </c>
       <c r="C617" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -9140,10 +9218,10 @@
         <v>593</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C618" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -9151,7 +9229,7 @@
         <v>593</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C619" s="2">
         <v>10</v>
@@ -9162,7 +9240,7 @@
         <v>593</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C620" s="2">
         <v>1</v>
@@ -9170,21 +9248,21 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="C621" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>170</v>
+        <v>608</v>
       </c>
       <c r="C622" s="2">
         <v>1</v>
@@ -9195,10 +9273,10 @@
         <v>614</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>57</v>
+        <v>504</v>
       </c>
       <c r="C623" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -9206,10 +9284,10 @@
         <v>614</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="C624" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -9217,10 +9295,10 @@
         <v>614</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C625" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -9228,10 +9306,10 @@
         <v>614</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="C626" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -9239,10 +9317,10 @@
         <v>614</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C627" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -9250,10 +9328,10 @@
         <v>614</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
       <c r="C628" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -9261,7 +9339,7 @@
         <v>614</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C629" s="2">
         <v>1</v>
@@ -9272,10 +9350,10 @@
         <v>614</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C630" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -9283,10 +9361,10 @@
         <v>614</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C631" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -9294,10 +9372,10 @@
         <v>614</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>505</v>
+        <v>105</v>
       </c>
       <c r="C632" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -9305,7 +9383,7 @@
         <v>614</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C633" s="2">
         <v>2</v>
@@ -9316,10 +9394,10 @@
         <v>614</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C634" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -9327,7 +9405,7 @@
         <v>614</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C635" s="2">
         <v>2</v>
@@ -9338,10 +9416,10 @@
         <v>614</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>615</v>
+        <v>507</v>
       </c>
       <c r="C636" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -9349,10 +9427,10 @@
         <v>614</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>616</v>
+        <v>55</v>
       </c>
       <c r="C637" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -9360,10 +9438,10 @@
         <v>614</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>22</v>
+        <v>615</v>
       </c>
       <c r="C638" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -9371,10 +9449,10 @@
         <v>614</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C639" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -9382,7 +9460,7 @@
         <v>614</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C640" s="2">
         <v>1</v>
@@ -9393,10 +9471,10 @@
         <v>614</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>96</v>
+        <v>617</v>
       </c>
       <c r="C641" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -9404,7 +9482,7 @@
         <v>614</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>618</v>
+        <v>94</v>
       </c>
       <c r="C642" s="2">
         <v>1</v>
@@ -9415,7 +9493,7 @@
         <v>614</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>619</v>
+        <v>96</v>
       </c>
       <c r="C643" s="2">
         <v>1</v>
@@ -9426,7 +9504,7 @@
         <v>614</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>97</v>
+        <v>618</v>
       </c>
       <c r="C644" s="2">
         <v>1</v>
@@ -9437,10 +9515,10 @@
         <v>614</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>108</v>
+        <v>619</v>
       </c>
       <c r="C645" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -9448,18 +9526,18 @@
         <v>614</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>620</v>
+        <v>97</v>
       </c>
       <c r="C646" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>504</v>
+        <v>108</v>
       </c>
       <c r="C647" s="2">
         <v>4</v>
@@ -9467,13 +9545,13 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>170</v>
+        <v>620</v>
       </c>
       <c r="C648" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -9481,7 +9559,7 @@
         <v>621</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>257</v>
+        <v>504</v>
       </c>
       <c r="C649" s="2">
         <v>4</v>
@@ -9492,7 +9570,7 @@
         <v>621</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="C650" s="2">
         <v>4</v>
@@ -9503,7 +9581,7 @@
         <v>621</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="C651" s="2">
         <v>4</v>
@@ -9514,7 +9592,7 @@
         <v>621</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="C652" s="2">
         <v>4</v>
@@ -9525,7 +9603,7 @@
         <v>621</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>505</v>
+        <v>104</v>
       </c>
       <c r="C653" s="2">
         <v>4</v>
@@ -9536,10 +9614,10 @@
         <v>621</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="C654" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -9547,18 +9625,18 @@
         <v>621</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>26</v>
+        <v>505</v>
       </c>
       <c r="C655" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C656" s="2">
         <v>2</v>
@@ -9566,13 +9644,13 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C657" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -9580,10 +9658,10 @@
         <v>622</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C658" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -9591,10 +9669,10 @@
         <v>622</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>505</v>
+        <v>73</v>
       </c>
       <c r="C659" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -9602,29 +9680,29 @@
         <v>622</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>617</v>
+        <v>121</v>
       </c>
       <c r="C660" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>624</v>
+        <v>505</v>
       </c>
       <c r="C661" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>211</v>
+        <v>617</v>
       </c>
       <c r="C662" s="2">
         <v>2</v>
@@ -9635,10 +9713,10 @@
         <v>623</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>212</v>
+        <v>624</v>
       </c>
       <c r="C663" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -9646,7 +9724,7 @@
         <v>623</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>625</v>
+        <v>211</v>
       </c>
       <c r="C664" s="2">
         <v>2</v>
@@ -9660,7 +9738,7 @@
         <v>212</v>
       </c>
       <c r="C665" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -9668,10 +9746,10 @@
         <v>623</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="C666" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -9679,7 +9757,7 @@
         <v>623</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="C667" s="2">
         <v>1</v>
@@ -9690,7 +9768,7 @@
         <v>623</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C668" s="2">
         <v>1</v>
@@ -9701,10 +9779,10 @@
         <v>623</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C669" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -9712,7 +9790,7 @@
         <v>623</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
       <c r="C670" s="2">
         <v>1</v>
@@ -9723,7 +9801,7 @@
         <v>623</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>627</v>
+        <v>77</v>
       </c>
       <c r="C671" s="2">
         <v>10</v>
@@ -9734,43 +9812,43 @@
         <v>623</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C672" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C673" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="C674" s="2">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C675" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -9778,84 +9856,84 @@
         <v>630</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C676" s="2">
-        <v>420</v>
+        <v>500</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
-        <v>281</v>
+        <v>630</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>59</v>
+        <v>632</v>
       </c>
       <c r="C677" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="3" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="C678" s="2">
-        <v>1</v>
+        <v>420</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="3" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>504</v>
+        <v>88</v>
       </c>
       <c r="C679" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C680" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="3" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="C681" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="3" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="C682" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="3" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>506</v>
+        <v>107</v>
       </c>
       <c r="C683" s="2">
         <v>1</v>
@@ -9863,12 +9941,342 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C684" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C685" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C686" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A687" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C687" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A688" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C688" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A689" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C689" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A690" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C690" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C691" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A692" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C692" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A693" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C693" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A694" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C694" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C695" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A696" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C696" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A697" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C697" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A698" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C698" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A699" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C699" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A700" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C700" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A701" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C701" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A702" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C702" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A703" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C703" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A704" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C704" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A705" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C705" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A706" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C706" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A707" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C707" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A708" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C708" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A709" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C709" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A710" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C710" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A711" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C711" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A712" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C712" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A713" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C713" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A714" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B684" s="3" t="s">
+      <c r="B714" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C684" s="2">
+      <c r="C714" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9DF121-3096-477D-A3F2-E7B8045F8B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50447ABC-CB55-4E88-A863-D51DED9CB0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="709">
   <si>
     <t>Remessa</t>
   </si>
@@ -1344,9 +1344,6 @@
     <t>10077-BLB-I</t>
   </si>
   <si>
-    <t>80267489</t>
-  </si>
-  <si>
     <t>80267490</t>
   </si>
   <si>
@@ -2044,6 +2041,117 @@
   </si>
   <si>
     <t>84004858</t>
+  </si>
+  <si>
+    <t>80267721</t>
+  </si>
+  <si>
+    <t>80267722</t>
+  </si>
+  <si>
+    <t>80267723</t>
+  </si>
+  <si>
+    <t>15263-DLO-I</t>
+  </si>
+  <si>
+    <t>11114-DLO-L</t>
+  </si>
+  <si>
+    <t>80267724</t>
+  </si>
+  <si>
+    <t>80267729</t>
+  </si>
+  <si>
+    <t>80267730</t>
+  </si>
+  <si>
+    <t>80267731</t>
+  </si>
+  <si>
+    <t>80267732</t>
+  </si>
+  <si>
+    <t>80267733</t>
+  </si>
+  <si>
+    <t>15372-DLO-I</t>
+  </si>
+  <si>
+    <t>80267734</t>
+  </si>
+  <si>
+    <t>80267735</t>
+  </si>
+  <si>
+    <t>80267736</t>
+  </si>
+  <si>
+    <t>80267737</t>
+  </si>
+  <si>
+    <t>80267738</t>
+  </si>
+  <si>
+    <t>80267745</t>
+  </si>
+  <si>
+    <t>12417-YAG-I</t>
+  </si>
+  <si>
+    <t>12548-ROY-I</t>
+  </si>
+  <si>
+    <t>13848-YAG-I</t>
+  </si>
+  <si>
+    <t>30024-KMT-I</t>
+  </si>
+  <si>
+    <t>80267746</t>
+  </si>
+  <si>
+    <t>10587-ARI-I</t>
+  </si>
+  <si>
+    <t>80267748</t>
+  </si>
+  <si>
+    <t>15586-TDK-N</t>
+  </si>
+  <si>
+    <t>80267751</t>
+  </si>
+  <si>
+    <t>80267756</t>
+  </si>
+  <si>
+    <t>80267758</t>
+  </si>
+  <si>
+    <t>80267759</t>
+  </si>
+  <si>
+    <t>10391-ARI-I</t>
+  </si>
+  <si>
+    <t>10484-ARI-I</t>
+  </si>
+  <si>
+    <t>10499-ARI-I</t>
+  </si>
+  <si>
+    <t>80267762</t>
+  </si>
+  <si>
+    <t>80267764</t>
+  </si>
+  <si>
+    <t>80267765</t>
+  </si>
+  <si>
+    <t>84004859</t>
   </si>
 </sst>
 </file>
@@ -2424,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C732"/>
+  <dimension ref="A1:C786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:C786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6933,7 +7041,7 @@
         <v>438</v>
       </c>
       <c r="C409" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -6941,7 +7049,7 @@
         <v>440</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>438</v>
+        <v>86</v>
       </c>
       <c r="C410" s="2">
         <v>1</v>
@@ -6952,7 +7060,7 @@
         <v>441</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="C411" s="2">
         <v>1</v>
@@ -6974,76 +7082,76 @@
         <v>443</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>3</v>
+        <v>444</v>
       </c>
       <c r="C413" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="C414" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="C415" s="2">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C416" s="2">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>446</v>
       </c>
       <c r="C417" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C418" s="2">
-        <v>10</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
       <c r="C419" s="2">
-        <v>17500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -7051,48 +7159,48 @@
         <v>450</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
       <c r="C420" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>452</v>
       </c>
       <c r="C421" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>453</v>
       </c>
       <c r="C422" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C423" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>455</v>
@@ -7103,10 +7211,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>456</v>
+        <v>61</v>
       </c>
       <c r="C425" s="2">
         <v>10000</v>
@@ -7114,21 +7222,21 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>61</v>
+        <v>456</v>
       </c>
       <c r="C426" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="C427" s="2">
         <v>5000</v>
@@ -7136,29 +7244,29 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C428" s="2">
-        <v>5000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>62</v>
+        <v>457</v>
       </c>
       <c r="C429" s="2">
-        <v>25000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>458</v>
@@ -7169,76 +7277,76 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>459</v>
+        <v>13</v>
       </c>
       <c r="C431" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>13</v>
+        <v>459</v>
       </c>
       <c r="C432" s="2">
-        <v>15000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>460</v>
       </c>
       <c r="C433" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>461</v>
       </c>
       <c r="C434" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>462</v>
       </c>
       <c r="C435" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>463</v>
+        <v>12</v>
       </c>
       <c r="C436" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="C437" s="2">
         <v>5000</v>
@@ -7246,29 +7354,29 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="C438" s="2">
-        <v>5000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>381</v>
+        <v>464</v>
       </c>
       <c r="C439" s="2">
-        <v>30000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>465</v>
@@ -7279,29 +7387,29 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>466</v>
       </c>
       <c r="C441" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>467</v>
       </c>
       <c r="C442" s="2">
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>468</v>
@@ -7312,35 +7420,35 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B444" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B444" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="C444" s="2">
-        <v>10000</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B445" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B445" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="C445" s="2">
-        <v>6800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>452</v>
+        <v>28</v>
       </c>
       <c r="C446" s="2">
-        <v>900</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -7348,10 +7456,10 @@
         <v>470</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C447" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -7359,21 +7467,21 @@
         <v>471</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>81</v>
+        <v>472</v>
       </c>
       <c r="C448" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>473</v>
+        <v>97</v>
       </c>
       <c r="C449" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -7381,7 +7489,7 @@
         <v>474</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>97</v>
+        <v>475</v>
       </c>
       <c r="C450" s="2">
         <v>1</v>
@@ -7389,10 +7497,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>476</v>
+        <v>97</v>
       </c>
       <c r="C451" s="2">
         <v>1</v>
@@ -7403,7 +7511,7 @@
         <v>477</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="C452" s="2">
         <v>1</v>
@@ -7414,7 +7522,7 @@
         <v>478</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="C453" s="2">
         <v>1</v>
@@ -7425,10 +7533,10 @@
         <v>479</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>97</v>
+        <v>446</v>
       </c>
       <c r="C454" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -7436,10 +7544,10 @@
         <v>480</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="C455" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -7447,29 +7555,29 @@
         <v>481</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>237</v>
+        <v>482</v>
       </c>
       <c r="C456" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>483</v>
       </c>
       <c r="C457" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>484</v>
+        <v>51</v>
       </c>
       <c r="C458" s="2">
         <v>1</v>
@@ -7480,7 +7588,7 @@
         <v>485</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C459" s="2">
         <v>1</v>
@@ -7491,10 +7599,10 @@
         <v>486</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>97</v>
+        <v>438</v>
       </c>
       <c r="C460" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -7502,18 +7610,18 @@
         <v>487</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="C461" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C462" s="2">
         <v>1</v>
@@ -7521,32 +7629,32 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>491</v>
+        <v>231</v>
       </c>
       <c r="C463" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="C464" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C465" s="2">
         <v>1</v>
@@ -7554,10 +7662,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C466" s="2">
         <v>1</v>
@@ -7565,10 +7673,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C467" s="2">
         <v>1</v>
@@ -7576,32 +7684,32 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C468" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C469" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C470" s="2">
         <v>2</v>
@@ -7609,21 +7717,21 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>164</v>
+        <v>491</v>
       </c>
       <c r="C471" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>492</v>
+        <v>33</v>
       </c>
       <c r="C472" s="2">
         <v>1</v>
@@ -7631,10 +7739,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>33</v>
+        <v>492</v>
       </c>
       <c r="C473" s="2">
         <v>1</v>
@@ -7642,10 +7750,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>493</v>
+        <v>71</v>
       </c>
       <c r="C474" s="2">
         <v>1</v>
@@ -7653,24 +7761,24 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C475" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C476" s="2">
-        <v>3</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -7678,10 +7786,10 @@
         <v>494</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="C477" s="2">
-        <v>9600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -7689,103 +7797,103 @@
         <v>495</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="C478" s="2">
-        <v>1</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B479" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B479" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C479" s="2">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>497</v>
+        <v>382</v>
       </c>
       <c r="C480" s="2">
-        <v>30000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>382</v>
+        <v>497</v>
       </c>
       <c r="C481" s="2">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>498</v>
       </c>
       <c r="C482" s="2">
-        <v>0</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>499</v>
       </c>
       <c r="C483" s="2">
-        <v>55000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>500</v>
       </c>
       <c r="C484" s="2">
-        <v>35000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>501</v>
       </c>
       <c r="C485" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>502</v>
       </c>
       <c r="C486" s="2">
-        <v>15000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>503</v>
@@ -7796,7 +7904,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>504</v>
@@ -7807,252 +7915,252 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>505</v>
       </c>
       <c r="C489" s="2">
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>506</v>
       </c>
       <c r="C490" s="2">
-        <v>8000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>507</v>
       </c>
       <c r="C491" s="2">
-        <v>5000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C492" s="2">
-        <v>35000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>509</v>
       </c>
       <c r="C493" s="2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>510</v>
       </c>
       <c r="C494" s="2">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>511</v>
       </c>
       <c r="C495" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>512</v>
       </c>
       <c r="C496" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>513</v>
       </c>
       <c r="C497" s="2">
-        <v>5000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>514</v>
       </c>
       <c r="C498" s="2">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>515</v>
       </c>
       <c r="C499" s="2">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>516</v>
       </c>
       <c r="C500" s="2">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>517</v>
       </c>
       <c r="C501" s="2">
-        <v>15000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>518</v>
       </c>
       <c r="C502" s="2">
-        <v>24000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>519</v>
+        <v>356</v>
       </c>
       <c r="C503" s="2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>356</v>
+        <v>497</v>
       </c>
       <c r="C504" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C505" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="C506" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C507" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C508" s="2">
-        <v>5000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>521</v>
       </c>
       <c r="C509" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>522</v>
       </c>
       <c r="C510" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B511" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="C511" s="2">
         <v>100</v>
@@ -8060,13 +8168,13 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>521</v>
+        <v>438</v>
       </c>
       <c r="C512" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -8074,26 +8182,26 @@
         <v>524</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>438</v>
+        <v>282</v>
       </c>
       <c r="C513" s="2">
-        <v>10</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B514" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B514" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="C514" s="2">
-        <v>16000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>526</v>
@@ -8104,51 +8212,51 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>527</v>
+        <v>286</v>
       </c>
       <c r="C516" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>286</v>
+        <v>527</v>
       </c>
       <c r="C517" s="2">
-        <v>5000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>528</v>
       </c>
       <c r="C518" s="2">
-        <v>4000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>529</v>
       </c>
       <c r="C519" s="2">
-        <v>2500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>530</v>
@@ -8159,32 +8267,32 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>531</v>
       </c>
       <c r="C521" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C522" s="2">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="C523" s="2">
         <v>5000</v>
@@ -8192,32 +8300,32 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>533</v>
       </c>
       <c r="C524" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="C525" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C526" s="2">
         <v>5000</v>
@@ -8225,32 +8333,32 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="C527" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>535</v>
       </c>
       <c r="C528" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="C529" s="2">
         <v>5000</v>
@@ -8258,197 +8366,197 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
       <c r="C530" s="2">
-        <v>5000</v>
+        <v>960</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>537</v>
       </c>
       <c r="C531" s="2">
-        <v>960</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>538</v>
+        <v>91</v>
       </c>
       <c r="C532" s="2">
-        <v>2500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>91</v>
+        <v>531</v>
       </c>
       <c r="C533" s="2">
-        <v>800</v>
+        <v>650</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C534" s="2">
-        <v>650</v>
+        <v>350</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C535" s="2">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C536" s="2">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>542</v>
       </c>
       <c r="C537" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B538" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B538" s="3" t="s">
-        <v>543</v>
-      </c>
       <c r="C538" s="2">
-        <v>400</v>
+        <v>164</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B539" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B539" s="3" t="s">
-        <v>542</v>
-      </c>
       <c r="C539" s="2">
-        <v>164</v>
+        <v>36</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C540" s="2">
-        <v>36</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>545</v>
       </c>
       <c r="C541" s="2">
-        <v>2940</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C542" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B543" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B543" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="C543" s="2">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B544" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B544" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="C544" s="2">
-        <v>120000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C545" s="2">
-        <v>480000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="C546" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C547" s="2">
         <v>1</v>
@@ -8456,10 +8564,10 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C548" s="2">
         <v>1</v>
@@ -8467,10 +8575,10 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="C549" s="2">
         <v>1</v>
@@ -8478,10 +8586,10 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="C550" s="2">
         <v>1</v>
@@ -8492,51 +8600,51 @@
         <v>551</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>164</v>
+        <v>552</v>
       </c>
       <c r="C551" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>553</v>
       </c>
       <c r="C552" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>554</v>
       </c>
       <c r="C553" s="2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C554" s="2">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>557</v>
+        <v>157</v>
       </c>
       <c r="C555" s="2">
         <v>1</v>
@@ -8547,54 +8655,54 @@
         <v>558</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="C556" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>237</v>
+        <v>444</v>
       </c>
       <c r="C557" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="C558" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="C559" s="2">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C560" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -8602,21 +8710,21 @@
         <v>559</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>447</v>
+        <v>560</v>
       </c>
       <c r="C561" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>561</v>
+        <v>438</v>
       </c>
       <c r="C562" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -8624,10 +8732,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>438</v>
+        <v>159</v>
       </c>
       <c r="C563" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -8635,10 +8743,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C564" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -8646,40 +8754,40 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>31</v>
+        <v>565</v>
       </c>
       <c r="C565" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>566</v>
       </c>
       <c r="C566" s="2">
-        <v>1000</v>
+        <v>345</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>567</v>
+        <v>48</v>
       </c>
       <c r="C567" s="2">
-        <v>345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C568" s="2">
         <v>1</v>
@@ -8687,10 +8795,10 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C569" s="2">
         <v>1</v>
@@ -8701,7 +8809,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="C570" s="2">
         <v>1</v>
@@ -8734,32 +8842,32 @@
         <v>571</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="C573" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="C574" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>237</v>
+        <v>445</v>
       </c>
       <c r="C575" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -8767,7 +8875,7 @@
         <v>572</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>446</v>
+        <v>51</v>
       </c>
       <c r="C576" s="2">
         <v>1</v>
@@ -8778,21 +8886,21 @@
         <v>573</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>51</v>
+        <v>574</v>
       </c>
       <c r="C577" s="2">
-        <v>1</v>
+        <v>400</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>575</v>
+        <v>51</v>
       </c>
       <c r="C578" s="2">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -8800,29 +8908,29 @@
         <v>576</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>51</v>
+        <v>577</v>
       </c>
       <c r="C579" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>578</v>
+        <v>99</v>
       </c>
       <c r="C580" s="2">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C581" s="2">
         <v>1</v>
@@ -8833,7 +8941,7 @@
         <v>579</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="C582" s="2">
         <v>1</v>
@@ -8844,7 +8952,7 @@
         <v>580</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>237</v>
+        <v>395</v>
       </c>
       <c r="C583" s="2">
         <v>1</v>
@@ -8855,7 +8963,7 @@
         <v>581</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>395</v>
+        <v>28</v>
       </c>
       <c r="C584" s="2">
         <v>1</v>
@@ -8877,43 +8985,43 @@
         <v>583</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>28</v>
+        <v>584</v>
       </c>
       <c r="C586" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B587" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B587" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="C587" s="2">
-        <v>0</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B588" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B588" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="C588" s="2">
-        <v>1795</v>
+        <v>205</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>585</v>
+        <v>32</v>
       </c>
       <c r="C589" s="2">
-        <v>205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -8921,7 +9029,7 @@
         <v>586</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="C590" s="2">
         <v>1</v>
@@ -8932,62 +9040,62 @@
         <v>587</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>288</v>
+        <v>91</v>
       </c>
       <c r="C591" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B592" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B592" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="C592" s="2">
-        <v>0</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>589</v>
+        <v>91</v>
       </c>
       <c r="C593" s="2">
-        <v>2400</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C594" s="2">
-        <v>4000</v>
+        <v>39200</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>91</v>
+        <v>590</v>
       </c>
       <c r="C595" s="2">
-        <v>39200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>591</v>
+        <v>238</v>
       </c>
       <c r="C596" s="2">
         <v>1</v>
@@ -8995,84 +9103,84 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C597" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="C598" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="C599" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B600" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="B600" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="C600" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>593</v>
       </c>
       <c r="C601" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>594</v>
       </c>
       <c r="C602" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>595</v>
       </c>
       <c r="C603" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>596</v>
@@ -9083,29 +9191,29 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>597</v>
+        <v>7</v>
       </c>
       <c r="C605" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>7</v>
+        <v>597</v>
       </c>
       <c r="C606" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>598</v>
@@ -9116,76 +9224,76 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>599</v>
       </c>
       <c r="C608" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>600</v>
       </c>
       <c r="C609" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>601</v>
+        <v>70</v>
       </c>
       <c r="C610" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>70</v>
+        <v>601</v>
       </c>
       <c r="C611" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>602</v>
       </c>
       <c r="C612" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>603</v>
+        <v>522</v>
       </c>
       <c r="C613" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="C614" s="2">
         <v>5</v>
@@ -9193,54 +9301,54 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>604</v>
       </c>
       <c r="C615" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>605</v>
       </c>
       <c r="C616" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C617" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C618" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>607</v>
+        <v>490</v>
       </c>
       <c r="C619" s="2">
         <v>1</v>
@@ -9248,10 +9356,10 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>491</v>
+        <v>231</v>
       </c>
       <c r="C620" s="2">
         <v>1</v>
@@ -9259,32 +9367,32 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="C621" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C622" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C623" s="2">
         <v>3</v>
@@ -9292,21 +9400,21 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C624" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C625" s="2">
         <v>1</v>
@@ -9314,32 +9422,32 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C626" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C627" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C628" s="2">
         <v>1</v>
@@ -9347,21 +9455,21 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="C629" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="C630" s="2">
         <v>2</v>
@@ -9369,10 +9477,10 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>492</v>
+        <v>70</v>
       </c>
       <c r="C631" s="2">
         <v>2</v>
@@ -9380,32 +9488,32 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>70</v>
+        <v>492</v>
       </c>
       <c r="C632" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>493</v>
+        <v>98</v>
       </c>
       <c r="C633" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B634" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="B634" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C634" s="2">
         <v>2</v>
@@ -9413,21 +9521,21 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>609</v>
       </c>
       <c r="C635" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>610</v>
+        <v>165</v>
       </c>
       <c r="C636" s="2">
         <v>1</v>
@@ -9435,32 +9543,32 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="C637" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="C638" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C639" s="2">
         <v>1</v>
@@ -9468,10 +9576,10 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>157</v>
+        <v>610</v>
       </c>
       <c r="C640" s="2">
         <v>1</v>
@@ -9479,7 +9587,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>611</v>
@@ -9490,10 +9598,10 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>612</v>
+        <v>158</v>
       </c>
       <c r="C642" s="2">
         <v>1</v>
@@ -9501,43 +9609,43 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="C643" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>99</v>
+        <v>612</v>
       </c>
       <c r="C644" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>613</v>
+        <v>490</v>
       </c>
       <c r="C645" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>491</v>
+        <v>231</v>
       </c>
       <c r="C646" s="2">
         <v>4</v>
@@ -9545,10 +9653,10 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="C647" s="2">
         <v>4</v>
@@ -9556,10 +9664,10 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C648" s="2">
         <v>4</v>
@@ -9567,10 +9675,10 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C649" s="2">
         <v>4</v>
@@ -9578,10 +9686,10 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C650" s="2">
         <v>4</v>
@@ -9589,10 +9697,10 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>164</v>
+        <v>491</v>
       </c>
       <c r="C651" s="2">
         <v>4</v>
@@ -9600,21 +9708,21 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>492</v>
+        <v>29</v>
       </c>
       <c r="C652" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C653" s="2">
         <v>2</v>
@@ -9625,7 +9733,7 @@
         <v>614</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C654" s="2">
         <v>2</v>
@@ -9633,21 +9741,21 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C655" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C656" s="2">
         <v>4</v>
@@ -9655,21 +9763,21 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="C657" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>492</v>
+        <v>43</v>
       </c>
       <c r="C658" s="2">
         <v>2</v>
@@ -9680,29 +9788,29 @@
         <v>615</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>43</v>
+        <v>616</v>
       </c>
       <c r="C659" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>617</v>
+        <v>293</v>
       </c>
       <c r="C660" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="C661" s="2">
         <v>2</v>
@@ -9710,10 +9818,10 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C662" s="2">
         <v>2</v>
@@ -9721,21 +9829,21 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C663" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>36</v>
+        <v>596</v>
       </c>
       <c r="C664" s="2">
         <v>1</v>
@@ -9743,10 +9851,10 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>597</v>
+        <v>192</v>
       </c>
       <c r="C665" s="2">
         <v>1</v>
@@ -9754,10 +9862,10 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C666" s="2">
         <v>1</v>
@@ -9765,43 +9873,43 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C667" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>10</v>
+        <v>617</v>
       </c>
       <c r="C668" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>618</v>
       </c>
       <c r="C669" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C670" s="2">
         <v>10</v>
@@ -9809,68 +9917,68 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="C671" s="2">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>621</v>
       </c>
       <c r="C672" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>622</v>
       </c>
       <c r="C673" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C674" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C675" s="2">
-        <v>100</v>
+        <v>320</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>623</v>
+        <v>51</v>
       </c>
       <c r="C676" s="2">
-        <v>320</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -9878,7 +9986,7 @@
         <v>624</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C677" s="2">
         <v>1</v>
@@ -9889,7 +9997,7 @@
         <v>625</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C678" s="2">
         <v>1</v>
@@ -9900,7 +10008,7 @@
         <v>626</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C679" s="2">
         <v>1</v>
@@ -9911,7 +10019,7 @@
         <v>627</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="C680" s="2">
         <v>1</v>
@@ -9922,7 +10030,7 @@
         <v>628</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="C681" s="2">
         <v>1</v>
@@ -9933,7 +10041,7 @@
         <v>629</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C682" s="2">
         <v>1</v>
@@ -9944,7 +10052,7 @@
         <v>630</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C683" s="2">
         <v>1</v>
@@ -9955,29 +10063,29 @@
         <v>631</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="C684" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>237</v>
+        <v>444</v>
       </c>
       <c r="C685" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="C686" s="2">
         <v>5</v>
@@ -9985,32 +10093,32 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="C687" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C688" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>447</v>
+        <v>204</v>
       </c>
       <c r="C689" s="2">
         <v>2</v>
@@ -10018,10 +10126,10 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>204</v>
+        <v>438</v>
       </c>
       <c r="C690" s="2">
         <v>2</v>
@@ -10029,18 +10137,18 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
       <c r="C691" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>33</v>
@@ -10051,10 +10159,10 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C693" s="2">
         <v>1</v>
@@ -10062,10 +10170,10 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C694" s="2">
         <v>1</v>
@@ -10073,32 +10181,32 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>638</v>
+        <v>69</v>
       </c>
       <c r="C695" s="2">
-        <v>8000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>149</v>
+        <v>637</v>
       </c>
       <c r="C696" s="2">
-        <v>1</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C697" s="2">
         <v>1</v>
@@ -10106,10 +10214,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C698" s="2">
         <v>1</v>
@@ -10117,10 +10225,10 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>561</v>
+        <v>45</v>
       </c>
       <c r="C699" s="2">
         <v>1</v>
@@ -10128,10 +10236,10 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>644</v>
+        <v>560</v>
       </c>
       <c r="C700" s="2">
         <v>1</v>
@@ -10139,18 +10247,18 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>85</v>
+        <v>643</v>
       </c>
       <c r="C701" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>85</v>
@@ -10161,21 +10269,21 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="C703" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>648</v>
+        <v>171</v>
       </c>
       <c r="C704" s="2">
         <v>1</v>
@@ -10183,10 +10291,10 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>81</v>
+        <v>647</v>
       </c>
       <c r="C705" s="2">
         <v>1</v>
@@ -10194,7 +10302,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>81</v>
@@ -10205,7 +10313,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>81</v>
@@ -10216,10 +10324,10 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>644</v>
+        <v>81</v>
       </c>
       <c r="C708" s="2">
         <v>1</v>
@@ -10227,10 +10335,10 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>32</v>
+        <v>643</v>
       </c>
       <c r="C709" s="2">
         <v>1</v>
@@ -10238,10 +10346,10 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="C710" s="2">
         <v>1</v>
@@ -10249,10 +10357,10 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="C711" s="2">
         <v>1</v>
@@ -10260,7 +10368,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>32</v>
@@ -10271,10 +10379,10 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C713" s="2">
         <v>1</v>
@@ -10282,10 +10390,10 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="C714" s="2">
         <v>1</v>
@@ -10293,43 +10401,43 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>660</v>
+        <v>171</v>
       </c>
       <c r="C715" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C716" s="2">
-        <v>4000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="C717" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C718" s="2">
         <v>1</v>
@@ -10337,54 +10445,54 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C719" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>81</v>
+        <v>601</v>
       </c>
       <c r="C720" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="C721" s="2">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>599</v>
+        <v>438</v>
       </c>
       <c r="C722" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>665</v>
+        <v>598</v>
       </c>
       <c r="C723" s="2">
         <v>10</v>
@@ -10392,32 +10500,32 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C724" s="2">
-        <v>20000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>77</v>
+        <v>666</v>
       </c>
       <c r="C725" s="2">
-        <v>4</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C726" s="2">
         <v>1</v>
@@ -10425,54 +10533,54 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>491</v>
+        <v>32</v>
       </c>
       <c r="C727" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>3</v>
+        <v>675</v>
       </c>
       <c r="C728" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>63</v>
+        <v>676</v>
       </c>
       <c r="C729" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C730" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C731" s="2">
         <v>1</v>
@@ -10480,12 +10588,606 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="B732" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C732" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A733" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C733" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A734" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C734" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A735" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C735" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A736" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C736" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A737" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C737" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A738" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C738" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A739" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C739" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A740" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C740" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A741" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C741" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A742" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C742" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A743" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C743" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A744" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C744" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A745" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C745" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A746" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C746" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A747" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C747" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A748" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C748" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A749" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C749" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A750" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C750" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A751" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C751" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A752" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C752" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A753" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C753" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A754" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C754" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A755" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C755" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A756" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C756" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A757" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C757" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A758" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C758" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A759" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C759" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A760" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C760" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A761" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C761" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A762" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C762" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A763" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C763" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A764" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C764" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A765" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C765" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A766" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C766" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A767" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C767" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A768" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C768" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A769" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C769" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A770" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C770" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A771" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C771" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A772" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C772" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A773" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C773" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A774" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C774" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A775" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C775" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A776" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C776" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A777" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C777" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A778" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C778" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A779" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C779" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A780" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C780" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A781" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C781" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A782" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C782" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A783" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C783" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A784" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B784" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C732" s="2">
+      <c r="C784" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A785" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C785" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A786" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C786" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50447ABC-CB55-4E88-A863-D51DED9CB0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF0907-5112-4302-AF11-C5B9138AC089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="734">
   <si>
     <t>Remessa</t>
   </si>
@@ -2152,6 +2152,81 @@
   </si>
   <si>
     <t>84004859</t>
+  </si>
+  <si>
+    <t>80267767</t>
+  </si>
+  <si>
+    <t>20964-CTY-I</t>
+  </si>
+  <si>
+    <t>80267768</t>
+  </si>
+  <si>
+    <t>10355-ARI-I</t>
+  </si>
+  <si>
+    <t>10354-ARI-I</t>
+  </si>
+  <si>
+    <t>10403-ARI-I</t>
+  </si>
+  <si>
+    <t>10497-ARI-I</t>
+  </si>
+  <si>
+    <t>80267769</t>
+  </si>
+  <si>
+    <t>26489-YAG-I</t>
+  </si>
+  <si>
+    <t>11425-ROY-I</t>
+  </si>
+  <si>
+    <t>10742-ROY-I</t>
+  </si>
+  <si>
+    <t>80267771</t>
+  </si>
+  <si>
+    <t>10190-VIS-I</t>
+  </si>
+  <si>
+    <t>80267774</t>
+  </si>
+  <si>
+    <t>80267776</t>
+  </si>
+  <si>
+    <t>10526-ARI-I</t>
+  </si>
+  <si>
+    <t>80267778</t>
+  </si>
+  <si>
+    <t>80267779</t>
+  </si>
+  <si>
+    <t>13972-TDK-N</t>
+  </si>
+  <si>
+    <t>80267780</t>
+  </si>
+  <si>
+    <t>80267781</t>
+  </si>
+  <si>
+    <t>80267782</t>
+  </si>
+  <si>
+    <t>10485-ARI-I</t>
+  </si>
+  <si>
+    <t>10480-ARI-I</t>
+  </si>
+  <si>
+    <t>80267784</t>
   </si>
 </sst>
 </file>
@@ -2532,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C786"/>
+  <dimension ref="A1:C809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C786"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11083,111 +11158,364 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="3" t="s">
-        <v>667</v>
+        <v>709</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>77</v>
+        <v>710</v>
       </c>
       <c r="C777" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="3" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C778" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="3" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>490</v>
+        <v>42</v>
       </c>
       <c r="C779" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="3" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C780" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="3" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>63</v>
+        <v>712</v>
       </c>
       <c r="C781" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="3" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>80</v>
+        <v>713</v>
       </c>
       <c r="C782" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="3" t="s">
-        <v>670</v>
+        <v>711</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C783" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="3" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>313</v>
+        <v>714</v>
       </c>
       <c r="C784" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="3" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>58</v>
+        <v>715</v>
       </c>
       <c r="C785" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C786" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A787" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C787" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A788" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C788" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A789" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C789" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A790" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C790" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A791" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C791" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A792" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C792" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A793" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C793" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A794" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C794" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A795" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C795" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A796" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C796" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A797" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C797" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A798" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C798" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A799" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C799" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A800" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C800" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A801" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C801" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A802" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C802" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A803" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C803" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A804" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C804" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A805" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C805" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A806" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C806" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A807" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C807" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A808" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B786" s="3" t="s">
+      <c r="B808" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C786" s="2">
+      <c r="C808" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A809" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C809" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF0907-5112-4302-AF11-C5B9138AC089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B74986-4175-4E52-A293-6BEC0608679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="734">
   <si>
     <t>Remessa</t>
   </si>
@@ -2607,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C809"/>
+  <dimension ref="A1:C807"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
+      <selection activeCell="C689" sqref="C689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10171,10 +10171,10 @@
         <v>631</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C687" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -10182,7 +10182,7 @@
         <v>631</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>446</v>
+        <v>204</v>
       </c>
       <c r="C688" s="2">
         <v>2</v>
@@ -10193,40 +10193,40 @@
         <v>631</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>204</v>
+        <v>438</v>
       </c>
       <c r="C689" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>438</v>
+        <v>33</v>
       </c>
       <c r="C690" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>438</v>
+        <v>33</v>
       </c>
       <c r="C691" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C692" s="2">
         <v>1</v>
@@ -10234,10 +10234,10 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C693" s="2">
         <v>1</v>
@@ -10245,21 +10245,21 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>49</v>
+        <v>637</v>
       </c>
       <c r="C694" s="2">
-        <v>1</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="C695" s="2">
         <v>1</v>
@@ -10267,21 +10267,21 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>637</v>
+        <v>116</v>
       </c>
       <c r="C696" s="2">
-        <v>8000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C697" s="2">
         <v>1</v>
@@ -10289,10 +10289,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>116</v>
+        <v>560</v>
       </c>
       <c r="C698" s="2">
         <v>1</v>
@@ -10300,10 +10300,10 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>45</v>
+        <v>643</v>
       </c>
       <c r="C699" s="2">
         <v>1</v>
@@ -10311,54 +10311,54 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>560</v>
+        <v>85</v>
       </c>
       <c r="C700" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>643</v>
+        <v>85</v>
       </c>
       <c r="C701" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="C702" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>85</v>
+        <v>647</v>
       </c>
       <c r="C703" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="C704" s="2">
         <v>1</v>
@@ -10366,10 +10366,10 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>647</v>
+        <v>81</v>
       </c>
       <c r="C705" s="2">
         <v>1</v>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>81</v>
@@ -10388,10 +10388,10 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>81</v>
+        <v>643</v>
       </c>
       <c r="C707" s="2">
         <v>1</v>
@@ -10399,10 +10399,10 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C708" s="2">
         <v>1</v>
@@ -10410,10 +10410,10 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>643</v>
+        <v>157</v>
       </c>
       <c r="C709" s="2">
         <v>1</v>
@@ -10421,7 +10421,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>32</v>
@@ -10432,10 +10432,10 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="C711" s="2">
         <v>1</v>
@@ -10443,10 +10443,10 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C712" s="2">
         <v>1</v>
@@ -10454,10 +10454,10 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="C713" s="2">
         <v>1</v>
@@ -10465,46 +10465,46 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>56</v>
+        <v>659</v>
       </c>
       <c r="C714" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>171</v>
+        <v>661</v>
       </c>
       <c r="C715" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="C716" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>661</v>
+        <v>594</v>
       </c>
       <c r="C717" s="2">
-        <v>4000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
@@ -10512,10 +10512,10 @@
         <v>662</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="C718" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -10523,10 +10523,10 @@
         <v>662</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>594</v>
+        <v>81</v>
       </c>
       <c r="C719" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
@@ -10534,10 +10534,10 @@
         <v>662</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>601</v>
+        <v>438</v>
       </c>
       <c r="C720" s="2">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
@@ -10545,62 +10545,62 @@
         <v>662</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="C721" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="C722" s="2">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="C723" s="2">
-        <v>10</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>664</v>
+        <v>51</v>
       </c>
       <c r="C724" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>666</v>
+        <v>32</v>
       </c>
       <c r="C725" s="2">
-        <v>20000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>51</v>
+        <v>675</v>
       </c>
       <c r="C726" s="2">
         <v>1</v>
@@ -10608,10 +10608,10 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>32</v>
+        <v>676</v>
       </c>
       <c r="C727" s="2">
         <v>1</v>
@@ -10619,10 +10619,10 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>675</v>
+        <v>32</v>
       </c>
       <c r="C728" s="2">
         <v>1</v>
@@ -10630,10 +10630,10 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>676</v>
+        <v>32</v>
       </c>
       <c r="C729" s="2">
         <v>1</v>
@@ -10641,10 +10641,10 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C730" s="2">
         <v>1</v>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>32</v>
@@ -10663,10 +10663,10 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C732" s="2">
         <v>1</v>
@@ -10674,10 +10674,10 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>32</v>
+        <v>683</v>
       </c>
       <c r="C733" s="2">
         <v>1</v>
@@ -10685,10 +10685,10 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="C734" s="2">
         <v>1</v>
@@ -10696,10 +10696,10 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>683</v>
+        <v>89</v>
       </c>
       <c r="C735" s="2">
         <v>1</v>
@@ -10707,10 +10707,10 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C736" s="2">
         <v>1</v>
@@ -10718,10 +10718,10 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C737" s="2">
         <v>1</v>
@@ -10729,10 +10729,10 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="C738" s="2">
         <v>1</v>
@@ -10740,24 +10740,24 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="3" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>92</v>
+        <v>690</v>
       </c>
       <c r="C739" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>32</v>
+        <v>499</v>
       </c>
       <c r="C740" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
@@ -10765,10 +10765,10 @@
         <v>689</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C741" s="2">
-        <v>100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
@@ -10776,10 +10776,10 @@
         <v>689</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>499</v>
+        <v>692</v>
       </c>
       <c r="C742" s="2">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -10787,54 +10787,54 @@
         <v>689</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C743" s="2">
-        <v>5000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C744" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="3" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C745" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="3" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>695</v>
+        <v>48</v>
       </c>
       <c r="C746" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>697</v>
+        <v>47</v>
       </c>
       <c r="C747" s="2">
-        <v>1000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
@@ -10842,7 +10842,7 @@
         <v>698</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C748" s="2">
         <v>4</v>
@@ -10853,7 +10853,7 @@
         <v>698</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C749" s="2">
         <v>4</v>
@@ -10864,7 +10864,7 @@
         <v>698</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="C750" s="2">
         <v>4</v>
@@ -10875,7 +10875,7 @@
         <v>698</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="C751" s="2">
         <v>4</v>
@@ -10886,7 +10886,7 @@
         <v>698</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="C752" s="2">
         <v>4</v>
@@ -10894,10 +10894,10 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="C753" s="2">
         <v>4</v>
@@ -10905,10 +10905,10 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>97</v>
+        <v>556</v>
       </c>
       <c r="C754" s="2">
         <v>4</v>
@@ -10919,7 +10919,7 @@
         <v>699</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C755" s="2">
         <v>4</v>
@@ -10930,7 +10930,7 @@
         <v>699</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>556</v>
+        <v>53</v>
       </c>
       <c r="C756" s="2">
         <v>4</v>
@@ -10938,46 +10938,46 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="C757" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="C758" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="C759" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="C760" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
@@ -10985,7 +10985,7 @@
         <v>701</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C761" s="2">
         <v>2</v>
@@ -10996,7 +10996,7 @@
         <v>701</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C762" s="2">
         <v>2</v>
@@ -11007,7 +11007,7 @@
         <v>701</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C763" s="2">
         <v>2</v>
@@ -11018,10 +11018,10 @@
         <v>701</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>47</v>
+        <v>702</v>
       </c>
       <c r="C764" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
@@ -11029,10 +11029,10 @@
         <v>701</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C765" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
@@ -11040,10 +11040,10 @@
         <v>701</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C766" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
@@ -11051,10 +11051,10 @@
         <v>701</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="C767" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
@@ -11062,10 +11062,10 @@
         <v>701</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>703</v>
+        <v>221</v>
       </c>
       <c r="C768" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
@@ -11073,10 +11073,10 @@
         <v>701</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="C769" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
@@ -11084,10 +11084,10 @@
         <v>701</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>221</v>
+        <v>704</v>
       </c>
       <c r="C770" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
@@ -11095,7 +11095,7 @@
         <v>701</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C771" s="2">
         <v>2</v>
@@ -11103,32 +11103,32 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="3" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>704</v>
+        <v>173</v>
       </c>
       <c r="C772" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="3" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C773" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="C774" s="2">
         <v>1</v>
@@ -11136,10 +11136,10 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="3" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>32</v>
+        <v>710</v>
       </c>
       <c r="C775" s="2">
         <v>1</v>
@@ -11147,24 +11147,24 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="3" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C776" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>710</v>
+        <v>42</v>
       </c>
       <c r="C777" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
@@ -11172,10 +11172,10 @@
         <v>711</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C778" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
@@ -11183,10 +11183,10 @@
         <v>711</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C779" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
@@ -11194,10 +11194,10 @@
         <v>711</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>38</v>
+        <v>713</v>
       </c>
       <c r="C780" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
@@ -11205,7 +11205,7 @@
         <v>711</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>712</v>
+        <v>43</v>
       </c>
       <c r="C781" s="2">
         <v>2</v>
@@ -11216,7 +11216,7 @@
         <v>711</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C782" s="2">
         <v>2</v>
@@ -11227,32 +11227,32 @@
         <v>711</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>43</v>
+        <v>715</v>
       </c>
       <c r="C783" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="3" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C784" s="2">
-        <v>2</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="3" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C785" s="2">
-        <v>1</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
@@ -11260,51 +11260,51 @@
         <v>716</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C786" s="2">
-        <v>12000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C787" s="2">
-        <v>100000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="3" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>719</v>
+        <v>51</v>
       </c>
       <c r="C788" s="2">
-        <v>45000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C789" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C790" s="2">
         <v>1</v>
@@ -11312,21 +11312,21 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="3" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C791" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C792" s="2">
         <v>1</v>
@@ -11334,101 +11334,101 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>727</v>
+        <v>81</v>
       </c>
       <c r="C793" s="2">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>55</v>
+        <v>438</v>
       </c>
       <c r="C794" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>81</v>
+        <v>731</v>
       </c>
       <c r="C795" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>438</v>
+        <v>732</v>
       </c>
       <c r="C796" s="2">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="3" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>731</v>
+        <v>601</v>
       </c>
       <c r="C797" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="3" t="s">
-        <v>730</v>
+        <v>667</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>732</v>
+        <v>77</v>
       </c>
       <c r="C798" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="3" t="s">
-        <v>733</v>
+        <v>668</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>601</v>
+        <v>93</v>
       </c>
       <c r="C799" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="C800" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C801" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
@@ -11436,10 +11436,10 @@
         <v>669</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>490</v>
+        <v>63</v>
       </c>
       <c r="C802" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
@@ -11447,75 +11447,53 @@
         <v>669</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C803" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C804" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="C805" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="3" t="s">
-        <v>670</v>
+        <v>708</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C806" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="3" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="C807" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A808" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="B808" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C808" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A809" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="B809" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C809" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B74986-4175-4E52-A293-6BEC0608679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98E016-D874-428F-ABF4-2F38F71E1EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -2609,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
   <dimension ref="A1:C807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
-      <selection activeCell="C689" sqref="C689"/>
+    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
+      <selection activeCell="A689" sqref="A689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98E016-D874-428F-ABF4-2F38F71E1EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC31BE-016E-4D67-B12F-68FF1221B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="738">
   <si>
     <t>Remessa</t>
   </si>
@@ -2214,9 +2214,6 @@
     <t>80267780</t>
   </si>
   <si>
-    <t>80267781</t>
-  </si>
-  <si>
     <t>80267782</t>
   </si>
   <si>
@@ -2227,6 +2224,21 @@
   </si>
   <si>
     <t>80267784</t>
+  </si>
+  <si>
+    <t>80267792</t>
+  </si>
+  <si>
+    <t>10380-ARI-I</t>
+  </si>
+  <si>
+    <t>80267793</t>
+  </si>
+  <si>
+    <t>80267794</t>
+  </si>
+  <si>
+    <t>80267795</t>
   </si>
 </sst>
 </file>
@@ -2607,10 +2619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C807"/>
+  <dimension ref="A1:C816"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="A689" sqref="A689"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10171,10 +10183,10 @@
         <v>631</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C687" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -10182,7 +10194,7 @@
         <v>631</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>204</v>
+        <v>446</v>
       </c>
       <c r="C688" s="2">
         <v>2</v>
@@ -10193,40 +10205,40 @@
         <v>631</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>438</v>
+        <v>204</v>
       </c>
       <c r="C689" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
       <c r="C690" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
       <c r="C691" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C692" s="2">
         <v>1</v>
@@ -10234,10 +10246,10 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C693" s="2">
         <v>1</v>
@@ -10245,21 +10257,21 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>637</v>
+        <v>49</v>
       </c>
       <c r="C694" s="2">
-        <v>8000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C695" s="2">
         <v>1</v>
@@ -10267,21 +10279,21 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>116</v>
+        <v>637</v>
       </c>
       <c r="C696" s="2">
-        <v>1</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="C697" s="2">
         <v>1</v>
@@ -10289,10 +10301,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>560</v>
+        <v>116</v>
       </c>
       <c r="C698" s="2">
         <v>1</v>
@@ -10300,10 +10312,10 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>643</v>
+        <v>45</v>
       </c>
       <c r="C699" s="2">
         <v>1</v>
@@ -10311,54 +10323,54 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>85</v>
+        <v>560</v>
       </c>
       <c r="C700" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>85</v>
+        <v>643</v>
       </c>
       <c r="C701" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="C702" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>647</v>
+        <v>85</v>
       </c>
       <c r="C703" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="C704" s="2">
         <v>1</v>
@@ -10366,10 +10378,10 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>81</v>
+        <v>647</v>
       </c>
       <c r="C705" s="2">
         <v>1</v>
@@ -10377,7 +10389,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>81</v>
@@ -10388,10 +10400,10 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>643</v>
+        <v>81</v>
       </c>
       <c r="C707" s="2">
         <v>1</v>
@@ -10399,10 +10411,10 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C708" s="2">
         <v>1</v>
@@ -10410,10 +10422,10 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>157</v>
+        <v>643</v>
       </c>
       <c r="C709" s="2">
         <v>1</v>
@@ -10421,7 +10433,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>32</v>
@@ -10432,10 +10444,10 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="C711" s="2">
         <v>1</v>
@@ -10443,10 +10455,10 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C712" s="2">
         <v>1</v>
@@ -10454,10 +10466,10 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="C713" s="2">
         <v>1</v>
@@ -10465,46 +10477,46 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>659</v>
+        <v>56</v>
       </c>
       <c r="C714" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>661</v>
+        <v>171</v>
       </c>
       <c r="C715" s="2">
-        <v>4000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="C716" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="C717" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
@@ -10512,10 +10524,10 @@
         <v>662</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C718" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -10523,10 +10535,10 @@
         <v>662</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="C719" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
@@ -10534,10 +10546,10 @@
         <v>662</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>438</v>
+        <v>601</v>
       </c>
       <c r="C720" s="2">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
@@ -10545,62 +10557,62 @@
         <v>662</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>598</v>
+        <v>81</v>
       </c>
       <c r="C721" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>664</v>
+        <v>438</v>
       </c>
       <c r="C722" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>666</v>
+        <v>598</v>
       </c>
       <c r="C723" s="2">
-        <v>20000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>51</v>
+        <v>664</v>
       </c>
       <c r="C724" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>32</v>
+        <v>666</v>
       </c>
       <c r="C725" s="2">
-        <v>1</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>675</v>
+        <v>51</v>
       </c>
       <c r="C726" s="2">
         <v>1</v>
@@ -10608,10 +10620,10 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>676</v>
+        <v>32</v>
       </c>
       <c r="C727" s="2">
         <v>1</v>
@@ -10619,10 +10631,10 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>32</v>
+        <v>675</v>
       </c>
       <c r="C728" s="2">
         <v>1</v>
@@ -10630,10 +10642,10 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>32</v>
+        <v>676</v>
       </c>
       <c r="C729" s="2">
         <v>1</v>
@@ -10641,10 +10653,10 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C730" s="2">
         <v>1</v>
@@ -10652,7 +10664,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>32</v>
@@ -10663,10 +10675,10 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C732" s="2">
         <v>1</v>
@@ -10674,10 +10686,10 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>683</v>
+        <v>32</v>
       </c>
       <c r="C733" s="2">
         <v>1</v>
@@ -10685,10 +10697,10 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="C734" s="2">
         <v>1</v>
@@ -10696,10 +10708,10 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>89</v>
+        <v>683</v>
       </c>
       <c r="C735" s="2">
         <v>1</v>
@@ -10707,10 +10719,10 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C736" s="2">
         <v>1</v>
@@ -10718,10 +10730,10 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C737" s="2">
         <v>1</v>
@@ -10729,10 +10741,10 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="C738" s="2">
         <v>1</v>
@@ -10740,24 +10752,24 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>690</v>
+        <v>92</v>
       </c>
       <c r="C739" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>499</v>
+        <v>32</v>
       </c>
       <c r="C740" s="2">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
@@ -10765,10 +10777,10 @@
         <v>689</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C741" s="2">
-        <v>5000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
@@ -10776,10 +10788,10 @@
         <v>689</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>692</v>
+        <v>499</v>
       </c>
       <c r="C742" s="2">
-        <v>200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -10787,54 +10799,54 @@
         <v>689</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C743" s="2">
-        <v>200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C744" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="3" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C745" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>48</v>
+        <v>695</v>
       </c>
       <c r="C746" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>47</v>
+        <v>697</v>
       </c>
       <c r="C747" s="2">
-        <v>4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
@@ -10842,7 +10854,7 @@
         <v>698</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C748" s="2">
         <v>4</v>
@@ -10853,7 +10865,7 @@
         <v>698</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C749" s="2">
         <v>4</v>
@@ -10864,7 +10876,7 @@
         <v>698</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="C750" s="2">
         <v>4</v>
@@ -10875,7 +10887,7 @@
         <v>698</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="C751" s="2">
         <v>4</v>
@@ -10886,7 +10898,7 @@
         <v>698</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="C752" s="2">
         <v>4</v>
@@ -10894,10 +10906,10 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="C753" s="2">
         <v>4</v>
@@ -10905,10 +10917,10 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>556</v>
+        <v>97</v>
       </c>
       <c r="C754" s="2">
         <v>4</v>
@@ -10919,7 +10931,7 @@
         <v>699</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C755" s="2">
         <v>4</v>
@@ -10930,7 +10942,7 @@
         <v>699</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>53</v>
+        <v>556</v>
       </c>
       <c r="C756" s="2">
         <v>4</v>
@@ -10938,46 +10950,46 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="C757" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="C758" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="C759" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="C760" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
@@ -10985,7 +10997,7 @@
         <v>701</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C761" s="2">
         <v>2</v>
@@ -10996,7 +11008,7 @@
         <v>701</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C762" s="2">
         <v>2</v>
@@ -11007,7 +11019,7 @@
         <v>701</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C763" s="2">
         <v>2</v>
@@ -11018,10 +11030,10 @@
         <v>701</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>702</v>
+        <v>47</v>
       </c>
       <c r="C764" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
@@ -11029,10 +11041,10 @@
         <v>701</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C765" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
@@ -11040,10 +11052,10 @@
         <v>701</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C766" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
@@ -11051,10 +11063,10 @@
         <v>701</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="C767" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
@@ -11062,10 +11074,10 @@
         <v>701</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>221</v>
+        <v>703</v>
       </c>
       <c r="C768" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
@@ -11073,10 +11085,10 @@
         <v>701</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="C769" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
@@ -11084,10 +11096,10 @@
         <v>701</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>704</v>
+        <v>221</v>
       </c>
       <c r="C770" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
@@ -11095,7 +11107,7 @@
         <v>701</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C771" s="2">
         <v>2</v>
@@ -11103,32 +11115,32 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>173</v>
+        <v>704</v>
       </c>
       <c r="C772" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="3" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C773" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="C774" s="2">
         <v>1</v>
@@ -11136,10 +11148,10 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>710</v>
+        <v>32</v>
       </c>
       <c r="C775" s="2">
         <v>1</v>
@@ -11147,24 +11159,24 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C776" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>42</v>
+        <v>710</v>
       </c>
       <c r="C777" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
@@ -11172,10 +11184,10 @@
         <v>711</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C778" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
@@ -11183,10 +11195,10 @@
         <v>711</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>712</v>
+        <v>42</v>
       </c>
       <c r="C779" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
@@ -11194,10 +11206,10 @@
         <v>711</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>713</v>
+        <v>38</v>
       </c>
       <c r="C780" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
@@ -11205,7 +11217,7 @@
         <v>711</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>43</v>
+        <v>712</v>
       </c>
       <c r="C781" s="2">
         <v>2</v>
@@ -11216,7 +11228,7 @@
         <v>711</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C782" s="2">
         <v>2</v>
@@ -11227,32 +11239,32 @@
         <v>711</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>715</v>
+        <v>43</v>
       </c>
       <c r="C783" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C784" s="2">
-        <v>12000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C785" s="2">
-        <v>100000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
@@ -11260,51 +11272,51 @@
         <v>716</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C786" s="2">
-        <v>45000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C787" s="2">
-        <v>500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>51</v>
+        <v>719</v>
       </c>
       <c r="C788" s="2">
-        <v>1</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C789" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C790" s="2">
         <v>1</v>
@@ -11312,21 +11324,21 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C791" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C792" s="2">
         <v>1</v>
@@ -11334,32 +11346,32 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>81</v>
+        <v>727</v>
       </c>
       <c r="C793" s="2">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>438</v>
+        <v>55</v>
       </c>
       <c r="C794" s="2">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B795" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="B795" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="C795" s="2">
         <v>1</v>
@@ -11367,10 +11379,10 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C796" s="2">
         <v>1</v>
@@ -11378,7 +11390,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B797" s="3" t="s">
         <v>601</v>
@@ -11389,18 +11401,18 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="3" t="s">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C798" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="3" t="s">
-        <v>668</v>
+        <v>733</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>93</v>
@@ -11411,89 +11423,188 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="3" t="s">
-        <v>669</v>
+        <v>733</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>490</v>
+        <v>734</v>
       </c>
       <c r="C800" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="3" t="s">
-        <v>669</v>
+        <v>735</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C801" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="3" t="s">
-        <v>669</v>
+        <v>735</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="C802" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="3" t="s">
-        <v>669</v>
+        <v>736</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="C803" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="3" t="s">
-        <v>670</v>
+        <v>736</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C804" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="3" t="s">
-        <v>671</v>
+        <v>737</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="C805" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="3" t="s">
-        <v>708</v>
+        <v>737</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>58</v>
+        <v>438</v>
       </c>
       <c r="C806" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C807" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A808" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C808" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A809" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C809" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A810" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C810" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A811" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C811" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A812" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C812" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A813" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C813" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A814" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C814" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A815" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B807" s="3" t="s">
+      <c r="B815" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C807" s="2">
+      <c r="C815" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A816" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C816" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC31BE-016E-4D67-B12F-68FF1221B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47817A8E-0D2E-43A1-90F6-1DB15F879CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -2622,7 +2622,7 @@
   <dimension ref="A1:C816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:C816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47817A8E-0D2E-43A1-90F6-1DB15F879CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11625B5-C14F-48A3-AD1C-5F839CC49B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="757">
   <si>
     <t>Remessa</t>
   </si>
@@ -2049,15 +2049,6 @@
     <t>80267722</t>
   </si>
   <si>
-    <t>80267723</t>
-  </si>
-  <si>
-    <t>15263-DLO-I</t>
-  </si>
-  <si>
-    <t>11114-DLO-L</t>
-  </si>
-  <si>
     <t>80267724</t>
   </si>
   <si>
@@ -2094,21 +2085,6 @@
     <t>80267738</t>
   </si>
   <si>
-    <t>80267745</t>
-  </si>
-  <si>
-    <t>12417-YAG-I</t>
-  </si>
-  <si>
-    <t>12548-ROY-I</t>
-  </si>
-  <si>
-    <t>13848-YAG-I</t>
-  </si>
-  <si>
-    <t>30024-KMT-I</t>
-  </si>
-  <si>
     <t>80267746</t>
   </si>
   <si>
@@ -2121,9 +2097,6 @@
     <t>15586-TDK-N</t>
   </si>
   <si>
-    <t>80267751</t>
-  </si>
-  <si>
     <t>80267756</t>
   </si>
   <si>
@@ -2154,24 +2127,12 @@
     <t>84004859</t>
   </si>
   <si>
-    <t>80267767</t>
-  </si>
-  <si>
-    <t>20964-CTY-I</t>
-  </si>
-  <si>
-    <t>80267768</t>
-  </si>
-  <si>
     <t>10355-ARI-I</t>
   </si>
   <si>
     <t>10354-ARI-I</t>
   </si>
   <si>
-    <t>10403-ARI-I</t>
-  </si>
-  <si>
     <t>10497-ARI-I</t>
   </si>
   <si>
@@ -2239,6 +2200,102 @@
   </si>
   <si>
     <t>80267795</t>
+  </si>
+  <si>
+    <t>80267797</t>
+  </si>
+  <si>
+    <t>80267798</t>
+  </si>
+  <si>
+    <t>10356-ARI-I</t>
+  </si>
+  <si>
+    <t>80267800</t>
+  </si>
+  <si>
+    <t>80267801</t>
+  </si>
+  <si>
+    <t>80267804</t>
+  </si>
+  <si>
+    <t>80267805</t>
+  </si>
+  <si>
+    <t>80267809</t>
+  </si>
+  <si>
+    <t>33676-ATE-I</t>
+  </si>
+  <si>
+    <t>24410-ATE-I</t>
+  </si>
+  <si>
+    <t>80267811</t>
+  </si>
+  <si>
+    <t>10492-ARI-I</t>
+  </si>
+  <si>
+    <t>80267814</t>
+  </si>
+  <si>
+    <t>80267815</t>
+  </si>
+  <si>
+    <t>80267816</t>
+  </si>
+  <si>
+    <t>80267818</t>
+  </si>
+  <si>
+    <t>80267819</t>
+  </si>
+  <si>
+    <t>80267821</t>
+  </si>
+  <si>
+    <t>80267823</t>
+  </si>
+  <si>
+    <t>33667-ATE-I</t>
+  </si>
+  <si>
+    <t>33590-ATE-I</t>
+  </si>
+  <si>
+    <t>10004-CTV-I</t>
+  </si>
+  <si>
+    <t>10001-CTV-I</t>
+  </si>
+  <si>
+    <t>80267824</t>
+  </si>
+  <si>
+    <t>23365-ATE-I</t>
+  </si>
+  <si>
+    <t>80267825</t>
+  </si>
+  <si>
+    <t>80267826</t>
+  </si>
+  <si>
+    <t>80267829</t>
+  </si>
+  <si>
+    <t>23400-ATE-I</t>
+  </si>
+  <si>
+    <t>80267830</t>
+  </si>
+  <si>
+    <t>33665-ATE-I</t>
+  </si>
+  <si>
+    <t>33630-ATE-I</t>
   </si>
 </sst>
 </file>
@@ -2619,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C816"/>
+  <dimension ref="A1:C902"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C816"/>
+      <selection activeCell="A2" sqref="A2:C902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10634,7 +10691,7 @@
         <v>674</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>675</v>
+        <v>32</v>
       </c>
       <c r="C728" s="2">
         <v>1</v>
@@ -10642,10 +10699,10 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>676</v>
+        <v>32</v>
       </c>
       <c r="C729" s="2">
         <v>1</v>
@@ -10653,10 +10710,10 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C730" s="2">
         <v>1</v>
@@ -10664,7 +10721,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>32</v>
@@ -10675,10 +10732,10 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C732" s="2">
         <v>1</v>
@@ -10686,10 +10743,10 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B733" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="B733" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C733" s="2">
         <v>1</v>
@@ -10700,7 +10757,7 @@
         <v>681</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="C734" s="2">
         <v>1</v>
@@ -10711,7 +10768,7 @@
         <v>682</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>683</v>
+        <v>89</v>
       </c>
       <c r="C735" s="2">
         <v>1</v>
@@ -10719,10 +10776,10 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C736" s="2">
         <v>1</v>
@@ -10730,10 +10787,10 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C737" s="2">
         <v>1</v>
@@ -10741,10 +10798,10 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="C738" s="2">
         <v>1</v>
@@ -10752,10 +10809,10 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B739" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="B739" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C739" s="2">
         <v>1</v>
@@ -10766,73 +10823,73 @@
         <v>688</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>32</v>
+        <v>689</v>
       </c>
       <c r="C740" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>690</v>
+        <v>50</v>
       </c>
       <c r="C741" s="2">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="C742" s="2">
-        <v>10000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>691</v>
+        <v>52</v>
       </c>
       <c r="C743" s="2">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>692</v>
+        <v>53</v>
       </c>
       <c r="C744" s="2">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="3" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>693</v>
+        <v>238</v>
       </c>
       <c r="C745" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>695</v>
+        <v>237</v>
       </c>
       <c r="C746" s="2">
         <v>1</v>
@@ -10840,153 +10897,153 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>697</v>
+        <v>45</v>
       </c>
       <c r="C747" s="2">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C748" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C749" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C750" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C751" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>278</v>
+        <v>693</v>
       </c>
       <c r="C752" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="C753" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>97</v>
+        <v>694</v>
       </c>
       <c r="C754" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="C755" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>556</v>
+        <v>221</v>
       </c>
       <c r="C756" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C757" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>53</v>
+        <v>695</v>
       </c>
       <c r="C758" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="C759" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="C760" s="2">
         <v>1</v>
@@ -10994,98 +11051,98 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C761" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C762" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>48</v>
+        <v>704</v>
       </c>
       <c r="C763" s="2">
-        <v>2</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>47</v>
+        <v>705</v>
       </c>
       <c r="C764" s="2">
-        <v>2</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>49</v>
+        <v>706</v>
       </c>
       <c r="C765" s="2">
-        <v>2</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="3" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C766" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="3" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C767" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="3" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="C768" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="3" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="C769" s="2">
         <v>1</v>
@@ -11093,65 +11150,65 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="3" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>221</v>
+        <v>714</v>
       </c>
       <c r="C770" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="3" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C771" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="3" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="C772" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="3" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>94</v>
+        <v>718</v>
       </c>
       <c r="C773" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="3" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>173</v>
+        <v>601</v>
       </c>
       <c r="C774" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="3" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C775" s="2">
         <v>1</v>
@@ -11159,10 +11216,10 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="3" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C776" s="2">
         <v>1</v>
@@ -11170,10 +11227,10 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="3" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="C777" s="2">
         <v>1</v>
@@ -11181,167 +11238,167 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="3" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C778" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="3" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="C779" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="3" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="C780" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="3" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>712</v>
+        <v>89</v>
       </c>
       <c r="C781" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="3" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>713</v>
+        <v>81</v>
       </c>
       <c r="C782" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="3" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>43</v>
+        <v>438</v>
       </c>
       <c r="C783" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="3" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>714</v>
+        <v>237</v>
       </c>
       <c r="C784" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="3" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>715</v>
+        <v>444</v>
       </c>
       <c r="C785" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="3" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>717</v>
+        <v>438</v>
       </c>
       <c r="C786" s="2">
-        <v>12000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="3" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>718</v>
+        <v>446</v>
       </c>
       <c r="C787" s="2">
-        <v>100000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="3" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>719</v>
+        <v>3</v>
       </c>
       <c r="C788" s="2">
-        <v>45000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="3" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>721</v>
+        <v>78</v>
       </c>
       <c r="C789" s="2">
-        <v>500</v>
+        <v>12</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>51</v>
+        <v>612</v>
       </c>
       <c r="C790" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="3" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>724</v>
+        <v>76</v>
       </c>
       <c r="C791" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C792" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
@@ -11349,172 +11406,172 @@
         <v>726</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>727</v>
+        <v>164</v>
       </c>
       <c r="C793" s="2">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C794" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>730</v>
+        <v>491</v>
       </c>
       <c r="C795" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>731</v>
+        <v>29</v>
       </c>
       <c r="C796" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="3" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>601</v>
+        <v>70</v>
       </c>
       <c r="C797" s="2">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="3" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>92</v>
+        <v>727</v>
       </c>
       <c r="C798" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="3" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C799" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="3" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>734</v>
+        <v>71</v>
       </c>
       <c r="C800" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="3" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="C801" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="3" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="C802" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="3" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>438</v>
+        <v>3</v>
       </c>
       <c r="C803" s="2">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>89</v>
+        <v>436</v>
       </c>
       <c r="C804" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C805" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="C806" s="2">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="3" t="s">
-        <v>667</v>
+        <v>732</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="C807" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="3" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>93</v>
+        <v>733</v>
       </c>
       <c r="C808" s="2">
         <v>1</v>
@@ -11522,89 +11579,1035 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="3" t="s">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>490</v>
+        <v>734</v>
       </c>
       <c r="C809" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="3" t="s">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>3</v>
+        <v>616</v>
       </c>
       <c r="C810" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="3" t="s">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C811" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="3" t="s">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C812" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="3" t="s">
-        <v>670</v>
+        <v>732</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C813" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="3" t="s">
-        <v>671</v>
+        <v>732</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>313</v>
+        <v>617</v>
       </c>
       <c r="C814" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="3" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>58</v>
+        <v>241</v>
       </c>
       <c r="C815" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="3" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B816" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C816" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A817" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C817" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A818" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C818" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A819" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C819" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A820" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C820" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A821" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C821" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A822" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C822" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A823" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C823" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A824" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C824" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A825" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C825" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A826" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C826" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A827" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C827" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A828" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C828" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A829" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C829" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A830" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C830" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A831" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C831" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A832" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C832" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A833" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C833" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A834" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C834" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A835" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C835" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A836" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C836" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A837" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C837" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A838" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C838" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A839" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C839" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A840" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C840" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A841" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C841" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A842" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C842" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A843" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C843" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A844" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C844" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A845" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C845" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A846" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C846" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A847" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C847" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A848" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C848" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A849" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C849" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A850" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C850" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A851" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C851" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A852" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C852" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A853" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C853" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A854" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C854" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A855" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C855" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A856" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C856" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A857" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B857" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C857" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A858" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B858" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C858" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A859" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B859" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C859" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A860" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B860" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C860" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A861" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B861" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C861" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A862" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C862" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A863" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B863" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C863" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A864" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B864" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C864" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A865" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B865" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C865" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A866" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B866" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C866" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A867" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B867" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C867" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A868" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B868" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C868" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A869" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B869" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C869" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A870" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B870" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C870" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A871" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B871" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C871" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A872" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B872" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C872" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A873" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B873" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C873" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A874" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B874" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C874" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A875" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B875" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C875" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A876" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B876" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C876" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A877" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B877" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C877" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A878" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B878" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C878" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A879" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B879" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C879" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A880" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B880" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C880" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A881" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B881" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C881" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A882" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B882" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C882" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A883" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B883" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C883" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A884" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B884" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C884" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A885" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B885" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C885" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A886" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B886" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C886" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A887" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B887" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C887" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A888" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B888" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C888" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A889" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B889" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C889" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A890" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B890" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C890" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A891" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B891" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C891" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A892" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B892" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C892" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A893" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B893" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C893" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A894" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B894" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C894" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A895" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B895" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C895" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A896" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B896" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C896" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A897" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B897" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C897" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A898" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B898" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C898" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A899" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B899" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C899" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A900" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B900" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C900" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A901" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B901" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C816" s="2">
+      <c r="C901" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A902" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B902" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C902" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2C68C8-F69A-4CB6-9B10-C1637B5C8711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FCBCDB-F1FC-4FC0-BB61-B4593AEE49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="622">
   <si>
     <t>Remessa</t>
   </si>
@@ -1890,6 +1890,21 @@
   </si>
   <si>
     <t>80267921</t>
+  </si>
+  <si>
+    <t>80267923</t>
+  </si>
+  <si>
+    <t>80267924</t>
+  </si>
+  <si>
+    <t>80267927</t>
+  </si>
+  <si>
+    <t>33660-ATE-I</t>
+  </si>
+  <si>
+    <t>10029-ATE-I</t>
   </si>
 </sst>
 </file>
@@ -2287,7 +2302,7 @@
   <dimension ref="A1:C969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C839"/>
+      <selection activeCell="A2" sqref="A2:C853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11418,21 +11433,21 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="3" t="s">
-        <v>278</v>
+        <v>617</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C830" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="3" t="s">
-        <v>423</v>
+        <v>618</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>424</v>
+        <v>3</v>
       </c>
       <c r="C831" s="2">
         <v>1</v>
@@ -11440,161 +11455,245 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="3" t="s">
-        <v>425</v>
+        <v>619</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="C832" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="3" t="s">
-        <v>425</v>
+        <v>619</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="C833" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="3" t="s">
-        <v>425</v>
+        <v>619</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="C834" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="3" t="s">
-        <v>425</v>
+        <v>619</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="C835" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" s="3" t="s">
-        <v>426</v>
+        <v>619</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>361</v>
+        <v>615</v>
       </c>
       <c r="C836" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="3" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="C837" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="3" t="s">
-        <v>567</v>
+        <v>619</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="C838" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C839" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A840" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C840" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A841" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C841" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A842" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C842" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A843" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C843" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A844" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C844" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A845" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C845" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A846" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C846" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A847" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C847" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A848" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C848" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A849" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C849" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A850" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C850" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A851" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C851" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A852" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B839" s="3" t="s">
+      <c r="B852" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C839" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A840" s="3"/>
-      <c r="B840" s="3"/>
-      <c r="C840" s="2"/>
-    </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A841" s="3"/>
-      <c r="B841" s="3"/>
-      <c r="C841" s="2"/>
-    </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A842" s="3"/>
-      <c r="B842" s="3"/>
-      <c r="C842" s="2"/>
-    </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A843" s="3"/>
-      <c r="B843" s="3"/>
-      <c r="C843" s="2"/>
-    </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A844" s="3"/>
-      <c r="B844" s="3"/>
-      <c r="C844" s="2"/>
-    </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A845" s="3"/>
-      <c r="B845" s="3"/>
-      <c r="C845" s="2"/>
-    </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A846" s="3"/>
-      <c r="B846" s="3"/>
-      <c r="C846" s="2"/>
-    </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A847" s="3"/>
-      <c r="B847" s="3"/>
-      <c r="C847" s="2"/>
-    </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A848" s="3"/>
-      <c r="B848" s="3"/>
-      <c r="C848" s="2"/>
-    </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A849" s="3"/>
-      <c r="B849" s="3"/>
-      <c r="C849" s="2"/>
-    </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A850" s="3"/>
-      <c r="B850" s="3"/>
-      <c r="C850" s="2"/>
-    </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A851" s="3"/>
-      <c r="B851" s="3"/>
-      <c r="C851" s="2"/>
-    </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A852" s="3"/>
-      <c r="B852" s="3"/>
-      <c r="C852" s="2"/>
+      <c r="C852" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A853" s="3"/>
-      <c r="B853" s="3"/>
-      <c r="C853" s="2"/>
+      <c r="A853" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C853" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" s="3"/>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recebimento\Desktop\Sistema rodando Conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F079CC-1BE6-426C-9303-4472823A574B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDA670-8644-47D8-9E47-3478C8C4203D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4641836E-B9FF-44D8-BBCE-27E0CBF8C620}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="1178">
   <si>
     <t>Remessa</t>
   </si>
@@ -2916,9 +2916,6 @@
     <t>10654-BLB-I</t>
   </si>
   <si>
-    <t>80267617</t>
-  </si>
-  <si>
     <t>21509-NZX-I</t>
   </si>
   <si>
@@ -2940,12 +2937,6 @@
     <t>23432-GPB-I</t>
   </si>
   <si>
-    <t>10381-BLB-I</t>
-  </si>
-  <si>
-    <t>10378-BLB-I</t>
-  </si>
-  <si>
     <t>21501-NZX-I</t>
   </si>
   <si>
@@ -3475,6 +3466,99 @@
   </si>
   <si>
     <t>80268019</t>
+  </si>
+  <si>
+    <t>80268023</t>
+  </si>
+  <si>
+    <t>23026-WEN-I</t>
+  </si>
+  <si>
+    <t>80268025</t>
+  </si>
+  <si>
+    <t>40375-TDK-N</t>
+  </si>
+  <si>
+    <t>80268026</t>
+  </si>
+  <si>
+    <t>15308-DLO-I</t>
+  </si>
+  <si>
+    <t>80268027</t>
+  </si>
+  <si>
+    <t>10442-ARI-I</t>
+  </si>
+  <si>
+    <t>80268029</t>
+  </si>
+  <si>
+    <t>16536-YAG-I</t>
+  </si>
+  <si>
+    <t>30022-ROH-I</t>
+  </si>
+  <si>
+    <t>80268033</t>
+  </si>
+  <si>
+    <t>20083-CTY-I</t>
+  </si>
+  <si>
+    <t>80268034</t>
+  </si>
+  <si>
+    <t>33699-ATE-I</t>
+  </si>
+  <si>
+    <t>33567-ATE-I</t>
+  </si>
+  <si>
+    <t>33568-ATE-I</t>
+  </si>
+  <si>
+    <t>33538-ATE-I</t>
+  </si>
+  <si>
+    <t>33536-ATE-I</t>
+  </si>
+  <si>
+    <t>80268035</t>
+  </si>
+  <si>
+    <t>80268037</t>
+  </si>
+  <si>
+    <t>80268038</t>
+  </si>
+  <si>
+    <t>80268039</t>
+  </si>
+  <si>
+    <t>80268040</t>
+  </si>
+  <si>
+    <t>33610-ATE-I</t>
+  </si>
+  <si>
+    <t>80268044</t>
+  </si>
+  <si>
+    <t>21498-NZX-I</t>
+  </si>
+  <si>
+    <t>23402-GPB-I</t>
+  </si>
+  <si>
+    <t>80268045</t>
+  </si>
+  <si>
+    <t>10655-BLB-I</t>
+  </si>
+  <si>
+    <t>10659-BLB-I</t>
   </si>
 </sst>
 </file>
@@ -3855,10 +3939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F970C0-F198-4512-BBDE-65EE74554B32}">
-  <dimension ref="A1:C1619"/>
+  <dimension ref="A1:C1658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C1658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14551,76 +14635,76 @@
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A972" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B972" s="3" t="s">
-        <v>602</v>
+        <v>74</v>
       </c>
       <c r="C972" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B973" s="3" t="s">
-        <v>30</v>
+        <v>613</v>
       </c>
       <c r="C973" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A974" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B974" s="3" t="s">
-        <v>669</v>
+        <v>366</v>
       </c>
       <c r="C974" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A975" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B975" s="3" t="s">
-        <v>964</v>
+        <v>3</v>
       </c>
       <c r="C975" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A976" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B976" s="3" t="s">
-        <v>965</v>
+        <v>371</v>
       </c>
       <c r="C976" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A977" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>966</v>
+        <v>345</v>
       </c>
       <c r="C977" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A978" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>967</v>
+        <v>40</v>
       </c>
       <c r="C978" s="2">
         <v>1</v>
@@ -14628,76 +14712,76 @@
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A979" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B979" s="3" t="s">
-        <v>968</v>
+        <v>41</v>
       </c>
       <c r="C979" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="C980" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A981" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B981" s="3" t="s">
-        <v>969</v>
+        <v>474</v>
       </c>
       <c r="C981" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A982" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B982" s="3" t="s">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="C982" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A983" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B983" s="3" t="s">
-        <v>971</v>
+        <v>75</v>
       </c>
       <c r="C983" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A984" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B984" s="3" t="s">
-        <v>972</v>
+        <v>362</v>
       </c>
       <c r="C984" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A985" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B985" s="3" t="s">
-        <v>362</v>
+        <v>865</v>
       </c>
       <c r="C985" s="2">
         <v>1</v>
@@ -14705,65 +14789,65 @@
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A986" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B986" s="3" t="s">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="C986" s="2">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A987" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B987" s="3" t="s">
-        <v>973</v>
+        <v>451</v>
       </c>
       <c r="C987" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A988" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B988" s="3" t="s">
-        <v>894</v>
+        <v>452</v>
       </c>
       <c r="C988" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A989" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B989" s="3" t="s">
-        <v>974</v>
+        <v>454</v>
       </c>
       <c r="C989" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A990" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B990" s="3" t="s">
-        <v>975</v>
+        <v>272</v>
       </c>
       <c r="C990" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A991" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B991" s="3" t="s">
-        <v>976</v>
+        <v>455</v>
       </c>
       <c r="C991" s="2">
         <v>1</v>
@@ -14771,21 +14855,21 @@
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A992" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B992" s="3" t="s">
-        <v>970</v>
+        <v>57</v>
       </c>
       <c r="C992" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A993" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B993" s="3" t="s">
-        <v>977</v>
+        <v>457</v>
       </c>
       <c r="C993" s="2">
         <v>1</v>
@@ -14793,10 +14877,10 @@
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A994" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B994" s="3" t="s">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="C994" s="2">
         <v>1</v>
@@ -14804,10 +14888,10 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A995" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B995" s="3" t="s">
-        <v>613</v>
+        <v>58</v>
       </c>
       <c r="C995" s="2">
         <v>1</v>
@@ -14815,109 +14899,109 @@
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A996" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B996" s="3" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="C996" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A997" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>3</v>
+        <v>976</v>
       </c>
       <c r="C997" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A998" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B998" s="3" t="s">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="C998" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A999" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B999" s="3" t="s">
-        <v>345</v>
+        <v>613</v>
       </c>
       <c r="C999" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1000" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1000" s="3" t="s">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="C1000" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1001" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1001" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1001" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1002" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1002" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C1002" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1003" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1003" s="3" t="s">
         <v>474</v>
       </c>
       <c r="C1003" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1004" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1004" s="3" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C1004" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1005" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1005" s="3" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C1005" s="2">
         <v>2</v>
@@ -14925,7 +15009,7 @@
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1006" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1006" s="3" t="s">
         <v>362</v>
@@ -14939,10 +15023,10 @@
         <v>978</v>
       </c>
       <c r="B1007" s="3" t="s">
-        <v>865</v>
+        <v>366</v>
       </c>
       <c r="C1007" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
@@ -14950,10 +15034,10 @@
         <v>978</v>
       </c>
       <c r="B1008" s="3" t="s">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="C1008" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
@@ -14961,10 +15045,10 @@
         <v>978</v>
       </c>
       <c r="B1009" s="3" t="s">
-        <v>451</v>
+        <v>371</v>
       </c>
       <c r="C1009" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
@@ -14972,10 +15056,10 @@
         <v>978</v>
       </c>
       <c r="B1010" s="3" t="s">
-        <v>452</v>
+        <v>75</v>
       </c>
       <c r="C1010" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
@@ -14983,62 +15067,62 @@
         <v>978</v>
       </c>
       <c r="B1011" s="3" t="s">
-        <v>454</v>
+        <v>272</v>
       </c>
       <c r="C1011" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1012" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1012" s="3" t="s">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="C1012" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1013" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1013" s="3" t="s">
-        <v>455</v>
+        <v>69</v>
       </c>
       <c r="C1013" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1014" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1014" s="3" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C1014" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1015" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1015" s="3" t="s">
-        <v>457</v>
+        <v>980</v>
       </c>
       <c r="C1015" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1016" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1016" s="3" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="C1016" s="2">
         <v>1</v>
@@ -15046,10 +15130,10 @@
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1017" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1017" s="3" t="s">
-        <v>58</v>
+        <v>967</v>
       </c>
       <c r="C1017" s="2">
         <v>1</v>
@@ -15057,186 +15141,186 @@
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1018" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1018" s="3" t="s">
-        <v>427</v>
+        <v>577</v>
       </c>
       <c r="C1018" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1019" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1019" s="3" t="s">
-        <v>979</v>
+        <v>294</v>
       </c>
       <c r="C1019" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1020" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B1020" s="3" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="C1020" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1021" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B1021" s="3" t="s">
-        <v>613</v>
+        <v>80</v>
       </c>
       <c r="C1021" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1022" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B1022" s="3" t="s">
-        <v>345</v>
+        <v>981</v>
       </c>
       <c r="C1022" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1023" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B1023" s="3" t="s">
-        <v>40</v>
+        <v>969</v>
       </c>
       <c r="C1023" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1024" s="3" t="s">
-        <v>980</v>
+        <v>81</v>
       </c>
       <c r="B1024" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C1024" s="2">
-        <v>4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1025" s="3" t="s">
-        <v>980</v>
+        <v>81</v>
       </c>
       <c r="B1025" s="3" t="s">
-        <v>474</v>
+        <v>83</v>
       </c>
       <c r="C1025" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1026" s="3" t="s">
-        <v>980</v>
+        <v>81</v>
       </c>
       <c r="B1026" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C1026" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1027" s="3" t="s">
-        <v>980</v>
+        <v>81</v>
       </c>
       <c r="B1027" s="3" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C1027" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1028" s="3" t="s">
-        <v>980</v>
+        <v>81</v>
       </c>
       <c r="B1028" s="3" t="s">
-        <v>362</v>
+        <v>84</v>
       </c>
       <c r="C1028" s="2">
-        <v>2</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1029" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B1029" s="3" t="s">
-        <v>366</v>
+        <v>983</v>
       </c>
       <c r="C1029" s="2">
-        <v>2</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1030" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B1030" s="3" t="s">
-        <v>3</v>
+        <v>984</v>
       </c>
       <c r="C1030" s="2">
-        <v>4</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1031" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B1031" s="3" t="s">
-        <v>371</v>
+        <v>985</v>
       </c>
       <c r="C1031" s="2">
-        <v>4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1032" s="3" t="s">
-        <v>981</v>
+        <v>85</v>
       </c>
       <c r="B1032" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C1032" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1033" s="3" t="s">
-        <v>981</v>
+        <v>86</v>
       </c>
       <c r="B1033" s="3" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="C1033" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1034" s="3" t="s">
-        <v>982</v>
+        <v>87</v>
       </c>
       <c r="B1034" s="3" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C1034" s="2">
         <v>1</v>
@@ -15244,43 +15328,43 @@
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1035" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B1035" s="3" t="s">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C1035" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1036" s="3" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="B1036" s="3" t="s">
-        <v>18</v>
+        <v>553</v>
       </c>
       <c r="C1036" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1037" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="B1037" s="3" t="s">
-        <v>983</v>
+        <v>34</v>
       </c>
       <c r="C1037" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1038" s="3" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="B1038" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C1038" s="2">
         <v>1</v>
@@ -15288,10 +15372,10 @@
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1039" s="3" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="B1039" s="3" t="s">
-        <v>968</v>
+        <v>38</v>
       </c>
       <c r="C1039" s="2">
         <v>1</v>
@@ -15299,164 +15383,164 @@
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1040" s="3" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="B1040" s="3" t="s">
-        <v>577</v>
+        <v>65</v>
       </c>
       <c r="C1040" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1041" s="3" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="B1041" s="3" t="s">
-        <v>294</v>
+        <v>819</v>
       </c>
       <c r="C1041" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1042" s="3" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="B1042" s="3" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="C1042" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1043" s="3" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="B1043" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C1043" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1044" s="3" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="B1044" s="3" t="s">
-        <v>984</v>
+        <v>821</v>
       </c>
       <c r="C1044" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1045" s="3" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="B1045" s="3" t="s">
-        <v>970</v>
+        <v>588</v>
       </c>
       <c r="C1045" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1046" s="3" t="s">
-        <v>81</v>
+        <v>991</v>
       </c>
       <c r="B1046" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C1046" s="2">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1047" s="3" t="s">
-        <v>81</v>
+        <v>991</v>
       </c>
       <c r="B1047" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C1047" s="2">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1048" s="3" t="s">
-        <v>81</v>
+        <v>992</v>
       </c>
       <c r="B1048" s="3" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="C1048" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1049" s="3" t="s">
-        <v>81</v>
+        <v>993</v>
       </c>
       <c r="B1049" s="3" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="C1049" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1050" s="3" t="s">
-        <v>81</v>
+        <v>994</v>
       </c>
       <c r="B1050" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C1050" s="2">
-        <v>320</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1051" s="3" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="B1051" s="3" t="s">
-        <v>986</v>
+        <v>360</v>
       </c>
       <c r="C1051" s="2">
-        <v>3000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1052" s="3" t="s">
-        <v>985</v>
+        <v>88</v>
       </c>
       <c r="B1052" s="3" t="s">
-        <v>987</v>
+        <v>89</v>
       </c>
       <c r="C1052" s="2">
-        <v>3000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1053" s="3" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="B1053" s="3" t="s">
-        <v>988</v>
+        <v>544</v>
       </c>
       <c r="C1053" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1054" s="3" t="s">
-        <v>85</v>
+        <v>997</v>
       </c>
       <c r="B1054" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C1054" s="2">
         <v>1</v>
@@ -15464,10 +15548,10 @@
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1055" s="3" t="s">
-        <v>86</v>
+        <v>998</v>
       </c>
       <c r="B1055" s="3" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="C1055" s="2">
         <v>1</v>
@@ -15475,10 +15559,10 @@
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1056" s="3" t="s">
-        <v>87</v>
+        <v>999</v>
       </c>
       <c r="B1056" s="3" t="s">
-        <v>30</v>
+        <v>932</v>
       </c>
       <c r="C1056" s="2">
         <v>1</v>
@@ -15486,10 +15570,10 @@
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1057" s="3" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="B1057" s="3" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="C1057" s="2">
         <v>1</v>
@@ -15497,32 +15581,32 @@
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1058" s="3" t="s">
-        <v>990</v>
+        <v>91</v>
       </c>
       <c r="B1058" s="3" t="s">
-        <v>553</v>
+        <v>46</v>
       </c>
       <c r="C1058" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1059" s="3" t="s">
-        <v>991</v>
+        <v>91</v>
       </c>
       <c r="B1059" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C1059" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1060" s="3" t="s">
-        <v>992</v>
+        <v>92</v>
       </c>
       <c r="B1060" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C1060" s="2">
         <v>1</v>
@@ -15530,10 +15614,10 @@
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1061" s="3" t="s">
-        <v>993</v>
+        <v>93</v>
       </c>
       <c r="B1061" s="3" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C1061" s="2">
         <v>1</v>
@@ -15541,164 +15625,164 @@
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1062" s="3" t="s">
-        <v>994</v>
+        <v>95</v>
       </c>
       <c r="B1062" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C1062" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1063" s="3" t="s">
-        <v>994</v>
+        <v>96</v>
       </c>
       <c r="B1063" s="3" t="s">
-        <v>819</v>
+        <v>45</v>
       </c>
       <c r="C1063" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1064" s="3" t="s">
-        <v>994</v>
+        <v>97</v>
       </c>
       <c r="B1064" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C1064" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1065" s="3" t="s">
-        <v>994</v>
+        <v>98</v>
       </c>
       <c r="B1065" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C1065" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1066" s="3" t="s">
-        <v>994</v>
+        <v>99</v>
       </c>
       <c r="B1066" s="3" t="s">
-        <v>821</v>
+        <v>16</v>
       </c>
       <c r="C1066" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1067" s="3" t="s">
-        <v>994</v>
+        <v>100</v>
       </c>
       <c r="B1067" s="3" t="s">
-        <v>588</v>
+        <v>57</v>
       </c>
       <c r="C1067" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1068" s="3" t="s">
-        <v>994</v>
+        <v>101</v>
       </c>
       <c r="B1068" s="3" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C1068" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1069" s="3" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="B1069" s="3" t="s">
-        <v>73</v>
+        <v>965</v>
       </c>
       <c r="C1069" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1070" s="3" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="B1070" s="3" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="C1070" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1071" s="3" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="B1071" s="3" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="C1071" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1072" s="3" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B1072" s="3" t="s">
-        <v>28</v>
+        <v>374</v>
       </c>
       <c r="C1072" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1073" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B1073" s="3" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="C1073" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1074" s="3" t="s">
-        <v>88</v>
+        <v>1001</v>
       </c>
       <c r="B1074" s="3" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="C1074" s="2">
-        <v>8000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1075" s="3" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B1075" s="3" t="s">
-        <v>544</v>
+        <v>70</v>
       </c>
       <c r="C1075" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1076" s="3" t="s">
-        <v>1000</v>
+        <v>102</v>
       </c>
       <c r="B1076" s="3" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C1076" s="2">
         <v>1</v>
@@ -15706,10 +15790,10 @@
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1077" s="3" t="s">
-        <v>1001</v>
+        <v>103</v>
       </c>
       <c r="B1077" s="3" t="s">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="C1077" s="2">
         <v>1</v>
@@ -15717,10 +15801,10 @@
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1078" s="3" t="s">
-        <v>1002</v>
+        <v>104</v>
       </c>
       <c r="B1078" s="3" t="s">
-        <v>932</v>
+        <v>60</v>
       </c>
       <c r="C1078" s="2">
         <v>1</v>
@@ -15728,32 +15812,32 @@
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1079" s="3" t="s">
-        <v>1003</v>
+        <v>105</v>
       </c>
       <c r="B1079" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C1079" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1080" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B1080" s="3" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C1080" s="2">
-        <v>10</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1081" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B1081" s="3" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C1081" s="2">
         <v>10</v>
@@ -15761,21 +15845,21 @@
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1082" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B1082" s="3" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C1082" s="2">
-        <v>1</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1083" s="3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B1083" s="3" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="C1083" s="2">
         <v>1</v>
@@ -15783,10 +15867,10 @@
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1084" s="3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B1084" s="3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C1084" s="2">
         <v>1</v>
@@ -15794,10 +15878,10 @@
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1085" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B1085" s="3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C1085" s="2">
         <v>1</v>
@@ -15805,10 +15889,10 @@
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1086" s="3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B1086" s="3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C1086" s="2">
         <v>1</v>
@@ -15816,10 +15900,10 @@
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1087" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B1087" s="3" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C1087" s="2">
         <v>1</v>
@@ -15827,7 +15911,7 @@
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1088" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B1088" s="3" t="s">
         <v>16</v>
@@ -15838,10 +15922,10 @@
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1089" s="3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B1089" s="3" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C1089" s="2">
         <v>1</v>
@@ -15849,10 +15933,10 @@
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1090" s="3" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B1090" s="3" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C1090" s="2">
         <v>1</v>
@@ -15860,164 +15944,164 @@
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1091" s="3" t="s">
-        <v>1004</v>
+        <v>122</v>
       </c>
       <c r="B1091" s="3" t="s">
-        <v>966</v>
+        <v>56</v>
       </c>
       <c r="C1091" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1092" s="3" t="s">
-        <v>1004</v>
+        <v>123</v>
       </c>
       <c r="B1092" s="3" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="C1092" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1093" s="3" t="s">
-        <v>1004</v>
+        <v>124</v>
       </c>
       <c r="B1093" s="3" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="C1093" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1094" s="3" t="s">
-        <v>1004</v>
+        <v>125</v>
       </c>
       <c r="B1094" s="3" t="s">
-        <v>374</v>
+        <v>49</v>
       </c>
       <c r="C1094" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1095" s="3" t="s">
-        <v>1004</v>
+        <v>126</v>
       </c>
       <c r="B1095" s="3" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="C1095" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1096" s="3" t="s">
-        <v>1004</v>
+        <v>127</v>
       </c>
       <c r="B1096" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C1096" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1097" s="3" t="s">
-        <v>1004</v>
+        <v>129</v>
       </c>
       <c r="B1097" s="3" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C1097" s="2">
-        <v>3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1098" s="3" t="s">
-        <v>102</v>
+        <v>1002</v>
       </c>
       <c r="B1098" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C1098" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1099" s="3" t="s">
-        <v>103</v>
+        <v>1002</v>
       </c>
       <c r="B1099" s="3" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C1099" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1100" s="3" t="s">
-        <v>104</v>
+        <v>1002</v>
       </c>
       <c r="B1100" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C1100" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1101" s="3" t="s">
-        <v>105</v>
+        <v>1002</v>
       </c>
       <c r="B1101" s="3" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="C1101" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1102" s="3" t="s">
-        <v>107</v>
+        <v>1002</v>
       </c>
       <c r="B1102" s="3" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="C1102" s="2">
-        <v>4000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1103" s="3" t="s">
-        <v>109</v>
+        <v>1002</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="C1103" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1104" s="3" t="s">
-        <v>111</v>
+        <v>1002</v>
       </c>
       <c r="B1104" s="3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C1104" s="2">
-        <v>20000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1105" s="3" t="s">
-        <v>113</v>
+        <v>1002</v>
       </c>
       <c r="B1105" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C1105" s="2">
         <v>1</v>
@@ -16025,10 +16109,10 @@
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1106" s="3" t="s">
-        <v>114</v>
+        <v>1002</v>
       </c>
       <c r="B1106" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C1106" s="2">
         <v>1</v>
@@ -16036,10 +16120,10 @@
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1107" s="3" t="s">
-        <v>115</v>
+        <v>1002</v>
       </c>
       <c r="B1107" s="3" t="s">
-        <v>16</v>
+        <v>602</v>
       </c>
       <c r="C1107" s="2">
         <v>1</v>
@@ -16047,54 +16131,54 @@
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1108" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B1108" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C1108" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1109" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B1109" s="3" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C1109" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1110" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B1110" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C1110" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1111" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B1111" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C1111" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1112" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B1112" s="3" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C1112" s="2">
         <v>1</v>
@@ -16102,10 +16186,10 @@
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1113" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B1113" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C1113" s="2">
         <v>1</v>
@@ -16113,76 +16197,76 @@
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1114" s="3" t="s">
-        <v>123</v>
+        <v>1003</v>
       </c>
       <c r="B1114" s="3" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="C1114" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1115" s="3" t="s">
-        <v>124</v>
+        <v>1003</v>
       </c>
       <c r="B1115" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C1115" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1116" s="3" t="s">
-        <v>125</v>
+        <v>1003</v>
       </c>
       <c r="B1116" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C1116" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1117" s="3" t="s">
-        <v>126</v>
+        <v>1003</v>
       </c>
       <c r="B1117" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C1117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1118" s="3" t="s">
-        <v>127</v>
+        <v>1003</v>
       </c>
       <c r="B1118" s="3" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="C1118" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1119" s="3" t="s">
-        <v>129</v>
+        <v>1003</v>
       </c>
       <c r="B1119" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C1119" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1120" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1120" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1120" s="2">
         <v>3</v>
@@ -16190,65 +16274,65 @@
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1121" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1121" s="3" t="s">
-        <v>77</v>
+        <v>1004</v>
       </c>
       <c r="C1121" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1122" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1122" s="3" t="s">
-        <v>31</v>
+        <v>604</v>
       </c>
       <c r="C1122" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1123" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1123" s="3" t="s">
-        <v>32</v>
+        <v>602</v>
       </c>
       <c r="C1123" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1124" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1124" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C1124" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1125" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1125" s="3" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="C1125" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1126" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1126" s="3" t="s">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="C1126" s="2">
         <v>2</v>
@@ -16256,10 +16340,10 @@
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1127" s="3" t="s">
-        <v>1005</v>
+        <v>134</v>
       </c>
       <c r="B1127" s="3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C1127" s="2">
         <v>1</v>
@@ -16267,10 +16351,10 @@
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1128" s="3" t="s">
-        <v>1005</v>
+        <v>135</v>
       </c>
       <c r="B1128" s="3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C1128" s="2">
         <v>1</v>
@@ -16278,10 +16362,10 @@
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1129" s="3" t="s">
-        <v>1005</v>
+        <v>136</v>
       </c>
       <c r="B1129" s="3" t="s">
-        <v>602</v>
+        <v>20</v>
       </c>
       <c r="C1129" s="2">
         <v>1</v>
@@ -16289,54 +16373,54 @@
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1130" s="3" t="s">
-        <v>131</v>
+        <v>1005</v>
       </c>
       <c r="B1130" s="3" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="C1130" s="2">
-        <v>4</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1131" s="3" t="s">
-        <v>131</v>
+        <v>1005</v>
       </c>
       <c r="B1131" s="3" t="s">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="C1131" s="2">
-        <v>4</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1132" s="3" t="s">
-        <v>131</v>
+        <v>1005</v>
       </c>
       <c r="B1132" s="3" t="s">
-        <v>31</v>
+        <v>433</v>
       </c>
       <c r="C1132" s="2">
-        <v>4</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1133" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B1133" s="3" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C1133" s="2">
-        <v>4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1134" s="3" t="s">
-        <v>132</v>
+        <v>1006</v>
       </c>
       <c r="B1134" s="3" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C1134" s="2">
         <v>1</v>
@@ -16344,10 +16428,10 @@
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1135" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B1135" s="3" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="C1135" s="2">
         <v>1</v>
@@ -16355,98 +16439,98 @@
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1136" s="3" t="s">
-        <v>1006</v>
+        <v>142</v>
       </c>
       <c r="B1136" s="3" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="C1136" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1137" s="3" t="s">
-        <v>1006</v>
+        <v>143</v>
       </c>
       <c r="B1137" s="3" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="C1137" s="2">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1138" s="3" t="s">
-        <v>1006</v>
+        <v>145</v>
       </c>
       <c r="B1138" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C1138" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1139" s="3" t="s">
-        <v>1006</v>
+        <v>146</v>
       </c>
       <c r="B1139" s="3" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="C1139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1140" s="3" t="s">
-        <v>1006</v>
+        <v>146</v>
       </c>
       <c r="B1140" s="3" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="C1140" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1141" s="3" t="s">
-        <v>1006</v>
+        <v>149</v>
       </c>
       <c r="B1141" s="3" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C1141" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1142" s="3" t="s">
-        <v>1006</v>
+        <v>150</v>
       </c>
       <c r="B1142" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1142" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1143" s="3" t="s">
-        <v>1006</v>
+        <v>150</v>
       </c>
       <c r="B1143" s="3" t="s">
-        <v>1007</v>
+        <v>50</v>
       </c>
       <c r="C1143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1144" s="3" t="s">
-        <v>1006</v>
+        <v>150</v>
       </c>
       <c r="B1144" s="3" t="s">
-        <v>604</v>
+        <v>151</v>
       </c>
       <c r="C1144" s="2">
         <v>1</v>
@@ -16454,79 +16538,79 @@
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1145" s="3" t="s">
-        <v>1006</v>
+        <v>152</v>
       </c>
       <c r="B1145" s="3" t="s">
-        <v>602</v>
+        <v>45</v>
       </c>
       <c r="C1145" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1146" s="3" t="s">
-        <v>1006</v>
+        <v>152</v>
       </c>
       <c r="B1146" s="3" t="s">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="C1146" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1147" s="3" t="s">
-        <v>1006</v>
+        <v>153</v>
       </c>
       <c r="B1147" s="3" t="s">
-        <v>376</v>
+        <v>73</v>
       </c>
       <c r="C1147" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1148" s="3" t="s">
-        <v>1006</v>
+        <v>153</v>
       </c>
       <c r="B1148" s="3" t="s">
-        <v>417</v>
+        <v>48</v>
       </c>
       <c r="C1148" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1149" s="3" t="s">
-        <v>134</v>
+        <v>1007</v>
       </c>
       <c r="B1149" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C1149" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1150" s="3" t="s">
-        <v>135</v>
+        <v>1007</v>
       </c>
       <c r="B1150" s="3" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C1150" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1151" s="3" t="s">
-        <v>136</v>
+        <v>1008</v>
       </c>
       <c r="B1151" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C1151" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
@@ -16534,10 +16618,10 @@
         <v>1008</v>
       </c>
       <c r="B1152" s="3" t="s">
-        <v>328</v>
+        <v>819</v>
       </c>
       <c r="C1152" s="2">
-        <v>12000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
@@ -16545,10 +16629,10 @@
         <v>1008</v>
       </c>
       <c r="B1153" s="3" t="s">
-        <v>432</v>
+        <v>73</v>
       </c>
       <c r="C1153" s="2">
-        <v>100000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
@@ -16556,21 +16640,21 @@
         <v>1008</v>
       </c>
       <c r="B1154" s="3" t="s">
-        <v>433</v>
+        <v>821</v>
       </c>
       <c r="C1154" s="2">
-        <v>45000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1155" s="3" t="s">
-        <v>138</v>
+        <v>1009</v>
       </c>
       <c r="B1155" s="3" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="C1155" s="2">
-        <v>500</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
@@ -16578,227 +16662,227 @@
         <v>1009</v>
       </c>
       <c r="B1156" s="3" t="s">
-        <v>30</v>
+        <v>371</v>
       </c>
       <c r="C1156" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1157" s="3" t="s">
-        <v>140</v>
+        <v>1009</v>
       </c>
       <c r="B1157" s="3" t="s">
-        <v>141</v>
+        <v>976</v>
       </c>
       <c r="C1157" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1158" s="3" t="s">
-        <v>142</v>
+        <v>1009</v>
       </c>
       <c r="B1158" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C1158" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1159" s="3" t="s">
-        <v>143</v>
+        <v>1009</v>
       </c>
       <c r="B1159" s="3" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="C1159" s="2">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1160" s="3" t="s">
-        <v>145</v>
+        <v>1009</v>
       </c>
       <c r="B1160" s="3" t="s">
-        <v>33</v>
+        <v>474</v>
       </c>
       <c r="C1160" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1161" s="3" t="s">
-        <v>146</v>
+        <v>1009</v>
       </c>
       <c r="B1161" s="3" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="C1161" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1162" s="3" t="s">
-        <v>146</v>
+        <v>1009</v>
       </c>
       <c r="B1162" s="3" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="C1162" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1163" s="3" t="s">
-        <v>149</v>
+        <v>1009</v>
       </c>
       <c r="B1163" s="3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C1163" s="2">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1164" s="3" t="s">
-        <v>150</v>
+        <v>1009</v>
       </c>
       <c r="B1164" s="3" t="s">
-        <v>49</v>
+        <v>362</v>
       </c>
       <c r="C1164" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1165" s="3" t="s">
-        <v>150</v>
+        <v>1009</v>
       </c>
       <c r="B1165" s="3" t="s">
-        <v>50</v>
+        <v>1010</v>
       </c>
       <c r="C1165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1166" s="3" t="s">
-        <v>150</v>
+        <v>1009</v>
       </c>
       <c r="B1166" s="3" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="C1166" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1167" s="3" t="s">
-        <v>152</v>
+        <v>1009</v>
       </c>
       <c r="B1167" s="3" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="C1167" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1168" s="3" t="s">
-        <v>152</v>
+        <v>1011</v>
       </c>
       <c r="B1168" s="3" t="s">
-        <v>65</v>
+        <v>820</v>
       </c>
       <c r="C1168" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1169" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B1169" s="3" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C1169" s="2">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1170" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1170" s="3" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C1170" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1171" s="3" t="s">
-        <v>1010</v>
+        <v>156</v>
       </c>
       <c r="B1171" s="3" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C1171" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1172" s="3" t="s">
-        <v>1010</v>
+        <v>157</v>
       </c>
       <c r="B1172" s="3" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C1172" s="2">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1173" s="3" t="s">
-        <v>1011</v>
+        <v>157</v>
       </c>
       <c r="B1173" s="3" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C1173" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1174" s="3" t="s">
-        <v>1011</v>
+        <v>157</v>
       </c>
       <c r="B1174" s="3" t="s">
-        <v>819</v>
+        <v>66</v>
       </c>
       <c r="C1174" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1175" s="3" t="s">
-        <v>1011</v>
+        <v>157</v>
       </c>
       <c r="B1175" s="3" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="C1175" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1176" s="3" t="s">
-        <v>1011</v>
+        <v>157</v>
       </c>
       <c r="B1176" s="3" t="s">
-        <v>821</v>
+        <v>159</v>
       </c>
       <c r="C1176" s="2">
         <v>2</v>
@@ -16806,112 +16890,112 @@
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1177" s="3" t="s">
-        <v>1012</v>
+        <v>157</v>
       </c>
       <c r="B1177" s="3" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C1177" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1178" s="3" t="s">
-        <v>1012</v>
+        <v>157</v>
       </c>
       <c r="B1178" s="3" t="s">
-        <v>371</v>
+        <v>18</v>
       </c>
       <c r="C1178" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1179" s="3" t="s">
-        <v>1012</v>
+        <v>157</v>
       </c>
       <c r="B1179" s="3" t="s">
-        <v>979</v>
+        <v>40</v>
       </c>
       <c r="C1179" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1180" s="3" t="s">
-        <v>1012</v>
+        <v>157</v>
       </c>
       <c r="B1180" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C1180" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1181" s="3" t="s">
-        <v>1012</v>
+        <v>157</v>
       </c>
       <c r="B1181" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C1181" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1182" s="3" t="s">
-        <v>1012</v>
+        <v>157</v>
       </c>
       <c r="B1182" s="3" t="s">
-        <v>474</v>
+        <v>66</v>
       </c>
       <c r="C1182" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1183" s="3" t="s">
-        <v>1012</v>
+        <v>157</v>
       </c>
       <c r="B1183" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C1183" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1184" s="3" t="s">
-        <v>1012</v>
+        <v>160</v>
       </c>
       <c r="B1184" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1184" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1185" s="3" t="s">
-        <v>1012</v>
+        <v>160</v>
       </c>
       <c r="B1185" s="3" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="C1185" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1186" s="3" t="s">
-        <v>1012</v>
+        <v>162</v>
       </c>
       <c r="B1186" s="3" t="s">
-        <v>362</v>
+        <v>67</v>
       </c>
       <c r="C1186" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
@@ -16919,10 +17003,10 @@
         <v>1012</v>
       </c>
       <c r="B1187" s="3" t="s">
-        <v>1013</v>
+        <v>74</v>
       </c>
       <c r="C1187" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
@@ -16930,10 +17014,10 @@
         <v>1012</v>
       </c>
       <c r="B1188" s="3" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="C1188" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.3">
@@ -16941,40 +17025,40 @@
         <v>1012</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C1189" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1190" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B1190" s="3" t="s">
-        <v>820</v>
+        <v>3</v>
       </c>
       <c r="C1190" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1191" s="3" t="s">
-        <v>154</v>
+        <v>1012</v>
       </c>
       <c r="B1191" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C1191" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1192" s="3" t="s">
-        <v>155</v>
+        <v>1012</v>
       </c>
       <c r="B1192" s="3" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C1192" s="2">
         <v>1</v>
@@ -16982,153 +17066,153 @@
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1193" s="3" t="s">
-        <v>156</v>
+        <v>1012</v>
       </c>
       <c r="B1193" s="3" t="s">
-        <v>72</v>
+        <v>976</v>
       </c>
       <c r="C1193" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1194" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1194" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C1194" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1195" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1195" s="3" t="s">
-        <v>13</v>
+        <v>345</v>
       </c>
       <c r="C1195" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1196" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1196" s="3" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="C1196" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1197" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1197" s="3" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="C1197" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1198" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1198" s="3" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="C1198" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1199" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1199" s="3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C1199" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1200" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1200" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C1200" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1201" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1201" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1201" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1202" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1202" s="3" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="C1202" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1203" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1203" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C1203" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1204" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1204" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C1204" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1205" s="3" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="B1205" s="3" t="s">
-        <v>66</v>
+        <v>459</v>
       </c>
       <c r="C1205" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1206" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B1206" s="3" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C1206" s="2">
         <v>1</v>
@@ -17136,10 +17220,10 @@
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1207" s="3" t="s">
-        <v>160</v>
+        <v>1013</v>
       </c>
       <c r="B1207" s="3" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="C1207" s="2">
         <v>2</v>
@@ -17147,197 +17231,197 @@
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1208" s="3" t="s">
-        <v>162</v>
+        <v>1013</v>
       </c>
       <c r="B1208" s="3" t="s">
-        <v>67</v>
+        <v>371</v>
       </c>
       <c r="C1208" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1209" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1209" s="3" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C1209" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1210" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1210" s="3" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="C1210" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1211" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1211" s="3" t="s">
-        <v>366</v>
+        <v>40</v>
       </c>
       <c r="C1211" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1212" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1212" s="3" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C1212" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1213" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1213" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C1213" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1214" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1214" s="3" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="C1214" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1215" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1215" s="3" t="s">
-        <v>979</v>
+        <v>270</v>
       </c>
       <c r="C1215" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1216" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1216" s="3" t="s">
-        <v>26</v>
+        <v>1010</v>
       </c>
       <c r="C1216" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1217" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1217" s="3" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C1217" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1218" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1218" s="3" t="s">
-        <v>31</v>
+        <v>364</v>
       </c>
       <c r="C1218" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1219" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1219" s="3" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="C1219" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1220" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1220" s="3" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="C1220" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1221" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1221" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C1221" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1222" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1222" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1222" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1223" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1223" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C1223" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1224" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1224" s="3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="C1224" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1225" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1225" s="3" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="C1225" s="2">
         <v>1</v>
@@ -17345,32 +17429,32 @@
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1226" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1226" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C1226" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1227" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1227" s="3" t="s">
-        <v>459</v>
+        <v>282</v>
       </c>
       <c r="C1227" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1228" s="3" t="s">
-        <v>163</v>
+        <v>1014</v>
       </c>
       <c r="B1228" s="3" t="s">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="C1228" s="2">
         <v>1</v>
@@ -17378,10 +17462,10 @@
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1229" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B1229" s="3" t="s">
-        <v>3</v>
+        <v>605</v>
       </c>
       <c r="C1229" s="2">
         <v>2</v>
@@ -17389,65 +17473,65 @@
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1230" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B1230" s="3" t="s">
-        <v>371</v>
+        <v>51</v>
       </c>
       <c r="C1230" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1231" s="3" t="s">
-        <v>1016</v>
+        <v>164</v>
       </c>
       <c r="B1231" s="3" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="C1231" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1232" s="3" t="s">
-        <v>1016</v>
+        <v>164</v>
       </c>
       <c r="B1232" s="3" t="s">
-        <v>367</v>
+        <v>70</v>
       </c>
       <c r="C1232" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1233" s="3" t="s">
-        <v>1016</v>
+        <v>164</v>
       </c>
       <c r="B1233" s="3" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C1233" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1234" s="3" t="s">
-        <v>1016</v>
+        <v>164</v>
       </c>
       <c r="B1234" s="3" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="C1234" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1235" s="3" t="s">
-        <v>1016</v>
+        <v>164</v>
       </c>
       <c r="B1235" s="3" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C1235" s="2">
         <v>3</v>
@@ -17455,10 +17539,10 @@
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1236" s="3" t="s">
-        <v>1016</v>
+        <v>164</v>
       </c>
       <c r="B1236" s="3" t="s">
-        <v>362</v>
+        <v>168</v>
       </c>
       <c r="C1236" s="2">
         <v>3</v>
@@ -17466,90 +17550,90 @@
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1237" s="3" t="s">
-        <v>1016</v>
+        <v>170</v>
       </c>
       <c r="B1237" s="3" t="s">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="C1237" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1238" s="3" t="s">
-        <v>1016</v>
+        <v>170</v>
       </c>
       <c r="B1238" s="3" t="s">
-        <v>1013</v>
+        <v>42</v>
       </c>
       <c r="C1238" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1239" s="3" t="s">
-        <v>1016</v>
+        <v>171</v>
       </c>
       <c r="B1239" s="3" t="s">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="C1239" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1240" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1240" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="B1240" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="C1240" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1241" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1241" s="3" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C1241" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1242" s="3" t="s">
-        <v>1017</v>
+        <v>172</v>
       </c>
       <c r="B1242" s="3" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="C1242" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1243" s="3" t="s">
-        <v>1017</v>
+        <v>172</v>
       </c>
       <c r="B1243" s="3" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C1243" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1244" s="3" t="s">
-        <v>1017</v>
+        <v>172</v>
       </c>
       <c r="B1244" s="3" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="C1244" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.3">
@@ -17557,10 +17641,10 @@
         <v>1017</v>
       </c>
       <c r="B1245" s="3" t="s">
-        <v>26</v>
+        <v>366</v>
       </c>
       <c r="C1245" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.3">
@@ -17568,10 +17652,10 @@
         <v>1017</v>
       </c>
       <c r="B1246" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1246" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
@@ -17579,10 +17663,10 @@
         <v>1017</v>
       </c>
       <c r="B1247" s="3" t="s">
-        <v>133</v>
+        <v>371</v>
       </c>
       <c r="C1247" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.3">
@@ -17590,10 +17674,10 @@
         <v>1017</v>
       </c>
       <c r="B1248" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C1248" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.3">
@@ -17601,10 +17685,10 @@
         <v>1017</v>
       </c>
       <c r="B1249" s="3" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="C1249" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
@@ -17612,7 +17696,7 @@
         <v>1017</v>
       </c>
       <c r="B1250" s="3" t="s">
-        <v>376</v>
+        <v>976</v>
       </c>
       <c r="C1250" s="2">
         <v>1</v>
@@ -17623,7 +17707,7 @@
         <v>1017</v>
       </c>
       <c r="B1251" s="3" t="s">
-        <v>605</v>
+        <v>345</v>
       </c>
       <c r="C1251" s="2">
         <v>2</v>
@@ -17634,62 +17718,62 @@
         <v>1017</v>
       </c>
       <c r="B1252" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C1252" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1253" s="3" t="s">
-        <v>164</v>
+        <v>1017</v>
       </c>
       <c r="B1253" s="3" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="C1253" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1254" s="3" t="s">
-        <v>164</v>
+        <v>1017</v>
       </c>
       <c r="B1254" s="3" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C1254" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1255" s="3" t="s">
-        <v>164</v>
+        <v>1017</v>
       </c>
       <c r="B1255" s="3" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C1255" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1256" s="3" t="s">
-        <v>164</v>
+        <v>1017</v>
       </c>
       <c r="B1256" s="3" t="s">
-        <v>166</v>
+        <v>362</v>
       </c>
       <c r="C1256" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1257" s="3" t="s">
-        <v>164</v>
+        <v>1017</v>
       </c>
       <c r="B1257" s="3" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="C1257" s="2">
         <v>3</v>
@@ -17697,32 +17781,32 @@
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1258" s="3" t="s">
-        <v>164</v>
+        <v>1017</v>
       </c>
       <c r="B1258" s="3" t="s">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="C1258" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1259" s="3" t="s">
-        <v>170</v>
+        <v>1017</v>
       </c>
       <c r="B1259" s="3" t="s">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="C1259" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1260" s="3" t="s">
-        <v>170</v>
+        <v>1017</v>
       </c>
       <c r="B1260" s="3" t="s">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="C1260" s="2">
         <v>1</v>
@@ -17730,10 +17814,10 @@
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1261" s="3" t="s">
-        <v>171</v>
+        <v>1017</v>
       </c>
       <c r="B1261" s="3" t="s">
-        <v>41</v>
+        <v>455</v>
       </c>
       <c r="C1261" s="2">
         <v>1</v>
@@ -17741,98 +17825,98 @@
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1262" s="3" t="s">
-        <v>1018</v>
+        <v>175</v>
       </c>
       <c r="B1262" s="3" t="s">
-        <v>1019</v>
+        <v>176</v>
       </c>
       <c r="C1262" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1263" s="3" t="s">
-        <v>1018</v>
+        <v>175</v>
       </c>
       <c r="B1263" s="3" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="C1263" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1264" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B1264" s="3" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="C1264" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1265" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B1265" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C1265" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1266" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B1266" s="3" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C1266" s="2">
-        <v>5</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1267" s="3" t="s">
-        <v>1020</v>
+        <v>180</v>
       </c>
       <c r="B1267" s="3" t="s">
-        <v>366</v>
+        <v>182</v>
       </c>
       <c r="C1267" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1268" s="3" t="s">
-        <v>1020</v>
+        <v>180</v>
       </c>
       <c r="B1268" s="3" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="C1268" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1269" s="3" t="s">
-        <v>1020</v>
+        <v>180</v>
       </c>
       <c r="B1269" s="3" t="s">
-        <v>371</v>
+        <v>184</v>
       </c>
       <c r="C1269" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1270" s="3" t="s">
-        <v>1020</v>
+        <v>185</v>
       </c>
       <c r="B1270" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C1270" s="2">
         <v>2</v>
@@ -17840,76 +17924,76 @@
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1271" s="3" t="s">
-        <v>1020</v>
+        <v>186</v>
       </c>
       <c r="B1271" s="3" t="s">
-        <v>367</v>
+        <v>26</v>
       </c>
       <c r="C1271" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1272" s="3" t="s">
-        <v>1020</v>
+        <v>186</v>
       </c>
       <c r="B1272" s="3" t="s">
-        <v>979</v>
+        <v>74</v>
       </c>
       <c r="C1272" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1273" s="3" t="s">
-        <v>1020</v>
+        <v>186</v>
       </c>
       <c r="B1273" s="3" t="s">
-        <v>345</v>
+        <v>169</v>
       </c>
       <c r="C1273" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1274" s="3" t="s">
-        <v>1020</v>
+        <v>186</v>
       </c>
       <c r="B1274" s="3" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C1274" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1275" s="3" t="s">
-        <v>1020</v>
+        <v>186</v>
       </c>
       <c r="B1275" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1275" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1276" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B1276" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C1276" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1277" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B1277" s="3" t="s">
-        <v>13</v>
+        <v>371</v>
       </c>
       <c r="C1277" s="2">
         <v>2</v>
@@ -17917,43 +18001,43 @@
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1278" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B1278" s="3" t="s">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="C1278" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1279" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B1279" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C1279" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1280" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B1280" s="3" t="s">
-        <v>451</v>
+        <v>976</v>
       </c>
       <c r="C1280" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1281" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1281" s="3" t="s">
-        <v>454</v>
+        <v>279</v>
       </c>
       <c r="C1281" s="2">
         <v>2</v>
@@ -17961,10 +18045,10 @@
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1282" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1282" s="3" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="C1282" s="2">
         <v>1</v>
@@ -17972,109 +18056,109 @@
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1283" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1283" s="3" t="s">
-        <v>455</v>
+        <v>30</v>
       </c>
       <c r="C1283" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1284" s="3" t="s">
-        <v>175</v>
+        <v>1019</v>
       </c>
       <c r="B1284" s="3" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="C1284" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1285" s="3" t="s">
-        <v>175</v>
+        <v>1019</v>
       </c>
       <c r="B1285" s="3" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="C1285" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1286" s="3" t="s">
-        <v>178</v>
+        <v>1019</v>
       </c>
       <c r="B1286" s="3" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="C1286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1287" s="3" t="s">
-        <v>180</v>
+        <v>1019</v>
       </c>
       <c r="B1287" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="C1287" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1288" s="3" t="s">
-        <v>180</v>
+        <v>1019</v>
       </c>
       <c r="B1288" s="3" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C1288" s="2">
-        <v>10000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1289" s="3" t="s">
-        <v>180</v>
+        <v>1019</v>
       </c>
       <c r="B1289" s="3" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="C1289" s="2">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1290" s="3" t="s">
-        <v>180</v>
+        <v>1019</v>
       </c>
       <c r="B1290" s="3" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="C1290" s="2">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1291" s="3" t="s">
-        <v>180</v>
+        <v>1019</v>
       </c>
       <c r="B1291" s="3" t="s">
-        <v>184</v>
+        <v>376</v>
       </c>
       <c r="C1291" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1292" s="3" t="s">
-        <v>185</v>
+        <v>1019</v>
       </c>
       <c r="B1292" s="3" t="s">
-        <v>24</v>
+        <v>274</v>
       </c>
       <c r="C1292" s="2">
         <v>2</v>
@@ -18082,87 +18166,87 @@
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1293" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B1293" s="3" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="C1293" s="2">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1294" s="3" t="s">
-        <v>186</v>
+        <v>1020</v>
       </c>
       <c r="B1294" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C1294" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1295" s="3" t="s">
-        <v>186</v>
+        <v>1020</v>
       </c>
       <c r="B1295" s="3" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="C1295" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1296" s="3" t="s">
-        <v>186</v>
+        <v>1020</v>
       </c>
       <c r="B1296" s="3" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C1296" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1297" s="3" t="s">
-        <v>186</v>
+        <v>1020</v>
       </c>
       <c r="B1297" s="3" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C1297" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1298" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1298" s="3" t="s">
-        <v>3</v>
+        <v>426</v>
       </c>
       <c r="C1298" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1299" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1299" s="3" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="C1299" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1300" s="3" t="s">
-        <v>1021</v>
+        <v>189</v>
       </c>
       <c r="B1300" s="3" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="C1300" s="2">
         <v>1</v>
@@ -18170,10 +18254,10 @@
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1301" s="3" t="s">
-        <v>1021</v>
+        <v>189</v>
       </c>
       <c r="B1301" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C1301" s="2">
         <v>1</v>
@@ -18181,65 +18265,65 @@
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1302" s="3" t="s">
-        <v>1021</v>
+        <v>189</v>
       </c>
       <c r="B1302" s="3" t="s">
-        <v>979</v>
+        <v>191</v>
       </c>
       <c r="C1302" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1303" s="3" t="s">
-        <v>1022</v>
+        <v>192</v>
       </c>
       <c r="B1303" s="3" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="C1303" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1304" s="3" t="s">
-        <v>1022</v>
+        <v>192</v>
       </c>
       <c r="B1304" s="3" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C1304" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1305" s="3" t="s">
-        <v>1022</v>
+        <v>192</v>
       </c>
       <c r="B1305" s="3" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="C1305" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1306" s="3" t="s">
-        <v>1022</v>
+        <v>192</v>
       </c>
       <c r="B1306" s="3" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="C1306" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1307" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1307" s="3" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="C1307" s="2">
         <v>2</v>
@@ -18247,10 +18331,10 @@
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1308" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1308" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1308" s="2">
         <v>2</v>
@@ -18258,21 +18342,21 @@
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1309" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1309" s="3" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="C1309" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1310" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1310" s="3" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="C1310" s="2">
         <v>2</v>
@@ -18280,21 +18364,21 @@
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1311" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1311" s="3" t="s">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="C1311" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1312" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1312" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C1312" s="2">
         <v>2</v>
@@ -18302,10 +18386,10 @@
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1313" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1313" s="3" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="C1313" s="2">
         <v>1</v>
@@ -18316,43 +18400,43 @@
         <v>1022</v>
       </c>
       <c r="B1314" s="3" t="s">
-        <v>274</v>
+        <v>65</v>
       </c>
       <c r="C1314" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1315" s="3" t="s">
-        <v>187</v>
+        <v>1022</v>
       </c>
       <c r="B1315" s="3" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="C1315" s="2">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1316" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B1316" s="3" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C1316" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1317" s="3" t="s">
-        <v>1023</v>
+        <v>195</v>
       </c>
       <c r="B1317" s="3" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="C1317" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.3">
@@ -18360,10 +18444,10 @@
         <v>1023</v>
       </c>
       <c r="B1318" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C1318" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.3">
@@ -18371,10 +18455,10 @@
         <v>1023</v>
       </c>
       <c r="B1319" s="3" t="s">
-        <v>75</v>
+        <v>613</v>
       </c>
       <c r="C1319" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.3">
@@ -18382,10 +18466,10 @@
         <v>1023</v>
       </c>
       <c r="B1320" s="3" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="C1320" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.3">
@@ -18393,109 +18477,109 @@
         <v>1023</v>
       </c>
       <c r="B1321" s="3" t="s">
-        <v>454</v>
+        <v>3</v>
       </c>
       <c r="C1321" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1322" s="3" t="s">
-        <v>189</v>
+        <v>1023</v>
       </c>
       <c r="B1322" s="3" t="s">
-        <v>190</v>
+        <v>371</v>
       </c>
       <c r="C1322" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1323" s="3" t="s">
-        <v>189</v>
+        <v>1023</v>
       </c>
       <c r="B1323" s="3" t="s">
-        <v>58</v>
+        <v>345</v>
       </c>
       <c r="C1323" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1324" s="3" t="s">
-        <v>189</v>
+        <v>1023</v>
       </c>
       <c r="B1324" s="3" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="C1324" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1325" s="3" t="s">
-        <v>192</v>
+        <v>1023</v>
       </c>
       <c r="B1325" s="3" t="s">
-        <v>45</v>
+        <v>474</v>
       </c>
       <c r="C1325" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1326" s="3" t="s">
-        <v>192</v>
+        <v>1023</v>
       </c>
       <c r="B1326" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1326" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1327" s="3" t="s">
-        <v>192</v>
+        <v>1023</v>
       </c>
       <c r="B1327" s="3" t="s">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="C1327" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1328" s="3" t="s">
-        <v>192</v>
+        <v>1023</v>
       </c>
       <c r="B1328" s="3" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="C1328" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1329" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1329" s="3" t="s">
-        <v>269</v>
+        <v>451</v>
       </c>
       <c r="C1329" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1330" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1330" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C1330" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.3">
@@ -18503,10 +18587,10 @@
         <v>1024</v>
       </c>
       <c r="B1331" s="3" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="C1331" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.3">
@@ -18514,10 +18598,10 @@
         <v>1024</v>
       </c>
       <c r="B1332" s="3" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="C1332" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.3">
@@ -18525,10 +18609,10 @@
         <v>1024</v>
       </c>
       <c r="B1333" s="3" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="C1333" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.3">
@@ -18536,10 +18620,10 @@
         <v>1024</v>
       </c>
       <c r="B1334" s="3" t="s">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="C1334" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.3">
@@ -18547,183 +18631,183 @@
         <v>1024</v>
       </c>
       <c r="B1335" s="3" t="s">
-        <v>274</v>
+        <v>453</v>
       </c>
       <c r="C1335" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1336" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1336" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1336" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1337" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1337" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C1337" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1338" s="3" t="s">
-        <v>1025</v>
+        <v>196</v>
       </c>
       <c r="B1338" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1338" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1339" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1339" s="3" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="C1339" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1340" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1340" s="3" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="C1340" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1341" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1341" s="3" t="s">
-        <v>613</v>
+        <v>51</v>
       </c>
       <c r="C1341" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1342" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1342" s="3" t="s">
-        <v>366</v>
+        <v>59</v>
       </c>
       <c r="C1342" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1343" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1343" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C1343" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1344" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1344" s="3" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
       <c r="C1344" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1345" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1345" s="3" t="s">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="C1345" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1346" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1346" s="3" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="C1346" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1347" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1347" s="3" t="s">
-        <v>474</v>
+        <v>50</v>
       </c>
       <c r="C1347" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1348" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1348" s="3" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C1348" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1349" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1349" s="3" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="C1349" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1350" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1350" s="3" t="s">
-        <v>362</v>
+        <v>25</v>
       </c>
       <c r="C1350" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1351" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1351" s="3" t="s">
-        <v>451</v>
+        <v>198</v>
       </c>
       <c r="C1351" s="2">
         <v>1</v>
@@ -18731,10 +18815,10 @@
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1352" s="3" t="s">
-        <v>1026</v>
+        <v>196</v>
       </c>
       <c r="B1352" s="3" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="C1352" s="2">
         <v>1</v>
@@ -18742,98 +18826,98 @@
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1353" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B1353" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C1353" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1354" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B1354" s="3" t="s">
-        <v>26</v>
+        <v>437</v>
       </c>
       <c r="C1354" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1355" s="3" t="s">
-        <v>1027</v>
+        <v>200</v>
       </c>
       <c r="B1355" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1355" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1356" s="3" t="s">
-        <v>1027</v>
+        <v>200</v>
       </c>
       <c r="B1356" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C1356" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1357" s="3" t="s">
-        <v>1027</v>
+        <v>200</v>
       </c>
       <c r="B1357" s="3" t="s">
-        <v>453</v>
+        <v>43</v>
       </c>
       <c r="C1357" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1358" s="3" t="s">
-        <v>1027</v>
+        <v>201</v>
       </c>
       <c r="B1358" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C1358" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1359" s="3" t="s">
-        <v>1027</v>
+        <v>201</v>
       </c>
       <c r="B1359" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C1359" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1360" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B1360" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C1360" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1361" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B1361" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C1361" s="2">
         <v>1</v>
@@ -18841,10 +18925,10 @@
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1362" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B1362" s="3" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="C1362" s="2">
         <v>1</v>
@@ -18852,10 +18936,10 @@
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1363" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B1363" s="3" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C1363" s="2">
         <v>1</v>
@@ -18863,10 +18947,10 @@
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1364" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B1364" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C1364" s="2">
         <v>1</v>
@@ -18874,10 +18958,10 @@
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1365" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B1365" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1365" s="2">
         <v>1</v>
@@ -18885,10 +18969,10 @@
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1366" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B1366" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C1366" s="2">
         <v>1</v>
@@ -18896,7 +18980,7 @@
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1367" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B1367" s="3" t="s">
         <v>71</v>
@@ -18907,21 +18991,21 @@
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1368" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B1368" s="3" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="C1368" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1369" s="3" t="s">
-        <v>196</v>
+        <v>1026</v>
       </c>
       <c r="B1369" s="3" t="s">
-        <v>50</v>
+        <v>1027</v>
       </c>
       <c r="C1369" s="2">
         <v>1</v>
@@ -18929,10 +19013,10 @@
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1370" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B1370" s="3" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C1370" s="2">
         <v>1</v>
@@ -18940,21 +19024,21 @@
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1371" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B1371" s="3" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="C1371" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1372" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B1372" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1372" s="2">
         <v>1</v>
@@ -18962,10 +19046,10 @@
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1373" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B1373" s="3" t="s">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="C1373" s="2">
         <v>1</v>
@@ -18973,13 +19057,13 @@
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1374" s="3" t="s">
-        <v>196</v>
+        <v>1028</v>
       </c>
       <c r="B1374" s="3" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="C1374" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.3">
@@ -18987,10 +19071,10 @@
         <v>1028</v>
       </c>
       <c r="B1375" s="3" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C1375" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.3">
@@ -18998,128 +19082,128 @@
         <v>1028</v>
       </c>
       <c r="B1376" s="3" t="s">
-        <v>437</v>
+        <v>43</v>
       </c>
       <c r="C1376" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1377" s="3" t="s">
-        <v>200</v>
+        <v>1028</v>
       </c>
       <c r="B1377" s="3" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C1377" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1378" s="3" t="s">
-        <v>200</v>
+        <v>1028</v>
       </c>
       <c r="B1378" s="3" t="s">
-        <v>58</v>
+        <v>1004</v>
       </c>
       <c r="C1378" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1379" s="3" t="s">
-        <v>200</v>
+        <v>1028</v>
       </c>
       <c r="B1379" s="3" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="C1379" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1380" s="3" t="s">
-        <v>201</v>
+        <v>1028</v>
       </c>
       <c r="B1380" s="3" t="s">
-        <v>27</v>
+        <v>544</v>
       </c>
       <c r="C1380" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1381" s="3" t="s">
-        <v>201</v>
+        <v>1028</v>
       </c>
       <c r="B1381" s="3" t="s">
-        <v>26</v>
+        <v>1010</v>
       </c>
       <c r="C1381" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1382" s="3" t="s">
-        <v>201</v>
+        <v>1028</v>
       </c>
       <c r="B1382" s="3" t="s">
-        <v>28</v>
+        <v>604</v>
       </c>
       <c r="C1382" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1383" s="3" t="s">
-        <v>201</v>
+        <v>1028</v>
       </c>
       <c r="B1383" s="3" t="s">
-        <v>25</v>
+        <v>364</v>
       </c>
       <c r="C1383" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1384" s="3" t="s">
-        <v>201</v>
+        <v>1028</v>
       </c>
       <c r="B1384" s="3" t="s">
-        <v>30</v>
+        <v>602</v>
       </c>
       <c r="C1384" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1385" s="3" t="s">
-        <v>201</v>
+        <v>1028</v>
       </c>
       <c r="B1385" s="3" t="s">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="C1385" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1386" s="3" t="s">
-        <v>202</v>
+        <v>1028</v>
       </c>
       <c r="B1386" s="3" t="s">
-        <v>72</v>
+        <v>460</v>
       </c>
       <c r="C1386" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1387" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B1387" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C1387" s="2">
         <v>1</v>
@@ -19127,21 +19211,21 @@
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1388" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B1388" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C1388" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1389" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B1389" s="3" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C1389" s="2">
         <v>1</v>
@@ -19149,10 +19233,10 @@
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1390" s="3" t="s">
-        <v>202</v>
+        <v>1029</v>
       </c>
       <c r="B1390" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C1390" s="2">
         <v>1</v>
@@ -19160,21 +19244,21 @@
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1391" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B1391" s="3" t="s">
-        <v>1030</v>
+        <v>19</v>
       </c>
       <c r="C1391" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1392" s="3" t="s">
-        <v>203</v>
+        <v>1031</v>
       </c>
       <c r="B1392" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1392" s="2">
         <v>1</v>
@@ -19182,10 +19266,10 @@
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1393" s="3" t="s">
-        <v>203</v>
+        <v>1032</v>
       </c>
       <c r="B1393" s="3" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C1393" s="2">
         <v>1</v>
@@ -19193,175 +19277,175 @@
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1394" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B1394" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C1394" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1395" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B1395" s="3" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C1395" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1396" s="3" t="s">
-        <v>1031</v>
+        <v>210</v>
       </c>
       <c r="B1396" s="3" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C1396" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1397" s="3" t="s">
-        <v>1031</v>
+        <v>211</v>
       </c>
       <c r="B1397" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C1397" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1398" s="3" t="s">
-        <v>1031</v>
+        <v>212</v>
       </c>
       <c r="B1398" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C1398" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1399" s="3" t="s">
-        <v>1031</v>
+        <v>213</v>
       </c>
       <c r="B1399" s="3" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C1399" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1400" s="3" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B1400" s="3" t="s">
-        <v>1007</v>
+        <v>1034</v>
       </c>
       <c r="C1400" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1401" s="3" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B1401" s="3" t="s">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="C1401" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1402" s="3" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="B1402" s="3" t="s">
-        <v>544</v>
+        <v>358</v>
       </c>
       <c r="C1402" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1403" s="3" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="B1403" s="3" t="s">
-        <v>1013</v>
+        <v>25</v>
       </c>
       <c r="C1403" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1404" s="3" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="B1404" s="3" t="s">
-        <v>604</v>
+        <v>71</v>
       </c>
       <c r="C1404" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1405" s="3" t="s">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="B1405" s="3" t="s">
-        <v>364</v>
+        <v>61</v>
       </c>
       <c r="C1405" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1406" s="3" t="s">
-        <v>1031</v>
+        <v>1052</v>
       </c>
       <c r="B1406" s="3" t="s">
-        <v>602</v>
+        <v>30</v>
       </c>
       <c r="C1406" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1407" s="3" t="s">
-        <v>1031</v>
+        <v>1053</v>
       </c>
       <c r="B1407" s="3" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="C1407" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1408" s="3" t="s">
-        <v>1031</v>
+        <v>1054</v>
       </c>
       <c r="B1408" s="3" t="s">
-        <v>460</v>
+        <v>228</v>
       </c>
       <c r="C1408" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1409" s="3" t="s">
-        <v>205</v>
+        <v>1055</v>
       </c>
       <c r="B1409" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C1409" s="2">
         <v>1</v>
@@ -19369,32 +19453,32 @@
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1410" s="3" t="s">
-        <v>206</v>
+        <v>1056</v>
       </c>
       <c r="B1410" s="3" t="s">
-        <v>20</v>
+        <v>613</v>
       </c>
       <c r="C1410" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1411" s="3" t="s">
-        <v>207</v>
+        <v>1057</v>
       </c>
       <c r="B1411" s="3" t="s">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="C1411" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1412" s="3" t="s">
-        <v>1032</v>
+        <v>1058</v>
       </c>
       <c r="B1412" s="3" t="s">
-        <v>45</v>
+        <v>1059</v>
       </c>
       <c r="C1412" s="2">
         <v>1</v>
@@ -19402,21 +19486,21 @@
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1413" s="3" t="s">
-        <v>1033</v>
+        <v>1060</v>
       </c>
       <c r="B1413" s="3" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="C1413" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1414" s="3" t="s">
-        <v>1034</v>
+        <v>1061</v>
       </c>
       <c r="B1414" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C1414" s="2">
         <v>1</v>
@@ -19424,142 +19508,142 @@
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1415" s="3" t="s">
-        <v>1035</v>
+        <v>1062</v>
       </c>
       <c r="B1415" s="3" t="s">
-        <v>3</v>
+        <v>358</v>
       </c>
       <c r="C1415" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1416" s="3" t="s">
-        <v>208</v>
+        <v>1063</v>
       </c>
       <c r="B1416" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C1416" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1417" s="3" t="s">
-        <v>209</v>
+        <v>1064</v>
       </c>
       <c r="B1417" s="3" t="s">
-        <v>15</v>
+        <v>785</v>
       </c>
       <c r="C1417" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1418" s="3" t="s">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="B1418" s="3" t="s">
-        <v>16</v>
+        <v>966</v>
       </c>
       <c r="C1418" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1419" s="3" t="s">
-        <v>211</v>
+        <v>1064</v>
       </c>
       <c r="B1419" s="3" t="s">
-        <v>16</v>
+        <v>965</v>
       </c>
       <c r="C1419" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1420" s="3" t="s">
-        <v>212</v>
+        <v>1064</v>
       </c>
       <c r="B1420" s="3" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c r="C1420" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1421" s="3" t="s">
-        <v>213</v>
+        <v>1064</v>
       </c>
       <c r="B1421" s="3" t="s">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="C1421" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1422" s="3" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="B1422" s="3" t="s">
-        <v>1037</v>
+        <v>1065</v>
       </c>
       <c r="C1422" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1423" s="3" t="s">
-        <v>1038</v>
+        <v>1064</v>
       </c>
       <c r="B1423" s="3" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="C1423" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1424" s="3" t="s">
-        <v>1039</v>
+        <v>1064</v>
       </c>
       <c r="B1424" s="3" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="C1424" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1425" s="3" t="s">
-        <v>1040</v>
+        <v>1064</v>
       </c>
       <c r="B1425" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1425" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1426" s="3" t="s">
-        <v>1041</v>
+        <v>1064</v>
       </c>
       <c r="B1426" s="3" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="C1426" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1427" s="3" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="B1427" s="3" t="s">
-        <v>61</v>
+        <v>858</v>
       </c>
       <c r="C1427" s="2">
         <v>1</v>
@@ -19567,21 +19651,21 @@
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1428" s="3" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="B1428" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C1428" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1429" s="3" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="B1429" s="3" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="C1429" s="2">
         <v>1</v>
@@ -19589,7 +19673,7 @@
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1430" s="3" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="B1430" s="3" t="s">
         <v>228</v>
@@ -19600,211 +19684,211 @@
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1431" s="3" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="B1431" s="3" t="s">
-        <v>43</v>
+        <v>1071</v>
       </c>
       <c r="C1431" s="2">
-        <v>1</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1432" s="3" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="B1432" s="3" t="s">
-        <v>613</v>
+        <v>1072</v>
       </c>
       <c r="C1432" s="2">
-        <v>1</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1433" s="3" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="B1433" s="3" t="s">
-        <v>258</v>
+        <v>1073</v>
       </c>
       <c r="C1433" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1434" s="3" t="s">
-        <v>1061</v>
+        <v>1070</v>
       </c>
       <c r="B1434" s="3" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="C1434" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1435" s="3" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="B1435" s="3" t="s">
-        <v>228</v>
+        <v>1075</v>
       </c>
       <c r="C1435" s="2">
-        <v>1</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1436" s="3" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="B1436" s="3" t="s">
-        <v>21</v>
+        <v>1076</v>
       </c>
       <c r="C1436" s="2">
-        <v>1</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1437" s="3" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="B1437" s="3" t="s">
-        <v>358</v>
+        <v>1077</v>
       </c>
       <c r="C1437" s="2">
-        <v>2</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1438" s="3" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B1438" s="3" t="s">
-        <v>45</v>
+        <v>1078</v>
       </c>
       <c r="C1438" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1439" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1439" s="3" t="s">
-        <v>785</v>
+        <v>1079</v>
       </c>
       <c r="C1439" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1440" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1440" s="3" t="s">
-        <v>967</v>
+        <v>758</v>
       </c>
       <c r="C1440" s="2">
-        <v>3</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1441" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1441" s="3" t="s">
-        <v>966</v>
+        <v>336</v>
       </c>
       <c r="C1441" s="2">
-        <v>4</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1442" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1442" s="3" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C1442" s="2">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1443" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1443" s="3" t="s">
-        <v>297</v>
+        <v>1080</v>
       </c>
       <c r="C1443" s="2">
-        <v>20</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1444" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1444" s="3" t="s">
-        <v>1068</v>
+        <v>871</v>
       </c>
       <c r="C1444" s="2">
-        <v>3</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1445" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1445" s="3" t="s">
-        <v>296</v>
+        <v>1081</v>
       </c>
       <c r="C1445" s="2">
-        <v>3</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1446" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1446" s="3" t="s">
-        <v>253</v>
+        <v>1074</v>
       </c>
       <c r="C1446" s="2">
-        <v>8</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1447" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1447" s="3" t="s">
-        <v>18</v>
+        <v>1074</v>
       </c>
       <c r="C1447" s="2">
-        <v>2</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1448" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B1448" s="3" t="s">
-        <v>173</v>
+        <v>1073</v>
       </c>
       <c r="C1448" s="2">
-        <v>2</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1449" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B1449" s="3" t="s">
-        <v>858</v>
+        <v>1073</v>
       </c>
       <c r="C1449" s="2">
-        <v>1</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="1450" spans="1:3" x14ac:dyDescent="0.3">
@@ -19812,29 +19896,29 @@
         <v>1070</v>
       </c>
       <c r="B1450" s="3" t="s">
-        <v>73</v>
+        <v>1079</v>
       </c>
       <c r="C1450" s="2">
-        <v>10</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1451" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1451" s="3" t="s">
-        <v>55</v>
+        <v>1079</v>
       </c>
       <c r="C1451" s="2">
-        <v>1</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1452" s="3" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
       <c r="B1452" s="3" t="s">
-        <v>228</v>
+        <v>1083</v>
       </c>
       <c r="C1452" s="2">
         <v>1</v>
@@ -19842,208 +19926,208 @@
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1453" s="3" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="B1453" s="3" t="s">
-        <v>1074</v>
+        <v>25</v>
       </c>
       <c r="C1453" s="2">
-        <v>20000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1454" s="3" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="B1454" s="3" t="s">
-        <v>1075</v>
+        <v>28</v>
       </c>
       <c r="C1454" s="2">
-        <v>90000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1455" s="3" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="B1455" s="3" t="s">
-        <v>1076</v>
+        <v>67</v>
       </c>
       <c r="C1455" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1456" s="3" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="B1456" s="3" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="C1456" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1457" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1457" s="3" t="s">
-        <v>1078</v>
+        <v>908</v>
       </c>
       <c r="C1457" s="2">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1458" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1458" s="3" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="C1458" s="2">
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1459" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1459" s="3" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="C1459" s="2">
-        <v>27000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1460" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1460" s="3" t="s">
-        <v>1081</v>
+        <v>433</v>
       </c>
       <c r="C1460" s="2">
-        <v>10000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1461" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1461" s="3" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C1461" s="2">
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1462" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1462" s="3" t="s">
-        <v>758</v>
+        <v>1090</v>
       </c>
       <c r="C1462" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1463" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1463" s="3" t="s">
-        <v>336</v>
+        <v>1091</v>
       </c>
       <c r="C1463" s="2">
-        <v>5000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1464" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1464" s="3" t="s">
-        <v>312</v>
+        <v>883</v>
       </c>
       <c r="C1464" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1465" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1465" s="3" t="s">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="C1465" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1466" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1466" s="3" t="s">
-        <v>871</v>
+        <v>379</v>
       </c>
       <c r="C1466" s="2">
-        <v>35000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1467" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1467" s="3" t="s">
-        <v>1084</v>
+        <v>1093</v>
       </c>
       <c r="C1467" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1468" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1468" s="3" t="s">
-        <v>1077</v>
+        <v>1094</v>
       </c>
       <c r="C1468" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1469" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1469" s="3" t="s">
-        <v>1077</v>
+        <v>908</v>
       </c>
       <c r="C1469" s="2">
-        <v>40000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1470" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1470" s="3" t="s">
-        <v>1076</v>
+        <v>908</v>
       </c>
       <c r="C1470" s="2">
-        <v>15000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1471" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1471" s="3" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="C1471" s="2">
         <v>125000</v>
@@ -20051,255 +20135,255 @@
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1472" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B1472" s="3" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="C1472" s="2">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1473" s="3" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
       <c r="B1473" s="3" t="s">
-        <v>1082</v>
+        <v>448</v>
       </c>
       <c r="C1473" s="2">
-        <v>200000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1474" s="3" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="B1474" s="3" t="s">
-        <v>1086</v>
+        <v>297</v>
       </c>
       <c r="C1474" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1475" s="3" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="B1475" s="3" t="s">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="C1475" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1476" s="3" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="B1476" s="3" t="s">
-        <v>28</v>
+        <v>785</v>
       </c>
       <c r="C1476" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1477" s="3" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="B1477" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1477" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1478" s="3" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B1478" s="3" t="s">
-        <v>1088</v>
+        <v>253</v>
       </c>
       <c r="C1478" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1479" s="3" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B1479" s="3" t="s">
-        <v>908</v>
+        <v>18</v>
       </c>
       <c r="C1479" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1480" s="3" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B1480" s="3" t="s">
-        <v>1090</v>
+        <v>70</v>
       </c>
       <c r="C1480" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1481" s="3" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B1481" s="3" t="s">
-        <v>1091</v>
+        <v>174</v>
       </c>
       <c r="C1481" s="2">
-        <v>9000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1482" s="3" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B1482" s="3" t="s">
-        <v>433</v>
+        <v>252</v>
       </c>
       <c r="C1482" s="2">
-        <v>160000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1483" s="3" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B1483" s="3" t="s">
-        <v>1092</v>
+        <v>296</v>
       </c>
       <c r="C1483" s="2">
-        <v>60000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1484" s="3" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B1484" s="3" t="s">
-        <v>1093</v>
+        <v>298</v>
       </c>
       <c r="C1484" s="2">
-        <v>5000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1485" s="3" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B1485" s="3" t="s">
-        <v>1094</v>
+        <v>669</v>
       </c>
       <c r="C1485" s="2">
-        <v>200000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1486" s="3" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B1486" s="3" t="s">
-        <v>883</v>
+        <v>1016</v>
       </c>
       <c r="C1486" s="2">
-        <v>100000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1487" s="3" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B1487" s="3" t="s">
-        <v>1095</v>
+        <v>282</v>
       </c>
       <c r="C1487" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1488" s="3" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B1488" s="3" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="C1488" s="2">
-        <v>100000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1489" s="3" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B1489" s="3" t="s">
-        <v>1096</v>
+        <v>58</v>
       </c>
       <c r="C1489" s="2">
-        <v>100000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1490" s="3" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B1490" s="3" t="s">
-        <v>1097</v>
+        <v>43</v>
       </c>
       <c r="C1490" s="2">
-        <v>15000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1491" s="3" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B1491" s="3" t="s">
-        <v>908</v>
+        <v>148</v>
       </c>
       <c r="C1491" s="2">
-        <v>10000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1492" s="3" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B1492" s="3" t="s">
-        <v>908</v>
+        <v>282</v>
       </c>
       <c r="C1492" s="2">
-        <v>110000</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1493" s="3" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B1493" s="3" t="s">
-        <v>1090</v>
+        <v>282</v>
       </c>
       <c r="C1493" s="2">
-        <v>125000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1494" s="3" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
       <c r="B1494" s="3" t="s">
-        <v>1090</v>
+        <v>918</v>
       </c>
       <c r="C1494" s="2">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1495" spans="1:3" x14ac:dyDescent="0.3">
@@ -20307,21 +20391,21 @@
         <v>1098</v>
       </c>
       <c r="B1495" s="3" t="s">
-        <v>448</v>
+        <v>918</v>
       </c>
       <c r="C1495" s="2">
-        <v>40000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1496" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B1496" s="3" t="s">
-        <v>297</v>
+        <v>918</v>
       </c>
       <c r="C1496" s="2">
-        <v>10</v>
+        <v>550</v>
       </c>
     </row>
     <row r="1497" spans="1:3" x14ac:dyDescent="0.3">
@@ -20329,10 +20413,10 @@
         <v>1099</v>
       </c>
       <c r="B1497" s="3" t="s">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="C1497" s="2">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1498" spans="1:3" x14ac:dyDescent="0.3">
@@ -20340,10 +20424,10 @@
         <v>1099</v>
       </c>
       <c r="B1498" s="3" t="s">
-        <v>785</v>
+        <v>44</v>
       </c>
       <c r="C1498" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1499" spans="1:3" x14ac:dyDescent="0.3">
@@ -20351,10 +20435,10 @@
         <v>1099</v>
       </c>
       <c r="B1499" s="3" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="C1499" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1500" spans="1:3" x14ac:dyDescent="0.3">
@@ -20362,10 +20446,10 @@
         <v>1099</v>
       </c>
       <c r="B1500" s="3" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="C1500" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1501" spans="1:3" x14ac:dyDescent="0.3">
@@ -20373,10 +20457,10 @@
         <v>1099</v>
       </c>
       <c r="B1501" s="3" t="s">
-        <v>18</v>
+        <v>605</v>
       </c>
       <c r="C1501" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1502" spans="1:3" x14ac:dyDescent="0.3">
@@ -20384,10 +20468,10 @@
         <v>1099</v>
       </c>
       <c r="B1502" s="3" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="C1502" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1503" spans="1:3" x14ac:dyDescent="0.3">
@@ -20395,18 +20479,18 @@
         <v>1099</v>
       </c>
       <c r="B1503" s="3" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="C1503" s="2">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1504" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B1504" s="3" t="s">
-        <v>252</v>
+        <v>462</v>
       </c>
       <c r="C1504" s="2">
         <v>1</v>
@@ -20414,241 +20498,241 @@
     </row>
     <row r="1505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1505" s="3" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B1505" s="3" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="C1505" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1506" s="3" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B1506" s="3" t="s">
-        <v>298</v>
+        <v>1103</v>
       </c>
       <c r="C1506" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1507" s="3" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B1507" s="3" t="s">
-        <v>669</v>
+        <v>1104</v>
       </c>
       <c r="C1507" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1508" s="3" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="B1508" s="3" t="s">
-        <v>1019</v>
+        <v>133</v>
       </c>
       <c r="C1508" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1509" s="3" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B1509" s="3" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C1509" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1510" s="3" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B1510" s="3" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="C1510" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1511" s="3" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B1511" s="3" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="C1511" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1512" s="3" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B1512" s="3" t="s">
-        <v>43</v>
+        <v>785</v>
       </c>
       <c r="C1512" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1513" s="3" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B1513" s="3" t="s">
-        <v>148</v>
+        <v>298</v>
       </c>
       <c r="C1513" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1514" s="3" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B1514" s="3" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C1514" s="2">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1515" s="3" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="B1515" s="3" t="s">
-        <v>282</v>
+        <v>1108</v>
       </c>
       <c r="C1515" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1516" s="3" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="B1516" s="3" t="s">
-        <v>918</v>
+        <v>29</v>
       </c>
       <c r="C1516" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1517" s="3" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="B1517" s="3" t="s">
-        <v>918</v>
+        <v>31</v>
       </c>
       <c r="C1517" s="2">
-        <v>450</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1518" s="3" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="B1518" s="3" t="s">
-        <v>918</v>
+        <v>32</v>
       </c>
       <c r="C1518" s="2">
-        <v>550</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1519" s="3" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="B1519" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1519" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1520" s="3" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="B1520" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C1520" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1521" s="3" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="B1521" s="3" t="s">
-        <v>279</v>
+        <v>1113</v>
       </c>
       <c r="C1521" s="2">
-        <v>0</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="1522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1522" s="3" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="B1522" s="3" t="s">
-        <v>74</v>
+        <v>1115</v>
       </c>
       <c r="C1522" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1523" s="3" t="s">
-        <v>1102</v>
+        <v>1116</v>
       </c>
       <c r="B1523" s="3" t="s">
-        <v>605</v>
+        <v>863</v>
       </c>
       <c r="C1523" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1524" s="3" t="s">
-        <v>1102</v>
+        <v>1117</v>
       </c>
       <c r="B1524" s="3" t="s">
-        <v>279</v>
+        <v>463</v>
       </c>
       <c r="C1524" s="2">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1525" s="3" t="s">
-        <v>1102</v>
+        <v>1118</v>
       </c>
       <c r="B1525" s="3" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="C1525" s="2">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1526" s="3" t="s">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="B1526" s="3" t="s">
-        <v>462</v>
+        <v>1120</v>
       </c>
       <c r="C1526" s="2">
         <v>1</v>
@@ -20656,175 +20740,175 @@
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1527" s="3" t="s">
-        <v>1104</v>
+        <v>1119</v>
       </c>
       <c r="B1527" s="3" t="s">
-        <v>16</v>
+        <v>1121</v>
       </c>
       <c r="C1527" s="2">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="1528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1528" s="3" t="s">
-        <v>1105</v>
+        <v>1122</v>
       </c>
       <c r="B1528" s="3" t="s">
-        <v>1106</v>
+        <v>1123</v>
       </c>
       <c r="C1528" s="2">
-